--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7992777E-784B-7148-A186-2DFD4030D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FEB752F6-1740-0940-A556-3A1F263F1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5077" uniqueCount="2411">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5350" uniqueCount="2427">
   <si>
     <t>Issue</t>
   </si>
@@ -7504,6 +7504,172 @@
       <t xml:space="preserve">ヒスイショウノ </t>
     </rPh>
     <rPh sb="46" eb="48">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストをTypeScriptに移行
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]single point of returnにリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未使用のstatus flagを削除
+[Class]不要なフラグの削除</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ミシヨウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]executeCommand actionのテストの追加
+[Class]テストの追加</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]投稿のタイムスタンプにrole="presentation"がある
+[Class]UIの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トウコウノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Web:aria-labelsをナビゲーションバーボタンに追加
+[Class]UIの改善</t>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]閉じるボタンにテキストがあるがレンダリングされない
+[Class]UIの修正</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トジルボタンニ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testityを使用するようにテストを追加
+[Class]テストの追加</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIをGOPATHモードからmoduleモードに移行
+[Class]CIの設定変更</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mmctl commandの単体テストを追加
+[Class]テストの追加</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ColorInput componentのChromePickerからalpha channel selectorを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クリックすると入力をクリアする
+[Class]UIの改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]binding関数をarrow関数に変換
+[Class]関数の置き換え</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヘンカン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]size_aware component logicに追加されたIE11 compatibility codeを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]openLhsへの呼び出しを削除
+[Class]不要な関数呼び出しの削除</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">カンスウヨビダシノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t xml:space="preserve">サクジョ </t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -8476,14 +8642,15 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F328" sqref="F328"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="C601" sqref="C601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="67.28515625" style="3" customWidth="1"/>
   </cols>
@@ -13075,7 +13242,7 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>2377</v>
+        <v>2411</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>2410</v>
@@ -13088,8 +13255,11 @@
       <c r="B328" t="s">
         <v>328</v>
       </c>
+      <c r="C328" t="s">
+        <v>2411</v>
+      </c>
       <c r="F328" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -13099,8 +13269,11 @@
       <c r="B329" t="s">
         <v>329</v>
       </c>
+      <c r="C329" t="s">
+        <v>2411</v>
+      </c>
       <c r="F329" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -13110,8 +13283,11 @@
       <c r="B330" t="s">
         <v>330</v>
       </c>
+      <c r="C330" t="s">
+        <v>2411</v>
+      </c>
       <c r="F330" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -13121,8 +13297,11 @@
       <c r="B331" t="s">
         <v>331</v>
       </c>
+      <c r="C331" t="s">
+        <v>2411</v>
+      </c>
       <c r="F331" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -13132,8 +13311,11 @@
       <c r="B332" t="s">
         <v>332</v>
       </c>
+      <c r="C332" t="s">
+        <v>2411</v>
+      </c>
       <c r="F332" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -13143,8 +13325,11 @@
       <c r="B333" t="s">
         <v>333</v>
       </c>
+      <c r="C333" t="s">
+        <v>2411</v>
+      </c>
       <c r="F333" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -13154,8 +13339,11 @@
       <c r="B334" t="s">
         <v>334</v>
       </c>
+      <c r="C334" t="s">
+        <v>2411</v>
+      </c>
       <c r="F334" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -13165,8 +13353,11 @@
       <c r="B335" t="s">
         <v>335</v>
       </c>
+      <c r="C335" t="s">
+        <v>2411</v>
+      </c>
       <c r="F335" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -13176,8 +13367,11 @@
       <c r="B336" t="s">
         <v>336</v>
       </c>
+      <c r="C336" t="s">
+        <v>2411</v>
+      </c>
       <c r="F336" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -13187,8 +13381,11 @@
       <c r="B337" t="s">
         <v>337</v>
       </c>
+      <c r="C337" t="s">
+        <v>2411</v>
+      </c>
       <c r="F337" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -13198,8 +13395,11 @@
       <c r="B338" t="s">
         <v>338</v>
       </c>
+      <c r="C338" t="s">
+        <v>2411</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -13209,8 +13409,11 @@
       <c r="B339" t="s">
         <v>339</v>
       </c>
+      <c r="C339" t="s">
+        <v>2411</v>
+      </c>
       <c r="F339" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -13220,8 +13423,11 @@
       <c r="B340" t="s">
         <v>340</v>
       </c>
+      <c r="C340" t="s">
+        <v>2411</v>
+      </c>
       <c r="F340" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -13231,8 +13437,11 @@
       <c r="B341" t="s">
         <v>341</v>
       </c>
+      <c r="C341" t="s">
+        <v>2411</v>
+      </c>
       <c r="F341" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -13242,8 +13451,11 @@
       <c r="B342" t="s">
         <v>342</v>
       </c>
+      <c r="C342" t="s">
+        <v>2411</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -13253,8 +13465,11 @@
       <c r="B343" t="s">
         <v>343</v>
       </c>
+      <c r="C343" t="s">
+        <v>2411</v>
+      </c>
       <c r="F343" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -13264,8 +13479,11 @@
       <c r="B344" t="s">
         <v>344</v>
       </c>
+      <c r="C344" t="s">
+        <v>2411</v>
+      </c>
       <c r="F344" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -13275,8 +13493,11 @@
       <c r="B345" t="s">
         <v>345</v>
       </c>
+      <c r="C345" t="s">
+        <v>2411</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -13286,8 +13507,11 @@
       <c r="B346" t="s">
         <v>346</v>
       </c>
+      <c r="C346" t="s">
+        <v>2411</v>
+      </c>
       <c r="F346" s="2" t="s">
-        <v>2376</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -13297,8 +13521,11 @@
       <c r="B347" t="s">
         <v>347</v>
       </c>
+      <c r="C347" t="s">
+        <v>2386</v>
+      </c>
       <c r="F347" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -13308,8 +13535,11 @@
       <c r="B348" t="s">
         <v>348</v>
       </c>
+      <c r="C348" t="s">
+        <v>2386</v>
+      </c>
       <c r="F348" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -13319,8 +13549,11 @@
       <c r="B349" t="s">
         <v>349</v>
       </c>
+      <c r="C349" t="s">
+        <v>2386</v>
+      </c>
       <c r="F349" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -13330,8 +13563,11 @@
       <c r="B350" t="s">
         <v>350</v>
       </c>
+      <c r="C350" t="s">
+        <v>2386</v>
+      </c>
       <c r="F350" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -13341,8 +13577,11 @@
       <c r="B351" t="s">
         <v>351</v>
       </c>
+      <c r="C351" t="s">
+        <v>2386</v>
+      </c>
       <c r="F351" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -13352,8 +13591,11 @@
       <c r="B352" t="s">
         <v>352</v>
       </c>
+      <c r="C352" t="s">
+        <v>2386</v>
+      </c>
       <c r="F352" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -13363,8 +13605,11 @@
       <c r="B353" t="s">
         <v>353</v>
       </c>
+      <c r="C353" t="s">
+        <v>2386</v>
+      </c>
       <c r="F353" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -13374,8 +13619,11 @@
       <c r="B354" t="s">
         <v>354</v>
       </c>
+      <c r="C354" t="s">
+        <v>2386</v>
+      </c>
       <c r="F354" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -13385,8 +13633,11 @@
       <c r="B355" t="s">
         <v>355</v>
       </c>
+      <c r="C355" t="s">
+        <v>2386</v>
+      </c>
       <c r="F355" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -13396,8 +13647,11 @@
       <c r="B356" t="s">
         <v>356</v>
       </c>
+      <c r="C356" t="s">
+        <v>2386</v>
+      </c>
       <c r="F356" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -13407,8 +13661,11 @@
       <c r="B357" t="s">
         <v>357</v>
       </c>
+      <c r="C357" t="s">
+        <v>2386</v>
+      </c>
       <c r="F357" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -13418,8 +13675,11 @@
       <c r="B358" t="s">
         <v>358</v>
       </c>
+      <c r="C358" t="s">
+        <v>2386</v>
+      </c>
       <c r="F358" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -13429,8 +13689,11 @@
       <c r="B359" t="s">
         <v>359</v>
       </c>
+      <c r="C359" t="s">
+        <v>2386</v>
+      </c>
       <c r="F359" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -13440,8 +13703,11 @@
       <c r="B360" t="s">
         <v>360</v>
       </c>
+      <c r="C360" t="s">
+        <v>2386</v>
+      </c>
       <c r="F360" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -13451,8 +13717,11 @@
       <c r="B361" t="s">
         <v>361</v>
       </c>
+      <c r="C361" t="s">
+        <v>2386</v>
+      </c>
       <c r="F361" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -13462,8 +13731,11 @@
       <c r="B362" t="s">
         <v>362</v>
       </c>
+      <c r="C362" t="s">
+        <v>2386</v>
+      </c>
       <c r="F362" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -13473,8 +13745,11 @@
       <c r="B363" t="s">
         <v>363</v>
       </c>
+      <c r="C363" t="s">
+        <v>2386</v>
+      </c>
       <c r="F363" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -13484,8 +13759,11 @@
       <c r="B364" t="s">
         <v>364</v>
       </c>
+      <c r="C364" t="s">
+        <v>2386</v>
+      </c>
       <c r="F364" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -13495,8 +13773,11 @@
       <c r="B365" t="s">
         <v>365</v>
       </c>
+      <c r="C365" t="s">
+        <v>2386</v>
+      </c>
       <c r="F365" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -13506,8 +13787,11 @@
       <c r="B366" t="s">
         <v>366</v>
       </c>
+      <c r="C366" t="s">
+        <v>2386</v>
+      </c>
       <c r="F366" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -13517,8 +13801,11 @@
       <c r="B367" t="s">
         <v>367</v>
       </c>
+      <c r="C367" t="s">
+        <v>2386</v>
+      </c>
       <c r="F367" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -13528,8 +13815,11 @@
       <c r="B368" t="s">
         <v>368</v>
       </c>
+      <c r="C368" t="s">
+        <v>2386</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -13539,8 +13829,11 @@
       <c r="B369" t="s">
         <v>369</v>
       </c>
+      <c r="C369" t="s">
+        <v>2386</v>
+      </c>
       <c r="F369" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -13550,8 +13843,11 @@
       <c r="B370" t="s">
         <v>370</v>
       </c>
+      <c r="C370" t="s">
+        <v>2386</v>
+      </c>
       <c r="F370" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -13561,8 +13857,11 @@
       <c r="B371" t="s">
         <v>371</v>
       </c>
+      <c r="C371" t="s">
+        <v>2386</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -13572,8 +13871,11 @@
       <c r="B372" t="s">
         <v>372</v>
       </c>
+      <c r="C372" t="s">
+        <v>2386</v>
+      </c>
       <c r="F372" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -13583,8 +13885,11 @@
       <c r="B373" t="s">
         <v>373</v>
       </c>
+      <c r="C373" t="s">
+        <v>2386</v>
+      </c>
       <c r="F373" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -13594,8 +13899,11 @@
       <c r="B374" t="s">
         <v>374</v>
       </c>
+      <c r="C374" t="s">
+        <v>2386</v>
+      </c>
       <c r="F374" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -13605,8 +13913,11 @@
       <c r="B375" t="s">
         <v>375</v>
       </c>
+      <c r="C375" t="s">
+        <v>2386</v>
+      </c>
       <c r="F375" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -13616,8 +13927,11 @@
       <c r="B376" t="s">
         <v>376</v>
       </c>
+      <c r="C376" t="s">
+        <v>2386</v>
+      </c>
       <c r="F376" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -13627,8 +13941,11 @@
       <c r="B377" t="s">
         <v>377</v>
       </c>
+      <c r="C377" t="s">
+        <v>2386</v>
+      </c>
       <c r="F377" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -13638,8 +13955,11 @@
       <c r="B378" t="s">
         <v>378</v>
       </c>
+      <c r="C378" t="s">
+        <v>2386</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -13649,8 +13969,11 @@
       <c r="B379" t="s">
         <v>379</v>
       </c>
+      <c r="C379" t="s">
+        <v>2386</v>
+      </c>
       <c r="F379" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -13660,8 +13983,11 @@
       <c r="B380" t="s">
         <v>380</v>
       </c>
+      <c r="C380" t="s">
+        <v>2386</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -13671,8 +13997,11 @@
       <c r="B381" t="s">
         <v>381</v>
       </c>
+      <c r="C381" t="s">
+        <v>2386</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -13682,8 +14011,11 @@
       <c r="B382" t="s">
         <v>382</v>
       </c>
+      <c r="C382" t="s">
+        <v>2386</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">
@@ -13693,8 +14025,11 @@
       <c r="B383" t="s">
         <v>383</v>
       </c>
+      <c r="C383" t="s">
+        <v>2386</v>
+      </c>
       <c r="F383" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -13704,8 +14039,11 @@
       <c r="B384" t="s">
         <v>384</v>
       </c>
+      <c r="C384" t="s">
+        <v>2386</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -13715,8 +14053,11 @@
       <c r="B385" t="s">
         <v>385</v>
       </c>
+      <c r="C385" t="s">
+        <v>2386</v>
+      </c>
       <c r="F385" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -13726,8 +14067,11 @@
       <c r="B386" t="s">
         <v>386</v>
       </c>
+      <c r="C386" t="s">
+        <v>2386</v>
+      </c>
       <c r="F386" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -13737,8 +14081,11 @@
       <c r="B387" t="s">
         <v>387</v>
       </c>
+      <c r="C387" t="s">
+        <v>2386</v>
+      </c>
       <c r="F387" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -13748,8 +14095,11 @@
       <c r="B388" t="s">
         <v>388</v>
       </c>
+      <c r="C388" t="s">
+        <v>2386</v>
+      </c>
       <c r="F388" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -13759,8 +14109,11 @@
       <c r="B389" t="s">
         <v>389</v>
       </c>
+      <c r="C389" t="s">
+        <v>2386</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -13770,8 +14123,11 @@
       <c r="B390" t="s">
         <v>390</v>
       </c>
+      <c r="C390" t="s">
+        <v>2386</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -13781,8 +14137,11 @@
       <c r="B391" t="s">
         <v>391</v>
       </c>
+      <c r="C391" t="s">
+        <v>2386</v>
+      </c>
       <c r="F391" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -13792,8 +14151,11 @@
       <c r="B392" t="s">
         <v>392</v>
       </c>
+      <c r="C392" t="s">
+        <v>2386</v>
+      </c>
       <c r="F392" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -13803,8 +14165,11 @@
       <c r="B393" t="s">
         <v>393</v>
       </c>
+      <c r="C393" t="s">
+        <v>2386</v>
+      </c>
       <c r="F393" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -13814,8 +14179,11 @@
       <c r="B394" t="s">
         <v>394</v>
       </c>
+      <c r="C394" t="s">
+        <v>2386</v>
+      </c>
       <c r="F394" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -13825,8 +14193,11 @@
       <c r="B395" t="s">
         <v>395</v>
       </c>
+      <c r="C395" t="s">
+        <v>2386</v>
+      </c>
       <c r="F395" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -13836,8 +14207,11 @@
       <c r="B396" t="s">
         <v>396</v>
       </c>
+      <c r="C396" t="s">
+        <v>2386</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -13847,8 +14221,11 @@
       <c r="B397" t="s">
         <v>397</v>
       </c>
+      <c r="C397" t="s">
+        <v>2386</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -13858,8 +14235,11 @@
       <c r="B398" t="s">
         <v>398</v>
       </c>
+      <c r="C398" t="s">
+        <v>2386</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -13869,8 +14249,11 @@
       <c r="B399" t="s">
         <v>399</v>
       </c>
+      <c r="C399" t="s">
+        <v>2386</v>
+      </c>
       <c r="F399" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -13880,8 +14263,11 @@
       <c r="B400" t="s">
         <v>400</v>
       </c>
+      <c r="C400" t="s">
+        <v>2386</v>
+      </c>
       <c r="F400" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
@@ -13891,8 +14277,11 @@
       <c r="B401" t="s">
         <v>401</v>
       </c>
+      <c r="C401" t="s">
+        <v>2386</v>
+      </c>
       <c r="F401" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -13902,8 +14291,11 @@
       <c r="B402" t="s">
         <v>402</v>
       </c>
+      <c r="C402" t="s">
+        <v>2386</v>
+      </c>
       <c r="F402" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -13913,8 +14305,11 @@
       <c r="B403" t="s">
         <v>403</v>
       </c>
+      <c r="C403" t="s">
+        <v>2386</v>
+      </c>
       <c r="F403" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -13924,8 +14319,11 @@
       <c r="B404" t="s">
         <v>404</v>
       </c>
+      <c r="C404" t="s">
+        <v>2386</v>
+      </c>
       <c r="F404" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -13935,8 +14333,11 @@
       <c r="B405" t="s">
         <v>405</v>
       </c>
+      <c r="C405" t="s">
+        <v>2386</v>
+      </c>
       <c r="F405" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -13946,8 +14347,11 @@
       <c r="B406" t="s">
         <v>406</v>
       </c>
+      <c r="C406" t="s">
+        <v>2386</v>
+      </c>
       <c r="F406" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -13957,8 +14361,11 @@
       <c r="B407" t="s">
         <v>407</v>
       </c>
+      <c r="C407" t="s">
+        <v>2386</v>
+      </c>
       <c r="F407" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -13968,8 +14375,11 @@
       <c r="B408" t="s">
         <v>408</v>
       </c>
+      <c r="C408" t="s">
+        <v>2386</v>
+      </c>
       <c r="F408" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -13979,8 +14389,11 @@
       <c r="B409" t="s">
         <v>409</v>
       </c>
+      <c r="C409" t="s">
+        <v>2386</v>
+      </c>
       <c r="F409" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -13990,8 +14403,11 @@
       <c r="B410" t="s">
         <v>410</v>
       </c>
+      <c r="C410" t="s">
+        <v>2386</v>
+      </c>
       <c r="F410" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -14001,8 +14417,11 @@
       <c r="B411" t="s">
         <v>411</v>
       </c>
+      <c r="C411" t="s">
+        <v>2386</v>
+      </c>
       <c r="F411" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -14012,8 +14431,11 @@
       <c r="B412" t="s">
         <v>412</v>
       </c>
+      <c r="C412" t="s">
+        <v>2386</v>
+      </c>
       <c r="F412" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -14023,8 +14445,11 @@
       <c r="B413" t="s">
         <v>413</v>
       </c>
+      <c r="C413" t="s">
+        <v>2386</v>
+      </c>
       <c r="F413" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -14034,8 +14459,11 @@
       <c r="B414" t="s">
         <v>414</v>
       </c>
+      <c r="C414" t="s">
+        <v>2386</v>
+      </c>
       <c r="F414" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -14045,8 +14473,11 @@
       <c r="B415" t="s">
         <v>415</v>
       </c>
+      <c r="C415" t="s">
+        <v>2386</v>
+      </c>
       <c r="F415" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -14056,8 +14487,11 @@
       <c r="B416" t="s">
         <v>416</v>
       </c>
+      <c r="C416" t="s">
+        <v>2386</v>
+      </c>
       <c r="F416" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -14067,8 +14501,11 @@
       <c r="B417" t="s">
         <v>417</v>
       </c>
+      <c r="C417" t="s">
+        <v>2386</v>
+      </c>
       <c r="F417" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -14078,8 +14515,11 @@
       <c r="B418" t="s">
         <v>418</v>
       </c>
+      <c r="C418" t="s">
+        <v>2386</v>
+      </c>
       <c r="F418" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -14089,8 +14529,11 @@
       <c r="B419" t="s">
         <v>419</v>
       </c>
+      <c r="C419" t="s">
+        <v>2386</v>
+      </c>
       <c r="F419" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -14100,8 +14543,11 @@
       <c r="B420" t="s">
         <v>420</v>
       </c>
+      <c r="C420" t="s">
+        <v>2386</v>
+      </c>
       <c r="F420" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -14111,8 +14557,11 @@
       <c r="B421" t="s">
         <v>421</v>
       </c>
+      <c r="C421" t="s">
+        <v>2386</v>
+      </c>
       <c r="F421" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -14122,8 +14571,11 @@
       <c r="B422" t="s">
         <v>422</v>
       </c>
+      <c r="C422" t="s">
+        <v>2386</v>
+      </c>
       <c r="F422" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -14133,8 +14585,11 @@
       <c r="B423" t="s">
         <v>423</v>
       </c>
+      <c r="C423" t="s">
+        <v>2386</v>
+      </c>
       <c r="F423" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -14144,8 +14599,11 @@
       <c r="B424" t="s">
         <v>424</v>
       </c>
+      <c r="C424" t="s">
+        <v>2386</v>
+      </c>
       <c r="F424" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -14155,8 +14613,11 @@
       <c r="B425" t="s">
         <v>425</v>
       </c>
+      <c r="C425" t="s">
+        <v>2386</v>
+      </c>
       <c r="F425" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -14166,8 +14627,11 @@
       <c r="B426" t="s">
         <v>426</v>
       </c>
+      <c r="C426" t="s">
+        <v>2377</v>
+      </c>
       <c r="F426" s="2" t="s">
-        <v>2376</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -14177,8 +14641,11 @@
       <c r="B427" t="s">
         <v>427</v>
       </c>
+      <c r="C427" t="s">
+        <v>2377</v>
+      </c>
       <c r="F427" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -14188,8 +14655,11 @@
       <c r="B428" t="s">
         <v>428</v>
       </c>
+      <c r="C428" t="s">
+        <v>2377</v>
+      </c>
       <c r="F428" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -14199,8 +14669,11 @@
       <c r="B429" t="s">
         <v>429</v>
       </c>
+      <c r="C429" t="s">
+        <v>2377</v>
+      </c>
       <c r="F429" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -14210,8 +14683,11 @@
       <c r="B430" t="s">
         <v>430</v>
       </c>
+      <c r="C430" t="s">
+        <v>2377</v>
+      </c>
       <c r="F430" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -14221,8 +14697,11 @@
       <c r="B431" t="s">
         <v>431</v>
       </c>
+      <c r="C431" t="s">
+        <v>2377</v>
+      </c>
       <c r="F431" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -14232,8 +14711,11 @@
       <c r="B432" t="s">
         <v>432</v>
       </c>
+      <c r="C432" t="s">
+        <v>2386</v>
+      </c>
       <c r="F432" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -14243,8 +14725,11 @@
       <c r="B433" t="s">
         <v>433</v>
       </c>
+      <c r="C433" t="s">
+        <v>2386</v>
+      </c>
       <c r="F433" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -14254,8 +14739,11 @@
       <c r="B434" t="s">
         <v>434</v>
       </c>
+      <c r="C434" t="s">
+        <v>2386</v>
+      </c>
       <c r="F434" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -14265,8 +14753,11 @@
       <c r="B435" t="s">
         <v>435</v>
       </c>
+      <c r="C435" t="s">
+        <v>2386</v>
+      </c>
       <c r="F435" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -14276,8 +14767,11 @@
       <c r="B436" t="s">
         <v>436</v>
       </c>
+      <c r="C436" t="s">
+        <v>2386</v>
+      </c>
       <c r="F436" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -14287,8 +14781,11 @@
       <c r="B437" t="s">
         <v>437</v>
       </c>
+      <c r="C437" t="s">
+        <v>2386</v>
+      </c>
       <c r="F437" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -14298,8 +14795,11 @@
       <c r="B438" t="s">
         <v>438</v>
       </c>
+      <c r="C438" t="s">
+        <v>2386</v>
+      </c>
       <c r="F438" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -14309,8 +14809,11 @@
       <c r="B439" t="s">
         <v>439</v>
       </c>
+      <c r="C439" t="s">
+        <v>2386</v>
+      </c>
       <c r="F439" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -14320,8 +14823,11 @@
       <c r="B440" t="s">
         <v>440</v>
       </c>
+      <c r="C440" t="s">
+        <v>2386</v>
+      </c>
       <c r="F440" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -14331,8 +14837,11 @@
       <c r="B441" t="s">
         <v>441</v>
       </c>
+      <c r="C441" t="s">
+        <v>2386</v>
+      </c>
       <c r="F441" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -14342,8 +14851,11 @@
       <c r="B442" t="s">
         <v>442</v>
       </c>
+      <c r="C442" t="s">
+        <v>2386</v>
+      </c>
       <c r="F442" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -14353,8 +14865,11 @@
       <c r="B443" t="s">
         <v>443</v>
       </c>
+      <c r="C443" t="s">
+        <v>2386</v>
+      </c>
       <c r="F443" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -14364,8 +14879,11 @@
       <c r="B444" t="s">
         <v>444</v>
       </c>
+      <c r="C444" t="s">
+        <v>2386</v>
+      </c>
       <c r="F444" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -14375,8 +14893,11 @@
       <c r="B445" t="s">
         <v>445</v>
       </c>
+      <c r="C445" t="s">
+        <v>2386</v>
+      </c>
       <c r="F445" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -14386,8 +14907,11 @@
       <c r="B446" t="s">
         <v>446</v>
       </c>
+      <c r="C446" t="s">
+        <v>2386</v>
+      </c>
       <c r="F446" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -14397,8 +14921,11 @@
       <c r="B447" t="s">
         <v>447</v>
       </c>
+      <c r="C447" t="s">
+        <v>2386</v>
+      </c>
       <c r="F447" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -14408,8 +14935,11 @@
       <c r="B448" t="s">
         <v>448</v>
       </c>
+      <c r="C448" t="s">
+        <v>2386</v>
+      </c>
       <c r="F448" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -14419,8 +14949,11 @@
       <c r="B449" t="s">
         <v>449</v>
       </c>
+      <c r="C449" t="s">
+        <v>2386</v>
+      </c>
       <c r="F449" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -14430,8 +14963,11 @@
       <c r="B450" t="s">
         <v>450</v>
       </c>
+      <c r="C450" t="s">
+        <v>2386</v>
+      </c>
       <c r="F450" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -14441,8 +14977,11 @@
       <c r="B451" t="s">
         <v>451</v>
       </c>
+      <c r="C451" t="s">
+        <v>2386</v>
+      </c>
       <c r="F451" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -14452,8 +14991,11 @@
       <c r="B452" t="s">
         <v>452</v>
       </c>
+      <c r="C452" t="s">
+        <v>2386</v>
+      </c>
       <c r="F452" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -14463,8 +15005,11 @@
       <c r="B453" t="s">
         <v>453</v>
       </c>
+      <c r="C453" t="s">
+        <v>2386</v>
+      </c>
       <c r="F453" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -14474,8 +15019,11 @@
       <c r="B454" t="s">
         <v>454</v>
       </c>
+      <c r="C454" t="s">
+        <v>2386</v>
+      </c>
       <c r="F454" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -14485,8 +15033,11 @@
       <c r="B455" t="s">
         <v>455</v>
       </c>
+      <c r="C455" t="s">
+        <v>2386</v>
+      </c>
       <c r="F455" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -14496,8 +15047,11 @@
       <c r="B456" t="s">
         <v>456</v>
       </c>
+      <c r="C456" t="s">
+        <v>2386</v>
+      </c>
       <c r="F456" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -14507,8 +15061,11 @@
       <c r="B457" t="s">
         <v>457</v>
       </c>
+      <c r="C457" t="s">
+        <v>2386</v>
+      </c>
       <c r="F457" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -14518,8 +15075,11 @@
       <c r="B458" t="s">
         <v>458</v>
       </c>
+      <c r="C458" t="s">
+        <v>2386</v>
+      </c>
       <c r="F458" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -14529,8 +15089,11 @@
       <c r="B459" t="s">
         <v>459</v>
       </c>
+      <c r="C459" t="s">
+        <v>2386</v>
+      </c>
       <c r="F459" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -14540,8 +15103,11 @@
       <c r="B460" t="s">
         <v>460</v>
       </c>
+      <c r="C460" t="s">
+        <v>2386</v>
+      </c>
       <c r="F460" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -14551,8 +15117,11 @@
       <c r="B461" t="s">
         <v>461</v>
       </c>
+      <c r="C461" t="s">
+        <v>2386</v>
+      </c>
       <c r="F461" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -14562,8 +15131,11 @@
       <c r="B462" t="s">
         <v>462</v>
       </c>
+      <c r="C462" t="s">
+        <v>2386</v>
+      </c>
       <c r="F462" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -14573,8 +15145,11 @@
       <c r="B463" t="s">
         <v>463</v>
       </c>
+      <c r="C463" t="s">
+        <v>2386</v>
+      </c>
       <c r="F463" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -14584,8 +15159,11 @@
       <c r="B464" t="s">
         <v>464</v>
       </c>
+      <c r="C464" t="s">
+        <v>2386</v>
+      </c>
       <c r="F464" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -14595,8 +15173,11 @@
       <c r="B465" t="s">
         <v>465</v>
       </c>
+      <c r="C465" t="s">
+        <v>2386</v>
+      </c>
       <c r="F465" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -14606,8 +15187,11 @@
       <c r="B466" t="s">
         <v>466</v>
       </c>
+      <c r="C466" t="s">
+        <v>2386</v>
+      </c>
       <c r="F466" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -14617,8 +15201,11 @@
       <c r="B467" t="s">
         <v>467</v>
       </c>
+      <c r="C467" t="s">
+        <v>2386</v>
+      </c>
       <c r="F467" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -14628,8 +15215,11 @@
       <c r="B468" t="s">
         <v>468</v>
       </c>
+      <c r="C468" t="s">
+        <v>2386</v>
+      </c>
       <c r="F468" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -14639,8 +15229,11 @@
       <c r="B469" t="s">
         <v>469</v>
       </c>
+      <c r="C469" t="s">
+        <v>2386</v>
+      </c>
       <c r="F469" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -14650,8 +15243,11 @@
       <c r="B470" t="s">
         <v>470</v>
       </c>
+      <c r="C470" t="s">
+        <v>2386</v>
+      </c>
       <c r="F470" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -14661,8 +15257,11 @@
       <c r="B471" t="s">
         <v>471</v>
       </c>
+      <c r="C471" t="s">
+        <v>2386</v>
+      </c>
       <c r="F471" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -14672,8 +15271,11 @@
       <c r="B472" t="s">
         <v>472</v>
       </c>
+      <c r="C472" t="s">
+        <v>2386</v>
+      </c>
       <c r="F472" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -14683,8 +15285,11 @@
       <c r="B473" t="s">
         <v>473</v>
       </c>
+      <c r="C473" t="s">
+        <v>2386</v>
+      </c>
       <c r="F473" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -14694,8 +15299,11 @@
       <c r="B474" t="s">
         <v>474</v>
       </c>
+      <c r="C474" t="s">
+        <v>2386</v>
+      </c>
       <c r="F474" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -14705,8 +15313,11 @@
       <c r="B475" t="s">
         <v>475</v>
       </c>
+      <c r="C475" t="s">
+        <v>2386</v>
+      </c>
       <c r="F475" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -14716,8 +15327,11 @@
       <c r="B476" t="s">
         <v>476</v>
       </c>
+      <c r="C476" t="s">
+        <v>2386</v>
+      </c>
       <c r="F476" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -14727,8 +15341,11 @@
       <c r="B477" t="s">
         <v>477</v>
       </c>
+      <c r="C477" t="s">
+        <v>2386</v>
+      </c>
       <c r="F477" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -14738,8 +15355,11 @@
       <c r="B478" t="s">
         <v>478</v>
       </c>
+      <c r="C478" t="s">
+        <v>2386</v>
+      </c>
       <c r="F478" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -14749,8 +15369,11 @@
       <c r="B479" t="s">
         <v>479</v>
       </c>
+      <c r="C479" t="s">
+        <v>2386</v>
+      </c>
       <c r="F479" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -14760,8 +15383,11 @@
       <c r="B480" t="s">
         <v>480</v>
       </c>
+      <c r="C480" t="s">
+        <v>2386</v>
+      </c>
       <c r="F480" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -14771,8 +15397,11 @@
       <c r="B481" t="s">
         <v>481</v>
       </c>
+      <c r="C481" t="s">
+        <v>2386</v>
+      </c>
       <c r="F481" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -14782,8 +15411,11 @@
       <c r="B482" t="s">
         <v>482</v>
       </c>
+      <c r="C482" t="s">
+        <v>2386</v>
+      </c>
       <c r="F482" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -14793,8 +15425,11 @@
       <c r="B483" t="s">
         <v>483</v>
       </c>
+      <c r="C483" t="s">
+        <v>2386</v>
+      </c>
       <c r="F483" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -14804,8 +15439,11 @@
       <c r="B484" t="s">
         <v>484</v>
       </c>
+      <c r="C484" t="s">
+        <v>2386</v>
+      </c>
       <c r="F484" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -14815,8 +15453,11 @@
       <c r="B485" t="s">
         <v>485</v>
       </c>
+      <c r="C485" t="s">
+        <v>2386</v>
+      </c>
       <c r="F485" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -14826,8 +15467,11 @@
       <c r="B486" t="s">
         <v>486</v>
       </c>
+      <c r="C486" t="s">
+        <v>2386</v>
+      </c>
       <c r="F486" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -14837,8 +15481,11 @@
       <c r="B487" t="s">
         <v>487</v>
       </c>
+      <c r="C487" t="s">
+        <v>2386</v>
+      </c>
       <c r="F487" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -14848,8 +15495,11 @@
       <c r="B488" t="s">
         <v>488</v>
       </c>
+      <c r="C488" t="s">
+        <v>2386</v>
+      </c>
       <c r="F488" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -14859,8 +15509,11 @@
       <c r="B489" t="s">
         <v>489</v>
       </c>
+      <c r="C489" t="s">
+        <v>2386</v>
+      </c>
       <c r="F489" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -14870,8 +15523,11 @@
       <c r="B490" t="s">
         <v>490</v>
       </c>
+      <c r="C490" t="s">
+        <v>2386</v>
+      </c>
       <c r="F490" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -14881,8 +15537,11 @@
       <c r="B491" t="s">
         <v>491</v>
       </c>
+      <c r="C491" t="s">
+        <v>2386</v>
+      </c>
       <c r="F491" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -14892,8 +15551,11 @@
       <c r="B492" t="s">
         <v>492</v>
       </c>
+      <c r="C492" t="s">
+        <v>2377</v>
+      </c>
       <c r="F492" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -14903,8 +15565,11 @@
       <c r="B493" t="s">
         <v>493</v>
       </c>
+      <c r="C493" t="s">
+        <v>2377</v>
+      </c>
       <c r="F493" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -14914,8 +15579,11 @@
       <c r="B494" t="s">
         <v>494</v>
       </c>
+      <c r="C494" t="s">
+        <v>2377</v>
+      </c>
       <c r="F494" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -14925,8 +15593,11 @@
       <c r="B495" t="s">
         <v>495</v>
       </c>
+      <c r="C495" t="s">
+        <v>2377</v>
+      </c>
       <c r="F495" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -14936,8 +15607,11 @@
       <c r="B496" t="s">
         <v>496</v>
       </c>
+      <c r="C496" t="s">
+        <v>2377</v>
+      </c>
       <c r="F496" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -14947,8 +15621,11 @@
       <c r="B497" t="s">
         <v>497</v>
       </c>
+      <c r="C497" t="s">
+        <v>2377</v>
+      </c>
       <c r="F497" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -14958,8 +15635,11 @@
       <c r="B498" t="s">
         <v>498</v>
       </c>
+      <c r="C498" t="s">
+        <v>2377</v>
+      </c>
       <c r="F498" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -14969,8 +15649,11 @@
       <c r="B499" t="s">
         <v>499</v>
       </c>
+      <c r="C499" t="s">
+        <v>2386</v>
+      </c>
       <c r="F499" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -14980,8 +15663,11 @@
       <c r="B500" t="s">
         <v>500</v>
       </c>
+      <c r="C500" t="s">
+        <v>2386</v>
+      </c>
       <c r="F500" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">
@@ -14991,8 +15677,11 @@
       <c r="B501" t="s">
         <v>501</v>
       </c>
+      <c r="C501" t="s">
+        <v>2386</v>
+      </c>
       <c r="F501" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -15002,8 +15691,11 @@
       <c r="B502" t="s">
         <v>502</v>
       </c>
+      <c r="C502" t="s">
+        <v>2386</v>
+      </c>
       <c r="F502" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -15013,8 +15705,11 @@
       <c r="B503" t="s">
         <v>503</v>
       </c>
+      <c r="C503" t="s">
+        <v>2386</v>
+      </c>
       <c r="F503" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -15024,8 +15719,11 @@
       <c r="B504" t="s">
         <v>504</v>
       </c>
+      <c r="C504" t="s">
+        <v>2386</v>
+      </c>
       <c r="F504" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -15035,8 +15733,11 @@
       <c r="B505" t="s">
         <v>505</v>
       </c>
+      <c r="C505" t="s">
+        <v>2386</v>
+      </c>
       <c r="F505" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -15046,8 +15747,11 @@
       <c r="B506" t="s">
         <v>506</v>
       </c>
+      <c r="C506" t="s">
+        <v>2386</v>
+      </c>
       <c r="F506" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -15057,8 +15761,11 @@
       <c r="B507" t="s">
         <v>507</v>
       </c>
+      <c r="C507" t="s">
+        <v>2386</v>
+      </c>
       <c r="F507" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -15068,8 +15775,11 @@
       <c r="B508" t="s">
         <v>508</v>
       </c>
+      <c r="C508" t="s">
+        <v>2386</v>
+      </c>
       <c r="F508" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -15079,8 +15789,11 @@
       <c r="B509" t="s">
         <v>509</v>
       </c>
+      <c r="C509" t="s">
+        <v>2386</v>
+      </c>
       <c r="F509" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -15090,8 +15803,11 @@
       <c r="B510" t="s">
         <v>510</v>
       </c>
+      <c r="C510" t="s">
+        <v>2386</v>
+      </c>
       <c r="F510" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -15101,8 +15817,11 @@
       <c r="B511" t="s">
         <v>511</v>
       </c>
+      <c r="C511" t="s">
+        <v>2386</v>
+      </c>
       <c r="F511" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -15112,8 +15831,11 @@
       <c r="B512" t="s">
         <v>512</v>
       </c>
+      <c r="C512" t="s">
+        <v>2386</v>
+      </c>
       <c r="F512" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -15123,8 +15845,11 @@
       <c r="B513" t="s">
         <v>513</v>
       </c>
+      <c r="C513" t="s">
+        <v>2386</v>
+      </c>
       <c r="F513" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -15134,8 +15859,11 @@
       <c r="B514" t="s">
         <v>514</v>
       </c>
+      <c r="C514" t="s">
+        <v>2386</v>
+      </c>
       <c r="F514" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -15145,8 +15873,11 @@
       <c r="B515" t="s">
         <v>515</v>
       </c>
+      <c r="C515" t="s">
+        <v>2386</v>
+      </c>
       <c r="F515" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -15156,8 +15887,11 @@
       <c r="B516" t="s">
         <v>516</v>
       </c>
+      <c r="C516" t="s">
+        <v>2386</v>
+      </c>
       <c r="F516" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -15167,8 +15901,11 @@
       <c r="B517" t="s">
         <v>517</v>
       </c>
+      <c r="C517" t="s">
+        <v>2386</v>
+      </c>
       <c r="F517" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -15178,8 +15915,11 @@
       <c r="B518" t="s">
         <v>518</v>
       </c>
+      <c r="C518" t="s">
+        <v>2386</v>
+      </c>
       <c r="F518" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -15189,8 +15929,11 @@
       <c r="B519" t="s">
         <v>519</v>
       </c>
+      <c r="C519" t="s">
+        <v>2386</v>
+      </c>
       <c r="F519" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -15200,8 +15943,11 @@
       <c r="B520" t="s">
         <v>520</v>
       </c>
+      <c r="C520" t="s">
+        <v>2386</v>
+      </c>
       <c r="F520" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -15211,8 +15957,11 @@
       <c r="B521" t="s">
         <v>521</v>
       </c>
+      <c r="C521" t="s">
+        <v>2386</v>
+      </c>
       <c r="F521" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -15222,8 +15971,11 @@
       <c r="B522" t="s">
         <v>522</v>
       </c>
+      <c r="C522" t="s">
+        <v>2386</v>
+      </c>
       <c r="F522" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -15233,8 +15985,11 @@
       <c r="B523" t="s">
         <v>523</v>
       </c>
+      <c r="C523" t="s">
+        <v>2386</v>
+      </c>
       <c r="F523" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -15244,8 +15999,11 @@
       <c r="B524" t="s">
         <v>524</v>
       </c>
+      <c r="C524" t="s">
+        <v>2386</v>
+      </c>
       <c r="F524" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -15255,8 +16013,11 @@
       <c r="B525" t="s">
         <v>525</v>
       </c>
+      <c r="C525" t="s">
+        <v>2386</v>
+      </c>
       <c r="F525" s="2" t="s">
-        <v>2376</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -15266,8 +16027,11 @@
       <c r="B526" t="s">
         <v>526</v>
       </c>
+      <c r="C526" t="s">
+        <v>2386</v>
+      </c>
       <c r="F526" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -15277,8 +16041,11 @@
       <c r="B527" t="s">
         <v>527</v>
       </c>
+      <c r="C527" t="s">
+        <v>2386</v>
+      </c>
       <c r="F527" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -15288,8 +16055,11 @@
       <c r="B528" t="s">
         <v>528</v>
       </c>
+      <c r="C528" t="s">
+        <v>2386</v>
+      </c>
       <c r="F528" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -15299,8 +16069,11 @@
       <c r="B529" t="s">
         <v>529</v>
       </c>
+      <c r="C529" t="s">
+        <v>2386</v>
+      </c>
       <c r="F529" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -15310,8 +16083,11 @@
       <c r="B530" t="s">
         <v>530</v>
       </c>
+      <c r="C530" t="s">
+        <v>2386</v>
+      </c>
       <c r="F530" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -15321,8 +16097,11 @@
       <c r="B531" t="s">
         <v>531</v>
       </c>
+      <c r="C531" t="s">
+        <v>2386</v>
+      </c>
       <c r="F531" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -15332,8 +16111,11 @@
       <c r="B532" t="s">
         <v>532</v>
       </c>
+      <c r="C532" t="s">
+        <v>2386</v>
+      </c>
       <c r="F532" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -15343,8 +16125,11 @@
       <c r="B533" t="s">
         <v>533</v>
       </c>
+      <c r="C533" t="s">
+        <v>2386</v>
+      </c>
       <c r="F533" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -15354,8 +16139,11 @@
       <c r="B534" t="s">
         <v>534</v>
       </c>
+      <c r="C534" t="s">
+        <v>2386</v>
+      </c>
       <c r="F534" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -15365,8 +16153,11 @@
       <c r="B535" t="s">
         <v>535</v>
       </c>
+      <c r="C535" t="s">
+        <v>2386</v>
+      </c>
       <c r="F535" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -15376,8 +16167,11 @@
       <c r="B536" t="s">
         <v>536</v>
       </c>
+      <c r="C536" t="s">
+        <v>2386</v>
+      </c>
       <c r="F536" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -15387,8 +16181,11 @@
       <c r="B537" t="s">
         <v>537</v>
       </c>
+      <c r="C537" t="s">
+        <v>2386</v>
+      </c>
       <c r="F537" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -15398,8 +16195,11 @@
       <c r="B538" t="s">
         <v>538</v>
       </c>
+      <c r="C538" t="s">
+        <v>2386</v>
+      </c>
       <c r="F538" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -15409,8 +16209,11 @@
       <c r="B539" t="s">
         <v>539</v>
       </c>
+      <c r="C539" t="s">
+        <v>2386</v>
+      </c>
       <c r="F539" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -15420,8 +16223,11 @@
       <c r="B540" t="s">
         <v>540</v>
       </c>
+      <c r="C540" t="s">
+        <v>2386</v>
+      </c>
       <c r="F540" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -15431,8 +16237,11 @@
       <c r="B541" t="s">
         <v>541</v>
       </c>
+      <c r="C541" t="s">
+        <v>2386</v>
+      </c>
       <c r="F541" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -15442,8 +16251,11 @@
       <c r="B542" t="s">
         <v>542</v>
       </c>
+      <c r="C542" t="s">
+        <v>2386</v>
+      </c>
       <c r="F542" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -15453,8 +16265,11 @@
       <c r="B543" t="s">
         <v>543</v>
       </c>
+      <c r="C543" t="s">
+        <v>2386</v>
+      </c>
       <c r="F543" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -15464,8 +16279,11 @@
       <c r="B544" t="s">
         <v>544</v>
       </c>
+      <c r="C544" t="s">
+        <v>2386</v>
+      </c>
       <c r="F544" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -15475,8 +16293,11 @@
       <c r="B545" t="s">
         <v>545</v>
       </c>
+      <c r="C545" t="s">
+        <v>2386</v>
+      </c>
       <c r="F545" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -15486,8 +16307,11 @@
       <c r="B546" t="s">
         <v>546</v>
       </c>
+      <c r="C546" t="s">
+        <v>2386</v>
+      </c>
       <c r="F546" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -15497,8 +16321,11 @@
       <c r="B547" t="s">
         <v>547</v>
       </c>
+      <c r="C547" t="s">
+        <v>2386</v>
+      </c>
       <c r="F547" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -15508,8 +16335,11 @@
       <c r="B548" t="s">
         <v>548</v>
       </c>
+      <c r="C548" t="s">
+        <v>2386</v>
+      </c>
       <c r="F548" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -15519,8 +16349,11 @@
       <c r="B549" t="s">
         <v>549</v>
       </c>
+      <c r="C549" t="s">
+        <v>2386</v>
+      </c>
       <c r="F549" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -15530,8 +16363,11 @@
       <c r="B550" t="s">
         <v>550</v>
       </c>
+      <c r="C550" t="s">
+        <v>2386</v>
+      </c>
       <c r="F550" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -15541,8 +16377,11 @@
       <c r="B551" t="s">
         <v>551</v>
       </c>
+      <c r="C551" t="s">
+        <v>2386</v>
+      </c>
       <c r="F551" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -15552,8 +16391,11 @@
       <c r="B552" t="s">
         <v>552</v>
       </c>
+      <c r="C552" t="s">
+        <v>2395</v>
+      </c>
       <c r="F552" s="2" t="s">
-        <v>2376</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -15563,8 +16405,11 @@
       <c r="B553" t="s">
         <v>553</v>
       </c>
+      <c r="C553" t="s">
+        <v>2395</v>
+      </c>
       <c r="F553" s="2" t="s">
-        <v>2376</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -15574,8 +16419,11 @@
       <c r="B554" t="s">
         <v>554</v>
       </c>
+      <c r="C554" t="s">
+        <v>2395</v>
+      </c>
       <c r="F554" s="2" t="s">
-        <v>2376</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -15585,8 +16433,11 @@
       <c r="B555" t="s">
         <v>555</v>
       </c>
+      <c r="C555" t="s">
+        <v>2377</v>
+      </c>
       <c r="F555" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -15596,8 +16447,11 @@
       <c r="B556" t="s">
         <v>556</v>
       </c>
+      <c r="C556" t="s">
+        <v>2377</v>
+      </c>
       <c r="F556" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -15607,8 +16461,11 @@
       <c r="B557" t="s">
         <v>557</v>
       </c>
+      <c r="C557" t="s">
+        <v>2386</v>
+      </c>
       <c r="F557" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -15618,8 +16475,11 @@
       <c r="B558" t="s">
         <v>558</v>
       </c>
+      <c r="C558" t="s">
+        <v>2386</v>
+      </c>
       <c r="F558" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -15629,8 +16489,11 @@
       <c r="B559" t="s">
         <v>559</v>
       </c>
+      <c r="C559" t="s">
+        <v>2386</v>
+      </c>
       <c r="F559" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -15640,8 +16503,11 @@
       <c r="B560" t="s">
         <v>560</v>
       </c>
+      <c r="C560" t="s">
+        <v>2386</v>
+      </c>
       <c r="F560" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -15651,8 +16517,11 @@
       <c r="B561" t="s">
         <v>561</v>
       </c>
+      <c r="C561" t="s">
+        <v>2386</v>
+      </c>
       <c r="F561" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -15662,8 +16531,11 @@
       <c r="B562" t="s">
         <v>562</v>
       </c>
+      <c r="C562" t="s">
+        <v>2386</v>
+      </c>
       <c r="F562" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -15673,8 +16545,11 @@
       <c r="B563" t="s">
         <v>563</v>
       </c>
+      <c r="C563" t="s">
+        <v>2386</v>
+      </c>
       <c r="F563" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -15684,8 +16559,11 @@
       <c r="B564" t="s">
         <v>564</v>
       </c>
+      <c r="C564" t="s">
+        <v>2386</v>
+      </c>
       <c r="F564" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -15695,8 +16573,11 @@
       <c r="B565" t="s">
         <v>565</v>
       </c>
+      <c r="C565" t="s">
+        <v>2386</v>
+      </c>
       <c r="F565" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -15706,8 +16587,11 @@
       <c r="B566" t="s">
         <v>566</v>
       </c>
+      <c r="C566" t="s">
+        <v>2386</v>
+      </c>
       <c r="F566" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -15717,8 +16601,11 @@
       <c r="B567" t="s">
         <v>567</v>
       </c>
+      <c r="C567" t="s">
+        <v>2386</v>
+      </c>
       <c r="F567" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -15728,8 +16615,11 @@
       <c r="B568" t="s">
         <v>568</v>
       </c>
+      <c r="C568" t="s">
+        <v>2386</v>
+      </c>
       <c r="F568" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -15739,8 +16629,11 @@
       <c r="B569" t="s">
         <v>569</v>
       </c>
+      <c r="C569" t="s">
+        <v>2386</v>
+      </c>
       <c r="F569" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -15750,8 +16643,11 @@
       <c r="B570" t="s">
         <v>570</v>
       </c>
+      <c r="C570" t="s">
+        <v>2386</v>
+      </c>
       <c r="F570" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -15761,8 +16657,11 @@
       <c r="B571" t="s">
         <v>571</v>
       </c>
+      <c r="C571" t="s">
+        <v>2386</v>
+      </c>
       <c r="F571" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -15772,8 +16671,11 @@
       <c r="B572" t="s">
         <v>572</v>
       </c>
+      <c r="C572" t="s">
+        <v>2386</v>
+      </c>
       <c r="F572" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -15783,8 +16685,11 @@
       <c r="B573" t="s">
         <v>573</v>
       </c>
+      <c r="C573" t="s">
+        <v>2386</v>
+      </c>
       <c r="F573" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -15794,8 +16699,11 @@
       <c r="B574" t="s">
         <v>574</v>
       </c>
+      <c r="C574" t="s">
+        <v>2386</v>
+      </c>
       <c r="F574" s="2" t="s">
-        <v>2376</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -15805,8 +16713,11 @@
       <c r="B575" t="s">
         <v>575</v>
       </c>
+      <c r="C575" t="s">
+        <v>2386</v>
+      </c>
       <c r="F575" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -15816,8 +16727,11 @@
       <c r="B576" t="s">
         <v>576</v>
       </c>
+      <c r="C576" t="s">
+        <v>2386</v>
+      </c>
       <c r="F576" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -15827,8 +16741,11 @@
       <c r="B577" t="s">
         <v>577</v>
       </c>
+      <c r="C577" t="s">
+        <v>2386</v>
+      </c>
       <c r="F577" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -15838,8 +16755,11 @@
       <c r="B578" t="s">
         <v>578</v>
       </c>
+      <c r="C578" t="s">
+        <v>2386</v>
+      </c>
       <c r="F578" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -15849,8 +16769,11 @@
       <c r="B579" t="s">
         <v>579</v>
       </c>
+      <c r="C579" t="s">
+        <v>2377</v>
+      </c>
       <c r="F579" s="2" t="s">
-        <v>2376</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -15860,8 +16783,11 @@
       <c r="B580" t="s">
         <v>580</v>
       </c>
+      <c r="C580" t="s">
+        <v>2395</v>
+      </c>
       <c r="F580" s="2" t="s">
-        <v>2376</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -15871,8 +16797,11 @@
       <c r="B581" t="s">
         <v>581</v>
       </c>
+      <c r="C581" t="s">
+        <v>2386</v>
+      </c>
       <c r="F581" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -15882,8 +16811,11 @@
       <c r="B582" t="s">
         <v>582</v>
       </c>
+      <c r="C582" t="s">
+        <v>2386</v>
+      </c>
       <c r="F582" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -15893,8 +16825,11 @@
       <c r="B583" t="s">
         <v>583</v>
       </c>
+      <c r="C583" t="s">
+        <v>2386</v>
+      </c>
       <c r="F583" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -15904,8 +16839,11 @@
       <c r="B584" t="s">
         <v>584</v>
       </c>
+      <c r="C584" t="s">
+        <v>2386</v>
+      </c>
       <c r="F584" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -15915,8 +16853,11 @@
       <c r="B585" t="s">
         <v>585</v>
       </c>
+      <c r="C585" t="s">
+        <v>2386</v>
+      </c>
       <c r="F585" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -15926,8 +16867,11 @@
       <c r="B586" t="s">
         <v>586</v>
       </c>
+      <c r="C586" t="s">
+        <v>2386</v>
+      </c>
       <c r="F586" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -15937,8 +16881,11 @@
       <c r="B587" t="s">
         <v>587</v>
       </c>
+      <c r="C587" t="s">
+        <v>2386</v>
+      </c>
       <c r="F587" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -15948,8 +16895,11 @@
       <c r="B588" t="s">
         <v>588</v>
       </c>
+      <c r="C588" t="s">
+        <v>2386</v>
+      </c>
       <c r="F588" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -15959,8 +16909,11 @@
       <c r="B589" t="s">
         <v>589</v>
       </c>
+      <c r="C589" t="s">
+        <v>2377</v>
+      </c>
       <c r="F589" s="2" t="s">
-        <v>2376</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -15970,8 +16923,11 @@
       <c r="B590" t="s">
         <v>590</v>
       </c>
+      <c r="C590" t="s">
+        <v>2377</v>
+      </c>
       <c r="F590" s="2" t="s">
-        <v>2376</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -15981,8 +16937,11 @@
       <c r="B591" t="s">
         <v>591</v>
       </c>
+      <c r="C591" t="s">
+        <v>2377</v>
+      </c>
       <c r="F591" s="2" t="s">
-        <v>2376</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -15992,8 +16951,11 @@
       <c r="B592" t="s">
         <v>592</v>
       </c>
+      <c r="C592" t="s">
+        <v>2386</v>
+      </c>
       <c r="F592" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -16003,8 +16965,11 @@
       <c r="B593" t="s">
         <v>593</v>
       </c>
+      <c r="C593" t="s">
+        <v>2386</v>
+      </c>
       <c r="F593" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -16014,8 +16979,11 @@
       <c r="B594" t="s">
         <v>594</v>
       </c>
+      <c r="C594" t="s">
+        <v>2386</v>
+      </c>
       <c r="F594" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -16025,8 +16993,11 @@
       <c r="B595" t="s">
         <v>595</v>
       </c>
+      <c r="C595" t="s">
+        <v>2386</v>
+      </c>
       <c r="F595" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -16036,8 +17007,11 @@
       <c r="B596" t="s">
         <v>596</v>
       </c>
+      <c r="C596" t="s">
+        <v>2386</v>
+      </c>
       <c r="F596" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -16047,8 +17021,11 @@
       <c r="B597" t="s">
         <v>597</v>
       </c>
+      <c r="C597" t="s">
+        <v>2386</v>
+      </c>
       <c r="F597" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -16058,8 +17035,11 @@
       <c r="B598" t="s">
         <v>598</v>
       </c>
+      <c r="C598" t="s">
+        <v>2386</v>
+      </c>
       <c r="F598" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -16069,8 +17049,11 @@
       <c r="B599" t="s">
         <v>599</v>
       </c>
+      <c r="C599" t="s">
+        <v>2386</v>
+      </c>
       <c r="F599" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -16080,8 +17063,11 @@
       <c r="B600" t="s">
         <v>600</v>
       </c>
+      <c r="C600" t="s">
+        <v>2386</v>
+      </c>
       <c r="F600" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FEB752F6-1740-0940-A556-3A1F263F1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF3D8B85-4F24-2242-86C5-49E62B1794AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5350" uniqueCount="2427">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5450" uniqueCount="2429">
   <si>
     <t>Issue</t>
   </si>
@@ -7671,6 +7671,25 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコードされた1000 goroutinesを削減する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]goreportcad.comで検出されたタイプミスを修正
+[Class]タイプミスの修正</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ケンシュツサレタ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">シュウセイ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -8642,8 +8661,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="C601" sqref="C601"/>
+    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
+      <selection activeCell="F701" sqref="F701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17077,8 +17096,11 @@
       <c r="B601" t="s">
         <v>601</v>
       </c>
+      <c r="C601" t="s">
+        <v>2386</v>
+      </c>
       <c r="F601" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="42">
@@ -17088,8 +17110,11 @@
       <c r="B602" t="s">
         <v>602</v>
       </c>
+      <c r="C602" t="s">
+        <v>2386</v>
+      </c>
       <c r="F602" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="42">
@@ -17099,8 +17124,11 @@
       <c r="B603" t="s">
         <v>603</v>
       </c>
+      <c r="C603" t="s">
+        <v>2386</v>
+      </c>
       <c r="F603" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="42">
@@ -17110,8 +17138,11 @@
       <c r="B604" t="s">
         <v>604</v>
       </c>
+      <c r="C604" t="s">
+        <v>2386</v>
+      </c>
       <c r="F604" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="42">
@@ -17121,8 +17152,11 @@
       <c r="B605" t="s">
         <v>605</v>
       </c>
+      <c r="C605" t="s">
+        <v>2386</v>
+      </c>
       <c r="F605" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="42">
@@ -17132,8 +17166,11 @@
       <c r="B606" t="s">
         <v>606</v>
       </c>
+      <c r="C606" t="s">
+        <v>2386</v>
+      </c>
       <c r="F606" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="42">
@@ -17143,8 +17180,11 @@
       <c r="B607" t="s">
         <v>607</v>
       </c>
+      <c r="C607" t="s">
+        <v>2386</v>
+      </c>
       <c r="F607" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="42">
@@ -17154,8 +17194,11 @@
       <c r="B608" t="s">
         <v>608</v>
       </c>
+      <c r="C608" t="s">
+        <v>2386</v>
+      </c>
       <c r="F608" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="42">
@@ -17165,8 +17208,11 @@
       <c r="B609" t="s">
         <v>609</v>
       </c>
+      <c r="C609" t="s">
+        <v>2386</v>
+      </c>
       <c r="F609" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="42">
@@ -17176,8 +17222,11 @@
       <c r="B610" t="s">
         <v>610</v>
       </c>
+      <c r="C610" t="s">
+        <v>2386</v>
+      </c>
       <c r="F610" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="42">
@@ -17187,8 +17236,11 @@
       <c r="B611" t="s">
         <v>611</v>
       </c>
+      <c r="C611" t="s">
+        <v>2386</v>
+      </c>
       <c r="F611" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="42">
@@ -17198,8 +17250,11 @@
       <c r="B612" t="s">
         <v>612</v>
       </c>
+      <c r="C612" t="s">
+        <v>2386</v>
+      </c>
       <c r="F612" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="42">
@@ -17209,8 +17264,11 @@
       <c r="B613" t="s">
         <v>613</v>
       </c>
+      <c r="C613" t="s">
+        <v>2386</v>
+      </c>
       <c r="F613" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="42">
@@ -17220,8 +17278,11 @@
       <c r="B614" t="s">
         <v>614</v>
       </c>
+      <c r="C614" t="s">
+        <v>2386</v>
+      </c>
       <c r="F614" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="42">
@@ -17231,8 +17292,11 @@
       <c r="B615" t="s">
         <v>615</v>
       </c>
+      <c r="C615" t="s">
+        <v>2386</v>
+      </c>
       <c r="F615" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="42">
@@ -17242,8 +17306,11 @@
       <c r="B616" t="s">
         <v>616</v>
       </c>
+      <c r="C616" t="s">
+        <v>2386</v>
+      </c>
       <c r="F616" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="42">
@@ -17253,8 +17320,11 @@
       <c r="B617" t="s">
         <v>617</v>
       </c>
+      <c r="C617" t="s">
+        <v>2386</v>
+      </c>
       <c r="F617" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="42">
@@ -17264,8 +17334,11 @@
       <c r="B618" t="s">
         <v>618</v>
       </c>
+      <c r="C618" t="s">
+        <v>2386</v>
+      </c>
       <c r="F618" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="42">
@@ -17275,8 +17348,11 @@
       <c r="B619" t="s">
         <v>619</v>
       </c>
+      <c r="C619" t="s">
+        <v>2386</v>
+      </c>
       <c r="F619" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="42">
@@ -17286,8 +17362,11 @@
       <c r="B620" t="s">
         <v>620</v>
       </c>
+      <c r="C620" t="s">
+        <v>2386</v>
+      </c>
       <c r="F620" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="42">
@@ -17297,8 +17376,11 @@
       <c r="B621" t="s">
         <v>621</v>
       </c>
+      <c r="C621" t="s">
+        <v>2386</v>
+      </c>
       <c r="F621" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="42">
@@ -17308,8 +17390,11 @@
       <c r="B622" t="s">
         <v>622</v>
       </c>
+      <c r="C622" t="s">
+        <v>2386</v>
+      </c>
       <c r="F622" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="42">
@@ -17319,8 +17404,11 @@
       <c r="B623" t="s">
         <v>623</v>
       </c>
+      <c r="C623" t="s">
+        <v>2386</v>
+      </c>
       <c r="F623" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="624" spans="1:6" ht="42">
@@ -17330,8 +17418,11 @@
       <c r="B624" t="s">
         <v>624</v>
       </c>
+      <c r="C624" t="s">
+        <v>2386</v>
+      </c>
       <c r="F624" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="625" spans="1:6" ht="42">
@@ -17341,8 +17432,11 @@
       <c r="B625" t="s">
         <v>625</v>
       </c>
+      <c r="C625" t="s">
+        <v>2386</v>
+      </c>
       <c r="F625" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="42">
@@ -17352,8 +17446,11 @@
       <c r="B626" t="s">
         <v>626</v>
       </c>
+      <c r="C626" t="s">
+        <v>2386</v>
+      </c>
       <c r="F626" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="42">
@@ -17363,8 +17460,11 @@
       <c r="B627" t="s">
         <v>627</v>
       </c>
+      <c r="C627" t="s">
+        <v>2386</v>
+      </c>
       <c r="F627" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="42">
@@ -17374,8 +17474,11 @@
       <c r="B628" t="s">
         <v>628</v>
       </c>
+      <c r="C628" t="s">
+        <v>2386</v>
+      </c>
       <c r="F628" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="42">
@@ -17385,8 +17488,11 @@
       <c r="B629" t="s">
         <v>629</v>
       </c>
+      <c r="C629" t="s">
+        <v>2386</v>
+      </c>
       <c r="F629" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="630" spans="1:6" ht="42">
@@ -17396,8 +17502,11 @@
       <c r="B630" t="s">
         <v>630</v>
       </c>
+      <c r="C630" t="s">
+        <v>2386</v>
+      </c>
       <c r="F630" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="631" spans="1:6" ht="42">
@@ -17407,8 +17516,11 @@
       <c r="B631" t="s">
         <v>631</v>
       </c>
+      <c r="C631" t="s">
+        <v>2386</v>
+      </c>
       <c r="F631" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="632" spans="1:6" ht="42">
@@ -17418,8 +17530,11 @@
       <c r="B632" t="s">
         <v>632</v>
       </c>
+      <c r="C632" t="s">
+        <v>2386</v>
+      </c>
       <c r="F632" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="42">
@@ -17429,8 +17544,11 @@
       <c r="B633" t="s">
         <v>633</v>
       </c>
+      <c r="C633" t="s">
+        <v>2386</v>
+      </c>
       <c r="F633" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="634" spans="1:6" ht="42">
@@ -17440,8 +17558,11 @@
       <c r="B634" t="s">
         <v>634</v>
       </c>
+      <c r="C634" t="s">
+        <v>2386</v>
+      </c>
       <c r="F634" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="42">
@@ -17451,8 +17572,11 @@
       <c r="B635" t="s">
         <v>635</v>
       </c>
+      <c r="C635" t="s">
+        <v>2386</v>
+      </c>
       <c r="F635" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="42">
@@ -17462,8 +17586,11 @@
       <c r="B636" t="s">
         <v>636</v>
       </c>
+      <c r="C636" t="s">
+        <v>2386</v>
+      </c>
       <c r="F636" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="42">
@@ -17473,8 +17600,11 @@
       <c r="B637" t="s">
         <v>637</v>
       </c>
+      <c r="C637" t="s">
+        <v>2386</v>
+      </c>
       <c r="F637" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="42">
@@ -17484,8 +17614,11 @@
       <c r="B638" t="s">
         <v>638</v>
       </c>
+      <c r="C638" t="s">
+        <v>2386</v>
+      </c>
       <c r="F638" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="639" spans="1:6" ht="42">
@@ -17495,8 +17628,11 @@
       <c r="B639" t="s">
         <v>639</v>
       </c>
+      <c r="C639" t="s">
+        <v>2386</v>
+      </c>
       <c r="F639" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="42">
@@ -17506,8 +17642,11 @@
       <c r="B640" t="s">
         <v>640</v>
       </c>
+      <c r="C640" t="s">
+        <v>2386</v>
+      </c>
       <c r="F640" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="641" spans="1:6" ht="42">
@@ -17517,8 +17656,11 @@
       <c r="B641" t="s">
         <v>641</v>
       </c>
+      <c r="C641" t="s">
+        <v>2386</v>
+      </c>
       <c r="F641" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="42">
@@ -17528,8 +17670,11 @@
       <c r="B642" t="s">
         <v>642</v>
       </c>
+      <c r="C642" t="s">
+        <v>2386</v>
+      </c>
       <c r="F642" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="643" spans="1:6" ht="42">
@@ -17539,8 +17684,11 @@
       <c r="B643" t="s">
         <v>643</v>
       </c>
+      <c r="C643" t="s">
+        <v>2386</v>
+      </c>
       <c r="F643" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="644" spans="1:6" ht="42">
@@ -17550,8 +17698,11 @@
       <c r="B644" t="s">
         <v>644</v>
       </c>
+      <c r="C644" t="s">
+        <v>2386</v>
+      </c>
       <c r="F644" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="645" spans="1:6" ht="42">
@@ -17561,8 +17712,11 @@
       <c r="B645" t="s">
         <v>645</v>
       </c>
+      <c r="C645" t="s">
+        <v>2386</v>
+      </c>
       <c r="F645" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="646" spans="1:6" ht="42">
@@ -17572,8 +17726,11 @@
       <c r="B646" t="s">
         <v>646</v>
       </c>
+      <c r="C646" t="s">
+        <v>2386</v>
+      </c>
       <c r="F646" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="647" spans="1:6" ht="42">
@@ -17583,8 +17740,11 @@
       <c r="B647" t="s">
         <v>647</v>
       </c>
+      <c r="C647" t="s">
+        <v>2386</v>
+      </c>
       <c r="F647" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="648" spans="1:6" ht="42">
@@ -17594,8 +17754,11 @@
       <c r="B648" t="s">
         <v>648</v>
       </c>
+      <c r="C648" t="s">
+        <v>2386</v>
+      </c>
       <c r="F648" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="42">
@@ -17605,8 +17768,11 @@
       <c r="B649" t="s">
         <v>649</v>
       </c>
+      <c r="C649" t="s">
+        <v>2386</v>
+      </c>
       <c r="F649" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="650" spans="1:6" ht="42">
@@ -17616,8 +17782,11 @@
       <c r="B650" t="s">
         <v>650</v>
       </c>
+      <c r="C650" t="s">
+        <v>2386</v>
+      </c>
       <c r="F650" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="651" spans="1:6" ht="42">
@@ -17627,8 +17796,11 @@
       <c r="B651" t="s">
         <v>651</v>
       </c>
+      <c r="C651" t="s">
+        <v>2386</v>
+      </c>
       <c r="F651" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="652" spans="1:6" ht="42">
@@ -17638,8 +17810,11 @@
       <c r="B652" t="s">
         <v>652</v>
       </c>
+      <c r="C652" t="s">
+        <v>2386</v>
+      </c>
       <c r="F652" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="653" spans="1:6" ht="42">
@@ -17649,8 +17824,11 @@
       <c r="B653" t="s">
         <v>653</v>
       </c>
+      <c r="C653" t="s">
+        <v>2386</v>
+      </c>
       <c r="F653" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="654" spans="1:6" ht="42">
@@ -17660,8 +17838,11 @@
       <c r="B654" t="s">
         <v>654</v>
       </c>
+      <c r="C654" t="s">
+        <v>2386</v>
+      </c>
       <c r="F654" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="655" spans="1:6" ht="42">
@@ -17671,8 +17852,11 @@
       <c r="B655" t="s">
         <v>655</v>
       </c>
+      <c r="C655" t="s">
+        <v>2386</v>
+      </c>
       <c r="F655" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="656" spans="1:6" ht="42">
@@ -17682,8 +17866,11 @@
       <c r="B656" t="s">
         <v>656</v>
       </c>
+      <c r="C656" t="s">
+        <v>2386</v>
+      </c>
       <c r="F656" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="42">
@@ -17693,8 +17880,11 @@
       <c r="B657" t="s">
         <v>657</v>
       </c>
+      <c r="C657" t="s">
+        <v>2386</v>
+      </c>
       <c r="F657" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="658" spans="1:6" ht="42">
@@ -17704,8 +17894,11 @@
       <c r="B658" t="s">
         <v>658</v>
       </c>
+      <c r="C658" t="s">
+        <v>2386</v>
+      </c>
       <c r="F658" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="659" spans="1:6" ht="42">
@@ -17715,8 +17908,11 @@
       <c r="B659" t="s">
         <v>659</v>
       </c>
+      <c r="C659" t="s">
+        <v>2386</v>
+      </c>
       <c r="F659" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="660" spans="1:6" ht="42">
@@ -17726,8 +17922,11 @@
       <c r="B660" t="s">
         <v>660</v>
       </c>
+      <c r="C660" t="s">
+        <v>2386</v>
+      </c>
       <c r="F660" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="661" spans="1:6" ht="42">
@@ -17737,8 +17936,11 @@
       <c r="B661" t="s">
         <v>661</v>
       </c>
+      <c r="C661" t="s">
+        <v>2386</v>
+      </c>
       <c r="F661" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="662" spans="1:6" ht="42">
@@ -17748,8 +17950,11 @@
       <c r="B662" t="s">
         <v>662</v>
       </c>
+      <c r="C662" t="s">
+        <v>2386</v>
+      </c>
       <c r="F662" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="42">
@@ -17759,8 +17964,11 @@
       <c r="B663" t="s">
         <v>663</v>
       </c>
+      <c r="C663" t="s">
+        <v>2386</v>
+      </c>
       <c r="F663" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="664" spans="1:6" ht="42">
@@ -17770,8 +17978,11 @@
       <c r="B664" t="s">
         <v>664</v>
       </c>
+      <c r="C664" t="s">
+        <v>2386</v>
+      </c>
       <c r="F664" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="665" spans="1:6" ht="42">
@@ -17781,8 +17992,11 @@
       <c r="B665" t="s">
         <v>665</v>
       </c>
+      <c r="C665" t="s">
+        <v>2386</v>
+      </c>
       <c r="F665" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="666" spans="1:6" ht="42">
@@ -17792,8 +18006,11 @@
       <c r="B666" t="s">
         <v>666</v>
       </c>
+      <c r="C666" t="s">
+        <v>2386</v>
+      </c>
       <c r="F666" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="667" spans="1:6" ht="42">
@@ -17803,8 +18020,11 @@
       <c r="B667" t="s">
         <v>667</v>
       </c>
+      <c r="C667" t="s">
+        <v>2386</v>
+      </c>
       <c r="F667" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="668" spans="1:6" ht="42">
@@ -17814,8 +18034,11 @@
       <c r="B668" t="s">
         <v>668</v>
       </c>
+      <c r="C668" t="s">
+        <v>2386</v>
+      </c>
       <c r="F668" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="669" spans="1:6" ht="42">
@@ -17825,8 +18048,11 @@
       <c r="B669" t="s">
         <v>669</v>
       </c>
+      <c r="C669" t="s">
+        <v>2386</v>
+      </c>
       <c r="F669" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="670" spans="1:6" ht="42">
@@ -17836,8 +18062,11 @@
       <c r="B670" t="s">
         <v>670</v>
       </c>
+      <c r="C670" t="s">
+        <v>2386</v>
+      </c>
       <c r="F670" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="42">
@@ -17847,8 +18076,11 @@
       <c r="B671" t="s">
         <v>671</v>
       </c>
+      <c r="C671" t="s">
+        <v>2386</v>
+      </c>
       <c r="F671" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="672" spans="1:6" ht="42">
@@ -17858,8 +18090,11 @@
       <c r="B672" t="s">
         <v>672</v>
       </c>
+      <c r="C672" t="s">
+        <v>2386</v>
+      </c>
       <c r="F672" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="42">
@@ -17869,8 +18104,11 @@
       <c r="B673" t="s">
         <v>673</v>
       </c>
+      <c r="C673" t="s">
+        <v>2386</v>
+      </c>
       <c r="F673" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="674" spans="1:6" ht="42">
@@ -17880,8 +18118,11 @@
       <c r="B674" t="s">
         <v>674</v>
       </c>
+      <c r="C674" t="s">
+        <v>2386</v>
+      </c>
       <c r="F674" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="42">
@@ -17891,8 +18132,11 @@
       <c r="B675" t="s">
         <v>675</v>
       </c>
+      <c r="C675" t="s">
+        <v>2386</v>
+      </c>
       <c r="F675" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="676" spans="1:6" ht="42">
@@ -17902,8 +18146,11 @@
       <c r="B676" t="s">
         <v>676</v>
       </c>
+      <c r="C676" t="s">
+        <v>2386</v>
+      </c>
       <c r="F676" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="42">
@@ -17913,8 +18160,11 @@
       <c r="B677" t="s">
         <v>677</v>
       </c>
+      <c r="C677" t="s">
+        <v>2386</v>
+      </c>
       <c r="F677" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="42">
@@ -17924,8 +18174,11 @@
       <c r="B678" t="s">
         <v>678</v>
       </c>
+      <c r="C678" t="s">
+        <v>2386</v>
+      </c>
       <c r="F678" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="679" spans="1:6" ht="42">
@@ -17935,8 +18188,11 @@
       <c r="B679" t="s">
         <v>679</v>
       </c>
+      <c r="C679" t="s">
+        <v>2386</v>
+      </c>
       <c r="F679" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="680" spans="1:6" ht="42">
@@ -17946,8 +18202,11 @@
       <c r="B680" t="s">
         <v>680</v>
       </c>
+      <c r="C680" t="s">
+        <v>2386</v>
+      </c>
       <c r="F680" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="681" spans="1:6" ht="42">
@@ -17957,8 +18216,11 @@
       <c r="B681" t="s">
         <v>681</v>
       </c>
+      <c r="C681" t="s">
+        <v>2386</v>
+      </c>
       <c r="F681" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="42">
@@ -17968,8 +18230,11 @@
       <c r="B682" t="s">
         <v>682</v>
       </c>
+      <c r="C682" t="s">
+        <v>2386</v>
+      </c>
       <c r="F682" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="42">
@@ -17979,8 +18244,11 @@
       <c r="B683" t="s">
         <v>683</v>
       </c>
+      <c r="C683" t="s">
+        <v>2386</v>
+      </c>
       <c r="F683" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="684" spans="1:6" ht="42">
@@ -17990,8 +18258,11 @@
       <c r="B684" t="s">
         <v>684</v>
       </c>
+      <c r="C684" t="s">
+        <v>2386</v>
+      </c>
       <c r="F684" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="685" spans="1:6" ht="42">
@@ -18001,8 +18272,11 @@
       <c r="B685" t="s">
         <v>685</v>
       </c>
+      <c r="C685" t="s">
+        <v>2386</v>
+      </c>
       <c r="F685" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="686" spans="1:6" ht="42">
@@ -18012,8 +18286,11 @@
       <c r="B686" t="s">
         <v>686</v>
       </c>
+      <c r="C686" t="s">
+        <v>2386</v>
+      </c>
       <c r="F686" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="42">
@@ -18023,8 +18300,11 @@
       <c r="B687" t="s">
         <v>687</v>
       </c>
+      <c r="C687" t="s">
+        <v>2386</v>
+      </c>
       <c r="F687" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="688" spans="1:6" ht="42">
@@ -18034,8 +18314,11 @@
       <c r="B688" t="s">
         <v>688</v>
       </c>
+      <c r="C688" t="s">
+        <v>2386</v>
+      </c>
       <c r="F688" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="689" spans="1:6" ht="42">
@@ -18045,8 +18328,11 @@
       <c r="B689" t="s">
         <v>689</v>
       </c>
+      <c r="C689" t="s">
+        <v>2386</v>
+      </c>
       <c r="F689" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="42">
@@ -18056,8 +18342,11 @@
       <c r="B690" t="s">
         <v>690</v>
       </c>
+      <c r="C690" t="s">
+        <v>2386</v>
+      </c>
       <c r="F690" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="42">
@@ -18067,8 +18356,11 @@
       <c r="B691" t="s">
         <v>691</v>
       </c>
+      <c r="C691" t="s">
+        <v>2386</v>
+      </c>
       <c r="F691" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="692" spans="1:6" ht="42">
@@ -18078,8 +18370,11 @@
       <c r="B692" t="s">
         <v>692</v>
       </c>
+      <c r="C692" t="s">
+        <v>2386</v>
+      </c>
       <c r="F692" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="42">
@@ -18089,8 +18384,11 @@
       <c r="B693" t="s">
         <v>693</v>
       </c>
+      <c r="C693" t="s">
+        <v>2386</v>
+      </c>
       <c r="F693" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="694" spans="1:6" ht="42">
@@ -18100,8 +18398,11 @@
       <c r="B694" t="s">
         <v>694</v>
       </c>
+      <c r="C694" t="s">
+        <v>2386</v>
+      </c>
       <c r="F694" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="695" spans="1:6" ht="42">
@@ -18111,8 +18412,11 @@
       <c r="B695" t="s">
         <v>695</v>
       </c>
+      <c r="C695" t="s">
+        <v>2386</v>
+      </c>
       <c r="F695" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="696" spans="1:6" ht="42">
@@ -18122,8 +18426,11 @@
       <c r="B696" t="s">
         <v>696</v>
       </c>
+      <c r="C696" t="s">
+        <v>2386</v>
+      </c>
       <c r="F696" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="697" spans="1:6" ht="42">
@@ -18133,8 +18440,11 @@
       <c r="B697" t="s">
         <v>697</v>
       </c>
+      <c r="C697" t="s">
+        <v>2386</v>
+      </c>
       <c r="F697" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="42">
@@ -18144,8 +18454,11 @@
       <c r="B698" t="s">
         <v>698</v>
       </c>
+      <c r="C698" t="s">
+        <v>2386</v>
+      </c>
       <c r="F698" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="699" spans="1:6" ht="42">
@@ -18155,8 +18468,11 @@
       <c r="B699" t="s">
         <v>699</v>
       </c>
+      <c r="C699" t="s">
+        <v>2377</v>
+      </c>
       <c r="F699" s="2" t="s">
-        <v>2376</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="700" spans="1:6" ht="42">
@@ -18166,8 +18482,11 @@
       <c r="B700" t="s">
         <v>700</v>
       </c>
+      <c r="C700" t="s">
+        <v>2377</v>
+      </c>
       <c r="F700" s="2" t="s">
-        <v>2376</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF3D8B85-4F24-2242-86C5-49E62B1794AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9FC092F3-BA3D-874D-AA42-CA226AD5480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5450" uniqueCount="2429">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5505" uniqueCount="2437">
   <si>
     <t>Issue</t>
   </si>
@@ -7690,6 +7690,78 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ID validationを一元化
+[Class]関数の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DM messageのpermalink urlを追加
+[Class]機能の改善</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストをtable testingに変換
+[Class]テストの変更</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Webappでglobal stateをglobal_actions.tsxに渡さない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストを簡単にするためなのでDesign</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カンタンニスルタメ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複したパラメータの削除
+[Class]不要なパラメータの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チョウフクシタ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]post componentsからjQueryの使用を削除
+[Class]コードの簡素化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mmctl commandのend to end testを追加
+[Class]テストの追加</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">ツイカ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -8661,8 +8733,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A696" workbookViewId="0">
-      <selection activeCell="F701" sqref="F701"/>
+    <sheetView tabSelected="1" topLeftCell="A752" workbookViewId="0">
+      <selection activeCell="E755" sqref="E755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18496,8 +18568,11 @@
       <c r="B701" t="s">
         <v>701</v>
       </c>
+      <c r="C701" t="s">
+        <v>2377</v>
+      </c>
       <c r="F701" s="2" t="s">
-        <v>2376</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="42">
@@ -18507,8 +18582,11 @@
       <c r="B702" t="s">
         <v>702</v>
       </c>
+      <c r="C702" t="s">
+        <v>2377</v>
+      </c>
       <c r="F702" s="2" t="s">
-        <v>2376</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="703" spans="1:6" ht="42">
@@ -18518,8 +18596,11 @@
       <c r="B703" t="s">
         <v>703</v>
       </c>
+      <c r="C703" t="s">
+        <v>2386</v>
+      </c>
       <c r="F703" s="2" t="s">
-        <v>2376</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="704" spans="1:6" ht="42">
@@ -18529,8 +18610,14 @@
       <c r="B704" t="s">
         <v>704</v>
       </c>
+      <c r="C704" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>2433</v>
+      </c>
       <c r="F704" s="2" t="s">
-        <v>2376</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="705" spans="1:6" ht="42">
@@ -18540,8 +18627,11 @@
       <c r="B705" t="s">
         <v>705</v>
       </c>
+      <c r="C705" t="s">
+        <v>2377</v>
+      </c>
       <c r="F705" s="2" t="s">
-        <v>2376</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="42">
@@ -18551,8 +18641,11 @@
       <c r="B706" t="s">
         <v>706</v>
       </c>
+      <c r="C706" t="s">
+        <v>2377</v>
+      </c>
       <c r="F706" s="2" t="s">
-        <v>2376</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="42">
@@ -18562,8 +18655,11 @@
       <c r="B707" t="s">
         <v>707</v>
       </c>
+      <c r="C707" t="s">
+        <v>2386</v>
+      </c>
       <c r="F707" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="42">
@@ -18573,8 +18669,11 @@
       <c r="B708" t="s">
         <v>708</v>
       </c>
+      <c r="C708" t="s">
+        <v>2386</v>
+      </c>
       <c r="F708" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="42">
@@ -18584,8 +18683,11 @@
       <c r="B709" t="s">
         <v>709</v>
       </c>
+      <c r="C709" t="s">
+        <v>2386</v>
+      </c>
       <c r="F709" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="710" spans="1:6" ht="42">
@@ -18595,8 +18697,11 @@
       <c r="B710" t="s">
         <v>710</v>
       </c>
+      <c r="C710" t="s">
+        <v>2386</v>
+      </c>
       <c r="F710" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="42">
@@ -18606,8 +18711,11 @@
       <c r="B711" t="s">
         <v>711</v>
       </c>
+      <c r="C711" t="s">
+        <v>2386</v>
+      </c>
       <c r="F711" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="712" spans="1:6" ht="42">
@@ -18617,8 +18725,11 @@
       <c r="B712" t="s">
         <v>712</v>
       </c>
+      <c r="C712" t="s">
+        <v>2386</v>
+      </c>
       <c r="F712" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="42">
@@ -18628,8 +18739,11 @@
       <c r="B713" t="s">
         <v>713</v>
       </c>
+      <c r="C713" t="s">
+        <v>2386</v>
+      </c>
       <c r="F713" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="42">
@@ -18639,8 +18753,11 @@
       <c r="B714" t="s">
         <v>714</v>
       </c>
+      <c r="C714" t="s">
+        <v>2386</v>
+      </c>
       <c r="F714" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="42">
@@ -18650,8 +18767,11 @@
       <c r="B715" t="s">
         <v>715</v>
       </c>
+      <c r="C715" t="s">
+        <v>2386</v>
+      </c>
       <c r="F715" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="42">
@@ -18661,8 +18781,11 @@
       <c r="B716" t="s">
         <v>716</v>
       </c>
+      <c r="C716" t="s">
+        <v>2386</v>
+      </c>
       <c r="F716" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="42">
@@ -18672,8 +18795,11 @@
       <c r="B717" t="s">
         <v>717</v>
       </c>
+      <c r="C717" t="s">
+        <v>2386</v>
+      </c>
       <c r="F717" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="42">
@@ -18683,8 +18809,11 @@
       <c r="B718" t="s">
         <v>718</v>
       </c>
+      <c r="C718" t="s">
+        <v>2386</v>
+      </c>
       <c r="F718" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="719" spans="1:6" ht="42">
@@ -18694,8 +18823,11 @@
       <c r="B719" t="s">
         <v>719</v>
       </c>
+      <c r="C719" t="s">
+        <v>2386</v>
+      </c>
       <c r="F719" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="42">
@@ -18705,8 +18837,11 @@
       <c r="B720" t="s">
         <v>720</v>
       </c>
+      <c r="C720" t="s">
+        <v>2386</v>
+      </c>
       <c r="F720" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="42">
@@ -18716,8 +18851,11 @@
       <c r="B721" t="s">
         <v>721</v>
       </c>
+      <c r="C721" t="s">
+        <v>2386</v>
+      </c>
       <c r="F721" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="42">
@@ -18727,8 +18865,11 @@
       <c r="B722" t="s">
         <v>722</v>
       </c>
+      <c r="C722" t="s">
+        <v>2386</v>
+      </c>
       <c r="F722" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="42">
@@ -18738,8 +18879,11 @@
       <c r="B723" t="s">
         <v>723</v>
       </c>
+      <c r="C723" t="s">
+        <v>2386</v>
+      </c>
       <c r="F723" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="42">
@@ -18749,8 +18893,11 @@
       <c r="B724" t="s">
         <v>724</v>
       </c>
+      <c r="C724" t="s">
+        <v>2386</v>
+      </c>
       <c r="F724" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="42">
@@ -18760,8 +18907,11 @@
       <c r="B725" t="s">
         <v>725</v>
       </c>
+      <c r="C725" t="s">
+        <v>2386</v>
+      </c>
       <c r="F725" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="42">
@@ -18771,8 +18921,11 @@
       <c r="B726" t="s">
         <v>726</v>
       </c>
+      <c r="C726" t="s">
+        <v>2386</v>
+      </c>
       <c r="F726" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="42">
@@ -18782,8 +18935,11 @@
       <c r="B727" t="s">
         <v>727</v>
       </c>
+      <c r="C727" t="s">
+        <v>2386</v>
+      </c>
       <c r="F727" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="42">
@@ -18793,8 +18949,11 @@
       <c r="B728" t="s">
         <v>728</v>
       </c>
+      <c r="C728" t="s">
+        <v>2386</v>
+      </c>
       <c r="F728" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="42">
@@ -18804,8 +18963,11 @@
       <c r="B729" t="s">
         <v>729</v>
       </c>
+      <c r="C729" t="s">
+        <v>2386</v>
+      </c>
       <c r="F729" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="42">
@@ -18815,8 +18977,11 @@
       <c r="B730" t="s">
         <v>730</v>
       </c>
+      <c r="C730" t="s">
+        <v>2386</v>
+      </c>
       <c r="F730" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="42">
@@ -18826,8 +18991,11 @@
       <c r="B731" t="s">
         <v>731</v>
       </c>
+      <c r="C731" t="s">
+        <v>2386</v>
+      </c>
       <c r="F731" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="42">
@@ -18837,8 +19005,11 @@
       <c r="B732" t="s">
         <v>732</v>
       </c>
+      <c r="C732" t="s">
+        <v>2386</v>
+      </c>
       <c r="F732" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="733" spans="1:6" ht="42">
@@ -18848,8 +19019,11 @@
       <c r="B733" t="s">
         <v>733</v>
       </c>
+      <c r="C733" t="s">
+        <v>2386</v>
+      </c>
       <c r="F733" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="42">
@@ -18859,8 +19033,11 @@
       <c r="B734" t="s">
         <v>734</v>
       </c>
+      <c r="C734" t="s">
+        <v>2386</v>
+      </c>
       <c r="F734" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="42">
@@ -18870,8 +19047,11 @@
       <c r="B735" t="s">
         <v>735</v>
       </c>
+      <c r="C735" t="s">
+        <v>2386</v>
+      </c>
       <c r="F735" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="42">
@@ -18881,8 +19061,11 @@
       <c r="B736" t="s">
         <v>736</v>
       </c>
+      <c r="C736" t="s">
+        <v>2386</v>
+      </c>
       <c r="F736" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="42">
@@ -18892,8 +19075,11 @@
       <c r="B737" t="s">
         <v>737</v>
       </c>
+      <c r="C737" t="s">
+        <v>2386</v>
+      </c>
       <c r="F737" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="738" spans="1:6" ht="42">
@@ -18903,8 +19089,11 @@
       <c r="B738" t="s">
         <v>738</v>
       </c>
+      <c r="C738" t="s">
+        <v>2386</v>
+      </c>
       <c r="F738" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="739" spans="1:6" ht="42">
@@ -18914,8 +19103,11 @@
       <c r="B739" t="s">
         <v>739</v>
       </c>
+      <c r="C739" t="s">
+        <v>2386</v>
+      </c>
       <c r="F739" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="740" spans="1:6" ht="42">
@@ -18925,8 +19117,11 @@
       <c r="B740" t="s">
         <v>740</v>
       </c>
+      <c r="C740" t="s">
+        <v>2386</v>
+      </c>
       <c r="F740" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="42">
@@ -18936,8 +19131,11 @@
       <c r="B741" t="s">
         <v>741</v>
       </c>
+      <c r="C741" t="s">
+        <v>2386</v>
+      </c>
       <c r="F741" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="42">
@@ -18947,8 +19145,11 @@
       <c r="B742" t="s">
         <v>742</v>
       </c>
+      <c r="C742" t="s">
+        <v>2386</v>
+      </c>
       <c r="F742" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="42">
@@ -18958,8 +19159,11 @@
       <c r="B743" t="s">
         <v>743</v>
       </c>
+      <c r="C743" t="s">
+        <v>2386</v>
+      </c>
       <c r="F743" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="42">
@@ -18969,8 +19173,11 @@
       <c r="B744" t="s">
         <v>744</v>
       </c>
+      <c r="C744" t="s">
+        <v>2386</v>
+      </c>
       <c r="F744" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="42">
@@ -18980,8 +19187,11 @@
       <c r="B745" t="s">
         <v>745</v>
       </c>
+      <c r="C745" t="s">
+        <v>2386</v>
+      </c>
       <c r="F745" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="42">
@@ -18991,8 +19201,11 @@
       <c r="B746" t="s">
         <v>746</v>
       </c>
+      <c r="C746" t="s">
+        <v>2386</v>
+      </c>
       <c r="F746" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="42">
@@ -19002,8 +19215,11 @@
       <c r="B747" t="s">
         <v>747</v>
       </c>
+      <c r="C747" t="s">
+        <v>2386</v>
+      </c>
       <c r="F747" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="42">
@@ -19013,8 +19229,11 @@
       <c r="B748" t="s">
         <v>748</v>
       </c>
+      <c r="C748" t="s">
+        <v>2386</v>
+      </c>
       <c r="F748" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="42">
@@ -19024,8 +19243,11 @@
       <c r="B749" t="s">
         <v>749</v>
       </c>
+      <c r="C749" t="s">
+        <v>2386</v>
+      </c>
       <c r="F749" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="750" spans="1:6" ht="42">
@@ -19035,8 +19257,11 @@
       <c r="B750" t="s">
         <v>750</v>
       </c>
+      <c r="C750" t="s">
+        <v>2386</v>
+      </c>
       <c r="F750" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="751" spans="1:6" ht="42">
@@ -19046,8 +19271,11 @@
       <c r="B751" t="s">
         <v>751</v>
       </c>
+      <c r="C751" t="s">
+        <v>2386</v>
+      </c>
       <c r="F751" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="42">
@@ -19057,8 +19285,11 @@
       <c r="B752" t="s">
         <v>752</v>
       </c>
+      <c r="C752" t="s">
+        <v>2386</v>
+      </c>
       <c r="F752" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="42">
@@ -19068,8 +19299,11 @@
       <c r="B753" t="s">
         <v>753</v>
       </c>
+      <c r="C753" t="s">
+        <v>2386</v>
+      </c>
       <c r="F753" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="42">
@@ -19079,8 +19313,11 @@
       <c r="B754" t="s">
         <v>754</v>
       </c>
+      <c r="C754" t="s">
+        <v>2386</v>
+      </c>
       <c r="F754" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="755" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9FC092F3-BA3D-874D-AA42-CA226AD5480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2CCCABD8-B331-6F4B-8CDB-9E750DB16886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5505" uniqueCount="2437">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5551" uniqueCount="2439">
   <si>
     <t>Issue</t>
   </si>
@@ -7762,6 +7762,34 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]string-refsを移行
+[Class]非推奨のAPIへの対応</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API layerからdirect Store callsを削除
+[Class]機能の改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -8733,8 +8761,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A752" workbookViewId="0">
-      <selection activeCell="E755" sqref="E755"/>
+    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+      <selection activeCell="E800" sqref="E800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19327,8 +19355,11 @@
       <c r="B755" t="s">
         <v>755</v>
       </c>
+      <c r="C755" t="s">
+        <v>2411</v>
+      </c>
       <c r="F755" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="42">
@@ -19338,8 +19369,11 @@
       <c r="B756" t="s">
         <v>756</v>
       </c>
+      <c r="C756" t="s">
+        <v>2411</v>
+      </c>
       <c r="F756" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="42">
@@ -19349,8 +19383,11 @@
       <c r="B757" t="s">
         <v>757</v>
       </c>
+      <c r="C757" t="s">
+        <v>2411</v>
+      </c>
       <c r="F757" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="758" spans="1:6" ht="42">
@@ -19360,8 +19397,11 @@
       <c r="B758" t="s">
         <v>758</v>
       </c>
+      <c r="C758" t="s">
+        <v>2411</v>
+      </c>
       <c r="F758" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="42">
@@ -19371,8 +19411,11 @@
       <c r="B759" t="s">
         <v>759</v>
       </c>
+      <c r="C759" t="s">
+        <v>2411</v>
+      </c>
       <c r="F759" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="760" spans="1:6" ht="42">
@@ -19382,8 +19425,11 @@
       <c r="B760" t="s">
         <v>760</v>
       </c>
+      <c r="C760" t="s">
+        <v>2411</v>
+      </c>
       <c r="F760" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="42">
@@ -19393,8 +19439,11 @@
       <c r="B761" t="s">
         <v>761</v>
       </c>
+      <c r="C761" t="s">
+        <v>2411</v>
+      </c>
       <c r="F761" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="762" spans="1:6" ht="42">
@@ -19404,8 +19453,11 @@
       <c r="B762" t="s">
         <v>762</v>
       </c>
+      <c r="C762" t="s">
+        <v>2411</v>
+      </c>
       <c r="F762" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="42">
@@ -19415,8 +19467,11 @@
       <c r="B763" t="s">
         <v>763</v>
       </c>
+      <c r="C763" t="s">
+        <v>2411</v>
+      </c>
       <c r="F763" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="764" spans="1:6" ht="42">
@@ -19426,8 +19481,11 @@
       <c r="B764" t="s">
         <v>764</v>
       </c>
+      <c r="C764" t="s">
+        <v>2411</v>
+      </c>
       <c r="F764" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="765" spans="1:6" ht="42">
@@ -19437,8 +19495,11 @@
       <c r="B765" t="s">
         <v>765</v>
       </c>
+      <c r="C765" t="s">
+        <v>2386</v>
+      </c>
       <c r="F765" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="42">
@@ -19448,8 +19509,11 @@
       <c r="B766" t="s">
         <v>766</v>
       </c>
+      <c r="C766" t="s">
+        <v>2386</v>
+      </c>
       <c r="F766" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="767" spans="1:6" ht="42">
@@ -19459,8 +19523,11 @@
       <c r="B767" t="s">
         <v>767</v>
       </c>
+      <c r="C767" t="s">
+        <v>2386</v>
+      </c>
       <c r="F767" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="768" spans="1:6" ht="42">
@@ -19470,8 +19537,11 @@
       <c r="B768" t="s">
         <v>768</v>
       </c>
+      <c r="C768" t="s">
+        <v>2386</v>
+      </c>
       <c r="F768" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="42">
@@ -19481,8 +19551,11 @@
       <c r="B769" t="s">
         <v>769</v>
       </c>
+      <c r="C769" t="s">
+        <v>2386</v>
+      </c>
       <c r="F769" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="770" spans="1:6" ht="42">
@@ -19492,8 +19565,11 @@
       <c r="B770" t="s">
         <v>770</v>
       </c>
+      <c r="C770" t="s">
+        <v>2386</v>
+      </c>
       <c r="F770" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="42">
@@ -19503,8 +19579,11 @@
       <c r="B771" t="s">
         <v>771</v>
       </c>
+      <c r="C771" t="s">
+        <v>2386</v>
+      </c>
       <c r="F771" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="772" spans="1:6" ht="42">
@@ -19514,8 +19593,11 @@
       <c r="B772" t="s">
         <v>772</v>
       </c>
+      <c r="C772" t="s">
+        <v>2386</v>
+      </c>
       <c r="F772" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="42">
@@ -19525,8 +19607,11 @@
       <c r="B773" t="s">
         <v>773</v>
       </c>
+      <c r="C773" t="s">
+        <v>2386</v>
+      </c>
       <c r="F773" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="42">
@@ -19536,8 +19621,11 @@
       <c r="B774" t="s">
         <v>774</v>
       </c>
+      <c r="C774" t="s">
+        <v>2386</v>
+      </c>
       <c r="F774" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="775" spans="1:6" ht="42">
@@ -19547,8 +19635,11 @@
       <c r="B775" t="s">
         <v>775</v>
       </c>
+      <c r="C775" t="s">
+        <v>2386</v>
+      </c>
       <c r="F775" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="42">
@@ -19558,8 +19649,11 @@
       <c r="B776" t="s">
         <v>776</v>
       </c>
+      <c r="C776" t="s">
+        <v>2386</v>
+      </c>
       <c r="F776" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="42">
@@ -19569,8 +19663,11 @@
       <c r="B777" t="s">
         <v>777</v>
       </c>
+      <c r="C777" t="s">
+        <v>2386</v>
+      </c>
       <c r="F777" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="42">
@@ -19580,8 +19677,11 @@
       <c r="B778" t="s">
         <v>778</v>
       </c>
+      <c r="C778" t="s">
+        <v>2386</v>
+      </c>
       <c r="F778" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="42">
@@ -19591,8 +19691,11 @@
       <c r="B779" t="s">
         <v>779</v>
       </c>
+      <c r="C779" t="s">
+        <v>2386</v>
+      </c>
       <c r="F779" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="42">
@@ -19602,8 +19705,11 @@
       <c r="B780" t="s">
         <v>780</v>
       </c>
+      <c r="C780" t="s">
+        <v>2386</v>
+      </c>
       <c r="F780" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="42">
@@ -19613,8 +19719,11 @@
       <c r="B781" t="s">
         <v>781</v>
       </c>
+      <c r="C781" t="s">
+        <v>2386</v>
+      </c>
       <c r="F781" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="42">
@@ -19624,8 +19733,11 @@
       <c r="B782" t="s">
         <v>782</v>
       </c>
+      <c r="C782" t="s">
+        <v>2386</v>
+      </c>
       <c r="F782" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="42">
@@ -19635,8 +19747,11 @@
       <c r="B783" t="s">
         <v>783</v>
       </c>
+      <c r="C783" t="s">
+        <v>2377</v>
+      </c>
       <c r="F783" s="2" t="s">
-        <v>2376</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="784" spans="1:6" ht="42">
@@ -19646,8 +19761,11 @@
       <c r="B784" t="s">
         <v>784</v>
       </c>
+      <c r="C784" t="s">
+        <v>2377</v>
+      </c>
       <c r="F784" s="2" t="s">
-        <v>2376</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="42">
@@ -19657,8 +19775,11 @@
       <c r="B785" t="s">
         <v>785</v>
       </c>
+      <c r="C785" t="s">
+        <v>2377</v>
+      </c>
       <c r="F785" s="2" t="s">
-        <v>2376</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="42">
@@ -19668,8 +19789,11 @@
       <c r="B786" t="s">
         <v>786</v>
       </c>
+      <c r="C786" t="s">
+        <v>2377</v>
+      </c>
       <c r="F786" s="2" t="s">
-        <v>2376</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="42">
@@ -19679,8 +19803,11 @@
       <c r="B787" t="s">
         <v>787</v>
       </c>
+      <c r="C787" t="s">
+        <v>2386</v>
+      </c>
       <c r="F787" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="42">
@@ -19690,8 +19817,11 @@
       <c r="B788" t="s">
         <v>788</v>
       </c>
+      <c r="C788" t="s">
+        <v>2411</v>
+      </c>
       <c r="F788" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="42">
@@ -19701,8 +19831,11 @@
       <c r="B789" t="s">
         <v>789</v>
       </c>
+      <c r="C789" t="s">
+        <v>2411</v>
+      </c>
       <c r="F789" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="42">
@@ -19712,8 +19845,11 @@
       <c r="B790" t="s">
         <v>790</v>
       </c>
+      <c r="C790" t="s">
+        <v>2411</v>
+      </c>
       <c r="F790" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="42">
@@ -19723,8 +19859,11 @@
       <c r="B791" t="s">
         <v>791</v>
       </c>
+      <c r="C791" t="s">
+        <v>2411</v>
+      </c>
       <c r="F791" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="792" spans="1:6" ht="42">
@@ -19734,8 +19873,11 @@
       <c r="B792" t="s">
         <v>792</v>
       </c>
+      <c r="C792" t="s">
+        <v>2411</v>
+      </c>
       <c r="F792" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="42">
@@ -19745,8 +19887,11 @@
       <c r="B793" t="s">
         <v>793</v>
       </c>
+      <c r="C793" t="s">
+        <v>2411</v>
+      </c>
       <c r="F793" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="794" spans="1:6" ht="42">
@@ -19756,8 +19901,11 @@
       <c r="B794" t="s">
         <v>794</v>
       </c>
+      <c r="C794" t="s">
+        <v>2411</v>
+      </c>
       <c r="F794" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="42">
@@ -19767,8 +19915,11 @@
       <c r="B795" t="s">
         <v>795</v>
       </c>
+      <c r="C795" t="s">
+        <v>2411</v>
+      </c>
       <c r="F795" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="796" spans="1:6" ht="42">
@@ -19778,8 +19929,11 @@
       <c r="B796" t="s">
         <v>796</v>
       </c>
+      <c r="C796" t="s">
+        <v>2411</v>
+      </c>
       <c r="F796" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="42">
@@ -19789,8 +19943,11 @@
       <c r="B797" t="s">
         <v>797</v>
       </c>
+      <c r="C797" t="s">
+        <v>2411</v>
+      </c>
       <c r="F797" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="42">
@@ -19800,8 +19957,11 @@
       <c r="B798" t="s">
         <v>798</v>
       </c>
+      <c r="C798" t="s">
+        <v>2386</v>
+      </c>
       <c r="F798" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="799" spans="1:6" ht="42">
@@ -19811,8 +19971,11 @@
       <c r="B799" t="s">
         <v>799</v>
       </c>
+      <c r="C799" t="s">
+        <v>2386</v>
+      </c>
       <c r="F799" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="42">
@@ -19822,8 +19985,11 @@
       <c r="B800" t="s">
         <v>800</v>
       </c>
+      <c r="C800" t="s">
+        <v>2386</v>
+      </c>
       <c r="F800" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="801" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2CCCABD8-B331-6F4B-8CDB-9E750DB16886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85B15C0F-E484-F548-A16D-23514257FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5551" uniqueCount="2439">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5652" uniqueCount="2441">
   <si>
     <t>Issue</t>
   </si>
@@ -7790,6 +7790,36 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]changeCSS()をCSS variableに移行
+[Class]機能の置き換え</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Webアプリケーションの色の変更に関係するからUI？関数を置き換えてるだけなのでDesignな気はする</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">イロノ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンスウヲオキカエテルダケナノデ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">キハ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -8761,8 +8791,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
-      <selection activeCell="E800" sqref="E800"/>
+    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
+      <selection activeCell="E898" sqref="E898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19999,8 +20029,11 @@
       <c r="B801" t="s">
         <v>801</v>
       </c>
+      <c r="C801" t="s">
+        <v>2386</v>
+      </c>
       <c r="F801" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="42">
@@ -20010,8 +20043,11 @@
       <c r="B802" t="s">
         <v>802</v>
       </c>
+      <c r="C802" t="s">
+        <v>2386</v>
+      </c>
       <c r="F802" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="42">
@@ -20021,8 +20057,11 @@
       <c r="B803" t="s">
         <v>803</v>
       </c>
+      <c r="C803" t="s">
+        <v>2386</v>
+      </c>
       <c r="F803" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="42">
@@ -20032,8 +20071,11 @@
       <c r="B804" t="s">
         <v>804</v>
       </c>
+      <c r="C804" t="s">
+        <v>2386</v>
+      </c>
       <c r="F804" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="42">
@@ -20043,8 +20085,11 @@
       <c r="B805" t="s">
         <v>805</v>
       </c>
+      <c r="C805" t="s">
+        <v>2386</v>
+      </c>
       <c r="F805" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="42">
@@ -20054,8 +20099,11 @@
       <c r="B806" t="s">
         <v>806</v>
       </c>
+      <c r="C806" t="s">
+        <v>2411</v>
+      </c>
       <c r="F806" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="42">
@@ -20065,8 +20113,11 @@
       <c r="B807" t="s">
         <v>807</v>
       </c>
+      <c r="C807" t="s">
+        <v>2411</v>
+      </c>
       <c r="F807" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="42">
@@ -20076,8 +20127,11 @@
       <c r="B808" t="s">
         <v>808</v>
       </c>
+      <c r="C808" t="s">
+        <v>2411</v>
+      </c>
       <c r="F808" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="42">
@@ -20087,8 +20141,11 @@
       <c r="B809" t="s">
         <v>809</v>
       </c>
+      <c r="C809" t="s">
+        <v>2411</v>
+      </c>
       <c r="F809" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="42">
@@ -20098,8 +20155,11 @@
       <c r="B810" t="s">
         <v>810</v>
       </c>
+      <c r="C810" t="s">
+        <v>2411</v>
+      </c>
       <c r="F810" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="42">
@@ -20109,8 +20169,11 @@
       <c r="B811" t="s">
         <v>811</v>
       </c>
+      <c r="C811" t="s">
+        <v>2411</v>
+      </c>
       <c r="F811" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="42">
@@ -20120,8 +20183,11 @@
       <c r="B812" t="s">
         <v>812</v>
       </c>
+      <c r="C812" t="s">
+        <v>2411</v>
+      </c>
       <c r="F812" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="42">
@@ -20131,8 +20197,11 @@
       <c r="B813" t="s">
         <v>813</v>
       </c>
+      <c r="C813" t="s">
+        <v>2411</v>
+      </c>
       <c r="F813" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="42">
@@ -20142,8 +20211,11 @@
       <c r="B814" t="s">
         <v>814</v>
       </c>
+      <c r="C814" t="s">
+        <v>2411</v>
+      </c>
       <c r="F814" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="42">
@@ -20153,8 +20225,14 @@
       <c r="B815" t="s">
         <v>815</v>
       </c>
+      <c r="C815" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>2440</v>
+      </c>
       <c r="F815" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="816" spans="1:6" ht="42">
@@ -20164,8 +20242,11 @@
       <c r="B816" t="s">
         <v>816</v>
       </c>
+      <c r="C816" t="s">
+        <v>2377</v>
+      </c>
       <c r="F816" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="42">
@@ -20175,8 +20256,11 @@
       <c r="B817" t="s">
         <v>817</v>
       </c>
+      <c r="C817" t="s">
+        <v>2377</v>
+      </c>
       <c r="F817" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="818" spans="1:6" ht="42">
@@ -20186,8 +20270,11 @@
       <c r="B818" t="s">
         <v>818</v>
       </c>
+      <c r="C818" t="s">
+        <v>2377</v>
+      </c>
       <c r="F818" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="42">
@@ -20197,8 +20284,11 @@
       <c r="B819" t="s">
         <v>819</v>
       </c>
+      <c r="C819" t="s">
+        <v>2377</v>
+      </c>
       <c r="F819" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="820" spans="1:6" ht="42">
@@ -20208,8 +20298,11 @@
       <c r="B820" t="s">
         <v>820</v>
       </c>
+      <c r="C820" t="s">
+        <v>2377</v>
+      </c>
       <c r="F820" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="821" spans="1:6" ht="42">
@@ -20219,8 +20312,11 @@
       <c r="B821" t="s">
         <v>821</v>
       </c>
+      <c r="C821" t="s">
+        <v>2377</v>
+      </c>
       <c r="F821" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="42">
@@ -20230,8 +20326,11 @@
       <c r="B822" t="s">
         <v>822</v>
       </c>
+      <c r="C822" t="s">
+        <v>2377</v>
+      </c>
       <c r="F822" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="42">
@@ -20241,8 +20340,11 @@
       <c r="B823" t="s">
         <v>823</v>
       </c>
+      <c r="C823" t="s">
+        <v>2377</v>
+      </c>
       <c r="F823" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="824" spans="1:6" ht="42">
@@ -20252,8 +20354,11 @@
       <c r="B824" t="s">
         <v>824</v>
       </c>
+      <c r="C824" t="s">
+        <v>2377</v>
+      </c>
       <c r="F824" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="825" spans="1:6" ht="42">
@@ -20263,8 +20368,11 @@
       <c r="B825" t="s">
         <v>825</v>
       </c>
+      <c r="C825" t="s">
+        <v>2377</v>
+      </c>
       <c r="F825" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="42">
@@ -20274,8 +20382,11 @@
       <c r="B826" t="s">
         <v>826</v>
       </c>
+      <c r="C826" t="s">
+        <v>2377</v>
+      </c>
       <c r="F826" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="42">
@@ -20285,8 +20396,11 @@
       <c r="B827" t="s">
         <v>827</v>
       </c>
+      <c r="C827" t="s">
+        <v>2377</v>
+      </c>
       <c r="F827" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="42">
@@ -20296,8 +20410,11 @@
       <c r="B828" t="s">
         <v>828</v>
       </c>
+      <c r="C828" t="s">
+        <v>2377</v>
+      </c>
       <c r="F828" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="42">
@@ -20307,8 +20424,11 @@
       <c r="B829" t="s">
         <v>829</v>
       </c>
+      <c r="C829" t="s">
+        <v>2377</v>
+      </c>
       <c r="F829" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="830" spans="1:6" ht="42">
@@ -20318,8 +20438,11 @@
       <c r="B830" t="s">
         <v>830</v>
       </c>
+      <c r="C830" t="s">
+        <v>2377</v>
+      </c>
       <c r="F830" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="42">
@@ -20329,8 +20452,11 @@
       <c r="B831" t="s">
         <v>831</v>
       </c>
+      <c r="C831" t="s">
+        <v>2377</v>
+      </c>
       <c r="F831" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="42">
@@ -20340,8 +20466,11 @@
       <c r="B832" t="s">
         <v>832</v>
       </c>
+      <c r="C832" t="s">
+        <v>2377</v>
+      </c>
       <c r="F832" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="42">
@@ -20351,8 +20480,11 @@
       <c r="B833" t="s">
         <v>833</v>
       </c>
+      <c r="C833" t="s">
+        <v>2377</v>
+      </c>
       <c r="F833" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="834" spans="1:6" ht="42">
@@ -20362,8 +20494,11 @@
       <c r="B834" t="s">
         <v>834</v>
       </c>
+      <c r="C834" t="s">
+        <v>2377</v>
+      </c>
       <c r="F834" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="42">
@@ -20373,8 +20508,11 @@
       <c r="B835" t="s">
         <v>835</v>
       </c>
+      <c r="C835" t="s">
+        <v>2377</v>
+      </c>
       <c r="F835" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="42">
@@ -20384,8 +20522,11 @@
       <c r="B836" t="s">
         <v>836</v>
       </c>
+      <c r="C836" t="s">
+        <v>2377</v>
+      </c>
       <c r="F836" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="837" spans="1:6" ht="42">
@@ -20395,8 +20536,11 @@
       <c r="B837" t="s">
         <v>837</v>
       </c>
+      <c r="C837" t="s">
+        <v>2377</v>
+      </c>
       <c r="F837" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="42">
@@ -20406,8 +20550,11 @@
       <c r="B838" t="s">
         <v>838</v>
       </c>
+      <c r="C838" t="s">
+        <v>2377</v>
+      </c>
       <c r="F838" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="839" spans="1:6" ht="42">
@@ -20417,8 +20564,11 @@
       <c r="B839" t="s">
         <v>839</v>
       </c>
+      <c r="C839" t="s">
+        <v>2377</v>
+      </c>
       <c r="F839" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="840" spans="1:6" ht="42">
@@ -20428,8 +20578,11 @@
       <c r="B840" t="s">
         <v>840</v>
       </c>
+      <c r="C840" t="s">
+        <v>2377</v>
+      </c>
       <c r="F840" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="42">
@@ -20439,8 +20592,11 @@
       <c r="B841" t="s">
         <v>841</v>
       </c>
+      <c r="C841" t="s">
+        <v>2377</v>
+      </c>
       <c r="F841" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="42">
@@ -20450,8 +20606,11 @@
       <c r="B842" t="s">
         <v>842</v>
       </c>
+      <c r="C842" t="s">
+        <v>2377</v>
+      </c>
       <c r="F842" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="42">
@@ -20461,8 +20620,11 @@
       <c r="B843" t="s">
         <v>843</v>
       </c>
+      <c r="C843" t="s">
+        <v>2377</v>
+      </c>
       <c r="F843" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="42">
@@ -20472,8 +20634,11 @@
       <c r="B844" t="s">
         <v>844</v>
       </c>
+      <c r="C844" t="s">
+        <v>2377</v>
+      </c>
       <c r="F844" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="845" spans="1:6" ht="42">
@@ -20483,8 +20648,11 @@
       <c r="B845" t="s">
         <v>845</v>
       </c>
+      <c r="C845" t="s">
+        <v>2377</v>
+      </c>
       <c r="F845" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="42">
@@ -20494,8 +20662,11 @@
       <c r="B846" t="s">
         <v>846</v>
       </c>
+      <c r="C846" t="s">
+        <v>2377</v>
+      </c>
       <c r="F846" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="42">
@@ -20505,8 +20676,11 @@
       <c r="B847" t="s">
         <v>847</v>
       </c>
+      <c r="C847" t="s">
+        <v>2386</v>
+      </c>
       <c r="F847" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="42">
@@ -20516,8 +20690,11 @@
       <c r="B848" t="s">
         <v>848</v>
       </c>
+      <c r="C848" t="s">
+        <v>2386</v>
+      </c>
       <c r="F848" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="42">
@@ -20527,8 +20704,11 @@
       <c r="B849" t="s">
         <v>849</v>
       </c>
+      <c r="C849" t="s">
+        <v>2386</v>
+      </c>
       <c r="F849" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="42">
@@ -20538,8 +20718,11 @@
       <c r="B850" t="s">
         <v>850</v>
       </c>
+      <c r="C850" t="s">
+        <v>2386</v>
+      </c>
       <c r="F850" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="851" spans="1:6" ht="42">
@@ -20549,8 +20732,11 @@
       <c r="B851" t="s">
         <v>851</v>
       </c>
+      <c r="C851" t="s">
+        <v>2386</v>
+      </c>
       <c r="F851" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="42">
@@ -20560,8 +20746,11 @@
       <c r="B852" t="s">
         <v>852</v>
       </c>
+      <c r="C852" t="s">
+        <v>2386</v>
+      </c>
       <c r="F852" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="853" spans="1:6" ht="42">
@@ -20571,8 +20760,11 @@
       <c r="B853" t="s">
         <v>853</v>
       </c>
+      <c r="C853" t="s">
+        <v>2377</v>
+      </c>
       <c r="F853" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="42">
@@ -20582,8 +20774,11 @@
       <c r="B854" t="s">
         <v>854</v>
       </c>
+      <c r="C854" t="s">
+        <v>2377</v>
+      </c>
       <c r="F854" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="42">
@@ -20593,8 +20788,11 @@
       <c r="B855" t="s">
         <v>855</v>
       </c>
+      <c r="C855" t="s">
+        <v>2377</v>
+      </c>
       <c r="F855" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="856" spans="1:6" ht="42">
@@ -20604,8 +20802,11 @@
       <c r="B856" t="s">
         <v>856</v>
       </c>
+      <c r="C856" t="s">
+        <v>2377</v>
+      </c>
       <c r="F856" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="42">
@@ -20615,8 +20816,11 @@
       <c r="B857" t="s">
         <v>857</v>
       </c>
+      <c r="C857" t="s">
+        <v>2377</v>
+      </c>
       <c r="F857" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="42">
@@ -20626,8 +20830,11 @@
       <c r="B858" t="s">
         <v>858</v>
       </c>
+      <c r="C858" t="s">
+        <v>2377</v>
+      </c>
       <c r="F858" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="42">
@@ -20637,8 +20844,11 @@
       <c r="B859" t="s">
         <v>859</v>
       </c>
+      <c r="C859" t="s">
+        <v>2377</v>
+      </c>
       <c r="F859" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="42">
@@ -20648,8 +20858,11 @@
       <c r="B860" t="s">
         <v>860</v>
       </c>
+      <c r="C860" t="s">
+        <v>2377</v>
+      </c>
       <c r="F860" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="42">
@@ -20659,8 +20872,11 @@
       <c r="B861" t="s">
         <v>861</v>
       </c>
+      <c r="C861" t="s">
+        <v>2377</v>
+      </c>
       <c r="F861" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="862" spans="1:6" ht="42">
@@ -20670,8 +20886,11 @@
       <c r="B862" t="s">
         <v>862</v>
       </c>
+      <c r="C862" t="s">
+        <v>2377</v>
+      </c>
       <c r="F862" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="863" spans="1:6" ht="42">
@@ -20681,8 +20900,11 @@
       <c r="B863" t="s">
         <v>863</v>
       </c>
+      <c r="C863" t="s">
+        <v>2386</v>
+      </c>
       <c r="F863" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="42">
@@ -20692,8 +20914,11 @@
       <c r="B864" t="s">
         <v>864</v>
       </c>
+      <c r="C864" t="s">
+        <v>2386</v>
+      </c>
       <c r="F864" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="865" spans="1:6" ht="42">
@@ -20703,8 +20928,11 @@
       <c r="B865" t="s">
         <v>865</v>
       </c>
+      <c r="C865" t="s">
+        <v>2386</v>
+      </c>
       <c r="F865" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="42">
@@ -20714,8 +20942,11 @@
       <c r="B866" t="s">
         <v>866</v>
       </c>
+      <c r="C866" t="s">
+        <v>2386</v>
+      </c>
       <c r="F866" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="867" spans="1:6" ht="42">
@@ -20725,8 +20956,11 @@
       <c r="B867" t="s">
         <v>867</v>
       </c>
+      <c r="C867" t="s">
+        <v>2386</v>
+      </c>
       <c r="F867" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="868" spans="1:6" ht="42">
@@ -20736,8 +20970,11 @@
       <c r="B868" t="s">
         <v>868</v>
       </c>
+      <c r="C868" t="s">
+        <v>2386</v>
+      </c>
       <c r="F868" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="42">
@@ -20747,8 +20984,11 @@
       <c r="B869" t="s">
         <v>869</v>
       </c>
+      <c r="C869" t="s">
+        <v>2386</v>
+      </c>
       <c r="F869" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="42">
@@ -20758,8 +20998,11 @@
       <c r="B870" t="s">
         <v>870</v>
       </c>
+      <c r="C870" t="s">
+        <v>2386</v>
+      </c>
       <c r="F870" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="42">
@@ -20769,8 +21012,11 @@
       <c r="B871" t="s">
         <v>871</v>
       </c>
+      <c r="C871" t="s">
+        <v>2386</v>
+      </c>
       <c r="F871" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="42">
@@ -20780,8 +21026,11 @@
       <c r="B872" t="s">
         <v>872</v>
       </c>
+      <c r="C872" t="s">
+        <v>2377</v>
+      </c>
       <c r="F872" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="42">
@@ -20791,8 +21040,11 @@
       <c r="B873" t="s">
         <v>873</v>
       </c>
+      <c r="C873" t="s">
+        <v>2377</v>
+      </c>
       <c r="F873" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="874" spans="1:6" ht="42">
@@ -20802,8 +21054,11 @@
       <c r="B874" t="s">
         <v>874</v>
       </c>
+      <c r="C874" t="s">
+        <v>2377</v>
+      </c>
       <c r="F874" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="42">
@@ -20813,8 +21068,11 @@
       <c r="B875" t="s">
         <v>875</v>
       </c>
+      <c r="C875" t="s">
+        <v>2377</v>
+      </c>
       <c r="F875" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="42">
@@ -20824,8 +21082,11 @@
       <c r="B876" t="s">
         <v>876</v>
       </c>
+      <c r="C876" t="s">
+        <v>2377</v>
+      </c>
       <c r="F876" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="877" spans="1:6" ht="42">
@@ -20835,8 +21096,11 @@
       <c r="B877" t="s">
         <v>877</v>
       </c>
+      <c r="C877" t="s">
+        <v>2377</v>
+      </c>
       <c r="F877" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="878" spans="1:6" ht="42">
@@ -20846,8 +21110,11 @@
       <c r="B878" t="s">
         <v>878</v>
       </c>
+      <c r="C878" t="s">
+        <v>2377</v>
+      </c>
       <c r="F878" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="42">
@@ -20857,8 +21124,11 @@
       <c r="B879" t="s">
         <v>879</v>
       </c>
+      <c r="C879" t="s">
+        <v>2377</v>
+      </c>
       <c r="F879" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="880" spans="1:6" ht="42">
@@ -20868,8 +21138,11 @@
       <c r="B880" t="s">
         <v>880</v>
       </c>
+      <c r="C880" t="s">
+        <v>2377</v>
+      </c>
       <c r="F880" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="42">
@@ -20879,8 +21152,11 @@
       <c r="B881" t="s">
         <v>881</v>
       </c>
+      <c r="C881" t="s">
+        <v>2377</v>
+      </c>
       <c r="F881" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="42">
@@ -20890,8 +21166,11 @@
       <c r="B882" t="s">
         <v>882</v>
       </c>
+      <c r="C882" t="s">
+        <v>2411</v>
+      </c>
       <c r="F882" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="42">
@@ -20901,8 +21180,11 @@
       <c r="B883" t="s">
         <v>883</v>
       </c>
+      <c r="C883" t="s">
+        <v>2411</v>
+      </c>
       <c r="F883" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="884" spans="1:6" ht="42">
@@ -20912,8 +21194,11 @@
       <c r="B884" t="s">
         <v>884</v>
       </c>
+      <c r="C884" t="s">
+        <v>2411</v>
+      </c>
       <c r="F884" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="42">
@@ -20923,8 +21208,11 @@
       <c r="B885" t="s">
         <v>885</v>
       </c>
+      <c r="C885" t="s">
+        <v>2411</v>
+      </c>
       <c r="F885" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="886" spans="1:6" ht="42">
@@ -20934,8 +21222,11 @@
       <c r="B886" t="s">
         <v>886</v>
       </c>
+      <c r="C886" t="s">
+        <v>2411</v>
+      </c>
       <c r="F886" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="887" spans="1:6" ht="42">
@@ -20945,8 +21236,11 @@
       <c r="B887" t="s">
         <v>887</v>
       </c>
+      <c r="C887" t="s">
+        <v>2411</v>
+      </c>
       <c r="F887" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="888" spans="1:6" ht="42">
@@ -20956,8 +21250,11 @@
       <c r="B888" t="s">
         <v>888</v>
       </c>
+      <c r="C888" t="s">
+        <v>2411</v>
+      </c>
       <c r="F888" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="42">
@@ -20967,8 +21264,11 @@
       <c r="B889" t="s">
         <v>889</v>
       </c>
+      <c r="C889" t="s">
+        <v>2411</v>
+      </c>
       <c r="F889" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="42">
@@ -20978,8 +21278,11 @@
       <c r="B890" t="s">
         <v>890</v>
       </c>
+      <c r="C890" t="s">
+        <v>2411</v>
+      </c>
       <c r="F890" s="2" t="s">
-        <v>2376</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="42">
@@ -20989,8 +21292,11 @@
       <c r="B891" t="s">
         <v>891</v>
       </c>
+      <c r="C891" t="s">
+        <v>2386</v>
+      </c>
       <c r="F891" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="42">
@@ -21000,8 +21306,11 @@
       <c r="B892" t="s">
         <v>892</v>
       </c>
+      <c r="C892" t="s">
+        <v>2386</v>
+      </c>
       <c r="F892" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="42">
@@ -21011,8 +21320,11 @@
       <c r="B893" t="s">
         <v>893</v>
       </c>
+      <c r="C893" t="s">
+        <v>2386</v>
+      </c>
       <c r="F893" s="2" t="s">
-        <v>2376</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="894" spans="1:6" ht="42">
@@ -21022,8 +21334,11 @@
       <c r="B894" t="s">
         <v>894</v>
       </c>
+      <c r="C894" t="s">
+        <v>2386</v>
+      </c>
       <c r="F894" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="895" spans="1:6" ht="42">
@@ -21033,8 +21348,11 @@
       <c r="B895" t="s">
         <v>895</v>
       </c>
+      <c r="C895" t="s">
+        <v>2386</v>
+      </c>
       <c r="F895" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="42">
@@ -21044,8 +21362,11 @@
       <c r="B896" t="s">
         <v>896</v>
       </c>
+      <c r="C896" t="s">
+        <v>2386</v>
+      </c>
       <c r="F896" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="897" spans="1:6" ht="42">
@@ -21055,8 +21376,11 @@
       <c r="B897" t="s">
         <v>897</v>
       </c>
+      <c r="C897" t="s">
+        <v>2386</v>
+      </c>
       <c r="F897" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="42">
@@ -21066,8 +21390,11 @@
       <c r="B898" t="s">
         <v>898</v>
       </c>
+      <c r="C898" t="s">
+        <v>2386</v>
+      </c>
       <c r="F898" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="42">
@@ -21077,8 +21404,11 @@
       <c r="B899" t="s">
         <v>899</v>
       </c>
+      <c r="C899" t="s">
+        <v>2386</v>
+      </c>
       <c r="F899" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="900" spans="1:6" ht="42">
@@ -21088,8 +21418,11 @@
       <c r="B900" t="s">
         <v>900</v>
       </c>
+      <c r="C900" t="s">
+        <v>2386</v>
+      </c>
       <c r="F900" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85B15C0F-E484-F548-A16D-23514257FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8FB50572-CCC2-2245-A1F5-6C4AAAD64E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5652" uniqueCount="2441">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5752" uniqueCount="2443">
   <si>
     <t>Issue</t>
   </si>
@@ -7821,6 +7821,19 @@
     <rPh sb="47" eb="48">
       <t xml:space="preserve">キハ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]client configでstringの代わりにboolean valuesを使用する
+[Class]型の変更</t>
+    <rPh sb="61" eb="62">
+      <t xml:space="preserve">カタノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stringの代わりにboolean valuesを使用してclient configを生成する
+[Class]型の変更</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -8791,8 +8804,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
-      <selection activeCell="E898" sqref="E898"/>
+    <sheetView tabSelected="1" topLeftCell="A995" workbookViewId="0">
+      <selection activeCell="E1001" sqref="E1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -21432,8 +21445,11 @@
       <c r="B901" t="s">
         <v>901</v>
       </c>
+      <c r="C901" t="s">
+        <v>2386</v>
+      </c>
       <c r="F901" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="902" spans="1:6" ht="42">
@@ -21443,8 +21459,11 @@
       <c r="B902" t="s">
         <v>902</v>
       </c>
+      <c r="C902" t="s">
+        <v>2386</v>
+      </c>
       <c r="F902" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="42">
@@ -21454,8 +21473,11 @@
       <c r="B903" t="s">
         <v>903</v>
       </c>
+      <c r="C903" t="s">
+        <v>2386</v>
+      </c>
       <c r="F903" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="904" spans="1:6" ht="42">
@@ -21465,8 +21487,11 @@
       <c r="B904" t="s">
         <v>904</v>
       </c>
+      <c r="C904" t="s">
+        <v>2386</v>
+      </c>
       <c r="F904" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="42">
@@ -21476,8 +21501,11 @@
       <c r="B905" t="s">
         <v>905</v>
       </c>
+      <c r="C905" t="s">
+        <v>2386</v>
+      </c>
       <c r="F905" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="42">
@@ -21487,8 +21515,11 @@
       <c r="B906" t="s">
         <v>906</v>
       </c>
+      <c r="C906" t="s">
+        <v>2386</v>
+      </c>
       <c r="F906" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="907" spans="1:6" ht="42">
@@ -21498,8 +21529,11 @@
       <c r="B907" t="s">
         <v>907</v>
       </c>
+      <c r="C907" t="s">
+        <v>2386</v>
+      </c>
       <c r="F907" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="42">
@@ -21509,8 +21543,11 @@
       <c r="B908" t="s">
         <v>908</v>
       </c>
+      <c r="C908" t="s">
+        <v>2386</v>
+      </c>
       <c r="F908" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="42">
@@ -21520,8 +21557,11 @@
       <c r="B909" t="s">
         <v>909</v>
       </c>
+      <c r="C909" t="s">
+        <v>2386</v>
+      </c>
       <c r="F909" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="910" spans="1:6" ht="42">
@@ -21531,8 +21571,11 @@
       <c r="B910" t="s">
         <v>910</v>
       </c>
+      <c r="C910" t="s">
+        <v>2386</v>
+      </c>
       <c r="F910" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="42">
@@ -21542,8 +21585,11 @@
       <c r="B911" t="s">
         <v>911</v>
       </c>
+      <c r="C911" t="s">
+        <v>2386</v>
+      </c>
       <c r="F911" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="912" spans="1:6" ht="42">
@@ -21553,8 +21599,11 @@
       <c r="B912" t="s">
         <v>912</v>
       </c>
+      <c r="C912" t="s">
+        <v>2386</v>
+      </c>
       <c r="F912" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="42">
@@ -21564,8 +21613,11 @@
       <c r="B913" t="s">
         <v>913</v>
       </c>
+      <c r="C913" t="s">
+        <v>2386</v>
+      </c>
       <c r="F913" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="42">
@@ -21575,8 +21627,11 @@
       <c r="B914" t="s">
         <v>914</v>
       </c>
+      <c r="C914" t="s">
+        <v>2386</v>
+      </c>
       <c r="F914" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="915" spans="1:6" ht="42">
@@ -21586,8 +21641,11 @@
       <c r="B915" t="s">
         <v>915</v>
       </c>
+      <c r="C915" t="s">
+        <v>2386</v>
+      </c>
       <c r="F915" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="42">
@@ -21597,8 +21655,11 @@
       <c r="B916" t="s">
         <v>916</v>
       </c>
+      <c r="C916" t="s">
+        <v>2386</v>
+      </c>
       <c r="F916" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="42">
@@ -21608,8 +21669,11 @@
       <c r="B917" t="s">
         <v>917</v>
       </c>
+      <c r="C917" t="s">
+        <v>2386</v>
+      </c>
       <c r="F917" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="918" spans="1:6" ht="42">
@@ -21619,8 +21683,11 @@
       <c r="B918" t="s">
         <v>918</v>
       </c>
+      <c r="C918" t="s">
+        <v>2386</v>
+      </c>
       <c r="F918" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="42">
@@ -21630,8 +21697,11 @@
       <c r="B919" t="s">
         <v>919</v>
       </c>
+      <c r="C919" t="s">
+        <v>2386</v>
+      </c>
       <c r="F919" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="920" spans="1:6" ht="42">
@@ -21641,8 +21711,11 @@
       <c r="B920" t="s">
         <v>920</v>
       </c>
+      <c r="C920" t="s">
+        <v>2386</v>
+      </c>
       <c r="F920" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="42">
@@ -21652,8 +21725,11 @@
       <c r="B921" t="s">
         <v>921</v>
       </c>
+      <c r="C921" t="s">
+        <v>2386</v>
+      </c>
       <c r="F921" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="42">
@@ -21663,8 +21739,11 @@
       <c r="B922" t="s">
         <v>922</v>
       </c>
+      <c r="C922" t="s">
+        <v>2386</v>
+      </c>
       <c r="F922" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="42">
@@ -21674,8 +21753,11 @@
       <c r="B923" t="s">
         <v>923</v>
       </c>
+      <c r="C923" t="s">
+        <v>2386</v>
+      </c>
       <c r="F923" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="42">
@@ -21685,8 +21767,11 @@
       <c r="B924" t="s">
         <v>924</v>
       </c>
+      <c r="C924" t="s">
+        <v>2386</v>
+      </c>
       <c r="F924" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="42">
@@ -21696,8 +21781,11 @@
       <c r="B925" t="s">
         <v>925</v>
       </c>
+      <c r="C925" t="s">
+        <v>2386</v>
+      </c>
       <c r="F925" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="42">
@@ -21707,8 +21795,11 @@
       <c r="B926" t="s">
         <v>926</v>
       </c>
+      <c r="C926" t="s">
+        <v>2386</v>
+      </c>
       <c r="F926" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="42">
@@ -21718,8 +21809,11 @@
       <c r="B927" t="s">
         <v>927</v>
       </c>
+      <c r="C927" t="s">
+        <v>2386</v>
+      </c>
       <c r="F927" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="42">
@@ -21729,8 +21823,11 @@
       <c r="B928" t="s">
         <v>928</v>
       </c>
+      <c r="C928" t="s">
+        <v>2386</v>
+      </c>
       <c r="F928" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="929" spans="1:6" ht="42">
@@ -21740,8 +21837,11 @@
       <c r="B929" t="s">
         <v>929</v>
       </c>
+      <c r="C929" t="s">
+        <v>2386</v>
+      </c>
       <c r="F929" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="930" spans="1:6" ht="42">
@@ -21751,8 +21851,11 @@
       <c r="B930" t="s">
         <v>930</v>
       </c>
+      <c r="C930" t="s">
+        <v>2386</v>
+      </c>
       <c r="F930" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="931" spans="1:6" ht="42">
@@ -21762,8 +21865,11 @@
       <c r="B931" t="s">
         <v>931</v>
       </c>
+      <c r="C931" t="s">
+        <v>2386</v>
+      </c>
       <c r="F931" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="42">
@@ -21773,8 +21879,11 @@
       <c r="B932" t="s">
         <v>932</v>
       </c>
+      <c r="C932" t="s">
+        <v>2386</v>
+      </c>
       <c r="F932" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="933" spans="1:6" ht="42">
@@ -21784,8 +21893,11 @@
       <c r="B933" t="s">
         <v>933</v>
       </c>
+      <c r="C933" t="s">
+        <v>2386</v>
+      </c>
       <c r="F933" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="42">
@@ -21795,8 +21907,11 @@
       <c r="B934" t="s">
         <v>934</v>
       </c>
+      <c r="C934" t="s">
+        <v>2386</v>
+      </c>
       <c r="F934" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="935" spans="1:6" ht="42">
@@ -21806,8 +21921,11 @@
       <c r="B935" t="s">
         <v>935</v>
       </c>
+      <c r="C935" t="s">
+        <v>2386</v>
+      </c>
       <c r="F935" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="936" spans="1:6" ht="42">
@@ -21817,8 +21935,11 @@
       <c r="B936" t="s">
         <v>936</v>
       </c>
+      <c r="C936" t="s">
+        <v>2386</v>
+      </c>
       <c r="F936" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="42">
@@ -21828,8 +21949,11 @@
       <c r="B937" t="s">
         <v>937</v>
       </c>
+      <c r="C937" t="s">
+        <v>2386</v>
+      </c>
       <c r="F937" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="938" spans="1:6" ht="42">
@@ -21839,8 +21963,11 @@
       <c r="B938" t="s">
         <v>938</v>
       </c>
+      <c r="C938" t="s">
+        <v>2386</v>
+      </c>
       <c r="F938" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="939" spans="1:6" ht="42">
@@ -21850,8 +21977,11 @@
       <c r="B939" t="s">
         <v>939</v>
       </c>
+      <c r="C939" t="s">
+        <v>2386</v>
+      </c>
       <c r="F939" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="940" spans="1:6" ht="42">
@@ -21861,8 +21991,11 @@
       <c r="B940" t="s">
         <v>940</v>
       </c>
+      <c r="C940" t="s">
+        <v>2377</v>
+      </c>
       <c r="F940" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="941" spans="1:6" ht="42">
@@ -21872,8 +22005,11 @@
       <c r="B941" t="s">
         <v>941</v>
       </c>
+      <c r="C941" t="s">
+        <v>2377</v>
+      </c>
       <c r="F941" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="42">
@@ -21883,8 +22019,11 @@
       <c r="B942" t="s">
         <v>942</v>
       </c>
+      <c r="C942" t="s">
+        <v>2377</v>
+      </c>
       <c r="F942" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="42">
@@ -21894,8 +22033,11 @@
       <c r="B943" t="s">
         <v>943</v>
       </c>
+      <c r="C943" t="s">
+        <v>2377</v>
+      </c>
       <c r="F943" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="944" spans="1:6" ht="42">
@@ -21905,8 +22047,11 @@
       <c r="B944" t="s">
         <v>944</v>
       </c>
+      <c r="C944" t="s">
+        <v>2377</v>
+      </c>
       <c r="F944" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="945" spans="1:6" ht="42">
@@ -21916,8 +22061,11 @@
       <c r="B945" t="s">
         <v>945</v>
       </c>
+      <c r="C945" t="s">
+        <v>2377</v>
+      </c>
       <c r="F945" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="42">
@@ -21927,8 +22075,11 @@
       <c r="B946" t="s">
         <v>946</v>
       </c>
+      <c r="C946" t="s">
+        <v>2377</v>
+      </c>
       <c r="F946" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="42">
@@ -21938,8 +22089,11 @@
       <c r="B947" t="s">
         <v>947</v>
       </c>
+      <c r="C947" t="s">
+        <v>2377</v>
+      </c>
       <c r="F947" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="42">
@@ -21949,8 +22103,11 @@
       <c r="B948" t="s">
         <v>948</v>
       </c>
+      <c r="C948" t="s">
+        <v>2377</v>
+      </c>
       <c r="F948" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="42">
@@ -21960,8 +22117,11 @@
       <c r="B949" t="s">
         <v>949</v>
       </c>
+      <c r="C949" t="s">
+        <v>2377</v>
+      </c>
       <c r="F949" s="2" t="s">
-        <v>2376</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="42">
@@ -21971,8 +22131,11 @@
       <c r="B950" t="s">
         <v>950</v>
       </c>
+      <c r="C950" t="s">
+        <v>2386</v>
+      </c>
       <c r="F950" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="42">
@@ -21982,8 +22145,11 @@
       <c r="B951" t="s">
         <v>951</v>
       </c>
+      <c r="C951" t="s">
+        <v>2386</v>
+      </c>
       <c r="F951" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="42">
@@ -21993,8 +22159,11 @@
       <c r="B952" t="s">
         <v>952</v>
       </c>
+      <c r="C952" t="s">
+        <v>2386</v>
+      </c>
       <c r="F952" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="42">
@@ -22004,8 +22173,11 @@
       <c r="B953" t="s">
         <v>953</v>
       </c>
+      <c r="C953" t="s">
+        <v>2386</v>
+      </c>
       <c r="F953" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="42">
@@ -22015,8 +22187,11 @@
       <c r="B954" t="s">
         <v>954</v>
       </c>
+      <c r="C954" t="s">
+        <v>2386</v>
+      </c>
       <c r="F954" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="42">
@@ -22026,8 +22201,11 @@
       <c r="B955" t="s">
         <v>955</v>
       </c>
+      <c r="C955" t="s">
+        <v>2386</v>
+      </c>
       <c r="F955" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="42">
@@ -22037,8 +22215,11 @@
       <c r="B956" t="s">
         <v>956</v>
       </c>
+      <c r="C956" t="s">
+        <v>2386</v>
+      </c>
       <c r="F956" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="42">
@@ -22048,8 +22229,11 @@
       <c r="B957" t="s">
         <v>957</v>
       </c>
+      <c r="C957" t="s">
+        <v>2386</v>
+      </c>
       <c r="F957" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="42">
@@ -22059,8 +22243,11 @@
       <c r="B958" t="s">
         <v>958</v>
       </c>
+      <c r="C958" t="s">
+        <v>2386</v>
+      </c>
       <c r="F958" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="959" spans="1:6" ht="42">
@@ -22070,8 +22257,11 @@
       <c r="B959" t="s">
         <v>959</v>
       </c>
+      <c r="C959" t="s">
+        <v>2386</v>
+      </c>
       <c r="F959" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="42">
@@ -22081,8 +22271,11 @@
       <c r="B960" t="s">
         <v>960</v>
       </c>
+      <c r="C960" t="s">
+        <v>2386</v>
+      </c>
       <c r="F960" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="42">
@@ -22092,8 +22285,11 @@
       <c r="B961" t="s">
         <v>961</v>
       </c>
+      <c r="C961" t="s">
+        <v>2386</v>
+      </c>
       <c r="F961" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="42">
@@ -22103,8 +22299,11 @@
       <c r="B962" t="s">
         <v>962</v>
       </c>
+      <c r="C962" t="s">
+        <v>2386</v>
+      </c>
       <c r="F962" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="963" spans="1:6" ht="42">
@@ -22114,8 +22313,11 @@
       <c r="B963" t="s">
         <v>963</v>
       </c>
+      <c r="C963" t="s">
+        <v>2386</v>
+      </c>
       <c r="F963" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="42">
@@ -22125,8 +22327,11 @@
       <c r="B964" t="s">
         <v>964</v>
       </c>
+      <c r="C964" t="s">
+        <v>2386</v>
+      </c>
       <c r="F964" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="42">
@@ -22136,8 +22341,11 @@
       <c r="B965" t="s">
         <v>965</v>
       </c>
+      <c r="C965" t="s">
+        <v>2386</v>
+      </c>
       <c r="F965" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="42">
@@ -22147,8 +22355,11 @@
       <c r="B966" t="s">
         <v>966</v>
       </c>
+      <c r="C966" t="s">
+        <v>2386</v>
+      </c>
       <c r="F966" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="967" spans="1:6" ht="42">
@@ -22158,8 +22369,11 @@
       <c r="B967" t="s">
         <v>967</v>
       </c>
+      <c r="C967" t="s">
+        <v>2386</v>
+      </c>
       <c r="F967" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="968" spans="1:6" ht="42">
@@ -22169,8 +22383,11 @@
       <c r="B968" t="s">
         <v>968</v>
       </c>
+      <c r="C968" t="s">
+        <v>2386</v>
+      </c>
       <c r="F968" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="42">
@@ -22180,8 +22397,11 @@
       <c r="B969" t="s">
         <v>969</v>
       </c>
+      <c r="C969" t="s">
+        <v>2386</v>
+      </c>
       <c r="F969" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="42">
@@ -22191,8 +22411,11 @@
       <c r="B970" t="s">
         <v>970</v>
       </c>
+      <c r="C970" t="s">
+        <v>2386</v>
+      </c>
       <c r="F970" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="42">
@@ -22202,8 +22425,11 @@
       <c r="B971" t="s">
         <v>971</v>
       </c>
+      <c r="C971" t="s">
+        <v>2386</v>
+      </c>
       <c r="F971" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="42">
@@ -22213,8 +22439,11 @@
       <c r="B972" t="s">
         <v>972</v>
       </c>
+      <c r="C972" t="s">
+        <v>2386</v>
+      </c>
       <c r="F972" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="42">
@@ -22224,8 +22453,11 @@
       <c r="B973" t="s">
         <v>973</v>
       </c>
+      <c r="C973" t="s">
+        <v>2386</v>
+      </c>
       <c r="F973" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="42">
@@ -22235,8 +22467,11 @@
       <c r="B974" t="s">
         <v>974</v>
       </c>
+      <c r="C974" t="s">
+        <v>2386</v>
+      </c>
       <c r="F974" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="42">
@@ -22246,8 +22481,11 @@
       <c r="B975" t="s">
         <v>975</v>
       </c>
+      <c r="C975" t="s">
+        <v>2386</v>
+      </c>
       <c r="F975" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="976" spans="1:6" ht="42">
@@ -22257,8 +22495,11 @@
       <c r="B976" t="s">
         <v>976</v>
       </c>
+      <c r="C976" t="s">
+        <v>2386</v>
+      </c>
       <c r="F976" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="977" spans="1:6" ht="42">
@@ -22268,8 +22509,11 @@
       <c r="B977" t="s">
         <v>977</v>
       </c>
+      <c r="C977" t="s">
+        <v>2386</v>
+      </c>
       <c r="F977" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="42">
@@ -22279,8 +22523,11 @@
       <c r="B978" t="s">
         <v>978</v>
       </c>
+      <c r="C978" t="s">
+        <v>2386</v>
+      </c>
       <c r="F978" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="42">
@@ -22290,8 +22537,11 @@
       <c r="B979" t="s">
         <v>979</v>
       </c>
+      <c r="C979" t="s">
+        <v>2386</v>
+      </c>
       <c r="F979" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="42">
@@ -22301,8 +22551,11 @@
       <c r="B980" t="s">
         <v>980</v>
       </c>
+      <c r="C980" t="s">
+        <v>2386</v>
+      </c>
       <c r="F980" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="981" spans="1:6" ht="42">
@@ -22312,8 +22565,11 @@
       <c r="B981" t="s">
         <v>981</v>
       </c>
+      <c r="C981" t="s">
+        <v>2386</v>
+      </c>
       <c r="F981" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="42">
@@ -22323,8 +22579,11 @@
       <c r="B982" t="s">
         <v>982</v>
       </c>
+      <c r="C982" t="s">
+        <v>2377</v>
+      </c>
       <c r="F982" s="2" t="s">
-        <v>2376</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="983" spans="1:6" ht="42">
@@ -22334,8 +22593,11 @@
       <c r="B983" t="s">
         <v>983</v>
       </c>
+      <c r="C983" t="s">
+        <v>2377</v>
+      </c>
       <c r="F983" s="2" t="s">
-        <v>2376</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="42">
@@ -22345,8 +22607,11 @@
       <c r="B984" t="s">
         <v>984</v>
       </c>
+      <c r="C984" t="s">
+        <v>2386</v>
+      </c>
       <c r="F984" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="42">
@@ -22356,8 +22621,11 @@
       <c r="B985" t="s">
         <v>985</v>
       </c>
+      <c r="C985" t="s">
+        <v>2386</v>
+      </c>
       <c r="F985" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="986" spans="1:6" ht="42">
@@ -22367,8 +22635,11 @@
       <c r="B986" t="s">
         <v>986</v>
       </c>
+      <c r="C986" t="s">
+        <v>2386</v>
+      </c>
       <c r="F986" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="42">
@@ -22378,8 +22649,11 @@
       <c r="B987" t="s">
         <v>987</v>
       </c>
+      <c r="C987" t="s">
+        <v>2386</v>
+      </c>
       <c r="F987" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="42">
@@ -22389,8 +22663,11 @@
       <c r="B988" t="s">
         <v>988</v>
       </c>
+      <c r="C988" t="s">
+        <v>2386</v>
+      </c>
       <c r="F988" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="989" spans="1:6" ht="42">
@@ -22400,8 +22677,11 @@
       <c r="B989" t="s">
         <v>989</v>
       </c>
+      <c r="C989" t="s">
+        <v>2386</v>
+      </c>
       <c r="F989" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="42">
@@ -22411,8 +22691,11 @@
       <c r="B990" t="s">
         <v>990</v>
       </c>
+      <c r="C990" t="s">
+        <v>2386</v>
+      </c>
       <c r="F990" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="42">
@@ -22422,8 +22705,11 @@
       <c r="B991" t="s">
         <v>991</v>
       </c>
+      <c r="C991" t="s">
+        <v>2386</v>
+      </c>
       <c r="F991" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="992" spans="1:6" ht="42">
@@ -22433,8 +22719,11 @@
       <c r="B992" t="s">
         <v>992</v>
       </c>
+      <c r="C992" t="s">
+        <v>2386</v>
+      </c>
       <c r="F992" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="42">
@@ -22444,8 +22733,11 @@
       <c r="B993" t="s">
         <v>993</v>
       </c>
+      <c r="C993" t="s">
+        <v>2386</v>
+      </c>
       <c r="F993" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="42">
@@ -22455,8 +22747,11 @@
       <c r="B994" t="s">
         <v>994</v>
       </c>
+      <c r="C994" t="s">
+        <v>2386</v>
+      </c>
       <c r="F994" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="995" spans="1:6" ht="42">
@@ -22466,8 +22761,11 @@
       <c r="B995" t="s">
         <v>995</v>
       </c>
+      <c r="C995" t="s">
+        <v>2386</v>
+      </c>
       <c r="F995" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="996" spans="1:6" ht="42">
@@ -22477,8 +22775,11 @@
       <c r="B996" t="s">
         <v>996</v>
       </c>
+      <c r="C996" t="s">
+        <v>2386</v>
+      </c>
       <c r="F996" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="997" spans="1:6" ht="42">
@@ -22488,8 +22789,11 @@
       <c r="B997" t="s">
         <v>997</v>
       </c>
+      <c r="C997" t="s">
+        <v>2386</v>
+      </c>
       <c r="F997" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="998" spans="1:6" ht="42">
@@ -22499,8 +22803,11 @@
       <c r="B998" t="s">
         <v>998</v>
       </c>
+      <c r="C998" t="s">
+        <v>2386</v>
+      </c>
       <c r="F998" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="999" spans="1:6" ht="42">
@@ -22510,8 +22817,11 @@
       <c r="B999" t="s">
         <v>999</v>
       </c>
+      <c r="C999" t="s">
+        <v>2386</v>
+      </c>
       <c r="F999" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1000" spans="1:6" ht="42">
@@ -22521,8 +22831,11 @@
       <c r="B1000" t="s">
         <v>1000</v>
       </c>
+      <c r="C1000" t="s">
+        <v>2386</v>
+      </c>
       <c r="F1000" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80FB6054-8B58-C745-A5AC-C29FDCB760DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20009_{431CD93B-53F4-E342-B17A-8B88D21B42DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5804" uniqueCount="2462">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5864" uniqueCount="2517">
   <si>
     <t>Issue</t>
   </si>
@@ -7980,16 +7981,7 @@
       <t xml:space="preserve">スベテノ </t>
     </rPh>
     <rPh sb="38" eb="40">
-      <t>_x0000_	_x0001__x0005_</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>&amp;_x0002_	&amp;</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>_x0002__x000D_0_x0002__x0012_</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t/>
+      <t>_x0000_	_x0001__x0005_&amp;_x0002_	&amp;_x0002__x000D_0_x0002__x0012_</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -8058,6 +8050,414 @@
   <si>
     <t>[Content]noImplicitAny を有効にする
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Organization profileにサイドバーがあってはならない
+[Class]インターフェースの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI:SFC は非推奨
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]godockerize の使用をやめる
+[Class]使用するツールの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>振る舞いは変わらず使用するツールの変更だけなのでDesign？</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">フルマイハ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カワラズ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シヨウスルツール </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヘンコウダケナノデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Slack bot Webhook コードを更新
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Raw APIがアーカイブのContent-Typeを適切に設定しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フロントエンドで site.schema.jsonのデフォルトを尊重する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gitserversリストはcong.Get().ServerConnections.GitServers経由で渡す
+[Class]機能の改善</t>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">ケイユデ </t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]siteConfigurationResolver.Source+ UXを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Monaco-editorのofficial amd loaderを使用
+[Class]モジュールの変更</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいリリースでupstreamのreactstrapを使用するよう戻す
+[Class]パッケージの置き換え</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シヨウスルヨウ </t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">モドス </t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]infrastructure repoのGitHub PR templateを更新
+[Class]ドキュメントの更新</t>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ConfigMap.yamlのsecretsはconfig fileでなくsecretとして読み取る
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ingress-nginxを使用するようにsourcegraph.comを変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]host&lt;-&gt;extension communicationでjsonrpc layerの代わりにcomlinkを使用
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LIGHTSTEP_INCLUDE_SENSITIVE には対応するconfig variableがない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのサービスで/healthzおよび/pingエンドポイントを統合
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]遅いPostgreクエリの監視と修正
+[Class]クエリの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Sourcegraph alpine base docker image
+[Class]Dockerのベースイメージの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ブラウザ拡張機能のSafari固有のコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go 1.11.5にアップグレード
+[Class]アップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TDではないのでは</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]2つのsearch implementations
+[Class]不要な機能の削除</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]2つのrepo-updater implementations
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rollout strategyを使用してstateful singleton deploymentsに再作成する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]env.Versionが正しくなくなった
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]corsOriginを削除
+[Class]不要な機能の削除</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">フヨウン </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]公開しているderivative Docker imagesはOSSである必要がある
+[Class]コードの公開</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">コウカイシテイル </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ヒツヨウガアル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]bashファイルを標準化
+[Class]？</t>
+    <rPh sb="18" eb="21">
+      <t xml:space="preserve">ヒョウジュンカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]管理コンソールにアクセスする前にサイトを初期化する必要はない
+[Class]バグの修正</t>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最近のpkg/markdownの変更は貧弱で危険である
+[Class]セキュリティの問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]望ましくないgitタグを取り除く
+[Class]不要なタグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ESLintを使用
+[Class]ツールの使用</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]begin/commit で移行をラップする
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitserver.gitディレクトリの移行を削除
+[Class]移行の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いディレクトリレイアウトの処理を削除
+[Class]不要なディレクトリの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pgsqlセッションのタイムゾーンを UTC に設定
+[Class]タイムソーンの設定</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]schedulerでnameの代わりにIDを使用する
+[Class]仕様の変更</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シヨウノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトで新しいsearcherを有効にする
+[Class]機能の改善</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ユウコウニスル </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitHub client packageがGitLab client packageと同じ規則に従うようにする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]#2644からのフォローアップに対処
+[Class]テストの追加</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">タイショ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>よくわからない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]motdを新しい通知設定プロパティに移行
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitserverでServiceConnectionsの設定を使用する
+[Class]設定の変更</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">セッテイノ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]&lt;span class="underline"&gt;をアラートリンクから削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bitbucket fetchDiffFiles() はファイル コンテンツを並列ではなくシリアルにフェッチする
+[Class]機能の置き換え</t>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ブラウザー拡張機能FileInfoをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]chromeの代わりにWebExtension APIを使用
+[Class]機能の置き換え</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">カワリニ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]globalstatedbパッケージは大惨事であり書き直す必要がある
+[Class]コードのクリーンアップ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]toolbarButtonPropsはCodeHostにある必要がある
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sourcegraph.com fallback logicを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]2つの関数をマージ
+[Class]関数の統合</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DOM functionのテストを追加
+[Class]テストの追加</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9028,8 +9428,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
-      <selection activeCell="C1051" sqref="C1051"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
+      <selection activeCell="F1101" sqref="F1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -23775,8 +24175,11 @@
       <c r="B1051" t="s">
         <v>1050</v>
       </c>
+      <c r="C1051" t="s">
+        <v>2394</v>
+      </c>
       <c r="F1051" s="2" t="s">
-        <v>2375</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1052" spans="1:6" ht="42">
@@ -23786,8 +24189,11 @@
       <c r="B1052" t="s">
         <v>1051</v>
       </c>
+      <c r="C1052" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1052" s="2" t="s">
-        <v>2375</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1053" spans="1:6" ht="42">
@@ -23797,8 +24203,17 @@
       <c r="B1053" t="s">
         <v>1052</v>
       </c>
+      <c r="C1053" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E1053" s="3" t="s">
+        <v>2465</v>
+      </c>
       <c r="F1053" s="2" t="s">
-        <v>2375</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1054" spans="1:6" ht="42">
@@ -23808,8 +24223,11 @@
       <c r="B1054" t="s">
         <v>1053</v>
       </c>
+      <c r="C1054" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1054" s="2" t="s">
-        <v>2375</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1055" spans="1:6" ht="42">
@@ -23819,8 +24237,11 @@
       <c r="B1055" t="s">
         <v>1054</v>
       </c>
+      <c r="C1055" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1055" s="2" t="s">
-        <v>2375</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1056" spans="1:6" ht="42">
@@ -23830,8 +24251,11 @@
       <c r="B1056" t="s">
         <v>1055</v>
       </c>
+      <c r="C1056" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1056" s="2" t="s">
-        <v>2375</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1057" spans="1:6" ht="42">
@@ -23841,8 +24265,11 @@
       <c r="B1057" t="s">
         <v>1056</v>
       </c>
+      <c r="C1057" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1057" s="2" t="s">
-        <v>2375</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1058" spans="1:6" ht="42">
@@ -23852,8 +24279,11 @@
       <c r="B1058" t="s">
         <v>1057</v>
       </c>
+      <c r="C1058" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1058" s="2" t="s">
-        <v>2375</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1059" spans="1:6" ht="42">
@@ -23863,8 +24293,11 @@
       <c r="B1059" t="s">
         <v>1058</v>
       </c>
+      <c r="C1059" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1059" s="2" t="s">
-        <v>2375</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1060" spans="1:6" ht="42">
@@ -23874,8 +24307,11 @@
       <c r="B1060" t="s">
         <v>1059</v>
       </c>
+      <c r="C1060" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1060" s="2" t="s">
-        <v>2375</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1061" spans="1:6" ht="42">
@@ -23885,8 +24321,11 @@
       <c r="B1061" t="s">
         <v>1060</v>
       </c>
+      <c r="C1061" t="s">
+        <v>2443</v>
+      </c>
       <c r="F1061" s="2" t="s">
-        <v>2375</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1062" spans="1:6" ht="42">
@@ -23896,8 +24335,11 @@
       <c r="B1062" t="s">
         <v>1061</v>
       </c>
+      <c r="C1062" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1062" s="2" t="s">
-        <v>2375</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1063" spans="1:6" ht="42">
@@ -23907,8 +24349,11 @@
       <c r="B1063" t="s">
         <v>1062</v>
       </c>
+      <c r="C1063" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1063" s="2" t="s">
-        <v>2375</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1064" spans="1:6" ht="42">
@@ -23918,8 +24363,11 @@
       <c r="B1064" t="s">
         <v>1063</v>
       </c>
+      <c r="C1064" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1064" s="2" t="s">
-        <v>2375</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1065" spans="1:6" ht="42">
@@ -23929,8 +24377,11 @@
       <c r="B1065" t="s">
         <v>1064</v>
       </c>
+      <c r="C1065" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1065" s="2" t="s">
-        <v>2375</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1066" spans="1:6" ht="42">
@@ -23940,8 +24391,11 @@
       <c r="B1066" t="s">
         <v>1065</v>
       </c>
+      <c r="C1066" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1066" s="2" t="s">
-        <v>2375</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1067" spans="1:6" ht="42">
@@ -23951,8 +24405,11 @@
       <c r="B1067" t="s">
         <v>1066</v>
       </c>
+      <c r="C1067" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1067" s="2" t="s">
-        <v>2375</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1068" spans="1:6" ht="42">
@@ -23962,8 +24419,11 @@
       <c r="B1068" t="s">
         <v>1067</v>
       </c>
+      <c r="C1068" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1068" s="2" t="s">
-        <v>2375</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1069" spans="1:6" ht="42">
@@ -23973,8 +24433,11 @@
       <c r="B1069" t="s">
         <v>1068</v>
       </c>
+      <c r="C1069" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1069" s="2" t="s">
-        <v>2375</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1070" spans="1:6" ht="42">
@@ -23984,8 +24447,17 @@
       <c r="B1070" t="s">
         <v>1069</v>
       </c>
+      <c r="C1070" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E1070" s="3" t="s">
+        <v>2484</v>
+      </c>
       <c r="F1070" s="2" t="s">
-        <v>2375</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1071" spans="1:6" ht="42">
@@ -23995,8 +24467,11 @@
       <c r="B1071" t="s">
         <v>1070</v>
       </c>
+      <c r="C1071" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1071" s="2" t="s">
-        <v>2375</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1072" spans="1:6" ht="42">
@@ -24006,8 +24481,11 @@
       <c r="B1072" t="s">
         <v>1071</v>
       </c>
+      <c r="C1072" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1072" s="2" t="s">
-        <v>2375</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1073" spans="1:6" ht="42">
@@ -24017,8 +24495,11 @@
       <c r="B1073" t="s">
         <v>1072</v>
       </c>
+      <c r="C1073" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1073" s="2" t="s">
-        <v>2375</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1074" spans="1:6" ht="42">
@@ -24028,8 +24509,11 @@
       <c r="B1074" t="s">
         <v>1073</v>
       </c>
+      <c r="C1074" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1074" s="2" t="s">
-        <v>2375</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1075" spans="1:6" ht="42">
@@ -24039,8 +24523,11 @@
       <c r="B1075" t="s">
         <v>1074</v>
       </c>
+      <c r="C1075" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1075" s="2" t="s">
-        <v>2375</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1076" spans="1:6" ht="42">
@@ -24050,8 +24537,14 @@
       <c r="B1076" t="s">
         <v>1075</v>
       </c>
+      <c r="C1076" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2402</v>
+      </c>
       <c r="F1076" s="2" t="s">
-        <v>2375</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1077" spans="1:6" ht="42">
@@ -24061,8 +24554,14 @@
       <c r="B1077" t="s">
         <v>1076</v>
       </c>
+      <c r="C1077" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1077" s="2" t="s">
-        <v>2375</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1078" spans="1:6" ht="42">
@@ -24072,8 +24571,11 @@
       <c r="B1078" t="s">
         <v>1077</v>
       </c>
+      <c r="C1078" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1078" s="2" t="s">
-        <v>2375</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1079" spans="1:6" ht="42">
@@ -24083,8 +24585,11 @@
       <c r="B1079" t="s">
         <v>1078</v>
       </c>
+      <c r="C1079" t="s">
+        <v>2494</v>
+      </c>
       <c r="F1079" s="2" t="s">
-        <v>2375</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1080" spans="1:6" ht="42">
@@ -24094,8 +24599,11 @@
       <c r="B1080" t="s">
         <v>1079</v>
       </c>
+      <c r="C1080" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1080" s="2" t="s">
-        <v>2375</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1081" spans="1:6" ht="42">
@@ -24105,8 +24613,11 @@
       <c r="B1081" t="s">
         <v>1080</v>
       </c>
+      <c r="C1081" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1081" s="2" t="s">
-        <v>2375</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1082" spans="1:6" ht="42">
@@ -24116,8 +24627,11 @@
       <c r="B1082" t="s">
         <v>1081</v>
       </c>
+      <c r="C1082" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1082" s="2" t="s">
-        <v>2375</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1083" spans="1:6" ht="42">
@@ -24127,8 +24641,11 @@
       <c r="B1083" t="s">
         <v>1082</v>
       </c>
+      <c r="C1083" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1083" s="2" t="s">
-        <v>2375</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1084" spans="1:6" ht="42">
@@ -24138,8 +24655,11 @@
       <c r="B1084" t="s">
         <v>1083</v>
       </c>
+      <c r="C1084" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1084" s="2" t="s">
-        <v>2375</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1085" spans="1:6" ht="42">
@@ -24149,8 +24669,14 @@
       <c r="B1085" t="s">
         <v>1084</v>
       </c>
+      <c r="C1085" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>2402</v>
+      </c>
       <c r="F1085" s="2" t="s">
-        <v>2375</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1086" spans="1:6" ht="42">
@@ -24160,8 +24686,11 @@
       <c r="B1086" t="s">
         <v>1085</v>
       </c>
+      <c r="C1086" t="s">
+        <v>2402</v>
+      </c>
       <c r="F1086" s="2" t="s">
-        <v>2375</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1087" spans="1:6" ht="42">
@@ -24171,8 +24700,11 @@
       <c r="B1087" t="s">
         <v>1086</v>
       </c>
+      <c r="C1087" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1087" s="2" t="s">
-        <v>2375</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1088" spans="1:6" ht="42">
@@ -24182,8 +24714,11 @@
       <c r="B1088" t="s">
         <v>1087</v>
       </c>
+      <c r="C1088" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1088" s="2" t="s">
-        <v>2375</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1089" spans="1:6" ht="42">
@@ -24193,8 +24728,17 @@
       <c r="B1089" t="s">
         <v>1088</v>
       </c>
+      <c r="C1089" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E1089" s="3" t="s">
+        <v>2505</v>
+      </c>
       <c r="F1089" s="2" t="s">
-        <v>2375</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1090" spans="1:6" ht="42">
@@ -24204,8 +24748,11 @@
       <c r="B1090" t="s">
         <v>1089</v>
       </c>
+      <c r="C1090" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1090" s="2" t="s">
-        <v>2375</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1091" spans="1:6" ht="42">
@@ -24215,8 +24762,14 @@
       <c r="B1091" t="s">
         <v>1090</v>
       </c>
+      <c r="C1091" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2402</v>
+      </c>
       <c r="F1091" s="2" t="s">
-        <v>2375</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1092" spans="1:6" ht="42">
@@ -24226,19 +24779,25 @@
       <c r="B1092" t="s">
         <v>1091</v>
       </c>
+      <c r="C1092" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1092" s="2" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:6" ht="42">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" ht="63">
       <c r="A1093">
         <v>3084</v>
       </c>
       <c r="B1093" t="s">
         <v>1092</v>
       </c>
+      <c r="C1093" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1093" s="2" t="s">
-        <v>2375</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1094" spans="1:6" ht="42">
@@ -24248,8 +24807,11 @@
       <c r="B1094" t="s">
         <v>1093</v>
       </c>
+      <c r="C1094" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1094" s="2" t="s">
-        <v>2375</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1095" spans="1:6" ht="42">
@@ -24259,8 +24821,11 @@
       <c r="B1095" t="s">
         <v>1094</v>
       </c>
+      <c r="C1095" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1095" s="2" t="s">
-        <v>2375</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1096" spans="1:6" ht="42">
@@ -24270,8 +24835,11 @@
       <c r="B1096" t="s">
         <v>1095</v>
       </c>
+      <c r="C1096" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1096" s="2" t="s">
-        <v>2375</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1097" spans="1:6" ht="42">
@@ -24281,8 +24849,11 @@
       <c r="B1097" t="s">
         <v>1096</v>
       </c>
+      <c r="C1097" t="s">
+        <v>2394</v>
+      </c>
       <c r="F1097" s="2" t="s">
-        <v>2375</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1098" spans="1:6" ht="42">
@@ -24292,8 +24863,11 @@
       <c r="B1098" t="s">
         <v>1097</v>
       </c>
+      <c r="C1098" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1098" s="2" t="s">
-        <v>2375</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1099" spans="1:6" ht="42">
@@ -24303,8 +24877,11 @@
       <c r="B1099" t="s">
         <v>1098</v>
       </c>
+      <c r="C1099" t="s">
+        <v>2376</v>
+      </c>
       <c r="F1099" s="2" t="s">
-        <v>2375</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="42">
@@ -24314,8 +24891,11 @@
       <c r="B1100" t="s">
         <v>1099</v>
       </c>
+      <c r="C1100" t="s">
+        <v>2385</v>
+      </c>
       <c r="F1100" s="2" t="s">
-        <v>2375</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE3A509C-A063-CE4F-A1E6-6575225EAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4CF59C99-1973-D342-86B7-B34F421F98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5962" uniqueCount="2606">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6010" uniqueCount="2650">
   <si>
     <t>Issue</t>
   </si>
@@ -9064,6 +9064,315 @@
   <si>
     <t>[Content]外部サービスの種類でraw文字列の使用を減らす
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベースの重複インデックス
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッチのキャッシュ差分統計
+[Class]計算を高速化</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">トウケイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ケイサンヲ </t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t xml:space="preserve">コウソクカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>パフォーマンスの向上のための変更</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">コウジョウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]git diff --statを変更セットの差分統計の最適化として使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]diff の強調表示に関する懸念
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストされていないコードに対する懸念</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ケネン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BBSのwebhooksのupsertを同期的に試す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メールパッケージは非推奨
+[Class]非推奨への対応</t>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">ヒスイショウヘノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メールの送信方法を変更，どれに当てはまるか微妙</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ビミョウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キャンペーンを有効にした後ハードリロードが必要
+[Class]機能の改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ユウコウニシタアト </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユーザへの通知をどうするか</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ツウチヲ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ts-graphql-pluginのcodegen機能を試す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CampaignDetailsのテストを分解，追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アクセス許可のオンデマンド実装を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utilパッケージを使用してどこでもマイクロ秒の切り捨てを停止する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rawエンドポイントのテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Postgresのintarrayを使用してパーミッションのobject_idを格納する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データのバックアップ/新しいインスタンスへの移行に関するドキュメントを追加
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]user_external_accounts行を保存してパーミッションを付与する統合テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベースパッケージをクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベースパッケージを移行
+[Class]コードの移行</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストアインターフェイスを相互運用可能にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Pure-SQL authzアプローチ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]intarray拡張によるPermsStoreロジックの簡素化
+[Class]機能の簡素化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]prometheusをlockstepでデプロイしないと問題が発生する
+[Class]機能の修正</t>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">モンダイガハッセイスル </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベーステストパッケージ
+[Class]不要なテストの削除</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gqltest: internal/cmd/search-integration-testerを移行
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]disaster recovery時にbundle manajer janitorを寛容にする
+[Class]機能の改善</t>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ジニ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カンヨウ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].e2eセレクターを他のテスト タイプにも適用されるものに変更
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitLab 統合テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Web コンテンツ スタイルシートを作成
+[Class]スタイルの統合</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のパーミッション サイト設定を削除
+[Class]非推奨なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Ratelimit 内部リクエスト
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]孤立したコミットのアップロードファイルを削除
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベースのオープンに失敗した場合のアラート
+[Class]警告の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ChangesetCountsOverTime統合テストを分割
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]3.21リリースの古いコードを削除
+[Class]古いコードの削除</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのイメージをalpine:3.12に更新
+[Class]イメージの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アラートを確認
+[Class]警告の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]内部キャンペーンパッケージのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI でツール apkをビルドして固定する
+[Class]CIビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]campaigns connectionsのpagination parametersを改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソース列をリポジトリテーブルから削除します
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]blackbox exporter &amp; site 24/7 next steps
+[Class]ツールの置き換え</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -10034,8 +10343,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1175" workbookViewId="0">
-      <selection activeCell="F1181" sqref="F1181"/>
+    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
+      <selection activeCell="C1221" sqref="C1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -26686,8 +26995,11 @@
       <c r="B1181" t="s">
         <v>1178</v>
       </c>
+      <c r="C1181" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1181" s="2" t="s">
-        <v>2373</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1182" spans="1:6" ht="42">
@@ -26697,8 +27009,17 @@
       <c r="B1182" t="s">
         <v>1179</v>
       </c>
+      <c r="C1182" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1182" s="3" t="s">
+        <v>2608</v>
+      </c>
       <c r="F1182" s="2" t="s">
-        <v>2373</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1183" spans="1:6" ht="42">
@@ -26708,8 +27029,11 @@
       <c r="B1183" t="s">
         <v>1180</v>
       </c>
+      <c r="C1183" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1183" s="2" t="s">
-        <v>2373</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1184" spans="1:6" ht="42">
@@ -26719,8 +27043,14 @@
       <c r="B1184" t="s">
         <v>1181</v>
       </c>
+      <c r="C1184" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E1184" s="3" t="s">
+        <v>2611</v>
+      </c>
       <c r="F1184" s="2" t="s">
-        <v>2373</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1185" spans="1:6" ht="42">
@@ -26730,8 +27060,11 @@
       <c r="B1185" t="s">
         <v>1182</v>
       </c>
+      <c r="C1185" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1185" s="2" t="s">
-        <v>2373</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1186" spans="1:6" ht="42">
@@ -26741,8 +27074,17 @@
       <c r="B1186" t="s">
         <v>1183</v>
       </c>
+      <c r="C1186" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1186" s="3" t="s">
+        <v>2614</v>
+      </c>
       <c r="F1186" s="2" t="s">
-        <v>2373</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1187" spans="1:6" ht="42">
@@ -26752,8 +27094,14 @@
       <c r="B1187" t="s">
         <v>1184</v>
       </c>
+      <c r="C1187" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>2616</v>
+      </c>
       <c r="F1187" s="2" t="s">
-        <v>2373</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1188" spans="1:6" ht="42">
@@ -26763,8 +27111,11 @@
       <c r="B1188" t="s">
         <v>1185</v>
       </c>
+      <c r="C1188" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1188" s="2" t="s">
-        <v>2373</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1189" spans="1:6" ht="42">
@@ -26774,8 +27125,11 @@
       <c r="B1189" t="s">
         <v>1186</v>
       </c>
+      <c r="C1189" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1189" s="2" t="s">
-        <v>2373</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1190" spans="1:6" ht="42">
@@ -26785,8 +27139,11 @@
       <c r="B1190" t="s">
         <v>1187</v>
       </c>
+      <c r="C1190" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1190" s="2" t="s">
-        <v>2373</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1191" spans="1:6" ht="42">
@@ -26796,8 +27153,11 @@
       <c r="B1191" t="s">
         <v>1188</v>
       </c>
+      <c r="C1191" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1191" s="2" t="s">
-        <v>2373</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1192" spans="1:6" ht="42">
@@ -26807,8 +27167,11 @@
       <c r="B1192" t="s">
         <v>1189</v>
       </c>
+      <c r="C1192" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1192" s="2" t="s">
-        <v>2373</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1193" spans="1:6" ht="42">
@@ -26818,30 +27181,39 @@
       <c r="B1193" t="s">
         <v>1190</v>
       </c>
+      <c r="C1193" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1193" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:6" ht="42">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" ht="63">
       <c r="A1194">
         <v>11600</v>
       </c>
       <c r="B1194" t="s">
         <v>1191</v>
       </c>
+      <c r="C1194" t="s">
+        <v>2441</v>
+      </c>
       <c r="F1194" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:6" ht="42">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" ht="63">
       <c r="A1195">
         <v>11614</v>
       </c>
       <c r="B1195" t="s">
         <v>1192</v>
       </c>
+      <c r="C1195" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1195" s="2" t="s">
-        <v>2373</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1196" spans="1:6" ht="42">
@@ -26851,8 +27223,11 @@
       <c r="B1196" t="s">
         <v>1193</v>
       </c>
+      <c r="C1196" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1196" s="2" t="s">
-        <v>2373</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1197" spans="1:6" ht="42">
@@ -26862,8 +27237,11 @@
       <c r="B1197" t="s">
         <v>1194</v>
       </c>
+      <c r="C1197" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1197" s="2" t="s">
-        <v>2373</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1198" spans="1:6" ht="42">
@@ -26873,8 +27251,11 @@
       <c r="B1198" t="s">
         <v>1195</v>
       </c>
+      <c r="C1198" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1198" s="2" t="s">
-        <v>2373</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1199" spans="1:6" ht="42">
@@ -26884,8 +27265,11 @@
       <c r="B1199" t="s">
         <v>1196</v>
       </c>
+      <c r="C1199" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1199" s="2" t="s">
-        <v>2373</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1200" spans="1:6" ht="42">
@@ -26895,8 +27279,11 @@
       <c r="B1200" t="s">
         <v>1197</v>
       </c>
+      <c r="C1200" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1200" s="2" t="s">
-        <v>2373</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1201" spans="1:6" ht="42">
@@ -26906,8 +27293,11 @@
       <c r="B1201" t="s">
         <v>1198</v>
       </c>
+      <c r="C1201" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1201" s="2" t="s">
-        <v>2373</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1202" spans="1:6" ht="42">
@@ -26917,8 +27307,11 @@
       <c r="B1202" t="s">
         <v>1199</v>
       </c>
+      <c r="C1202" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1202" s="2" t="s">
-        <v>2373</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1203" spans="1:6" ht="42">
@@ -26928,8 +27321,11 @@
       <c r="B1203" t="s">
         <v>1200</v>
       </c>
+      <c r="C1203" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1203" s="2" t="s">
-        <v>2373</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1204" spans="1:6" ht="42">
@@ -26939,8 +27335,11 @@
       <c r="B1204" t="s">
         <v>1201</v>
       </c>
+      <c r="C1204" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1204" s="2" t="s">
-        <v>2373</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1205" spans="1:6" ht="42">
@@ -26950,8 +27349,11 @@
       <c r="B1205" t="s">
         <v>1202</v>
       </c>
+      <c r="C1205" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1205" s="2" t="s">
-        <v>2373</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1206" spans="1:6" ht="42">
@@ -26961,8 +27363,11 @@
       <c r="B1206" t="s">
         <v>1203</v>
       </c>
+      <c r="C1206" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1206" s="2" t="s">
-        <v>2373</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1207" spans="1:6" ht="42">
@@ -26972,8 +27377,11 @@
       <c r="B1207" t="s">
         <v>1204</v>
       </c>
+      <c r="C1207" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1207" s="2" t="s">
-        <v>2373</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1208" spans="1:6" ht="42">
@@ -26983,8 +27391,11 @@
       <c r="B1208" t="s">
         <v>1205</v>
       </c>
+      <c r="C1208" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1208" s="2" t="s">
-        <v>2373</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1209" spans="1:6" ht="42">
@@ -26994,8 +27405,11 @@
       <c r="B1209" t="s">
         <v>1206</v>
       </c>
+      <c r="C1209" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1209" s="2" t="s">
-        <v>2373</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1210" spans="1:6" ht="42">
@@ -27005,8 +27419,11 @@
       <c r="B1210" t="s">
         <v>1207</v>
       </c>
+      <c r="C1210" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1210" s="2" t="s">
-        <v>2373</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1211" spans="1:6" ht="42">
@@ -27016,8 +27433,11 @@
       <c r="B1211" t="s">
         <v>1208</v>
       </c>
+      <c r="C1211" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1211" s="2" t="s">
-        <v>2373</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="42">
@@ -27027,8 +27447,11 @@
       <c r="B1212" t="s">
         <v>1209</v>
       </c>
+      <c r="C1212" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1212" s="2" t="s">
-        <v>2373</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1213" spans="1:6" ht="42">
@@ -27038,8 +27461,11 @@
       <c r="B1213" t="s">
         <v>1210</v>
       </c>
+      <c r="C1213" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1213" s="2" t="s">
-        <v>2373</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1214" spans="1:6" ht="42">
@@ -27049,8 +27475,14 @@
       <c r="B1214" t="s">
         <v>1211</v>
       </c>
+      <c r="C1214" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>2408</v>
+      </c>
       <c r="F1214" s="2" t="s">
-        <v>2373</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1215" spans="1:6" ht="42">
@@ -27060,8 +27492,11 @@
       <c r="B1215" t="s">
         <v>1212</v>
       </c>
+      <c r="C1215" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1215" s="2" t="s">
-        <v>2373</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1216" spans="1:6" ht="42">
@@ -27071,8 +27506,11 @@
       <c r="B1216" t="s">
         <v>1213</v>
       </c>
+      <c r="C1216" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1216" s="2" t="s">
-        <v>2373</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1217" spans="1:6" ht="42">
@@ -27082,8 +27520,11 @@
       <c r="B1217" t="s">
         <v>1214</v>
       </c>
+      <c r="C1217" t="s">
+        <v>2551</v>
+      </c>
       <c r="F1217" s="2" t="s">
-        <v>2373</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1218" spans="1:6" ht="42">
@@ -27093,8 +27534,11 @@
       <c r="B1218" t="s">
         <v>1215</v>
       </c>
+      <c r="C1218" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1218" s="2" t="s">
-        <v>2373</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1219" spans="1:6" ht="42">
@@ -27104,8 +27548,11 @@
       <c r="B1219" t="s">
         <v>1216</v>
       </c>
+      <c r="C1219" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1219" s="2" t="s">
-        <v>2373</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1220" spans="1:6" ht="42">
@@ -27115,8 +27562,14 @@
       <c r="B1220" t="s">
         <v>1217</v>
       </c>
+      <c r="C1220" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1220" s="2" t="s">
-        <v>2373</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1221" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4CF59C99-1973-D342-86B7-B34F421F98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8F21D461-49A7-A641-A8AB-75D0B516ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6010" uniqueCount="2650">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6063" uniqueCount="2685">
   <si>
     <t>Issue</t>
   </si>
@@ -9123,9 +9122,6 @@
     <rPh sb="34" eb="36">
       <t xml:space="preserve">タイオウ </t>
     </rPh>
-    <rPh sb="36" eb="38">
-      <t/>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -9373,6 +9369,266 @@
   <si>
     <t>[Content]blackbox exporter &amp; site 24/7 next steps
 [Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GraphQL APIでの効率的なリポジトリリストの取得
+[Class]機能の仕様変更</t>
+    <rPh sb="22" eb="25">
+      <t xml:space="preserve">コウリツテキナ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウヘンコウ </t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t xml:space="preserve">シヨウヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リストが長くてタイムアウトになる，仕様の変更？
+Designか微妙</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ビミョウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アクティベーションでredisの代わりにpostgresを使用
+[Class]非推奨なツールへの対応</t>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">カワリニ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo.Storeインターフェースを簡素化
+[Class]インターフェースの簡素化</t>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">カンソカ </t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t xml:space="preserve">カンソカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo-updater: SyncExternalServiceとsyncRepoの間の共通コードを削除 
+[Class]重複したコードの削除</t>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">チョウフクシタ </t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]postgres一括アップロードを一般化
+[Class]機能の改善</t>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">キノウノカイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]observability layersを削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitserver でgitログをトポロジー的にソート
+[Class]リポジトリの設定</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo store: Return sources
+[Class]機能の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>#14092のタスクっぽいがUIに関係していなさそう</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カンケイシテイナサソウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Createメソッドを追加
+[Class]メソッドの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Deleteメソッドを追加
+[Class]メソッドの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo-updaterのDeleteへの全ての呼び出しをinternal/db/repos#Deleteに置き換える
+[Class]機能の置き換え</t>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo-updaterのInsertへの全ての呼び出しをinternal/db/repos#Createに置き換える
+[Class]機能の置き換え</t>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repo-updaterのListReposへの全ての呼び出しをinternal/db/repos#Listに置き換える
+[Class]機能の置き換え</t>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Upsertメソッドを追加
+[Class]メソッドの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インターフェースを簡素化
+[Class]インターフェース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]basestoreを使用するようにreposストアを変換する
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Storeをbasestoreを使用するように変換
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストでMonacoエディターの現在の値を検査する信頼できる方法
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]repoのlanguage colmunを削除
+[Class]DBの改善</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]QAテストユーザを共有アクセス用にdev@sourcegraph.comに移動
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CSS変数を調整およびクリーンアップ 
+[Class]変数の調整</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ヘンスウノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">チョウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>変更されるのはインターフェースなのでUI?</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンコウサレルノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitserverのリポジトリトークンへのアクセスを簡素化
+[Class]仕様変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]3.23で放棄されたファイルのクリーンアップロジックを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリページのデザインと発見
+[Class]インターフェース</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバルdbconnの使用を停止
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sudoトークンを作成するためのgoバイナリはより汎用的であるべき
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]grafana: 7.3 へのアップグレードを調査
+[Class]CIエラー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>#15336を確認するとDocekrビルドエラーが発生していた
+原因は不明だがBuildのTDといえる？</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ハッセイシテイタ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ゲンインハフメイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]external_services: 3.23で無制限の列の移行を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]enry から go-enry へのアップグレード
+[Class]他のツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]authzFilter をそのメトリクスとテストと共に削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]basestoreパッケージを使用するようにStoreを変換
+[Class]新たなパッケージの使用</t>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">アラタナ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -10343,8 +10599,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
-      <selection activeCell="C1221" sqref="C1221"/>
+    <sheetView tabSelected="1" topLeftCell="A1261" workbookViewId="0">
+      <selection activeCell="F1266" sqref="F1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -27579,8 +27835,17 @@
       <c r="B1221" t="s">
         <v>1218</v>
       </c>
+      <c r="C1221" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1221" s="3" t="s">
+        <v>2651</v>
+      </c>
       <c r="F1221" s="2" t="s">
-        <v>2373</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1222" spans="1:6" ht="42">
@@ -27590,8 +27855,11 @@
       <c r="B1222" t="s">
         <v>1219</v>
       </c>
+      <c r="C1222" t="s">
+        <v>2408</v>
+      </c>
       <c r="F1222" s="2" t="s">
-        <v>2373</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1223" spans="1:6" ht="42">
@@ -27601,8 +27869,11 @@
       <c r="B1223" t="s">
         <v>1220</v>
       </c>
+      <c r="C1223" t="s">
+        <v>2392</v>
+      </c>
       <c r="F1223" s="2" t="s">
-        <v>2373</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1224" spans="1:6" ht="42">
@@ -27612,8 +27883,11 @@
       <c r="B1224" t="s">
         <v>1221</v>
       </c>
+      <c r="C1224" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1224" s="2" t="s">
-        <v>2373</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1225" spans="1:6" ht="42">
@@ -27623,8 +27897,11 @@
       <c r="B1225" t="s">
         <v>1222</v>
       </c>
+      <c r="C1225" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1225" s="2" t="s">
-        <v>2373</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1226" spans="1:6" ht="42">
@@ -27634,8 +27911,11 @@
       <c r="B1226" t="s">
         <v>1223</v>
       </c>
+      <c r="C1226" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1226" s="2" t="s">
-        <v>2373</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1227" spans="1:6" ht="42">
@@ -27645,8 +27925,14 @@
       <c r="B1227" t="s">
         <v>1224</v>
       </c>
+      <c r="C1227" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2400</v>
+      </c>
       <c r="F1227" s="2" t="s">
-        <v>2373</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1228" spans="1:6" ht="42">
@@ -27656,8 +27942,14 @@
       <c r="B1228" t="s">
         <v>1225</v>
       </c>
+      <c r="C1228" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1228" s="3" t="s">
+        <v>2659</v>
+      </c>
       <c r="F1228" s="2" t="s">
-        <v>2373</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1229" spans="1:6" ht="42">
@@ -27667,8 +27959,11 @@
       <c r="B1229" t="s">
         <v>1226</v>
       </c>
+      <c r="C1229" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1229" s="2" t="s">
-        <v>2373</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1230" spans="1:6" ht="42">
@@ -27678,41 +27973,53 @@
       <c r="B1230" t="s">
         <v>1227</v>
       </c>
+      <c r="C1230" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1230" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:6" ht="42">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" ht="63">
       <c r="A1231">
         <v>14710</v>
       </c>
       <c r="B1231" t="s">
         <v>1228</v>
       </c>
+      <c r="C1231" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1231" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:6" ht="42">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" ht="63">
       <c r="A1232">
         <v>14711</v>
       </c>
       <c r="B1232" t="s">
         <v>1229</v>
       </c>
+      <c r="C1232" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1232" s="2" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:6" ht="42">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" ht="63">
       <c r="A1233">
         <v>14712</v>
       </c>
       <c r="B1233" t="s">
         <v>1230</v>
       </c>
+      <c r="C1233" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1233" s="2" t="s">
-        <v>2373</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1234" spans="1:6" ht="42">
@@ -27722,8 +28029,11 @@
       <c r="B1234" t="s">
         <v>1231</v>
       </c>
+      <c r="C1234" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1234" s="2" t="s">
-        <v>2373</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1235" spans="1:6" ht="42">
@@ -27733,8 +28043,11 @@
       <c r="B1235" t="s">
         <v>1232</v>
       </c>
+      <c r="C1235" t="s">
+        <v>2392</v>
+      </c>
       <c r="F1235" s="2" t="s">
-        <v>2373</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1236" spans="1:6" ht="42">
@@ -27744,8 +28057,11 @@
       <c r="B1236" t="s">
         <v>1233</v>
       </c>
+      <c r="C1236" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1236" s="2" t="s">
-        <v>2373</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1237" spans="1:6" ht="42">
@@ -27755,8 +28071,11 @@
       <c r="B1237" t="s">
         <v>1234</v>
       </c>
+      <c r="C1237" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1237" s="2" t="s">
-        <v>2373</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="1238" spans="1:6" ht="42">
@@ -27766,8 +28085,11 @@
       <c r="B1238" t="s">
         <v>1235</v>
       </c>
+      <c r="C1238" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1238" s="2" t="s">
-        <v>2373</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1239" spans="1:6" ht="42">
@@ -27777,8 +28099,11 @@
       <c r="B1239" t="s">
         <v>1236</v>
       </c>
+      <c r="C1239" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1239" s="2" t="s">
-        <v>2373</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1240" spans="1:6" ht="42">
@@ -27788,8 +28113,11 @@
       <c r="B1240" t="s">
         <v>1237</v>
       </c>
+      <c r="C1240" t="s">
+        <v>2383</v>
+      </c>
       <c r="F1240" s="2" t="s">
-        <v>2373</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1241" spans="1:6" ht="42">
@@ -27799,8 +28127,17 @@
       <c r="B1241" t="s">
         <v>1238</v>
       </c>
+      <c r="C1241" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E1241" s="3" t="s">
+        <v>2673</v>
+      </c>
       <c r="F1241" s="2" t="s">
-        <v>2373</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1242" spans="1:6" ht="42">
@@ -27810,8 +28147,11 @@
       <c r="B1242" t="s">
         <v>1239</v>
       </c>
+      <c r="C1242" t="s">
+        <v>2400</v>
+      </c>
       <c r="F1242" s="2" t="s">
-        <v>2373</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1243" spans="1:6" ht="42">
@@ -27821,8 +28161,11 @@
       <c r="B1243" t="s">
         <v>1240</v>
       </c>
+      <c r="C1243" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1243" s="2" t="s">
-        <v>2373</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1244" spans="1:6" ht="42">
@@ -27832,8 +28175,11 @@
       <c r="B1244" t="s">
         <v>1241</v>
       </c>
+      <c r="C1244" t="s">
+        <v>2392</v>
+      </c>
       <c r="F1244" s="2" t="s">
-        <v>2373</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1245" spans="1:6" ht="42">
@@ -27843,8 +28189,11 @@
       <c r="B1245" t="s">
         <v>1242</v>
       </c>
+      <c r="C1245" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1245" s="2" t="s">
-        <v>2373</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1246" spans="1:6" ht="42">
@@ -27854,8 +28203,11 @@
       <c r="B1246" t="s">
         <v>1243</v>
       </c>
+      <c r="C1246" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1246" s="2" t="s">
-        <v>2373</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1247" spans="1:6" ht="42">
@@ -27865,8 +28217,17 @@
       <c r="B1247" t="s">
         <v>1244</v>
       </c>
+      <c r="C1247" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E1247" s="3" t="s">
+        <v>2680</v>
+      </c>
       <c r="F1247" s="2" t="s">
-        <v>2373</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1248" spans="1:6" ht="42">
@@ -27876,8 +28237,11 @@
       <c r="B1248" t="s">
         <v>1245</v>
       </c>
+      <c r="C1248" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1248" s="2" t="s">
-        <v>2373</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1249" spans="1:6" ht="42">
@@ -27887,8 +28251,11 @@
       <c r="B1249" t="s">
         <v>1246</v>
       </c>
+      <c r="C1249" t="s">
+        <v>2408</v>
+      </c>
       <c r="F1249" s="2" t="s">
-        <v>2373</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1250" spans="1:6" ht="42">
@@ -27898,8 +28265,11 @@
       <c r="B1250" t="s">
         <v>1247</v>
       </c>
+      <c r="C1250" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1250" s="2" t="s">
-        <v>2373</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1251" spans="1:6" ht="42">
@@ -27909,8 +28279,11 @@
       <c r="B1251" t="s">
         <v>1248</v>
       </c>
+      <c r="C1251" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1251" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1252" spans="1:6" ht="42">
@@ -27920,8 +28293,11 @@
       <c r="B1252" t="s">
         <v>1249</v>
       </c>
+      <c r="C1252" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1252" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1253" spans="1:6" ht="42">
@@ -27931,8 +28307,11 @@
       <c r="B1253" t="s">
         <v>1250</v>
       </c>
+      <c r="C1253" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1253" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1254" spans="1:6" ht="42">
@@ -27942,8 +28321,11 @@
       <c r="B1254" t="s">
         <v>1251</v>
       </c>
+      <c r="C1254" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1254" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1255" spans="1:6" ht="42">
@@ -27953,8 +28335,11 @@
       <c r="B1255" t="s">
         <v>1252</v>
       </c>
+      <c r="C1255" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1255" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1256" spans="1:6" ht="42">
@@ -27964,8 +28349,11 @@
       <c r="B1256" t="s">
         <v>1253</v>
       </c>
+      <c r="C1256" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1256" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1257" spans="1:6" ht="42">
@@ -27975,8 +28363,11 @@
       <c r="B1257" t="s">
         <v>1254</v>
       </c>
+      <c r="C1257" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1257" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1258" spans="1:6" ht="42">
@@ -27986,8 +28377,11 @@
       <c r="B1258" t="s">
         <v>1255</v>
       </c>
+      <c r="C1258" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1258" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1259" spans="1:6" ht="42">
@@ -27997,8 +28391,11 @@
       <c r="B1259" t="s">
         <v>1256</v>
       </c>
+      <c r="C1259" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1259" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1260" spans="1:6" ht="42">
@@ -28008,8 +28405,11 @@
       <c r="B1260" t="s">
         <v>1257</v>
       </c>
+      <c r="C1260" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1260" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1261" spans="1:6" ht="42">
@@ -28019,8 +28419,11 @@
       <c r="B1261" t="s">
         <v>1258</v>
       </c>
+      <c r="C1261" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1261" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1262" spans="1:6" ht="42">
@@ -28030,8 +28433,11 @@
       <c r="B1262" t="s">
         <v>1259</v>
       </c>
+      <c r="C1262" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1262" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1263" spans="1:6" ht="42">
@@ -28041,8 +28447,11 @@
       <c r="B1263" t="s">
         <v>1260</v>
       </c>
+      <c r="C1263" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1263" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1264" spans="1:6" ht="42">
@@ -28052,8 +28461,11 @@
       <c r="B1264" t="s">
         <v>1261</v>
       </c>
+      <c r="C1264" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1264" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1265" spans="1:6" ht="42">
@@ -28063,8 +28475,11 @@
       <c r="B1265" t="s">
         <v>1262</v>
       </c>
+      <c r="C1265" t="s">
+        <v>2374</v>
+      </c>
       <c r="F1265" s="2" t="s">
-        <v>2373</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1266" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3538522F-DE74-CA48-A2DA-846B8CB851B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D87FFF9C-B280-A54B-BBCC-4F087F720CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6149" uniqueCount="2757">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6190" uniqueCount="2795">
   <si>
     <t>Issue</t>
   </si>
@@ -10071,7 +10071,203 @@
   </si>
   <si>
     <t>[Content]githubクライアント: v3とv4の間の懸念のより明確な分離
-[Class]</t>
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_iam_policy_attachment -「name」は必須パラメーター
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フォーム'fmt.Sprintf("arn:...")'のARN文字列作成を'arn.go'の関数に置き換え
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫した受け入れテスト構成のフォーマットを確保する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_emr_cluster d.Set()エラーを調査し，エラーを返す代わりにログのみを記録
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_apigateway_rest_api テスト リソースの前に tf-acc-test-を付ける
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトのリソース削除タイムアウトをスイーパーに渡す
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]適切な受け入れテストCloudFrontディストリビューション
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tfprovlint001 のクリーンアップ (d.SetId() を削除
+[Class]コードのクリーンアップ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫した使用例のドキュメントヘッダー
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト用のrand.New()をacctest.RandInt()に置き換え
+[Class]テストの関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]import_*_test.goファイルをresource_*_test.goファイルに統合
+[Class]ファイルの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Elasticacheクラスターとレプリケーショングループのリソーススキーマを拡張
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_ami*リソーススキーマの重複
+[Class]重複した関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]goimports lintの問題を修正しTravisCIテストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ineffassign lintの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]deadcode lintの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]unconvert lintの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]misspell lintの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]varcheck lintの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]validateMaxLength()の使用法をvalidation.StringLenBetween()に置き換え
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]既存のコードを再利用してロググループを読み取る
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]getStringPtr()とgetStringPtrList()をリファクタリング
+[Class]関数のリファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一部のバリデータをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Web サイトの HCL フォーマットを修正
+[Class]ドキュメントの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_dx_gatewayとamazon_side_asnの問題
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]並行受け入れテストの実行中にエラーが発生
+[Class]コードの修正，テストの修正</t>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリングとドキュメントの改善
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws/sort.goのリファクタリングsort.Slice()の使用
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]使用されていないlintingの問題を修正しTravisCI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]unparam lintingの問題を修正しTravisCI で有効にします
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gosimple lintingの問題を修正しTravisCI で有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]追加のマルチルール受け入れテストカバレッジ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TypeSetからTypeListへの属性の移行
+[Class]コードの移行</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいリージョンの AWSシステム情報を返すデータソースを更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'flattenStringSet'を使用してコードを簡素化
+[Class]コードの簡素化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v2.0.0でinstance_interruption_behaviour属性の名前を変更
+[Class]属性の名前変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ISO-8601 属性を一貫して処理する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]更新時に重複するリソースタグを一貫して処理する
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -11032,8 +11228,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1331" workbookViewId="0">
-      <selection activeCell="C1343" sqref="C1343"/>
+    <sheetView tabSelected="1" topLeftCell="A1368" workbookViewId="0">
+      <selection activeCell="F1381" sqref="F1381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11041,7 +11237,7 @@
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="67.28515625" style="2" customWidth="1"/>
   </cols>
@@ -30016,6 +30212,9 @@
       <c r="C1342" t="s">
         <v>2479</v>
       </c>
+      <c r="D1342" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1342" s="1" t="s">
         <v>2756</v>
       </c>
@@ -30027,8 +30226,11 @@
       <c r="B1343" t="s">
         <v>1339</v>
       </c>
+      <c r="C1343" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1343" s="1" t="s">
-        <v>2371</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1344" spans="1:6" ht="42">
@@ -30038,8 +30240,11 @@
       <c r="B1344" t="s">
         <v>1340</v>
       </c>
+      <c r="C1344" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1344" s="1" t="s">
-        <v>2371</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1345" spans="1:6" ht="42">
@@ -30049,19 +30254,25 @@
       <c r="B1345" t="s">
         <v>1341</v>
       </c>
+      <c r="C1345" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1345" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:6" ht="42">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" ht="63">
       <c r="A1346">
         <v>3652</v>
       </c>
       <c r="B1346" t="s">
         <v>1342</v>
       </c>
+      <c r="C1346" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1346" s="1" t="s">
-        <v>2371</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1347" spans="1:6" ht="42">
@@ -30071,8 +30282,11 @@
       <c r="B1347" t="s">
         <v>1343</v>
       </c>
+      <c r="C1347" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1347" s="1" t="s">
-        <v>2371</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1348" spans="1:6" ht="42">
@@ -30082,8 +30296,11 @@
       <c r="B1348" t="s">
         <v>1344</v>
       </c>
+      <c r="C1348" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1348" s="1" t="s">
-        <v>2371</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1349" spans="1:6" ht="42">
@@ -30093,8 +30310,11 @@
       <c r="B1349" t="s">
         <v>1345</v>
       </c>
+      <c r="C1349" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1349" s="1" t="s">
-        <v>2371</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1350" spans="1:6" ht="42">
@@ -30104,8 +30324,11 @@
       <c r="B1350" t="s">
         <v>1346</v>
       </c>
+      <c r="C1350" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1350" s="1" t="s">
-        <v>2371</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1351" spans="1:6" ht="42">
@@ -30115,8 +30338,11 @@
       <c r="B1351" t="s">
         <v>1347</v>
       </c>
+      <c r="C1351" t="s">
+        <v>2439</v>
+      </c>
       <c r="F1351" s="1" t="s">
-        <v>2371</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1352" spans="1:6" ht="42">
@@ -30126,8 +30352,11 @@
       <c r="B1352" t="s">
         <v>1348</v>
       </c>
+      <c r="C1352" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1352" s="1" t="s">
-        <v>2371</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1353" spans="1:6" ht="42">
@@ -30137,19 +30366,25 @@
       <c r="B1353" t="s">
         <v>1349</v>
       </c>
+      <c r="C1353" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1353" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:6" ht="42">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" ht="63">
       <c r="A1354">
         <v>4828</v>
       </c>
       <c r="B1354" t="s">
         <v>1350</v>
       </c>
+      <c r="C1354" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1354" s="1" t="s">
-        <v>2371</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1355" spans="1:6" ht="42">
@@ -30159,8 +30394,11 @@
       <c r="B1355" t="s">
         <v>1351</v>
       </c>
+      <c r="C1355" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1355" s="1" t="s">
-        <v>2371</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1356" spans="1:6" ht="42">
@@ -30170,8 +30408,11 @@
       <c r="B1356" t="s">
         <v>1352</v>
       </c>
+      <c r="C1356" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1356" s="1" t="s">
-        <v>2371</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1357" spans="1:6" ht="42">
@@ -30181,8 +30422,11 @@
       <c r="B1357" t="s">
         <v>1353</v>
       </c>
+      <c r="C1357" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1357" s="1" t="s">
-        <v>2371</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1358" spans="1:6" ht="42">
@@ -30192,8 +30436,11 @@
       <c r="B1358" t="s">
         <v>1354</v>
       </c>
+      <c r="C1358" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1358" s="1" t="s">
-        <v>2371</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1359" spans="1:6" ht="42">
@@ -30203,8 +30450,11 @@
       <c r="B1359" t="s">
         <v>1355</v>
       </c>
+      <c r="C1359" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1359" s="1" t="s">
-        <v>2371</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1360" spans="1:6" ht="42">
@@ -30214,8 +30464,11 @@
       <c r="B1360" t="s">
         <v>1356</v>
       </c>
+      <c r="C1360" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1360" s="1" t="s">
-        <v>2371</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1361" spans="1:6" ht="42">
@@ -30225,8 +30478,11 @@
       <c r="B1361" t="s">
         <v>1357</v>
       </c>
+      <c r="C1361" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1361" s="1" t="s">
-        <v>2371</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1362" spans="1:6" ht="42">
@@ -30236,8 +30492,11 @@
       <c r="B1362" t="s">
         <v>1358</v>
       </c>
+      <c r="C1362" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1362" s="1" t="s">
-        <v>2371</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1363" spans="1:6" ht="42">
@@ -30247,8 +30506,11 @@
       <c r="B1363" t="s">
         <v>1359</v>
       </c>
+      <c r="C1363" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1363" s="1" t="s">
-        <v>2371</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1364" spans="1:6" ht="42">
@@ -30258,8 +30520,11 @@
       <c r="B1364" t="s">
         <v>1360</v>
       </c>
+      <c r="C1364" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1364" s="1" t="s">
-        <v>2371</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1365" spans="1:6" ht="42">
@@ -30269,8 +30534,11 @@
       <c r="B1365" t="s">
         <v>1361</v>
       </c>
+      <c r="C1365" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1365" s="1" t="s">
-        <v>2371</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1366" spans="1:6" ht="42">
@@ -30280,8 +30548,11 @@
       <c r="B1366" t="s">
         <v>1362</v>
       </c>
+      <c r="C1366" t="s">
+        <v>2439</v>
+      </c>
       <c r="F1366" s="1" t="s">
-        <v>2371</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1367" spans="1:6" ht="42">
@@ -30291,8 +30562,11 @@
       <c r="B1367" t="s">
         <v>1363</v>
       </c>
+      <c r="C1367" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1367" s="1" t="s">
-        <v>2371</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1368" spans="1:6" ht="42">
@@ -30302,8 +30576,14 @@
       <c r="B1368" t="s">
         <v>1364</v>
       </c>
+      <c r="C1368" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1368" s="1" t="s">
-        <v>2371</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1369" spans="1:6" ht="42">
@@ -30313,8 +30593,14 @@
       <c r="B1369" t="s">
         <v>1365</v>
       </c>
+      <c r="C1369" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>2439</v>
+      </c>
       <c r="F1369" s="1" t="s">
-        <v>2371</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1370" spans="1:6" ht="42">
@@ -30324,8 +30610,11 @@
       <c r="B1370" t="s">
         <v>1366</v>
       </c>
+      <c r="C1370" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1370" s="1" t="s">
-        <v>2371</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1371" spans="1:6" ht="42">
@@ -30335,8 +30624,11 @@
       <c r="B1371" t="s">
         <v>1367</v>
       </c>
+      <c r="C1371" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1371" s="1" t="s">
-        <v>2371</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1372" spans="1:6" ht="42">
@@ -30346,8 +30638,11 @@
       <c r="B1372" t="s">
         <v>1368</v>
       </c>
+      <c r="C1372" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1372" s="1" t="s">
-        <v>2371</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1373" spans="1:6" ht="42">
@@ -30357,8 +30652,11 @@
       <c r="B1373" t="s">
         <v>1369</v>
       </c>
+      <c r="C1373" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1373" s="1" t="s">
-        <v>2371</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1374" spans="1:6" ht="42">
@@ -30368,8 +30666,11 @@
       <c r="B1374" t="s">
         <v>1370</v>
       </c>
+      <c r="C1374" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1374" s="1" t="s">
-        <v>2371</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1375" spans="1:6" ht="42">
@@ -30379,8 +30680,11 @@
       <c r="B1375" t="s">
         <v>1371</v>
       </c>
+      <c r="C1375" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1375" s="1" t="s">
-        <v>2371</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1376" spans="1:6" ht="42">
@@ -30390,8 +30694,11 @@
       <c r="B1376" t="s">
         <v>1372</v>
       </c>
+      <c r="C1376" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1376" s="1" t="s">
-        <v>2371</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1377" spans="1:6" ht="42">
@@ -30401,8 +30708,11 @@
       <c r="B1377" t="s">
         <v>1373</v>
       </c>
+      <c r="C1377" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1377" s="1" t="s">
-        <v>2371</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1378" spans="1:6" ht="42">
@@ -30412,8 +30722,11 @@
       <c r="B1378" t="s">
         <v>1374</v>
       </c>
+      <c r="C1378" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1378" s="1" t="s">
-        <v>2371</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1379" spans="1:6" ht="42">
@@ -30423,8 +30736,11 @@
       <c r="B1379" t="s">
         <v>1375</v>
       </c>
+      <c r="C1379" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1379" s="1" t="s">
-        <v>2371</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1380" spans="1:6" ht="42">
@@ -30434,8 +30750,11 @@
       <c r="B1380" t="s">
         <v>1376</v>
       </c>
+      <c r="C1380" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1380" s="1" t="s">
-        <v>2371</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1381" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D87FFF9C-B280-A54B-BBCC-4F087F720CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{321D4929-8899-CD43-9B8B-AEAE7D992FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6190" uniqueCount="2795">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6230" uniqueCount="2803">
   <si>
     <t>Issue</t>
   </si>
@@ -10268,6 +10268,46 @@
   <si>
     <t>[Content]更新時に重複するリソースタグを一貫して処理する
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]staticcheckチェックを有効にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_lambda_layer_version arnとlayer_arn属性値を交換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テキスト/テン​​プレートの使用法を fmt.Sprintf() に変換
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ElasticBeanstalk設定オプションに検証を追加
+[Class]オプションの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]r/aws_s3_bucket: 受け入れテスト 'CheckDestroy' 関数がバケットを破棄
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_iam_user_login_profile が既存のインフラストラクチャを自動的にインポート
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]skip_requesting_account_id = false で判別できない場合にエラーを返す
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の引数を削除
+[Class]非推奨の引数を削除</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -11228,8 +11268,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1368" workbookViewId="0">
-      <selection activeCell="F1381" sqref="F1381"/>
+    <sheetView tabSelected="1" topLeftCell="A1417" workbookViewId="0">
+      <selection activeCell="F1422" sqref="F1422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -30764,8 +30804,11 @@
       <c r="B1381" t="s">
         <v>1377</v>
       </c>
+      <c r="C1381" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1381" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1382" spans="1:6" ht="42">
@@ -30775,8 +30818,11 @@
       <c r="B1382" t="s">
         <v>1378</v>
       </c>
+      <c r="C1382" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1382" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1383" spans="1:6" ht="42">
@@ -30786,8 +30832,11 @@
       <c r="B1383" t="s">
         <v>1379</v>
       </c>
+      <c r="C1383" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1383" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1384" spans="1:6" ht="42">
@@ -30797,8 +30846,11 @@
       <c r="B1384" t="s">
         <v>1380</v>
       </c>
+      <c r="C1384" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1384" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1385" spans="1:6" ht="42">
@@ -30808,8 +30860,11 @@
       <c r="B1385" t="s">
         <v>1381</v>
       </c>
+      <c r="C1385" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1385" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1386" spans="1:6" ht="42">
@@ -30819,8 +30874,11 @@
       <c r="B1386" t="s">
         <v>1382</v>
       </c>
+      <c r="C1386" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1386" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1387" spans="1:6" ht="42">
@@ -30830,8 +30888,11 @@
       <c r="B1387" t="s">
         <v>1383</v>
       </c>
+      <c r="C1387" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1387" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1388" spans="1:6" ht="42">
@@ -30841,8 +30902,11 @@
       <c r="B1388" t="s">
         <v>1384</v>
       </c>
+      <c r="C1388" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1388" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1389" spans="1:6" ht="42">
@@ -30852,8 +30916,11 @@
       <c r="B1389" t="s">
         <v>1385</v>
       </c>
+      <c r="C1389" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1389" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1390" spans="1:6" ht="42">
@@ -30863,8 +30930,11 @@
       <c r="B1390" t="s">
         <v>1386</v>
       </c>
+      <c r="C1390" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1390" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1391" spans="1:6" ht="42">
@@ -30874,8 +30944,11 @@
       <c r="B1391" t="s">
         <v>1387</v>
       </c>
+      <c r="C1391" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1391" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1392" spans="1:6" ht="42">
@@ -30885,8 +30958,11 @@
       <c r="B1392" t="s">
         <v>1388</v>
       </c>
+      <c r="C1392" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1392" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1393" spans="1:6" ht="42">
@@ -30896,8 +30972,11 @@
       <c r="B1393" t="s">
         <v>1389</v>
       </c>
+      <c r="C1393" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1393" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1394" spans="1:6" ht="42">
@@ -30907,8 +30986,11 @@
       <c r="B1394" t="s">
         <v>1390</v>
       </c>
+      <c r="C1394" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1394" s="1" t="s">
-        <v>2371</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1395" spans="1:6" ht="42">
@@ -30918,8 +31000,11 @@
       <c r="B1395" t="s">
         <v>1391</v>
       </c>
+      <c r="C1395" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1395" s="1" t="s">
-        <v>2371</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1396" spans="1:6" ht="42">
@@ -30929,8 +31014,11 @@
       <c r="B1396" t="s">
         <v>1392</v>
       </c>
+      <c r="C1396" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1396" s="1" t="s">
-        <v>2371</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1397" spans="1:6" ht="42">
@@ -30940,8 +31028,11 @@
       <c r="B1397" t="s">
         <v>1393</v>
       </c>
+      <c r="C1397" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1397" s="1" t="s">
-        <v>2371</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1398" spans="1:6" ht="42">
@@ -30951,19 +31042,25 @@
       <c r="B1398" t="s">
         <v>1394</v>
       </c>
+      <c r="C1398" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1398" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:6" ht="42">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" ht="63">
       <c r="A1399">
         <v>7536</v>
       </c>
       <c r="B1399" t="s">
         <v>1395</v>
       </c>
+      <c r="C1399" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1399" s="1" t="s">
-        <v>2371</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1400" spans="1:6" ht="42">
@@ -30973,8 +31070,11 @@
       <c r="B1400" t="s">
         <v>1396</v>
       </c>
+      <c r="C1400" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1400" s="1" t="s">
-        <v>2371</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1401" spans="1:6" ht="42">
@@ -30984,8 +31084,11 @@
       <c r="B1401" t="s">
         <v>1397</v>
       </c>
+      <c r="C1401" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1401" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1402" spans="1:6" ht="42">
@@ -30995,8 +31098,11 @@
       <c r="B1402" t="s">
         <v>1398</v>
       </c>
+      <c r="C1402" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1402" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1403" spans="1:6" ht="42">
@@ -31006,8 +31112,11 @@
       <c r="B1403" t="s">
         <v>1399</v>
       </c>
+      <c r="C1403" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1403" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1404" spans="1:6" ht="42">
@@ -31017,8 +31126,11 @@
       <c r="B1404" t="s">
         <v>1400</v>
       </c>
+      <c r="C1404" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1404" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1405" spans="1:6" ht="42">
@@ -31028,8 +31140,11 @@
       <c r="B1405" t="s">
         <v>1401</v>
       </c>
+      <c r="C1405" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1405" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1406" spans="1:6" ht="42">
@@ -31039,8 +31154,11 @@
       <c r="B1406" t="s">
         <v>1402</v>
       </c>
+      <c r="C1406" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1406" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1407" spans="1:6" ht="42">
@@ -31050,8 +31168,11 @@
       <c r="B1407" t="s">
         <v>1403</v>
       </c>
+      <c r="C1407" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1407" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1408" spans="1:6" ht="42">
@@ -31061,8 +31182,11 @@
       <c r="B1408" t="s">
         <v>1404</v>
       </c>
+      <c r="C1408" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1408" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1409" spans="1:6" ht="42">
@@ -31072,8 +31196,11 @@
       <c r="B1409" t="s">
         <v>1405</v>
       </c>
+      <c r="C1409" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1409" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1410" spans="1:6" ht="42">
@@ -31083,8 +31210,11 @@
       <c r="B1410" t="s">
         <v>1406</v>
       </c>
+      <c r="C1410" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1410" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1411" spans="1:6" ht="42">
@@ -31094,8 +31224,11 @@
       <c r="B1411" t="s">
         <v>1407</v>
       </c>
+      <c r="C1411" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1411" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1412" spans="1:6" ht="42">
@@ -31105,8 +31238,11 @@
       <c r="B1412" t="s">
         <v>1408</v>
       </c>
+      <c r="C1412" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1412" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1413" spans="1:6" ht="42">
@@ -31116,8 +31252,11 @@
       <c r="B1413" t="s">
         <v>1409</v>
       </c>
+      <c r="C1413" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1413" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1414" spans="1:6" ht="42">
@@ -31127,8 +31266,11 @@
       <c r="B1414" t="s">
         <v>1410</v>
       </c>
+      <c r="C1414" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1414" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1415" spans="1:6" ht="42">
@@ -31138,8 +31280,11 @@
       <c r="B1415" t="s">
         <v>1411</v>
       </c>
+      <c r="C1415" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1415" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1416" spans="1:6" ht="42">
@@ -31149,8 +31294,11 @@
       <c r="B1416" t="s">
         <v>1412</v>
       </c>
+      <c r="C1416" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1416" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1417" spans="1:6" ht="42">
@@ -31160,8 +31308,11 @@
       <c r="B1417" t="s">
         <v>1413</v>
       </c>
+      <c r="C1417" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1417" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1418" spans="1:6" ht="42">
@@ -31171,8 +31322,11 @@
       <c r="B1418" t="s">
         <v>1414</v>
       </c>
+      <c r="C1418" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1418" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1419" spans="1:6" ht="42">
@@ -31182,8 +31336,11 @@
       <c r="B1419" t="s">
         <v>1415</v>
       </c>
+      <c r="C1419" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1419" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1420" spans="1:6" ht="42">
@@ -31193,8 +31350,11 @@
       <c r="B1420" t="s">
         <v>1416</v>
       </c>
+      <c r="C1420" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1420" s="1" t="s">
-        <v>2371</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1421" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{321D4929-8899-CD43-9B8B-AEAE7D992FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62945FA0-BD1E-C74B-A054-CC00F08EA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6230" uniqueCount="2803">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6271" uniqueCount="2843">
   <si>
     <t>Issue</t>
   </si>
@@ -10308,6 +10308,227 @@
   <si>
     <t>[Content]非推奨の引数を削除
 [Class]非推奨の引数を削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クロスリージョン受け入れテストで一貫して 'testAccProviderFunc' を使用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての TypeSet + MaxItems: 1 を TypeList に変換
+[Class]レポートの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]isResourceTimeoutError() 条件文をすべて実装する resource.Retry() 使用
+[Class]関数の実装方法の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'validateAny' と 'validateIntegerInSlice' をアップストリームの 'validation.Any' と 'validation.IntInSlice' に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]更新された govet チェックを修正
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_emr_cluster リソース instance_group 構成ブロック処理の分割
+[Class]機能の分割，改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされたテスト us-east-1 プロバイダー構成をエイリアス プロバイダー構成に置き換え
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Terraform ヘルパー/検証関数を使用してvalidators.go の検証関数を簡素化
+[Class]関数の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_cloudfront_distribution: フラットマップの依存関係を取り除く
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]個別の ImportState テストを適用可能なすべてのテストに移行
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース受け入れテストに CheckDestroy がない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]provider_test.go 以外のファイルからprovider "aws"ブロックを削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIにクロスコンパイラチェックを追加
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「data_source_aws_common_schema.go」のコードが「ec2_filters.go」のコードと重複している
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'AWSClient' の API ゲートウェイ接続が誤解を招くような名前
+[Class]名称変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マスターの s3_account_public_access_block での失敗/不安定なテスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]完全な Cloudwatch Event Target 構成のデフォルトのテスト
+[Class]テストの作り直し</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストの名前にアンダースコアが含まれていることを確認
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]et() 呼び出しで文字列リテラルを使用
+[Class]linterの改善</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Set() 呼び出しで無関係な逆参照を削除
+[Class]linterの改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要な Exists 関数を削除
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Set() 呼び出しの互換性のある型を確認
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ypeMap スキーマにすべての要素があることを確認
+[Class]linterの改善</t>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TypeList and MaxItems: 1の使用
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go 1.13 の開発情報とテスト構成をアップグレード
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インポート テストのリファクタリング中に発見された壊れたインポートを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]terraform-provider-tls の依存関係を削除
+[Class]依存関係の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]terraform-provider-template の依存関係を削除
+[Class]依存関係の削除</t>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CloudWatch ログ リソース ポリシーをクリーンアップ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい「waitForCloudFormationStackXXX」関数を使用
+[Class]関数の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]out randomString()のリファクタリング
+[Class]関数のリファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]exportloopref リンティングの問題を修正し、CI テストで有効にする
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]標準のクロスアカウント受け入れテスト設定を使用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ENI の Describe/Detach/Delete 呼び出しの統合
+[Class]関数の呼び出しの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]keyvaluetags パッケージを使用するようにリソースのタグ付けコードをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の置き換え
+[Class]関数の置き換え</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WorkSpaces ディレクトリ テストの並列化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_elasticache_replication_group テストの更新
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のプラグイン SDK 検証関数の使用を置き換え
+[Class]非推奨の関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Terraformによって制御されていない SMS 送信者 ID を特定
+[Class]バグの修正</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -11268,8 +11489,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1417" workbookViewId="0">
-      <selection activeCell="F1422" sqref="F1422"/>
+    <sheetView tabSelected="1" topLeftCell="A1457" workbookViewId="0">
+      <selection activeCell="C1461" sqref="C1461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -31364,8 +31585,11 @@
       <c r="B1421" t="s">
         <v>1417</v>
       </c>
+      <c r="C1421" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1421" s="1" t="s">
-        <v>2371</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1422" spans="1:6" ht="42">
@@ -31375,8 +31599,11 @@
       <c r="B1422" t="s">
         <v>1418</v>
       </c>
+      <c r="C1422" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1422" s="1" t="s">
-        <v>2371</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1423" spans="1:6" ht="42">
@@ -31386,19 +31613,25 @@
       <c r="B1423" t="s">
         <v>1419</v>
       </c>
+      <c r="C1423" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1423" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:6" ht="42">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" ht="63">
       <c r="A1424">
         <v>7906</v>
       </c>
       <c r="B1424" t="s">
         <v>1420</v>
       </c>
+      <c r="C1424" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1424" s="1" t="s">
-        <v>2371</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1425" spans="1:6" ht="42">
@@ -31408,8 +31641,11 @@
       <c r="B1425" t="s">
         <v>1421</v>
       </c>
+      <c r="C1425" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1425" s="1" t="s">
-        <v>2371</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1426" spans="1:6" ht="42">
@@ -31419,19 +31655,25 @@
       <c r="B1426" t="s">
         <v>1422</v>
       </c>
+      <c r="C1426" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1426" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:6" ht="42">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" ht="63">
       <c r="A1427">
         <v>8316</v>
       </c>
       <c r="B1427" t="s">
         <v>1423</v>
       </c>
+      <c r="C1427" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1427" s="1" t="s">
-        <v>2371</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1428" spans="1:6" ht="42">
@@ -31441,8 +31683,11 @@
       <c r="B1428" t="s">
         <v>1424</v>
       </c>
+      <c r="C1428" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1428" s="1" t="s">
-        <v>2371</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1429" spans="1:6" ht="42">
@@ -31452,8 +31697,11 @@
       <c r="B1429" t="s">
         <v>1425</v>
       </c>
+      <c r="C1429" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1429" s="1" t="s">
-        <v>2371</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1430" spans="1:6" ht="42">
@@ -31463,8 +31711,11 @@
       <c r="B1430" t="s">
         <v>1426</v>
       </c>
+      <c r="C1430" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1430" s="1" t="s">
-        <v>2371</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1431" spans="1:6" ht="42">
@@ -31474,8 +31725,11 @@
       <c r="B1431" t="s">
         <v>1427</v>
       </c>
+      <c r="C1431" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1431" s="1" t="s">
-        <v>2371</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="1432" spans="1:6" ht="42">
@@ -31485,8 +31739,11 @@
       <c r="B1432" t="s">
         <v>1428</v>
       </c>
+      <c r="C1432" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1432" s="1" t="s">
-        <v>2371</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1433" spans="1:6" ht="42">
@@ -31496,19 +31753,25 @@
       <c r="B1433" t="s">
         <v>1429</v>
       </c>
+      <c r="C1433" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1433" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:6" ht="42">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" ht="63">
       <c r="A1434">
         <v>9150</v>
       </c>
       <c r="B1434" t="s">
         <v>1430</v>
       </c>
+      <c r="C1434" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1434" s="1" t="s">
-        <v>2371</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1435" spans="1:6" ht="42">
@@ -31518,8 +31781,14 @@
       <c r="B1435" t="s">
         <v>1431</v>
       </c>
+      <c r="C1435" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2398</v>
+      </c>
       <c r="F1435" s="1" t="s">
-        <v>2371</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1436" spans="1:6" ht="42">
@@ -31529,8 +31798,11 @@
       <c r="B1436" t="s">
         <v>1432</v>
       </c>
+      <c r="C1436" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1436" s="1" t="s">
-        <v>2371</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1437" spans="1:6" ht="42">
@@ -31540,8 +31812,11 @@
       <c r="B1437" t="s">
         <v>1433</v>
       </c>
+      <c r="C1437" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1437" s="1" t="s">
-        <v>2371</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="1438" spans="1:6" ht="42">
@@ -31551,8 +31826,11 @@
       <c r="B1438" t="s">
         <v>1434</v>
       </c>
+      <c r="C1438" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1438" s="1" t="s">
-        <v>2371</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1439" spans="1:6" ht="42">
@@ -31562,8 +31840,11 @@
       <c r="B1439" t="s">
         <v>1435</v>
       </c>
+      <c r="C1439" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1439" s="1" t="s">
-        <v>2371</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1440" spans="1:6" ht="42">
@@ -31573,8 +31854,11 @@
       <c r="B1440" t="s">
         <v>1436</v>
       </c>
+      <c r="C1440" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1440" s="1" t="s">
-        <v>2371</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1441" spans="1:6" ht="42">
@@ -31584,8 +31868,11 @@
       <c r="B1441" t="s">
         <v>1437</v>
       </c>
+      <c r="C1441" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1441" s="1" t="s">
-        <v>2371</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1442" spans="1:6" ht="42">
@@ -31595,8 +31882,11 @@
       <c r="B1442" t="s">
         <v>1438</v>
       </c>
+      <c r="C1442" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1442" s="1" t="s">
-        <v>2371</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1443" spans="1:6" ht="42">
@@ -31606,8 +31896,11 @@
       <c r="B1443" t="s">
         <v>1439</v>
       </c>
+      <c r="C1443" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1443" s="1" t="s">
-        <v>2371</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1444" spans="1:6" ht="42">
@@ -31617,8 +31910,11 @@
       <c r="B1444" t="s">
         <v>1440</v>
       </c>
+      <c r="C1444" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1444" s="1" t="s">
-        <v>2371</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1445" spans="1:6" ht="42">
@@ -31628,19 +31924,25 @@
       <c r="B1445" t="s">
         <v>1441</v>
       </c>
+      <c r="C1445" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1445" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:6" ht="42">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" ht="63">
       <c r="A1446">
         <v>10002</v>
       </c>
       <c r="B1446" t="s">
         <v>1442</v>
       </c>
+      <c r="C1446" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1446" s="1" t="s">
-        <v>2371</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1447" spans="1:6" ht="42">
@@ -31650,8 +31952,11 @@
       <c r="B1447" t="s">
         <v>1443</v>
       </c>
+      <c r="C1447" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1447" s="1" t="s">
-        <v>2371</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1448" spans="1:6" ht="42">
@@ -31661,8 +31966,11 @@
       <c r="B1448" t="s">
         <v>1444</v>
       </c>
+      <c r="C1448" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1448" s="1" t="s">
-        <v>2371</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1449" spans="1:6" ht="42">
@@ -31672,8 +31980,11 @@
       <c r="B1449" t="s">
         <v>1445</v>
       </c>
+      <c r="C1449" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1449" s="1" t="s">
-        <v>2371</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1450" spans="1:6" ht="42">
@@ -31683,8 +31994,11 @@
       <c r="B1450" t="s">
         <v>1446</v>
       </c>
+      <c r="C1450" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1450" s="1" t="s">
-        <v>2371</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1451" spans="1:6" ht="42">
@@ -31694,8 +32008,11 @@
       <c r="B1451" t="s">
         <v>1447</v>
       </c>
+      <c r="C1451" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1451" s="1" t="s">
-        <v>2371</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1452" spans="1:6" ht="42">
@@ -31705,8 +32022,11 @@
       <c r="B1452" t="s">
         <v>1448</v>
       </c>
+      <c r="C1452" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1452" s="1" t="s">
-        <v>2371</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1453" spans="1:6" ht="42">
@@ -31716,8 +32036,11 @@
       <c r="B1453" t="s">
         <v>1449</v>
       </c>
+      <c r="C1453" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1453" s="1" t="s">
-        <v>2371</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1454" spans="1:6" ht="42">
@@ -31727,19 +32050,25 @@
       <c r="B1454" t="s">
         <v>1450</v>
       </c>
+      <c r="C1454" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1454" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:6" ht="42">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" ht="63">
       <c r="A1455">
         <v>10688</v>
       </c>
       <c r="B1455" t="s">
         <v>1451</v>
       </c>
+      <c r="C1455" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1455" s="1" t="s">
-        <v>2371</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1456" spans="1:6" ht="42">
@@ -31749,8 +32078,11 @@
       <c r="B1456" t="s">
         <v>1452</v>
       </c>
+      <c r="C1456" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1456" s="1" t="s">
-        <v>2371</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1457" spans="1:6" ht="42">
@@ -31760,8 +32092,11 @@
       <c r="B1457" t="s">
         <v>1453</v>
       </c>
+      <c r="C1457" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1457" s="1" t="s">
-        <v>2371</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1458" spans="1:6" ht="42">
@@ -31771,8 +32106,11 @@
       <c r="B1458" t="s">
         <v>1454</v>
       </c>
+      <c r="C1458" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1458" s="1" t="s">
-        <v>2371</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1459" spans="1:6" ht="42">
@@ -31782,8 +32120,11 @@
       <c r="B1459" t="s">
         <v>1455</v>
       </c>
+      <c r="C1459" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1459" s="1" t="s">
-        <v>2371</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1460" spans="1:6" ht="42">
@@ -31793,8 +32134,11 @@
       <c r="B1460" t="s">
         <v>1456</v>
       </c>
+      <c r="C1460" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1460" s="1" t="s">
-        <v>2371</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1461" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62945FA0-BD1E-C74B-A054-CC00F08EA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A85964A-2BA9-DF47-B37F-2EC41635335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6271" uniqueCount="2843">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6312" uniqueCount="2878">
   <si>
     <t>Issue</t>
   </si>
@@ -10529,6 +10529,208 @@
   <si>
     <t>[Content]Terraformによって制御されていない SMS 送信者 ID を特定
 [Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテスト関数名は TestAcc で始まる必要がある
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数の d.HasChange() 呼び出しを d.HasChanges() 呼び出しと結合
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RetryFunc に RetryableError() 処理を含めるか、RetryFunc を削除する必要がある
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキーマは Computed と ForceNew のみを組み合わせてはいけない
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TypeMap のスキーマは Elem *schema.Resource を使用しない
+[Class]linterの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキーマには互換性のないタイプの Elem を含めない
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ForceNew は、データ ソース スキーマ属性に無関係
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]計算されたスキーマのみが MaxItems を構成しないようにする
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]計算のみのスキーマは MinItems を設定してはいけない
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]計算されたスキーマのみが StateFunc を構成しないようにする
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]resource.TestCheckResourceAttrPair() または ARN チェック関数を 優先
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の d.Partial() および d.SetPartial()
+[Class]非推奨の関数の削除</t>
+    <rPh sb="52" eb="55">
+      <t xml:space="preserve">ヒスイショウノ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go panic の使用法
+[Class]機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースは MigrateState ではなく StateUpgraders を構成する
+[Class]linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Terraform プラグイン SDK v2へのアップグレード
+[Class]プラグインのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Linterを使用してパーティション/リージョン ホスト名の AWSClient レシーバー メソッドを導入
+[Class]linterの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテスト構成でローカル ゾーンを無効にする 
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい staticcheck v2020.1.3 SA5011 golangci-lint v1.24.0 での失敗
+[Class]linterの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]type setMapと関連メソッドをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_cloudwatch_log_group Sweeper の実装
+[Class]テストの追加</t>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_batch_job_definition Sweeper の実装
+[Class]テストの追加</t>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_ecs_task_definition Sweeper の実装
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_sns_topic Sweeper の実装
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_sqs_queue Sweeper の実装
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の実装によるテストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジッソウニヨル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロビジョニングされていない IOPS EBS ボリュームの設定は、検証エラーiopsになるはず
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]StateChangeConf および StateRefreshFunc ロジックを内部パッケージにリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メンテナーが提出した問題のニーズトリアージ ラベルの追加をスキップ
+[Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]isResourceTimeoutError() または tfresource.TimedOut() が resource.Retry() の後に呼び出されることを確認
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]直接チェックするよりも tfawserr ヘルパーを優先
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fmt.Errorf() の (*awserr.Error).Code() / (*awserr.Error).Message() ではなく (*awserr.Error) を優先
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンテキストを持つ戻りエラーの *awserr.Error に %w 動詞を優先させる 
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコードされた Amazon マシン イメージ識別子の代わりに aws_ami データ ソースを優先
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リージョンはハードコードしないで、aws_region と aws_availability_zones データソースを代わりに使ってください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコードされたリージョン識別子の代わりに aws_region データ ソースを優先
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -11489,8 +11691,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1457" workbookViewId="0">
-      <selection activeCell="C1461" sqref="C1461"/>
+    <sheetView tabSelected="1" topLeftCell="A1496" workbookViewId="0">
+      <selection activeCell="C1501" sqref="C1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -32148,8 +32350,11 @@
       <c r="B1461" t="s">
         <v>1457</v>
       </c>
+      <c r="C1461" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1461" s="1" t="s">
-        <v>2371</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1462" spans="1:6" ht="42">
@@ -32159,19 +32364,25 @@
       <c r="B1462" t="s">
         <v>1458</v>
       </c>
+      <c r="C1462" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1462" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:6" ht="42">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" ht="63">
       <c r="A1463">
         <v>11864</v>
       </c>
       <c r="B1463" t="s">
         <v>1459</v>
       </c>
+      <c r="C1463" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1463" s="1" t="s">
-        <v>2371</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1464" spans="1:6" ht="42">
@@ -32181,8 +32392,11 @@
       <c r="B1464" t="s">
         <v>1460</v>
       </c>
+      <c r="C1464" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1464" s="1" t="s">
-        <v>2371</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1465" spans="1:6" ht="42">
@@ -32192,8 +32406,11 @@
       <c r="B1465" t="s">
         <v>1461</v>
       </c>
+      <c r="C1465" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1465" s="1" t="s">
-        <v>2371</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1466" spans="1:6" ht="42">
@@ -32203,8 +32420,11 @@
       <c r="B1466" t="s">
         <v>1462</v>
       </c>
+      <c r="C1466" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1466" s="1" t="s">
-        <v>2371</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1467" spans="1:6" ht="42">
@@ -32214,8 +32434,11 @@
       <c r="B1467" t="s">
         <v>1463</v>
       </c>
+      <c r="C1467" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1467" s="1" t="s">
-        <v>2371</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1468" spans="1:6" ht="42">
@@ -32225,8 +32448,11 @@
       <c r="B1468" t="s">
         <v>1464</v>
       </c>
+      <c r="C1468" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1468" s="1" t="s">
-        <v>2371</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1469" spans="1:6" ht="42">
@@ -32236,8 +32462,11 @@
       <c r="B1469" t="s">
         <v>1465</v>
       </c>
+      <c r="C1469" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1469" s="1" t="s">
-        <v>2371</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1470" spans="1:6" ht="42">
@@ -32247,8 +32476,11 @@
       <c r="B1470" t="s">
         <v>1466</v>
       </c>
+      <c r="C1470" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1470" s="1" t="s">
-        <v>2371</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1471" spans="1:6" ht="42">
@@ -32258,8 +32490,11 @@
       <c r="B1471" t="s">
         <v>1467</v>
       </c>
+      <c r="C1471" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1471" s="1" t="s">
-        <v>2371</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1472" spans="1:6" ht="42">
@@ -32269,8 +32504,11 @@
       <c r="B1472" t="s">
         <v>1468</v>
       </c>
+      <c r="C1472" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1472" s="1" t="s">
-        <v>2371</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1473" spans="1:6" ht="42">
@@ -32280,8 +32518,11 @@
       <c r="B1473" t="s">
         <v>1469</v>
       </c>
+      <c r="C1473" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1473" s="1" t="s">
-        <v>2371</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1474" spans="1:6" ht="42">
@@ -32291,8 +32532,11 @@
       <c r="B1474" t="s">
         <v>1470</v>
       </c>
+      <c r="C1474" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1474" s="1" t="s">
-        <v>2371</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1475" spans="1:6" ht="42">
@@ -32302,19 +32546,28 @@
       <c r="B1475" t="s">
         <v>1471</v>
       </c>
+      <c r="C1475" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>2398</v>
+      </c>
       <c r="F1475" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:6" ht="42">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" ht="63">
       <c r="A1476">
         <v>12140</v>
       </c>
       <c r="B1476" t="s">
         <v>1472</v>
       </c>
+      <c r="C1476" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1476" s="1" t="s">
-        <v>2371</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1477" spans="1:6" ht="42">
@@ -32324,8 +32577,11 @@
       <c r="B1477" t="s">
         <v>1473</v>
       </c>
+      <c r="C1477" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1477" s="1" t="s">
-        <v>2371</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1478" spans="1:6" ht="42">
@@ -32335,8 +32591,11 @@
       <c r="B1478" t="s">
         <v>1474</v>
       </c>
+      <c r="C1478" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1478" s="1" t="s">
-        <v>2371</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1479" spans="1:6" ht="42">
@@ -32346,8 +32605,11 @@
       <c r="B1479" t="s">
         <v>1475</v>
       </c>
+      <c r="C1479" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1479" s="1" t="s">
-        <v>2371</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1480" spans="1:6" ht="42">
@@ -32357,8 +32619,11 @@
       <c r="B1480" t="s">
         <v>1476</v>
       </c>
+      <c r="C1480" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1480" s="1" t="s">
-        <v>2371</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1481" spans="1:6" ht="42">
@@ -32368,8 +32633,11 @@
       <c r="B1481" t="s">
         <v>1477</v>
       </c>
+      <c r="C1481" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1481" s="1" t="s">
-        <v>2371</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1482" spans="1:6" ht="42">
@@ -32379,8 +32647,11 @@
       <c r="B1482" t="s">
         <v>1478</v>
       </c>
+      <c r="C1482" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1482" s="1" t="s">
-        <v>2371</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1483" spans="1:6" ht="42">
@@ -32390,8 +32661,11 @@
       <c r="B1483" t="s">
         <v>1479</v>
       </c>
+      <c r="C1483" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1483" s="1" t="s">
-        <v>2371</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1484" spans="1:6" ht="42">
@@ -32401,8 +32675,11 @@
       <c r="B1484" t="s">
         <v>1480</v>
       </c>
+      <c r="C1484" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1484" s="1" t="s">
-        <v>2371</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1485" spans="1:6" ht="42">
@@ -32412,8 +32689,11 @@
       <c r="B1485" t="s">
         <v>1481</v>
       </c>
+      <c r="C1485" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1485" s="1" t="s">
-        <v>2371</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1486" spans="1:6" ht="42">
@@ -32423,8 +32703,11 @@
       <c r="B1486" t="s">
         <v>1482</v>
       </c>
+      <c r="C1486" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1486" s="1" t="s">
-        <v>2371</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="42">
@@ -32434,8 +32717,11 @@
       <c r="B1487" t="s">
         <v>1483</v>
       </c>
+      <c r="C1487" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1487" s="1" t="s">
-        <v>2371</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1488" spans="1:6" ht="42">
@@ -32445,8 +32731,11 @@
       <c r="B1488" t="s">
         <v>1484</v>
       </c>
+      <c r="C1488" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1488" s="1" t="s">
-        <v>2371</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1489" spans="1:6" ht="42">
@@ -32456,8 +32745,11 @@
       <c r="B1489" t="s">
         <v>1485</v>
       </c>
+      <c r="C1489" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1489" s="1" t="s">
-        <v>2371</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1490" spans="1:6" ht="42">
@@ -32467,30 +32759,39 @@
       <c r="B1490" t="s">
         <v>1486</v>
       </c>
+      <c r="C1490" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1490" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:6" ht="42">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" ht="63">
       <c r="A1491">
         <v>12667</v>
       </c>
       <c r="B1491" t="s">
         <v>1487</v>
       </c>
+      <c r="C1491" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1491" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:6" ht="42">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" ht="63">
       <c r="A1492">
         <v>12840</v>
       </c>
       <c r="B1492" t="s">
         <v>1488</v>
       </c>
+      <c r="C1492" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1492" s="1" t="s">
-        <v>2371</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1493" spans="1:6" ht="42">
@@ -32500,19 +32801,25 @@
       <c r="B1493" t="s">
         <v>1489</v>
       </c>
+      <c r="C1493" t="s">
+        <v>2479</v>
+      </c>
       <c r="F1493" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:6" ht="42">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" ht="63">
       <c r="A1494">
         <v>12985</v>
       </c>
       <c r="B1494" t="s">
         <v>1490</v>
       </c>
+      <c r="C1494" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1494" s="1" t="s">
-        <v>2371</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1495" spans="1:6" ht="42">
@@ -32522,19 +32829,25 @@
       <c r="B1495" t="s">
         <v>1491</v>
       </c>
+      <c r="C1495" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1495" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:6" ht="42">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" ht="63">
       <c r="A1496">
         <v>12987</v>
       </c>
       <c r="B1496" t="s">
         <v>1492</v>
       </c>
+      <c r="C1496" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1496" s="1" t="s">
-        <v>2371</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1497" spans="1:6" ht="42">
@@ -32544,41 +32857,53 @@
       <c r="B1497" t="s">
         <v>1493</v>
       </c>
+      <c r="C1497" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1497" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:6" ht="42">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" ht="63">
       <c r="A1498">
         <v>12994</v>
       </c>
       <c r="B1498" t="s">
         <v>1494</v>
       </c>
+      <c r="C1498" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1498" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:6" ht="42">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" ht="63">
       <c r="A1499">
         <v>12995</v>
       </c>
       <c r="B1499" t="s">
         <v>1495</v>
       </c>
+      <c r="C1499" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1499" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:6" ht="42">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" ht="63">
       <c r="A1500">
         <v>12996</v>
       </c>
       <c r="B1500" t="s">
         <v>1496</v>
       </c>
+      <c r="C1500" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1500" s="1" t="s">
-        <v>2371</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1501" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A85964A-2BA9-DF47-B37F-2EC41635335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FFD89B9A-8032-394E-B0C6-3775DB80EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6312" uniqueCount="2878">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6359" uniqueCount="2918">
   <si>
     <t>Issue</t>
   </si>
@@ -10733,12 +10733,297 @@
 [Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>[Content]testAccCheck の *testing.T パラメータを回避します。*(Not)?再作成された関数
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テスト内の関数の変更</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ナイノ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カンスウノプ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testAccAvailableEc2InstanceTypeForRegion に相当するアベイラビリティーゾーンを追加
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト スイーパーを実装
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数の AWS SDK サービスのインポートを回避する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]r/aws_db_event_subscription: waiters パッケージを使用
+[Class]パッケージの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]unparam Linter を再度有効にする
+[Class]linterの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストファイルアセットを aws/testdata ディレクトリに移行
+[Class]テストファイルの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定な AccTest
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の属性と削除された属性のコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ステートストレージからハッシュを削除
+[Class]ハッシュの削除</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数のリソース インポートを削除
+[Class]リソースインポートの削除</t>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>エラー時に再試行する</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">サイシコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]予想されるエラーでのみ再試行
+[Class]機能改善？</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての特異なデータ ソースがゼロの結果でエラーを返すようにする
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インポートを非推奨から内部化または移行する
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSCodeBuildProject の失敗に対処
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ELB v2 ターゲット グループの受け入れテスト ファイルの複製
+[Class]テストファイルの複製</t>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">フクセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]randIntRange」をプラグイン SDK v2 の「helper/acctest.RandIntRange」に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ARN計画時間の検証を resources/data_sources に追加
+[Class]コードの改善，属性の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストに失敗したアドレス
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]読み取りタイムアウトを移行してタイムアウトを作成
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫した AWS サービス クライアントの命名
+[Class]命名規則</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_db_snapshot Sweeper が自動スナップショットの削除を試みる
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]置換 PreConfig が消える テスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]欠落している '_disappears' 受け入れテスト ケースを追加
+[Class]テストの追加</t>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'ec2TagsFromTagDescriptions' を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'ec2TagSpecificationsFromMap' を 'KeyValueTags' のメソッドに置き換え
+[Class]メソッドの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースの属性を非推奨
+[Class]機能を非推奨</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>次のリリースのために機能を非推奨にした</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツギノ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">キノウヲ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]'validateCIDRNetworkAddress' を IPv4 または IPv6 固有のバリデータに置き換えます
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>[Content]属性検証からゼロ値を削</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>除
+[Class]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機能の改善</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クライアント VPN テストの同期を追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クライアント VPN ネットワーク関連付けフィールドに合成 ID を使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]golangci-lint v1.27.0 以降のレポートを修正
+[Class]レポートの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]t.Skip() テスト関数で未使用の golangci-lint v1.27.0 以降のレポートを無視/修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストの失敗を解決する (EC2)
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>失敗したテストへの対処だが，最終的にテストを変更しているのでTests</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タイショデファガ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">サイシュウテキニ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヘンコウシテイル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストの失敗を解決する (RDS)
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10897,6 +11182,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -11691,8 +11990,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1496" workbookViewId="0">
-      <selection activeCell="C1501" sqref="C1501"/>
+    <sheetView tabSelected="1" topLeftCell="A1531" workbookViewId="0">
+      <selection activeCell="C1541" sqref="C1541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11719,7 +12018,7 @@
         <v>2370</v>
       </c>
       <c r="F1" t="s">
-        <v>1320</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -32906,26 +33205,35 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="1501" spans="1:6" ht="42">
+    <row r="1501" spans="1:6" ht="63">
       <c r="A1501">
         <v>12999</v>
       </c>
       <c r="B1501" t="s">
         <v>1497</v>
       </c>
+      <c r="C1501" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E1501" s="2" t="s">
+        <v>2879</v>
+      </c>
       <c r="F1501" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:6" ht="42">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" ht="63">
       <c r="A1502">
         <v>13083</v>
       </c>
       <c r="B1502" t="s">
         <v>1498</v>
       </c>
+      <c r="C1502" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1502" s="1" t="s">
-        <v>2371</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1503" spans="1:6" ht="42">
@@ -32935,8 +33243,11 @@
       <c r="B1503" t="s">
         <v>1499</v>
       </c>
+      <c r="C1503" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1503" s="1" t="s">
-        <v>2371</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1504" spans="1:6" ht="42">
@@ -32946,8 +33257,11 @@
       <c r="B1504" t="s">
         <v>1500</v>
       </c>
+      <c r="C1504" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1504" s="1" t="s">
-        <v>2371</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1505" spans="1:6" ht="42">
@@ -32957,8 +33271,11 @@
       <c r="B1505" t="s">
         <v>1501</v>
       </c>
+      <c r="C1505" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1505" s="1" t="s">
-        <v>2371</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1506" spans="1:6" ht="42">
@@ -32968,8 +33285,11 @@
       <c r="B1506" t="s">
         <v>1502</v>
       </c>
+      <c r="C1506" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1506" s="1" t="s">
-        <v>2371</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1507" spans="1:6" ht="42">
@@ -32979,8 +33299,11 @@
       <c r="B1507" t="s">
         <v>1503</v>
       </c>
+      <c r="C1507" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1507" s="1" t="s">
-        <v>2371</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1508" spans="1:6" ht="42">
@@ -32990,8 +33313,11 @@
       <c r="B1508" t="s">
         <v>1504</v>
       </c>
+      <c r="C1508" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1508" s="1" t="s">
-        <v>2371</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1509" spans="1:6" ht="42">
@@ -33001,8 +33327,11 @@
       <c r="B1509" t="s">
         <v>1505</v>
       </c>
+      <c r="C1509" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1509" s="1" t="s">
-        <v>2371</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1510" spans="1:6" ht="42">
@@ -33012,8 +33341,11 @@
       <c r="B1510" t="s">
         <v>1506</v>
       </c>
+      <c r="C1510" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1510" s="1" t="s">
-        <v>2371</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1511" spans="1:6" ht="42">
@@ -33023,8 +33355,11 @@
       <c r="B1511" t="s">
         <v>1507</v>
       </c>
+      <c r="C1511" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1511" s="1" t="s">
-        <v>2371</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1512" spans="1:6" ht="42">
@@ -33034,8 +33369,11 @@
       <c r="B1512" t="s">
         <v>1508</v>
       </c>
+      <c r="C1512" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1512" s="1" t="s">
-        <v>2371</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1513" spans="1:6" ht="42">
@@ -33045,8 +33383,11 @@
       <c r="B1513" t="s">
         <v>1509</v>
       </c>
+      <c r="C1513" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1513" s="1" t="s">
-        <v>2371</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1514" spans="1:6" ht="42">
@@ -33056,8 +33397,11 @@
       <c r="B1514" t="s">
         <v>1510</v>
       </c>
+      <c r="C1514" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1514" s="1" t="s">
-        <v>2371</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1515" spans="1:6" ht="42">
@@ -33067,8 +33411,17 @@
       <c r="B1515" t="s">
         <v>1511</v>
       </c>
+      <c r="C1515" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E1515" s="2" t="s">
+        <v>2890</v>
+      </c>
       <c r="F1515" s="1" t="s">
-        <v>2371</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1516" spans="1:6" ht="42">
@@ -33078,8 +33431,11 @@
       <c r="B1516" t="s">
         <v>1512</v>
       </c>
+      <c r="C1516" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1516" s="1" t="s">
-        <v>2371</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1517" spans="1:6" ht="42">
@@ -33089,8 +33445,11 @@
       <c r="B1517" t="s">
         <v>1513</v>
       </c>
+      <c r="C1517" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1517" s="1" t="s">
-        <v>2371</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1518" spans="1:6" ht="42">
@@ -33100,8 +33459,11 @@
       <c r="B1518" t="s">
         <v>1514</v>
       </c>
+      <c r="C1518" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1518" s="1" t="s">
-        <v>2371</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1519" spans="1:6" ht="42">
@@ -33111,8 +33473,11 @@
       <c r="B1519" t="s">
         <v>1515</v>
       </c>
+      <c r="C1519" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1519" s="1" t="s">
-        <v>2371</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1520" spans="1:6" ht="42">
@@ -33122,8 +33487,11 @@
       <c r="B1520" t="s">
         <v>1516</v>
       </c>
+      <c r="C1520" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1520" s="1" t="s">
-        <v>2371</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1521" spans="1:6" ht="42">
@@ -33133,19 +33501,25 @@
       <c r="B1521" t="s">
         <v>1517</v>
       </c>
+      <c r="C1521" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1521" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:6" ht="42">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" ht="63">
       <c r="A1522">
         <v>13613</v>
       </c>
       <c r="B1522" t="s">
         <v>1518</v>
       </c>
+      <c r="C1522" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1522" s="1" t="s">
-        <v>2371</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1523" spans="1:6" ht="42">
@@ -33155,8 +33529,11 @@
       <c r="B1523" t="s">
         <v>1519</v>
       </c>
+      <c r="C1523" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1523" s="1" t="s">
-        <v>2371</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1524" spans="1:6" ht="42">
@@ -33166,8 +33543,11 @@
       <c r="B1524" t="s">
         <v>1520</v>
       </c>
+      <c r="C1524" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1524" s="1" t="s">
-        <v>2371</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1525" spans="1:6" ht="42">
@@ -33177,8 +33557,11 @@
       <c r="B1525" t="s">
         <v>1521</v>
       </c>
+      <c r="C1525" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1525" s="1" t="s">
-        <v>2371</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1526" spans="1:6" ht="42">
@@ -33188,8 +33571,14 @@
       <c r="B1526" t="s">
         <v>1522</v>
       </c>
+      <c r="C1526" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>2539</v>
+      </c>
       <c r="F1526" s="1" t="s">
-        <v>2371</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1527" spans="1:6" ht="42">
@@ -33199,8 +33588,11 @@
       <c r="B1527" t="s">
         <v>1523</v>
       </c>
+      <c r="C1527" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1527" s="1" t="s">
-        <v>2371</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1528" spans="1:6" ht="42">
@@ -33210,8 +33602,11 @@
       <c r="B1528" t="s">
         <v>1524</v>
       </c>
+      <c r="C1528" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1528" s="1" t="s">
-        <v>2371</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1529" spans="1:6" ht="42">
@@ -33221,8 +33616,11 @@
       <c r="B1529" t="s">
         <v>1525</v>
       </c>
+      <c r="C1529" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1529" s="1" t="s">
-        <v>2371</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1530" spans="1:6" ht="42">
@@ -33232,8 +33630,11 @@
       <c r="B1530" t="s">
         <v>1526</v>
       </c>
+      <c r="C1530" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1530" s="1" t="s">
-        <v>2371</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1531" spans="1:6" ht="42">
@@ -33243,8 +33644,11 @@
       <c r="B1531" t="s">
         <v>1527</v>
       </c>
+      <c r="C1531" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1531" s="1" t="s">
-        <v>2371</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1532" spans="1:6" ht="42">
@@ -33254,19 +33658,31 @@
       <c r="B1532" t="s">
         <v>1528</v>
       </c>
+      <c r="C1532" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E1532" s="2" t="s">
+        <v>2907</v>
+      </c>
       <c r="F1532" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:6" ht="42">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" ht="63">
       <c r="A1533">
         <v>13940</v>
       </c>
       <c r="B1533" t="s">
         <v>1529</v>
       </c>
+      <c r="C1533" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1533" s="1" t="s">
-        <v>2371</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1534" spans="1:6" ht="42">
@@ -33276,8 +33692,11 @@
       <c r="B1534" t="s">
         <v>1530</v>
       </c>
+      <c r="C1534" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1534" s="1" t="s">
-        <v>2371</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1535" spans="1:6" ht="42">
@@ -33287,8 +33706,11 @@
       <c r="B1535" t="s">
         <v>1531</v>
       </c>
+      <c r="C1535" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1535" s="1" t="s">
-        <v>2371</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1536" spans="1:6" ht="42">
@@ -33298,8 +33720,11 @@
       <c r="B1536" t="s">
         <v>1532</v>
       </c>
+      <c r="C1536" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1536" s="1" t="s">
-        <v>2371</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1537" spans="1:6" ht="42">
@@ -33309,19 +33734,25 @@
       <c r="B1537" t="s">
         <v>1533</v>
       </c>
+      <c r="C1537" t="s">
+        <v>2372</v>
+      </c>
       <c r="F1537" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:6" ht="42">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" ht="63">
       <c r="A1538">
         <v>14240</v>
       </c>
       <c r="B1538" t="s">
         <v>1534</v>
       </c>
+      <c r="C1538" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1538" s="1" t="s">
-        <v>2371</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1539" spans="1:6" ht="42">
@@ -33331,8 +33762,14 @@
       <c r="B1539" t="s">
         <v>1535</v>
       </c>
+      <c r="C1539" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E1539" s="2" t="s">
+        <v>2916</v>
+      </c>
       <c r="F1539" s="1" t="s">
-        <v>2371</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1540" spans="1:6" ht="42">
@@ -33342,8 +33779,11 @@
       <c r="B1540" t="s">
         <v>1536</v>
       </c>
+      <c r="C1540" t="s">
+        <v>2381</v>
+      </c>
       <c r="F1540" s="1" t="s">
-        <v>2371</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1541" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FDBDE1B9-24AC-F741-9204-23B016ABA4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6570604A-341D-FC4C-BB7D-4B753BEF9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6391" uniqueCount="2945">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6430" uniqueCount="2982">
   <si>
     <t>Issue</t>
   </si>
@@ -11162,6 +11162,218 @@
   <si>
     <t>[Content]GitHub ワークフローを lint 受け入れテスト Terraform に追加
 [Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのタイムアウトを増やす
+[Class]テストの改善</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">フヤス </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SDKv2 ImportStateおよびExpectErrorテストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]resource/aws_elb: TestAccAWSELB_swap_subnets テストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSCloudFrontDistribution_OriginGroups テストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSCodePipeline_deployWithServiceRole テストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]custom_json 空白の変更によるテストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テスト TestAccDataSourceAwsCurReportDefinition が失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GovCloud で Lex の受け入れテスト preCheck を追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]既存のサービスの PreCheck を実装
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストの失敗を解決
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Desgin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IoT 証明書のスイーパーを追加
+[Class]証明書の追加</t>
+    <rPh sb="33" eb="36">
+      <t xml:space="preserve">ショウメイショノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Linterに関することなのでTests</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">カンスルコトナノデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]markdownlint MD010 ルールを有効にする
+[Class]Linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]markdownlint MD009 ルールを有効にする
+[Class]Linterの改善</t>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSCloudFrontDistribution_RetainOnDelete の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース aws_spot_fleet_request のプロバイダー テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_wafregional_regex_match_set が失敗
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテスト: RDS DB プロキシは GovCloud ではサポートされていない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EqSe2 の場所は EqSe2-EQ または EqSe2-WBE になった
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストのためにコードを移動した</t>
+    <rPh sb="0" eb="1">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">イドウシタ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_elastic_beanstalk_environment: インスタンスプロファイルがない
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_spot_instance_request: m1.small インスタンス タイプを置き換え
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_dx_gateway_association: 破棄時に時折発生するタイムアウト エラー
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EC2-Classic でハードコーディングされた aws_db_instance インスタンス タイプを削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]service/workspaces: リソースが見つからない場合acctests/sweepers がエラーを返す
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/service/ses: 受信ルール セット PreCheck の作成
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ワークスペースのエラー処理にはErrorMessage だけでなくErrorCodeを含める必要がある
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/provider: FSx はすべてのパーティションでサポートされていない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSOrganizations_serial/Policy/Type_Backup 一貫して失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WAFv2 正規表現パターン セット AccTest リソース制限により一貫して失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Lex リソースのスイーパーを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/provider: ネイキッド リンターを有効にする
+[Class]Linterの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース名から「bucket」を削除
+[Class]リソース名の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitHub Actions: set-env および add-path コマンドの廃止
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSEcsCluster_containerInsightsがGovCloud で一貫して失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Terraform 0.14 ignore_changes load_balancersとtarget_group_arns の処理
+[Class]機能の改善</t>
+    <rPh sb="83" eb="85">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -11838,7 +12050,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12126,7 +12338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12136,8 +12348,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1561" workbookViewId="0">
-      <selection activeCell="F1566" sqref="F1566"/>
+    <sheetView tabSelected="1" topLeftCell="A1593" workbookViewId="0">
+      <selection activeCell="C1601" sqref="C1601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -34310,8 +34522,11 @@
       <c r="B1566" t="s">
         <v>1561</v>
       </c>
+      <c r="C1566" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1566" s="1" t="s">
-        <v>2370</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1567" spans="1:6" ht="42">
@@ -34321,8 +34536,11 @@
       <c r="B1567" t="s">
         <v>1562</v>
       </c>
+      <c r="C1567" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1567" s="1" t="s">
-        <v>2370</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1568" spans="1:6" ht="42">
@@ -34332,8 +34550,11 @@
       <c r="B1568" t="s">
         <v>1563</v>
       </c>
+      <c r="C1568" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1568" s="1" t="s">
-        <v>2370</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1569" spans="1:6" ht="42">
@@ -34343,8 +34564,11 @@
       <c r="B1569" t="s">
         <v>1564</v>
       </c>
+      <c r="C1569" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1569" s="1" t="s">
-        <v>2370</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1570" spans="1:6" ht="42">
@@ -34354,8 +34578,11 @@
       <c r="B1570" t="s">
         <v>1565</v>
       </c>
+      <c r="C1570" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1570" s="1" t="s">
-        <v>2370</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1571" spans="1:6" ht="42">
@@ -34365,8 +34592,11 @@
       <c r="B1571" t="s">
         <v>1566</v>
       </c>
+      <c r="C1571" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1571" s="1" t="s">
-        <v>2370</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1572" spans="1:6" ht="42">
@@ -34376,8 +34606,11 @@
       <c r="B1572" t="s">
         <v>1567</v>
       </c>
+      <c r="C1572" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1572" s="1" t="s">
-        <v>2370</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1573" spans="1:6" ht="42">
@@ -34387,8 +34620,11 @@
       <c r="B1573" t="s">
         <v>1568</v>
       </c>
+      <c r="C1573" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1573" s="1" t="s">
-        <v>2370</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1574" spans="1:6" ht="42">
@@ -34398,8 +34634,11 @@
       <c r="B1574" t="s">
         <v>1569</v>
       </c>
+      <c r="C1574" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1574" s="1" t="s">
-        <v>2370</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1575" spans="1:6" ht="42">
@@ -34409,8 +34648,11 @@
       <c r="B1575" t="s">
         <v>1570</v>
       </c>
+      <c r="C1575" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1575" s="1" t="s">
-        <v>2370</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1576" spans="1:6" ht="42">
@@ -34420,8 +34662,11 @@
       <c r="B1576" t="s">
         <v>1571</v>
       </c>
+      <c r="C1576" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1576" s="1" t="s">
-        <v>2370</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1577" spans="1:6" ht="42">
@@ -34431,8 +34676,14 @@
       <c r="B1577" t="s">
         <v>1572</v>
       </c>
+      <c r="C1577" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1577" s="1" t="s">
-        <v>2370</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1578" spans="1:6" ht="42">
@@ -34442,8 +34693,14 @@
       <c r="B1578" t="s">
         <v>1573</v>
       </c>
+      <c r="C1578" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1578" s="2" t="s">
+        <v>2957</v>
+      </c>
       <c r="F1578" s="1" t="s">
-        <v>2370</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1579" spans="1:6" ht="42">
@@ -34453,8 +34710,11 @@
       <c r="B1579" t="s">
         <v>1574</v>
       </c>
+      <c r="C1579" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1579" s="1" t="s">
-        <v>2370</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1580" spans="1:6" ht="42">
@@ -34464,8 +34724,11 @@
       <c r="B1580" t="s">
         <v>1575</v>
       </c>
+      <c r="C1580" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1580" s="1" t="s">
-        <v>2370</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1581" spans="1:6" ht="42">
@@ -34475,8 +34738,11 @@
       <c r="B1581" t="s">
         <v>1576</v>
       </c>
+      <c r="C1581" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1581" s="1" t="s">
-        <v>2370</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1582" spans="1:6" ht="42">
@@ -34486,8 +34752,11 @@
       <c r="B1582" t="s">
         <v>1577</v>
       </c>
+      <c r="C1582" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1582" s="1" t="s">
-        <v>2370</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1583" spans="1:6" ht="42">
@@ -34497,8 +34766,11 @@
       <c r="B1583" t="s">
         <v>1578</v>
       </c>
+      <c r="C1583" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1583" s="1" t="s">
-        <v>2370</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1584" spans="1:6" ht="42">
@@ -34508,63 +34780,87 @@
       <c r="B1584" t="s">
         <v>1579</v>
       </c>
+      <c r="C1584" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1584" s="2" t="s">
+        <v>2965</v>
+      </c>
       <c r="F1584" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:6" ht="42">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" ht="63">
       <c r="A1585">
         <v>15155</v>
       </c>
       <c r="B1585" t="s">
         <v>1580</v>
       </c>
+      <c r="C1585" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1585" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:6" ht="42">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" ht="63">
       <c r="A1586">
         <v>15160</v>
       </c>
       <c r="B1586" t="s">
         <v>1581</v>
       </c>
+      <c r="C1586" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1586" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:6" ht="42">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" ht="63">
       <c r="A1587">
         <v>15164</v>
       </c>
       <c r="B1587" t="s">
         <v>1582</v>
       </c>
+      <c r="C1587" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1587" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:6" ht="42">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" ht="63">
       <c r="A1588">
         <v>15182</v>
       </c>
       <c r="B1588" t="s">
         <v>1583</v>
       </c>
+      <c r="C1588" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1588" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:6" ht="42">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" ht="63">
       <c r="A1589">
         <v>15190</v>
       </c>
       <c r="B1589" t="s">
         <v>1584</v>
       </c>
+      <c r="C1589" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1589" s="1" t="s">
-        <v>2370</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1590" spans="1:6" ht="42">
@@ -34574,19 +34870,25 @@
       <c r="B1590" t="s">
         <v>1585</v>
       </c>
+      <c r="C1590" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1590" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:6" ht="42">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" ht="63">
       <c r="A1591">
         <v>15317</v>
       </c>
       <c r="B1591" t="s">
         <v>1586</v>
       </c>
+      <c r="C1591" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1591" s="1" t="s">
-        <v>2370</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1592" spans="1:6" ht="42">
@@ -34596,8 +34898,11 @@
       <c r="B1592" t="s">
         <v>1587</v>
       </c>
+      <c r="C1592" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1592" s="1" t="s">
-        <v>2370</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1593" spans="1:6" ht="42">
@@ -34607,19 +34912,25 @@
       <c r="B1593" t="s">
         <v>1588</v>
       </c>
+      <c r="C1593" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1593" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:6" ht="42">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" ht="63">
       <c r="A1594">
         <v>15358</v>
       </c>
       <c r="B1594" t="s">
         <v>1589</v>
       </c>
+      <c r="C1594" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1594" s="1" t="s">
-        <v>2370</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1595" spans="1:6" ht="42">
@@ -34629,8 +34940,11 @@
       <c r="B1595" t="s">
         <v>1590</v>
       </c>
+      <c r="C1595" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1595" s="1" t="s">
-        <v>2370</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1596" spans="1:6" ht="42">
@@ -34640,8 +34954,11 @@
       <c r="B1596" t="s">
         <v>1591</v>
       </c>
+      <c r="C1596" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1596" s="1" t="s">
-        <v>2370</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="42">
@@ -34651,8 +34968,11 @@
       <c r="B1597" t="s">
         <v>1592</v>
       </c>
+      <c r="C1597" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1597" s="1" t="s">
-        <v>2370</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="1598" spans="1:6" ht="42">
@@ -34662,8 +34982,11 @@
       <c r="B1598" t="s">
         <v>1593</v>
       </c>
+      <c r="C1598" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1598" s="1" t="s">
-        <v>2370</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="1599" spans="1:6" ht="42">
@@ -34673,8 +34996,11 @@
       <c r="B1599" t="s">
         <v>1594</v>
       </c>
+      <c r="C1599" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1599" s="1" t="s">
-        <v>2370</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1600" spans="1:6" ht="42">
@@ -34684,8 +35010,11 @@
       <c r="B1600" t="s">
         <v>1595</v>
       </c>
+      <c r="C1600" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1600" s="1" t="s">
-        <v>2370</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="1601" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6570604A-341D-FC4C-BB7D-4B753BEF9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{46869D27-3DA9-6E44-9D8B-F9409FEAE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6430" uniqueCount="2982">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6471" uniqueCount="3023">
   <si>
     <t>Issue</t>
   </si>
@@ -11374,6 +11374,216 @@
     <rPh sb="86" eb="88">
       <t xml:space="preserve">カイゼン </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]erraform 0.14 ignore_changes replication_source_identifier の処理
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]erraform 0.14 ignore_changes global_cluster_identifier での処理
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ARN で awsproviderlint AWSAT005 ハードコードされたパーティションを無視/修正して有効にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされた地域の GovCloud テストの失敗を修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテスト: EC2-Classic 代替テスト プロバイダーの作成
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー処理に関するセクションを追加
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tfproviderdocs コンテンツ チェックを修正して有効にする
+[Class]チェックの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンテンツチェックなのでテスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_wafv2_regex_pattern_set: スイーパーの実装
+[Class]テストの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]内部TypeSet チェック関数からTF SDK v2.1.0チェック関数に移行
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go コードのインポート宣言をクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]内部のウェイターおよびファインダー パッケージを使用するためのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]impi の修正と有効化、インポート宣言のクリーンアップ
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_datasync_task: 通常の EFS DNS の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/resource/aws_datasync_location_smb: 通常の HTTP エラー
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]S3 Grant の失敗と PreCheck の欠落
+[Class]テストの修正</t>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tfproviderlint AT009 チェックを修正して有効にする
+[Class]テストの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレート バージョンの起動とリリース バージョンの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/service/waf: Missing Sweepers の実装
+[Class]テストの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ECS インスタンス ロールの新しい失敗はECS インスタンス プロファイル ARN である必要がある
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WINDOWS_CONTAINER 非推奨
+[Class]非推奨なAPIへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Glue Dev Endpointテストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]共有受け入れテスト構成で licensemanager IAM サービスにリンクされたロールを管理
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]正しいスペルinstance_interruption_behaviour
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]instance_interruption_behaviourの削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSMskCluster_LoggingInfo の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_directory_service_directory: 続行する代わりに最初のエラーの後に戻る
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_directory_service_directory: RDS リソースに依存することができる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]設定でハードコードされたリージョンを削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]networkfirewall リソースを resource.RetryContext に更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_placement_group のスイーパーを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]d.Set() でラップしている余分な AWS Go SDK 値を削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]親リソースの文書化，標準化および lint が消える テストの命名
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]待機中の関数を waiter パッケージに移動
+[Class]関数の移動</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]属性の待機ロジックを map_public_ip_on_launch 属性に適用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]属性の待機ロジックを enable_dns_hostnames 属性に適用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws_emr_instance_group: ImportStateVerifyIgnore に status 属性を追加
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccDataSourceAwsPricingProduct_redshift 失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccDataSourceAwsVpcPeeringConnection_basic 複数の一致
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gp3 ボリューム タイプの失敗
+[Class]テストの修正</t>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サービス間の結果整合性を保証する IAM の再試行
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12348,8 +12558,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1593" workbookViewId="0">
-      <selection activeCell="C1601" sqref="C1601"/>
+    <sheetView tabSelected="1" topLeftCell="A1633" workbookViewId="0">
+      <selection activeCell="C1641" sqref="C1641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -35024,8 +35234,11 @@
       <c r="B1601" t="s">
         <v>1596</v>
       </c>
+      <c r="C1601" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1601" s="1" t="s">
-        <v>2370</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1602" spans="1:6" ht="42">
@@ -35035,19 +35248,25 @@
       <c r="B1602" t="s">
         <v>1597</v>
       </c>
+      <c r="C1602" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1602" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:6" ht="42">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" ht="63">
       <c r="A1603">
         <v>15662</v>
       </c>
       <c r="B1603" t="s">
         <v>1598</v>
       </c>
+      <c r="C1603" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1603" s="1" t="s">
-        <v>2370</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="1604" spans="1:6" ht="42">
@@ -35057,8 +35276,11 @@
       <c r="B1604" t="s">
         <v>1599</v>
       </c>
+      <c r="C1604" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1604" s="1" t="s">
-        <v>2370</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="1605" spans="1:6" ht="42">
@@ -35068,8 +35290,11 @@
       <c r="B1605" t="s">
         <v>1600</v>
       </c>
+      <c r="C1605" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1605" s="1" t="s">
-        <v>2370</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1606" spans="1:6" ht="42">
@@ -35079,8 +35304,11 @@
       <c r="B1606" t="s">
         <v>1601</v>
       </c>
+      <c r="C1606" t="s">
+        <v>2438</v>
+      </c>
       <c r="F1606" s="1" t="s">
-        <v>2370</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="1607" spans="1:6" ht="42">
@@ -35090,8 +35318,14 @@
       <c r="B1607" t="s">
         <v>1602</v>
       </c>
+      <c r="C1607" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1607" s="2" t="s">
+        <v>2989</v>
+      </c>
       <c r="F1607" s="1" t="s">
-        <v>2370</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1608" spans="1:6" ht="42">
@@ -35101,8 +35335,11 @@
       <c r="B1608" t="s">
         <v>1603</v>
       </c>
+      <c r="C1608" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1608" s="1" t="s">
-        <v>2370</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="1609" spans="1:6" ht="42">
@@ -35112,8 +35349,11 @@
       <c r="B1609" t="s">
         <v>1604</v>
       </c>
+      <c r="C1609" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1609" s="1" t="s">
-        <v>2370</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1610" spans="1:6" ht="42">
@@ -35123,19 +35363,25 @@
       <c r="B1610" t="s">
         <v>1605</v>
       </c>
+      <c r="C1610" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1610" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:6" ht="42">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" ht="63">
       <c r="A1611">
         <v>15908</v>
       </c>
       <c r="B1611" t="s">
         <v>1606</v>
       </c>
+      <c r="C1611" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1611" s="1" t="s">
-        <v>2370</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1612" spans="1:6" ht="42">
@@ -35145,8 +35391,11 @@
       <c r="B1612" t="s">
         <v>1607</v>
       </c>
+      <c r="C1612" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1612" s="1" t="s">
-        <v>2370</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1613" spans="1:6" ht="42">
@@ -35156,8 +35405,11 @@
       <c r="B1613" t="s">
         <v>1608</v>
       </c>
+      <c r="C1613" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1613" s="1" t="s">
-        <v>2370</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1614" spans="1:6" ht="42">
@@ -35167,8 +35419,11 @@
       <c r="B1614" t="s">
         <v>1609</v>
       </c>
+      <c r="C1614" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1614" s="1" t="s">
-        <v>2370</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1615" spans="1:6" ht="42">
@@ -35178,8 +35433,11 @@
       <c r="B1615" t="s">
         <v>1610</v>
       </c>
+      <c r="C1615" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1615" s="1" t="s">
-        <v>2370</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1616" spans="1:6" ht="42">
@@ -35189,8 +35447,11 @@
       <c r="B1616" t="s">
         <v>1611</v>
       </c>
+      <c r="C1616" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1616" s="1" t="s">
-        <v>2370</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1617" spans="1:6" ht="42">
@@ -35200,8 +35461,11 @@
       <c r="B1617" t="s">
         <v>1612</v>
       </c>
+      <c r="C1617" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1617" s="1" t="s">
-        <v>2370</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1618" spans="1:6" ht="42">
@@ -35211,19 +35475,25 @@
       <c r="B1618" t="s">
         <v>1613</v>
       </c>
+      <c r="C1618" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1618" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:6" ht="42">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" ht="63">
       <c r="A1619">
         <v>16160</v>
       </c>
       <c r="B1619" t="s">
         <v>1614</v>
       </c>
+      <c r="C1619" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1619" s="1" t="s">
-        <v>2370</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1620" spans="1:6" ht="42">
@@ -35233,8 +35503,11 @@
       <c r="B1620" t="s">
         <v>1615</v>
       </c>
+      <c r="C1620" t="s">
+        <v>2405</v>
+      </c>
       <c r="F1620" s="1" t="s">
-        <v>2370</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1621" spans="1:6" ht="42">
@@ -35244,19 +35517,25 @@
       <c r="B1621" t="s">
         <v>1616</v>
       </c>
+      <c r="C1621" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1621" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:6" ht="42">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" ht="63">
       <c r="A1622">
         <v>16178</v>
       </c>
       <c r="B1622" t="s">
         <v>1617</v>
       </c>
+      <c r="C1622" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1622" s="1" t="s">
-        <v>2370</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1623" spans="1:6" ht="42">
@@ -35266,8 +35545,11 @@
       <c r="B1623" t="s">
         <v>1618</v>
       </c>
+      <c r="C1623" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1623" s="1" t="s">
-        <v>2370</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1624" spans="1:6" ht="42">
@@ -35277,8 +35559,11 @@
       <c r="B1624" t="s">
         <v>1619</v>
       </c>
+      <c r="C1624" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1624" s="1" t="s">
-        <v>2370</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1625" spans="1:6" ht="42">
@@ -35288,8 +35573,11 @@
       <c r="B1625" t="s">
         <v>1620</v>
       </c>
+      <c r="C1625" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1625" s="1" t="s">
-        <v>2370</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1626" spans="1:6" ht="42">
@@ -35299,8 +35587,11 @@
       <c r="B1626" t="s">
         <v>1621</v>
       </c>
+      <c r="C1626" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1626" s="1" t="s">
-        <v>2370</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1627" spans="1:6" ht="42">
@@ -35310,8 +35601,11 @@
       <c r="B1627" t="s">
         <v>1622</v>
       </c>
+      <c r="C1627" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1627" s="1" t="s">
-        <v>2370</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1628" spans="1:6" ht="42">
@@ -35321,8 +35615,11 @@
       <c r="B1628" t="s">
         <v>1623</v>
       </c>
+      <c r="C1628" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1628" s="1" t="s">
-        <v>2370</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1629" spans="1:6" ht="42">
@@ -35332,8 +35629,11 @@
       <c r="B1629" t="s">
         <v>1624</v>
       </c>
+      <c r="C1629" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1629" s="1" t="s">
-        <v>2370</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1630" spans="1:6" ht="42">
@@ -35343,8 +35643,11 @@
       <c r="B1630" t="s">
         <v>1625</v>
       </c>
+      <c r="C1630" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1630" s="1" t="s">
-        <v>2370</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1631" spans="1:6" ht="42">
@@ -35354,8 +35657,11 @@
       <c r="B1631" t="s">
         <v>1626</v>
       </c>
+      <c r="C1631" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1631" s="1" t="s">
-        <v>2370</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1632" spans="1:6" ht="42">
@@ -35365,8 +35671,11 @@
       <c r="B1632" t="s">
         <v>1627</v>
       </c>
+      <c r="C1632" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1632" s="1" t="s">
-        <v>2370</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1633" spans="1:6" ht="42">
@@ -35376,8 +35685,11 @@
       <c r="B1633" t="s">
         <v>1628</v>
       </c>
+      <c r="C1633" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1633" s="1" t="s">
-        <v>2370</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1634" spans="1:6" ht="42">
@@ -35387,8 +35699,11 @@
       <c r="B1634" t="s">
         <v>1629</v>
       </c>
+      <c r="C1634" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1634" s="1" t="s">
-        <v>2370</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1635" spans="1:6" ht="42">
@@ -35398,8 +35713,11 @@
       <c r="B1635" t="s">
         <v>1630</v>
       </c>
+      <c r="C1635" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1635" s="1" t="s">
-        <v>2370</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1636" spans="1:6" ht="42">
@@ -35409,8 +35727,11 @@
       <c r="B1636" t="s">
         <v>1631</v>
       </c>
+      <c r="C1636" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1636" s="1" t="s">
-        <v>2370</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1637" spans="1:6" ht="42">
@@ -35420,8 +35741,11 @@
       <c r="B1637" t="s">
         <v>1632</v>
       </c>
+      <c r="C1637" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1637" s="1" t="s">
-        <v>2370</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1638" spans="1:6" ht="42">
@@ -35431,8 +35755,11 @@
       <c r="B1638" t="s">
         <v>1633</v>
       </c>
+      <c r="C1638" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1638" s="1" t="s">
-        <v>2370</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1639" spans="1:6" ht="42">
@@ -35442,8 +35769,11 @@
       <c r="B1639" t="s">
         <v>1634</v>
       </c>
+      <c r="C1639" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1639" s="1" t="s">
-        <v>2370</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1640" spans="1:6" ht="42">
@@ -35453,8 +35783,11 @@
       <c r="B1640" t="s">
         <v>1635</v>
       </c>
+      <c r="C1640" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1640" s="1" t="s">
-        <v>2370</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1641" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{46869D27-3DA9-6E44-9D8B-F9409FEAE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5B8A422D-1A03-D64A-AB3C-39ECFBD51AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6471" uniqueCount="3023">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6512" uniqueCount="3062">
   <si>
     <t>Issue</t>
   </si>
@@ -11584,6 +11584,209 @@
   <si>
     <t>[Content]サービス間の結果整合性を保証する IAM の再試行
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]属性ウェイター ロジックを iam_instance_profile 属性に適用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAwsNetworkFirewallResourcePolicy_* が InvalidResourcePolicyException で失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GovCloud の DescribeManagedPrefixLists PreCheck を実装
+[Class]テストの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース タイムアウト リンクの更新
+[Class]ドキュメントの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「expandStringSet」を使用してコードを簡素化する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]expandStringSet を使用するためのリンター
+[Class]Linterの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]makezero Linter を修正して有効にする
+[Class]Linterの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]list() および map() 構成言語機能の削除
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSDbEventCategories_basic 失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい InvalidParameterValueException の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スイーパーを実装
+[Class]テストの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CheckExists および CheckDestroy プロバイダー
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EC2-Classic CheckExists と CheckDestroy がない
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MSSQL InvalidParameterCombination の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSEcsService_withLaunchTypeFargateAndPlatformVersion が古くなっている
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Schedule Expressionテストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAWSIoTPolicy_invalidJson を削除
+[Class]テストの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自己完結型テストのセットアップ
+[Class]テストの修正</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API 変更の CheckDestroy 更新
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccDataSourceAwsWorkspacesWorkspace_byDirectoryID_userName の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドメイン テストのシリアル化または構成可能な同期の有効化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Edge エンドポイント タイプ CheckExists および CheckDestroyがない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]このリージョンでは単純な AD ディレクトリの作成はサポートされていない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]このリリースのアカウントではマネージド スケーリングを使用できない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンテキストなしで InvalidVpcID.NotFound を返すさまざまなテスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/sweeper/route53_resolver_dnssec_config: ValidationException で失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サポートされていない操作に対する一般的な ErrorCheck の実装
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト チェック エラーで失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go 1.16 アップグレード フォローアップ アイテム
+[Class]アップデートへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]estAccDataSourceAwsVpc_multipleCidr Flaky
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スイーパーの簡素化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Markdown コード フェンスでは "hcl" よりも "terraform" を優先
+[Class]ドキュメントの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストの命名を標準化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ACM PCA 統合テストを有効にする
+[Class]テストの有効化</t>
+    <rPh sb="40" eb="43">
+      <t xml:space="preserve">ユウコウカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BucketNotEmpty エラー
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スイーパーを実装
+[Class]スイーパーの実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト コンフィギュレーションでのコンパイル時の acctest.RandInt() の使用を防止
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ID のみの更新テストを削除
+[Class]テストの削除</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12558,8 +12761,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1633" workbookViewId="0">
-      <selection activeCell="C1641" sqref="C1641"/>
+    <sheetView tabSelected="1" topLeftCell="A1675" workbookViewId="0">
+      <selection activeCell="C1681" sqref="C1681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -35797,19 +36000,25 @@
       <c r="B1641" t="s">
         <v>1636</v>
       </c>
+      <c r="C1641" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1641" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:6" ht="42">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:6" ht="63">
       <c r="A1642">
         <v>16774</v>
       </c>
       <c r="B1642" t="s">
         <v>1637</v>
       </c>
+      <c r="C1642" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1642" s="1" t="s">
-        <v>2370</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1643" spans="1:6" ht="42">
@@ -35819,8 +36028,11 @@
       <c r="B1643" t="s">
         <v>1638</v>
       </c>
+      <c r="C1643" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1643" s="1" t="s">
-        <v>2370</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1644" spans="1:6" ht="42">
@@ -35830,8 +36042,11 @@
       <c r="B1644" t="s">
         <v>1639</v>
       </c>
+      <c r="C1644" t="s">
+        <v>2438</v>
+      </c>
       <c r="F1644" s="1" t="s">
-        <v>2370</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1645" spans="1:6" ht="42">
@@ -35841,8 +36056,11 @@
       <c r="B1645" t="s">
         <v>1640</v>
       </c>
+      <c r="C1645" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1645" s="1" t="s">
-        <v>2370</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1646" spans="1:6" ht="42">
@@ -35852,8 +36070,11 @@
       <c r="B1646" t="s">
         <v>1641</v>
       </c>
+      <c r="C1646" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1646" s="1" t="s">
-        <v>2370</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1647" spans="1:6" ht="42">
@@ -35863,8 +36084,11 @@
       <c r="B1647" t="s">
         <v>1642</v>
       </c>
+      <c r="C1647" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1647" s="1" t="s">
-        <v>2370</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1648" spans="1:6" ht="42">
@@ -35874,8 +36098,11 @@
       <c r="B1648" t="s">
         <v>1643</v>
       </c>
+      <c r="C1648" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1648" s="1" t="s">
-        <v>2370</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1649" spans="1:6" ht="42">
@@ -35885,8 +36112,11 @@
       <c r="B1649" t="s">
         <v>1644</v>
       </c>
+      <c r="C1649" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1649" s="1" t="s">
-        <v>2370</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1650" spans="1:6" ht="42">
@@ -35896,8 +36126,11 @@
       <c r="B1650" t="s">
         <v>1645</v>
       </c>
+      <c r="C1650" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1650" s="1" t="s">
-        <v>2370</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1651" spans="1:6" ht="42">
@@ -35907,8 +36140,11 @@
       <c r="B1651" t="s">
         <v>1646</v>
       </c>
+      <c r="C1651" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1651" s="1" t="s">
-        <v>2370</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1652" spans="1:6" ht="42">
@@ -35918,8 +36154,11 @@
       <c r="B1652" t="s">
         <v>1647</v>
       </c>
+      <c r="C1652" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1652" s="1" t="s">
-        <v>2370</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1653" spans="1:6" ht="42">
@@ -35929,8 +36168,11 @@
       <c r="B1653" t="s">
         <v>1648</v>
       </c>
+      <c r="C1653" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1653" s="1" t="s">
-        <v>2370</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1654" spans="1:6" ht="42">
@@ -35940,19 +36182,25 @@
       <c r="B1654" t="s">
         <v>1649</v>
       </c>
+      <c r="C1654" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1654" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:6" ht="42">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" ht="63">
       <c r="A1655">
         <v>17395</v>
       </c>
       <c r="B1655" t="s">
         <v>1650</v>
       </c>
+      <c r="C1655" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1655" s="1" t="s">
-        <v>2370</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1656" spans="1:6" ht="42">
@@ -35962,8 +36210,11 @@
       <c r="B1656" t="s">
         <v>1651</v>
       </c>
+      <c r="C1656" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1656" s="1" t="s">
-        <v>2370</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1657" spans="1:6" ht="42">
@@ -35973,8 +36224,11 @@
       <c r="B1657" t="s">
         <v>1652</v>
       </c>
+      <c r="C1657" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1657" s="1" t="s">
-        <v>2370</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1658" spans="1:6" ht="42">
@@ -35984,8 +36238,11 @@
       <c r="B1658" t="s">
         <v>1653</v>
       </c>
+      <c r="C1658" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1658" s="1" t="s">
-        <v>2370</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1659" spans="1:6" ht="42">
@@ -35995,19 +36252,25 @@
       <c r="B1659" t="s">
         <v>1654</v>
       </c>
+      <c r="C1659" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1659" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:6" ht="42">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" ht="63">
       <c r="A1660">
         <v>17401</v>
       </c>
       <c r="B1660" t="s">
         <v>1655</v>
       </c>
+      <c r="C1660" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1660" s="1" t="s">
-        <v>2370</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1661" spans="1:6" ht="42">
@@ -36017,8 +36280,11 @@
       <c r="B1661" t="s">
         <v>1656</v>
       </c>
+      <c r="C1661" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1661" s="1" t="s">
-        <v>2370</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1662" spans="1:6" ht="42">
@@ -36028,8 +36294,11 @@
       <c r="B1662" t="s">
         <v>1657</v>
       </c>
+      <c r="C1662" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1662" s="1" t="s">
-        <v>2370</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1663" spans="1:6" ht="42">
@@ -36039,8 +36308,11 @@
       <c r="B1663" t="s">
         <v>1658</v>
       </c>
+      <c r="C1663" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1663" s="1" t="s">
-        <v>2370</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1664" spans="1:6" ht="42">
@@ -36050,8 +36322,11 @@
       <c r="B1664" t="s">
         <v>1659</v>
       </c>
+      <c r="C1664" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1664" s="1" t="s">
-        <v>2370</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1665" spans="1:6" ht="42">
@@ -36061,19 +36336,25 @@
       <c r="B1665" t="s">
         <v>1660</v>
       </c>
+      <c r="C1665" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1665" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:6" ht="42">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" ht="63">
       <c r="A1666">
         <v>17502</v>
       </c>
       <c r="B1666" t="s">
         <v>1661</v>
       </c>
+      <c r="C1666" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1666" s="1" t="s">
-        <v>2370</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1667" spans="1:6" ht="42">
@@ -36083,8 +36364,11 @@
       <c r="B1667" t="s">
         <v>1662</v>
       </c>
+      <c r="C1667" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1667" s="1" t="s">
-        <v>2370</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1668" spans="1:6" ht="42">
@@ -36094,8 +36378,11 @@
       <c r="B1668" t="s">
         <v>1663</v>
       </c>
+      <c r="C1668" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1668" s="1" t="s">
-        <v>2370</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1669" spans="1:6" ht="42">
@@ -36105,8 +36392,14 @@
       <c r="B1669" t="s">
         <v>1664</v>
       </c>
+      <c r="C1669" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>2405</v>
+      </c>
       <c r="F1669" s="1" t="s">
-        <v>2370</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1670" spans="1:6" ht="42">
@@ -36116,8 +36409,11 @@
       <c r="B1670" t="s">
         <v>1665</v>
       </c>
+      <c r="C1670" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1670" s="1" t="s">
-        <v>2370</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1671" spans="1:6" ht="42">
@@ -36127,8 +36423,11 @@
       <c r="B1671" t="s">
         <v>1666</v>
       </c>
+      <c r="C1671" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1671" s="1" t="s">
-        <v>2370</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1672" spans="1:6" ht="42">
@@ -36138,8 +36437,11 @@
       <c r="B1672" t="s">
         <v>1667</v>
       </c>
+      <c r="C1672" t="s">
+        <v>3055</v>
+      </c>
       <c r="F1672" s="1" t="s">
-        <v>2370</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1673" spans="1:6" ht="42">
@@ -36149,8 +36451,11 @@
       <c r="B1673" t="s">
         <v>1668</v>
       </c>
+      <c r="C1673" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1673" s="1" t="s">
-        <v>2370</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1674" spans="1:6" ht="42">
@@ -36160,8 +36465,11 @@
       <c r="B1674" t="s">
         <v>1669</v>
       </c>
+      <c r="C1674" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1674" s="1" t="s">
-        <v>2370</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1675" spans="1:6" ht="42">
@@ -36171,8 +36479,11 @@
       <c r="B1675" t="s">
         <v>1670</v>
       </c>
+      <c r="C1675" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1675" s="1" t="s">
-        <v>2370</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="1676" spans="1:6" ht="42">
@@ -36182,8 +36493,11 @@
       <c r="B1676" t="s">
         <v>1671</v>
       </c>
+      <c r="C1676" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1676" s="1" t="s">
-        <v>2370</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="1677" spans="1:6" ht="42">
@@ -36193,8 +36507,11 @@
       <c r="B1677" t="s">
         <v>1672</v>
       </c>
+      <c r="C1677" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1677" s="1" t="s">
-        <v>2370</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="1678" spans="1:6" ht="42">
@@ -36204,19 +36521,25 @@
       <c r="B1678" t="s">
         <v>1673</v>
       </c>
+      <c r="C1678" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1678" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:6" ht="42">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" ht="63">
       <c r="A1679">
         <v>18204</v>
       </c>
       <c r="B1679" t="s">
         <v>1674</v>
       </c>
+      <c r="C1679" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1679" s="1" t="s">
-        <v>2370</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1680" spans="1:6" ht="42">
@@ -36226,8 +36549,11 @@
       <c r="B1680" t="s">
         <v>1675</v>
       </c>
+      <c r="C1680" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1680" s="1" t="s">
-        <v>2370</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1681" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5B8A422D-1A03-D64A-AB3C-39ECFBD51AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E261455F-A92B-0E4C-90AB-20CF2994F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="-21100" windowWidth="31140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28840" yWindow="-16660" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6512" uniqueCount="3062">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6558" uniqueCount="3105">
   <si>
     <t>Issue</t>
   </si>
@@ -11787,6 +11787,240 @@
     <rPh sb="35" eb="37">
       <t xml:space="preserve">サクジョ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ページ分割された関数を使用する必要がある
+[Class]スイーパーの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スイーパーとは？テストスイーパーは別物？</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ベツモノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースの Create,Deleteまたは Update関数を呼び出すためのLinterを追加
+[Class]Linterの追加</t>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]availability_zonesTypeSet 属性からpreferred_cache_cluster_azs移 TypeList 属性に移行する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API パラメータに一致するパラメータに移行
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAwsSecretsManagerSecret_policy 一貫して失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fmt.Print(およびバリアント)への呼び出しを置換または削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースに消滅とtagテストを追加しファイルの名前をリソース プレフィックスに一致するように変更
+[Class]ファイル名の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EKS アップデート ウェイター機能を統合する
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EKS クラスター名の検証を改善
+[Class]チェックの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>クラスタ名の形式をチェック，Testsっぽい</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ケイシキ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローテーションされたキーベース キーの単体テストの更新
+[Class]テストの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最近の TestAccDataSourceAwsEc2InstanceType_basic の失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロールがアタッチされているインスタンス プロファイルの削除に失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Firewall Manager によって管理されている ACL を削除しようとすると失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TestsラベルがついているためTestsにした
+スイーパーのIssueは曖昧</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitHub HashiBot の動作を移行/削除する
+[Class]機能の移行，削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メンバーの関連付けを解除する際に問題がある場合ハングが長すぎる
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースをモダナイズ
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]権限フィルタリングの単体テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]正しいリソース更新ハンドラーのnon-tags変更検出
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテスト構成でdc1 Redshift ノード タイプを使用しない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccAppMesh_serial/VirtualGateway/listenerHealthChecksで失敗するBadRequestException
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EC2、ELB、および ELBv2 パッケージでの ENI のデタッチと削除の 3 つの同一の実装
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccBackupGlobalSettings_basicがus-west-2のAccessDeniedExceptionで失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestAccEKSCluster_versionInvalidParameterException(kubernetes バージョン)で失敗する
+[Class]テストの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UnknownOperationException(govcloud)で失敗する CloudWatchEvents スイーパーをスキップする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]us-gov-east-1 で失敗する AppRunner スイーパーをスキップする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CodeArtifact 受け入れテストのシリアル化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RDS orderable DB instanceデータ ソースが特定のエンジン バージョンを見つけることができない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]InvalidParameterCombination: Cannot find major versionエラー
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Cannot import non-existent remote objectでTestAccAWSS3BucketObject_nonVersionedが失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Error: Reference to undeclared resourceでTestAccShieldProtectionGroup_membersが失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DAO テストケースは独立しておりエラーを正しく処理する必要がある
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「harbor.cfg」と Go-ldap Lib の LDAP SCOPE が一致しない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]api/base.goをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dao テスト後に DB からデータを削除する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]prepare scriptをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API が正しいデータを返さない 
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor.cfg の secretkey_path の値を変更しても機能しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクトAPIの更新パターン
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユーザー ID はメンバー API で使用される
+[Class]仕様の変更，機能の改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シヨウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シークレットを保存するにはCookie の代わりにヘッダーを使用する
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12761,8 +12995,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1675" workbookViewId="0">
-      <selection activeCell="C1681" sqref="C1681"/>
+    <sheetView tabSelected="1" topLeftCell="A1707" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1721" sqref="C1721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -36563,8 +36797,17 @@
       <c r="B1681" t="s">
         <v>1676</v>
       </c>
+      <c r="C1681" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1681" s="2" t="s">
+        <v>3063</v>
+      </c>
       <c r="F1681" s="1" t="s">
-        <v>2370</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1682" spans="1:6" ht="42">
@@ -36574,19 +36817,25 @@
       <c r="B1682" t="s">
         <v>1677</v>
       </c>
+      <c r="C1682" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1682" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:6" ht="42">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" ht="63">
       <c r="A1683">
         <v>18438</v>
       </c>
       <c r="B1683" t="s">
         <v>1678</v>
       </c>
+      <c r="C1683" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1683" s="1" t="s">
-        <v>2370</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1684" spans="1:6" ht="42">
@@ -36596,8 +36845,11 @@
       <c r="B1684" t="s">
         <v>1679</v>
       </c>
+      <c r="C1684" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1684" s="1" t="s">
-        <v>2370</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1685" spans="1:6" ht="42">
@@ -36607,8 +36859,11 @@
       <c r="B1685" t="s">
         <v>1680</v>
       </c>
+      <c r="C1685" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1685" s="1" t="s">
-        <v>2370</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1686" spans="1:6" ht="42">
@@ -36618,19 +36873,25 @@
       <c r="B1686" t="s">
         <v>1681</v>
       </c>
+      <c r="C1686" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1686" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:6" ht="42">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" ht="63">
       <c r="A1687">
         <v>18591</v>
       </c>
       <c r="B1687" t="s">
         <v>1682</v>
       </c>
+      <c r="C1687" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1687" s="1" t="s">
-        <v>2370</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1688" spans="1:6" ht="42">
@@ -36640,8 +36901,11 @@
       <c r="B1688" t="s">
         <v>1683</v>
       </c>
+      <c r="C1688" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1688" s="1" t="s">
-        <v>2370</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1689" spans="1:6" ht="42">
@@ -36651,8 +36915,17 @@
       <c r="B1689" t="s">
         <v>1684</v>
       </c>
+      <c r="C1689" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1689" s="2" t="s">
+        <v>3072</v>
+      </c>
       <c r="F1689" s="1" t="s">
-        <v>2370</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1690" spans="1:6" ht="42">
@@ -36662,8 +36935,11 @@
       <c r="B1690" t="s">
         <v>1685</v>
       </c>
+      <c r="C1690" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1690" s="1" t="s">
-        <v>2370</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1691" spans="1:6" ht="42">
@@ -36673,8 +36949,11 @@
       <c r="B1691" t="s">
         <v>1686</v>
       </c>
+      <c r="C1691" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1691" s="1" t="s">
-        <v>2370</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1692" spans="1:6" ht="42">
@@ -36684,19 +36963,28 @@
       <c r="B1692" t="s">
         <v>1687</v>
       </c>
+      <c r="C1692" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1692" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:6" ht="42">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" ht="63">
       <c r="A1693">
         <v>19149</v>
       </c>
       <c r="B1693" t="s">
         <v>1688</v>
       </c>
+      <c r="C1693" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1693" s="2" t="s">
+        <v>3077</v>
+      </c>
       <c r="F1693" s="1" t="s">
-        <v>2370</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1694" spans="1:6" ht="42">
@@ -36706,8 +36994,11 @@
       <c r="B1694" t="s">
         <v>1689</v>
       </c>
+      <c r="C1694" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1694" s="1" t="s">
-        <v>2370</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1695" spans="1:6" ht="42">
@@ -36717,8 +37008,11 @@
       <c r="B1695" t="s">
         <v>1690</v>
       </c>
+      <c r="C1695" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1695" s="1" t="s">
-        <v>2370</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1696" spans="1:6" ht="42">
@@ -36728,8 +37022,11 @@
       <c r="B1696" t="s">
         <v>1691</v>
       </c>
+      <c r="C1696" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1696" s="1" t="s">
-        <v>2370</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="1697" spans="1:6" ht="42">
@@ -36739,8 +37036,11 @@
       <c r="B1697" t="s">
         <v>1692</v>
       </c>
+      <c r="C1697" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1697" s="1" t="s">
-        <v>2370</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="1698" spans="1:6" ht="42">
@@ -36750,8 +37050,11 @@
       <c r="B1698" t="s">
         <v>1693</v>
       </c>
+      <c r="C1698" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1698" s="1" t="s">
-        <v>2370</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1699" spans="1:6" ht="42">
@@ -36761,63 +37064,81 @@
       <c r="B1699" t="s">
         <v>1694</v>
       </c>
+      <c r="C1699" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1699" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:6" ht="42">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" ht="63">
       <c r="A1700">
         <v>21359</v>
       </c>
       <c r="B1700" t="s">
         <v>1695</v>
       </c>
+      <c r="C1700" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1700" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:6" ht="42">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" ht="63">
       <c r="A1701">
         <v>21406</v>
       </c>
       <c r="B1701" t="s">
         <v>1696</v>
       </c>
+      <c r="C1701" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1701" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:6" ht="42">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" ht="63">
       <c r="A1702">
         <v>21407</v>
       </c>
       <c r="B1702" t="s">
         <v>1697</v>
       </c>
+      <c r="C1702" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1702" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:6" ht="42">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" ht="63">
       <c r="A1703">
         <v>21410</v>
       </c>
       <c r="B1703" t="s">
         <v>1698</v>
       </c>
+      <c r="C1703" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1703" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:6" ht="42">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" ht="63">
       <c r="A1704">
         <v>21415</v>
       </c>
       <c r="B1704" t="s">
         <v>1699</v>
       </c>
+      <c r="C1704" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1704" s="1" t="s">
-        <v>2370</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1705" spans="1:6" ht="42">
@@ -36827,8 +37148,11 @@
       <c r="B1705" t="s">
         <v>1700</v>
       </c>
+      <c r="C1705" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1705" s="1" t="s">
-        <v>2370</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1706" spans="1:6" ht="42">
@@ -36838,19 +37162,25 @@
       <c r="B1706" t="s">
         <v>1701</v>
       </c>
+      <c r="C1706" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1706" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:6" ht="42">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" ht="63">
       <c r="A1707">
         <v>21448</v>
       </c>
       <c r="B1707" t="s">
         <v>1702</v>
       </c>
+      <c r="C1707" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1707" s="1" t="s">
-        <v>2370</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1708" spans="1:6" ht="42">
@@ -36860,30 +37190,39 @@
       <c r="B1708" t="s">
         <v>1703</v>
       </c>
+      <c r="C1708" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1708" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:6" ht="42">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" ht="63">
       <c r="A1709">
         <v>21453</v>
       </c>
       <c r="B1709" t="s">
         <v>1704</v>
       </c>
+      <c r="C1709" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1709" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:6" ht="42">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" ht="63">
       <c r="A1710">
         <v>21455</v>
       </c>
       <c r="B1710" t="s">
         <v>1705</v>
       </c>
+      <c r="C1710" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1710" s="1" t="s">
-        <v>2370</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1711" spans="1:6" ht="42">
@@ -36893,8 +37232,11 @@
       <c r="B1711" t="s">
         <v>1706</v>
       </c>
+      <c r="C1711" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1711" s="1" t="s">
-        <v>2370</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1712" spans="1:6" ht="42">
@@ -36904,8 +37246,11 @@
       <c r="B1712" t="s">
         <v>1707</v>
       </c>
+      <c r="C1712" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1712" s="1" t="s">
-        <v>2370</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1713" spans="1:6" ht="42">
@@ -36915,8 +37260,11 @@
       <c r="B1713" t="s">
         <v>1708</v>
       </c>
+      <c r="C1713" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1713" s="1" t="s">
-        <v>2370</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1714" spans="1:6" ht="42">
@@ -36926,8 +37274,11 @@
       <c r="B1714" t="s">
         <v>1709</v>
       </c>
+      <c r="C1714" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1714" s="1" t="s">
-        <v>2370</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1715" spans="1:6" ht="42">
@@ -36937,8 +37288,11 @@
       <c r="B1715" t="s">
         <v>1710</v>
       </c>
+      <c r="C1715" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1715" s="1" t="s">
-        <v>2370</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1716" spans="1:6" ht="42">
@@ -36948,8 +37302,11 @@
       <c r="B1716" t="s">
         <v>1711</v>
       </c>
+      <c r="C1716" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1716" s="1" t="s">
-        <v>2370</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1717" spans="1:6" ht="42">
@@ -36959,8 +37316,11 @@
       <c r="B1717" t="s">
         <v>1712</v>
       </c>
+      <c r="C1717" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1717" s="1" t="s">
-        <v>2370</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1718" spans="1:6" ht="42">
@@ -36970,8 +37330,11 @@
       <c r="B1718" t="s">
         <v>1713</v>
       </c>
+      <c r="C1718" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1718" s="1" t="s">
-        <v>2370</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1719" spans="1:6" ht="42">
@@ -36981,8 +37344,14 @@
       <c r="B1719" t="s">
         <v>1714</v>
       </c>
+      <c r="C1719" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1719" s="1" t="s">
-        <v>2370</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1720" spans="1:6" ht="42">
@@ -36992,8 +37361,11 @@
       <c r="B1720" t="s">
         <v>1715</v>
       </c>
+      <c r="C1720" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1720" s="1" t="s">
-        <v>2370</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1721" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E261455F-A92B-0E4C-90AB-20CF2994F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5F97413D-55C5-7D4E-BE1C-B0FF842ECC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28840" yWindow="-16660" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6558" uniqueCount="3105">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6579" uniqueCount="3126">
   <si>
     <t>Issue</t>
   </si>
@@ -12021,6 +12021,110 @@
   <si>
     <t>[Content]シークレットを保存するにはCookie の代わりにヘッダーを使用する
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トークン ユーティリティは/ui から /common に移動する必要がある
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Dockerfiles のディレクトリの不一致
+[Class]ファイルの移動</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データ ディレクトリを変更する必要がある
+[Class]ディレクトリの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリの一覧表示時に並行してリポジトリのタグをリクエストする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]notification handlerのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]操作をジョブサービスにカプセル化するジョブサービスクライアントが必要
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]港で使用されるデータベースを統合する必要がある
+[Class]DBの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロール テーブルは一意のキーとして name/role_code を設定する必要がある
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「エラー: 1049 不明なデータベース 'test'」。/usr/bin/mysqladmin も見つかりません
+[Class]DBの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]db-migrator イメージがスペースを取りすぎている
+[Class]サイズが大きい</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor を golang 1.9 に更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor.cfg を置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker compose テンプレートを V3 に移行
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SQL で SELECT * を使用しない
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor デプロイ/インストール ソリューションのリファクタリングと強化
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]異なるオーセンティケーターの一貫性のない戻り値
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成ページのボタンの有効化/無効化ステータスは現在のタブ セクションに基づく必要がる
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor の脆弱性の重大度はClair の脆弱性「高」と「重大」を区別しない
+[Class]仕様の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tslint が多すぎる警告
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Linterでコードの問題が見つかっただけ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレートと CSS ファイルは UI ライブラリ ファイルの生の文字列
+[Class]コードの修正</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12995,8 +13099,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1707" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1721" sqref="C1721"/>
+    <sheetView tabSelected="1" topLeftCell="A1720" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1741" sqref="C1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -37375,8 +37479,11 @@
       <c r="B1721" t="s">
         <v>1716</v>
       </c>
+      <c r="C1721" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1721" s="1" t="s">
-        <v>2370</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1722" spans="1:6" ht="42">
@@ -37386,8 +37493,11 @@
       <c r="B1722" t="s">
         <v>1717</v>
       </c>
+      <c r="C1722" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1722" s="1" t="s">
-        <v>2370</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1723" spans="1:6" ht="42">
@@ -37397,8 +37507,11 @@
       <c r="B1723" t="s">
         <v>1718</v>
       </c>
+      <c r="C1723" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1723" s="1" t="s">
-        <v>2370</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1724" spans="1:6" ht="42">
@@ -37408,8 +37521,11 @@
       <c r="B1724" t="s">
         <v>1719</v>
       </c>
+      <c r="C1724" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1724" s="1" t="s">
-        <v>2370</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1725" spans="1:6" ht="42">
@@ -37419,8 +37535,11 @@
       <c r="B1725" t="s">
         <v>1720</v>
       </c>
+      <c r="C1725" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1725" s="1" t="s">
-        <v>2370</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1726" spans="1:6" ht="42">
@@ -37430,8 +37549,11 @@
       <c r="B1726" t="s">
         <v>1721</v>
       </c>
+      <c r="C1726" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1726" s="1" t="s">
-        <v>2370</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1727" spans="1:6" ht="42">
@@ -37441,8 +37563,11 @@
       <c r="B1727" t="s">
         <v>1722</v>
       </c>
+      <c r="C1727" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1727" s="1" t="s">
-        <v>2370</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1728" spans="1:6" ht="42">
@@ -37452,19 +37577,25 @@
       <c r="B1728" t="s">
         <v>1723</v>
       </c>
+      <c r="C1728" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1728" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:6" ht="42">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" ht="63">
       <c r="A1729">
         <v>3047</v>
       </c>
       <c r="B1729" t="s">
         <v>1724</v>
       </c>
+      <c r="C1729" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1729" s="1" t="s">
-        <v>2370</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1730" spans="1:6" ht="42">
@@ -37474,8 +37605,11 @@
       <c r="B1730" t="s">
         <v>1725</v>
       </c>
+      <c r="C1730" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1730" s="1" t="s">
-        <v>2370</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1731" spans="1:6" ht="42">
@@ -37485,8 +37619,11 @@
       <c r="B1731" t="s">
         <v>1726</v>
       </c>
+      <c r="C1731" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1731" s="1" t="s">
-        <v>2370</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1732" spans="1:6" ht="42">
@@ -37496,8 +37633,11 @@
       <c r="B1732" t="s">
         <v>1727</v>
       </c>
+      <c r="C1732" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1732" s="1" t="s">
-        <v>2370</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1733" spans="1:6" ht="42">
@@ -37507,8 +37647,11 @@
       <c r="B1733" t="s">
         <v>1728</v>
       </c>
+      <c r="C1733" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1733" s="1" t="s">
-        <v>2370</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1734" spans="1:6" ht="42">
@@ -37518,8 +37661,11 @@
       <c r="B1734" t="s">
         <v>1729</v>
       </c>
+      <c r="C1734" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1734" s="1" t="s">
-        <v>2370</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1735" spans="1:6" ht="42">
@@ -37529,8 +37675,11 @@
       <c r="B1735" t="s">
         <v>1730</v>
       </c>
+      <c r="C1735" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1735" s="1" t="s">
-        <v>2370</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1736" spans="1:6" ht="42">
@@ -37540,19 +37689,25 @@
       <c r="B1736" t="s">
         <v>1731</v>
       </c>
+      <c r="C1736" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1736" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:6" ht="42">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" ht="63">
       <c r="A1737">
         <v>4295</v>
       </c>
       <c r="B1737" t="s">
         <v>1732</v>
       </c>
+      <c r="C1737" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1737" s="1" t="s">
-        <v>2370</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1738" spans="1:6" ht="42">
@@ -37562,8 +37717,11 @@
       <c r="B1738" t="s">
         <v>1733</v>
       </c>
+      <c r="C1738" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1738" s="1" t="s">
-        <v>2370</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1739" spans="1:6" ht="42">
@@ -37573,8 +37731,14 @@
       <c r="B1739" t="s">
         <v>1734</v>
       </c>
+      <c r="C1739" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1739" s="2" t="s">
+        <v>3124</v>
+      </c>
       <c r="F1739" s="1" t="s">
-        <v>2370</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1740" spans="1:6" ht="42">
@@ -37584,8 +37748,11 @@
       <c r="B1740" t="s">
         <v>1735</v>
       </c>
+      <c r="C1740" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1740" s="1" t="s">
-        <v>2370</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1741" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5F97413D-55C5-7D4E-BE1C-B0FF842ECC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{285C99FF-EBF4-FC4C-86AA-112D4F6B584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28840" yWindow="-16660" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13100,7 +13100,7 @@
   <dimension ref="A1:F2372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1720" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1741" sqref="C1741"/>
+      <selection activeCell="F1741" sqref="F1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{285C99FF-EBF4-FC4C-86AA-112D4F6B584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05215860-D885-FC46-940B-C81B29701A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="-16660" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6579" uniqueCount="3126">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6642" uniqueCount="3187">
   <si>
     <t>Issue</t>
   </si>
@@ -12125,6 +12125,334 @@
   <si>
     <t>[Content]テンプレートと CSS ファイルは UI ライブラリ ファイルの生の文字列
 [Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]harbar1.5のビルドが遅い
+[Class]ビルド時間の短縮</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ジカンノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">タンシュク </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].sql スクリプトを DB コンテナーからハーバー コンテナーに移動
+[Class]スクリプトの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make/dev の Dockerfile
+[Class]Dockerfileの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードから未チェックの型キャストを削除する
+[Class]コードの改善</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI ビルダー コンテナーはホストの状態に影響を与えるべきではない
+[Class]ビルドによる悪い影響</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての API が統一されたエラー メッセージを返す必要がる
+[Class]APIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI リソースを新しいコンテナーに分割する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビルドを行うコンテナの話</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ハナシ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ng-package の削除方法を調べる
+[Class]不要なパッケージの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]List(queryParams)メソッドは、beego orm によって制限された最大行数（1000）のみを返す
+[Class]仕様の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハーバー ポータル コンテナーを作成する
+[Class]Dockerfileの作成</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nginx 設定ファイルを更新する
+[Class]設定ファイルの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハーバーポータルを分割するためにハーバーui を変更
+[Class]不要なファイルの削除</t>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソース コードのパス レイアウトをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング準備ファイル
+[Class]ファイルのリファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ポータルとコアの両方で URL をリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor-UI の名前を Harbor-core に変更する
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gc バックエンド API のマイナーな問題
+[Class]APIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GC と scan_all は統一されたコード パスを共有する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]システム設定をリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハーバーポータルの技術的負債
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]promise を観察可能なアプローチに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]明確化コンポーネントを使用するようにコンポーネント ナビゲーション タブを構成する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]lib と app で重複するユーティリティを削除
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Helm チャートを lib から app に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インライン CSS スタイルを scss に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバル検索コード構造のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫性のない http エラー処理
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API 応答でメッセージを返す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インデックス コントローラーを削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]secret.SecurityContext の GetProjectRoles にはリファクタリングが必要
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API の一貫したエラー処理
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成アイテムの定義にハードコードされた文字列
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タイマーによってトリガーされない場合ログはクラウドにプッシュされない
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]adminserverソースコード
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロガーはファイル名に加えてディレクトリを表示する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベース接続情報をログに記録しないでください
+[Class]セキュリティの問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]有効なロボット アカウント ユーザーを使用して API をカールすると、予期しない応答が返される
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]http の代わりに httpClient を使用してリクエストを送信
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]redis.conf で「appendonly」を yes に更新することについて
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロボット アカウントのパスワードが長すぎる
+[Class]パスワードの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]生成された電子メールのセキュリティ ギャップ
+[Class]セキュリティの問題</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]centos7/rhel7 のキー形式による docker ログイン エラー
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なイベントを無視するように、レジストリの config.yaml で「ignoredmediatypes」を構成
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハーバーのコアでデータベースのパスワードをエンコード
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker-compose.yml を使用したコンテナーの命名、redis/nginx で競合する可能性のある名前
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestMain のテーブルをクリアする必要はない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make ビルド プロセスで生成された中間ファイルを削除するためにmake cleanを追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make/prepare には、prepare イメージのタグが必要
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]使用する前に、travis-ci で準備イメージをビルドする
+[Class]CIビルドの改善</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキャン、GC、レプリケーション、および保持で使用されるスケジューラーを共通のスケジューラーに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバル検索でハーバーに入るときはゲスト権限が必要
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]環境によっては、redis の永続データが巨大になることがある
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GC API の矛盾
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GC UI の [履歴] タブでの過度の更新リクエスト
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カバレッジのために codecov に切り替える
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのタスクを管理するための統一されたメカニズムを提供
+[Class]機能の改善，リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハーバーログのハーバーUIユーザー名
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]systeminfo API は、匿名 (認証されていない) ユーザーによってトリガーされると、より少ない情報を表示することがある
+[Class]APIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]イベントパネルにイベントを追加
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクトが削除されたときに、データベース内のクォータ情報が削除されない場合がある
+[Class]バグの修正</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -13099,8 +13427,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1720" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1741" sqref="F1741"/>
+    <sheetView tabSelected="1" topLeftCell="A1782" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1801" sqref="C1801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -37762,8 +38090,11 @@
       <c r="B1741" t="s">
         <v>1736</v>
       </c>
+      <c r="C1741" t="s">
+        <v>2548</v>
+      </c>
       <c r="F1741" s="1" t="s">
-        <v>2370</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1742" spans="1:6" ht="42">
@@ -37773,8 +38104,11 @@
       <c r="B1742" t="s">
         <v>1737</v>
       </c>
+      <c r="C1742" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1742" s="1" t="s">
-        <v>2370</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1743" spans="1:6" ht="42">
@@ -37784,8 +38118,11 @@
       <c r="B1743" t="s">
         <v>1738</v>
       </c>
+      <c r="C1743" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1743" s="1" t="s">
-        <v>2370</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1744" spans="1:6" ht="42">
@@ -37795,8 +38132,11 @@
       <c r="B1744" t="s">
         <v>1739</v>
       </c>
+      <c r="C1744" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1744" s="1" t="s">
-        <v>2370</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="1745" spans="1:6" ht="42">
@@ -37806,8 +38146,11 @@
       <c r="B1745" t="s">
         <v>1740</v>
       </c>
+      <c r="C1745" t="s">
+        <v>2548</v>
+      </c>
       <c r="F1745" s="1" t="s">
-        <v>2370</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="1746" spans="1:6" ht="42">
@@ -37817,8 +38160,11 @@
       <c r="B1746" t="s">
         <v>1741</v>
       </c>
+      <c r="C1746" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1746" s="1" t="s">
-        <v>2370</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="1747" spans="1:6" ht="42">
@@ -37828,8 +38174,14 @@
       <c r="B1747" t="s">
         <v>1742</v>
       </c>
+      <c r="C1747" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E1747" s="2" t="s">
+        <v>3133</v>
+      </c>
       <c r="F1747" s="1" t="s">
-        <v>2370</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="1748" spans="1:6" ht="42">
@@ -37839,19 +38191,25 @@
       <c r="B1748" t="s">
         <v>1743</v>
       </c>
+      <c r="C1748" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1748" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:6" ht="42">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" ht="63">
       <c r="A1749">
         <v>5814</v>
       </c>
       <c r="B1749" t="s">
         <v>1744</v>
       </c>
+      <c r="C1749" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1749" s="1" t="s">
-        <v>2370</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1750" spans="1:6" ht="42">
@@ -37861,8 +38219,11 @@
       <c r="B1750" t="s">
         <v>1745</v>
       </c>
+      <c r="C1750" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1750" s="1" t="s">
-        <v>2370</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="1751" spans="1:6" ht="42">
@@ -37872,8 +38233,11 @@
       <c r="B1751" t="s">
         <v>1746</v>
       </c>
+      <c r="C1751" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1751" s="1" t="s">
-        <v>2370</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="1752" spans="1:6" ht="42">
@@ -37883,8 +38247,11 @@
       <c r="B1752" t="s">
         <v>1747</v>
       </c>
+      <c r="C1752" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1752" s="1" t="s">
-        <v>2370</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1753" spans="1:6" ht="42">
@@ -37894,8 +38261,11 @@
       <c r="B1753" t="s">
         <v>1748</v>
       </c>
+      <c r="C1753" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1753" s="1" t="s">
-        <v>2370</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="1754" spans="1:6" ht="42">
@@ -37905,8 +38275,11 @@
       <c r="B1754" t="s">
         <v>1749</v>
       </c>
+      <c r="C1754" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1754" s="1" t="s">
-        <v>2370</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1755" spans="1:6" ht="42">
@@ -37916,8 +38289,11 @@
       <c r="B1755" t="s">
         <v>1750</v>
       </c>
+      <c r="C1755" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1755" s="1" t="s">
-        <v>2370</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="1756" spans="1:6" ht="42">
@@ -37927,8 +38303,14 @@
       <c r="B1756" t="s">
         <v>1751</v>
       </c>
+      <c r="C1756" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1756" s="1" t="s">
-        <v>2370</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="1757" spans="1:6" ht="42">
@@ -37938,8 +38320,11 @@
       <c r="B1757" t="s">
         <v>1752</v>
       </c>
+      <c r="C1757" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1757" s="1" t="s">
-        <v>2370</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1758" spans="1:6" ht="42">
@@ -37949,8 +38334,11 @@
       <c r="B1758" t="s">
         <v>1753</v>
       </c>
+      <c r="C1758" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1758" s="1" t="s">
-        <v>2370</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="1759" spans="1:6" ht="42">
@@ -37960,8 +38348,11 @@
       <c r="B1759" t="s">
         <v>1754</v>
       </c>
+      <c r="C1759" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1759" s="1" t="s">
-        <v>2370</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="1760" spans="1:6" ht="42">
@@ -37971,8 +38362,11 @@
       <c r="B1760" t="s">
         <v>1755</v>
       </c>
+      <c r="C1760" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1760" s="1" t="s">
-        <v>2370</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="1761" spans="1:6" ht="42">
@@ -37982,19 +38376,25 @@
       <c r="B1761" t="s">
         <v>1756</v>
       </c>
+      <c r="C1761" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1761" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:6" ht="42">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" ht="63">
       <c r="A1762">
         <v>6361</v>
       </c>
       <c r="B1762" t="s">
         <v>1757</v>
       </c>
+      <c r="C1762" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1762" s="1" t="s">
-        <v>2370</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="1763" spans="1:6" ht="42">
@@ -38004,8 +38404,11 @@
       <c r="B1763" t="s">
         <v>1758</v>
       </c>
+      <c r="C1763" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1763" s="1" t="s">
-        <v>2370</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="1764" spans="1:6" ht="42">
@@ -38015,8 +38418,11 @@
       <c r="B1764" t="s">
         <v>1759</v>
       </c>
+      <c r="C1764" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1764" s="1" t="s">
-        <v>2370</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1765" spans="1:6" ht="42">
@@ -38026,8 +38432,11 @@
       <c r="B1765" t="s">
         <v>1760</v>
       </c>
+      <c r="C1765" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1765" s="1" t="s">
-        <v>2370</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="1766" spans="1:6" ht="42">
@@ -38037,8 +38446,11 @@
       <c r="B1766" t="s">
         <v>1761</v>
       </c>
+      <c r="C1766" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1766" s="1" t="s">
-        <v>2370</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="1767" spans="1:6" ht="42">
@@ -38048,8 +38460,11 @@
       <c r="B1767" t="s">
         <v>1762</v>
       </c>
+      <c r="C1767" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1767" s="1" t="s">
-        <v>2370</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="1768" spans="1:6" ht="42">
@@ -38059,8 +38474,11 @@
       <c r="B1768" t="s">
         <v>1763</v>
       </c>
+      <c r="C1768" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1768" s="1" t="s">
-        <v>2370</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="1769" spans="1:6" ht="42">
@@ -38070,8 +38488,11 @@
       <c r="B1769" t="s">
         <v>1764</v>
       </c>
+      <c r="C1769" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1769" s="1" t="s">
-        <v>2370</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1770" spans="1:6" ht="42">
@@ -38081,8 +38502,11 @@
       <c r="B1770" t="s">
         <v>1765</v>
       </c>
+      <c r="C1770" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1770" s="1" t="s">
-        <v>2370</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="1771" spans="1:6" ht="42">
@@ -38092,8 +38516,11 @@
       <c r="B1771" t="s">
         <v>1766</v>
       </c>
+      <c r="C1771" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1771" s="1" t="s">
-        <v>2370</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="1772" spans="1:6" ht="42">
@@ -38103,8 +38530,11 @@
       <c r="B1772" t="s">
         <v>1767</v>
       </c>
+      <c r="C1772" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1772" s="1" t="s">
-        <v>2370</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="1773" spans="1:6" ht="42">
@@ -38114,8 +38544,11 @@
       <c r="B1773" t="s">
         <v>1768</v>
       </c>
+      <c r="C1773" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1773" s="1" t="s">
-        <v>2370</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="1774" spans="1:6" ht="42">
@@ -38125,8 +38558,11 @@
       <c r="B1774" t="s">
         <v>1769</v>
       </c>
+      <c r="C1774" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1774" s="1" t="s">
-        <v>2370</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="1775" spans="1:6" ht="42">
@@ -38136,8 +38572,11 @@
       <c r="B1775" t="s">
         <v>1770</v>
       </c>
+      <c r="C1775" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1775" s="1" t="s">
-        <v>2370</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="1776" spans="1:6" ht="42">
@@ -38147,19 +38586,25 @@
       <c r="B1776" t="s">
         <v>1771</v>
       </c>
+      <c r="C1776" t="s">
+        <v>2489</v>
+      </c>
       <c r="F1776" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:6" ht="42">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" ht="63">
       <c r="A1777">
         <v>7562</v>
       </c>
       <c r="B1777" t="s">
         <v>1772</v>
       </c>
+      <c r="C1777" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1777" s="1" t="s">
-        <v>2370</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="1778" spans="1:6" ht="42">
@@ -38169,8 +38614,11 @@
       <c r="B1778" t="s">
         <v>1773</v>
       </c>
+      <c r="C1778" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1778" s="1" t="s">
-        <v>2370</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="1779" spans="1:6" ht="42">
@@ -38180,8 +38628,11 @@
       <c r="B1779" t="s">
         <v>1774</v>
       </c>
+      <c r="C1779" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1779" s="1" t="s">
-        <v>2370</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="1780" spans="1:6" ht="42">
@@ -38191,8 +38642,11 @@
       <c r="B1780" t="s">
         <v>1775</v>
       </c>
+      <c r="C1780" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1780" s="1" t="s">
-        <v>2370</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="1781" spans="1:6" ht="42">
@@ -38202,8 +38656,11 @@
       <c r="B1781" t="s">
         <v>1776</v>
       </c>
+      <c r="C1781" t="s">
+        <v>2489</v>
+      </c>
       <c r="F1781" s="1" t="s">
-        <v>2370</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1782" spans="1:6" ht="42">
@@ -38213,19 +38670,25 @@
       <c r="B1782" t="s">
         <v>1777</v>
       </c>
+      <c r="C1782" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1782" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:6" ht="42">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" ht="63">
       <c r="A1783">
         <v>7857</v>
       </c>
       <c r="B1783" t="s">
         <v>1778</v>
       </c>
+      <c r="C1783" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1783" s="1" t="s">
-        <v>2370</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1784" spans="1:6" ht="42">
@@ -38235,19 +38698,25 @@
       <c r="B1784" t="s">
         <v>1779</v>
       </c>
+      <c r="C1784" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1784" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:6" ht="42">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" ht="63">
       <c r="A1785">
         <v>7958</v>
       </c>
       <c r="B1785" t="s">
         <v>1780</v>
       </c>
+      <c r="C1785" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1785" s="1" t="s">
-        <v>2370</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="1786" spans="1:6" ht="42">
@@ -38257,19 +38726,25 @@
       <c r="B1786" t="s">
         <v>1781</v>
       </c>
+      <c r="C1786" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1786" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:6" ht="42">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" ht="63">
       <c r="A1787">
         <v>8218</v>
       </c>
       <c r="B1787" t="s">
         <v>1782</v>
       </c>
+      <c r="C1787" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1787" s="1" t="s">
-        <v>2370</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="1788" spans="1:6" ht="42">
@@ -38279,8 +38754,11 @@
       <c r="B1788" t="s">
         <v>1783</v>
       </c>
+      <c r="C1788" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1788" s="1" t="s">
-        <v>2370</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="1789" spans="1:6" ht="42">
@@ -38290,19 +38768,28 @@
       <c r="B1789" t="s">
         <v>1784</v>
       </c>
+      <c r="C1789" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>2548</v>
+      </c>
       <c r="F1789" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:6" ht="42">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" ht="63">
       <c r="A1790">
         <v>8402</v>
       </c>
       <c r="B1790" t="s">
         <v>1785</v>
       </c>
+      <c r="C1790" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1790" s="1" t="s">
-        <v>2370</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="1791" spans="1:6" ht="42">
@@ -38312,8 +38799,11 @@
       <c r="B1791" t="s">
         <v>1786</v>
       </c>
+      <c r="C1791" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1791" s="1" t="s">
-        <v>2370</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1792" spans="1:6" ht="42">
@@ -38323,8 +38813,11 @@
       <c r="B1792" t="s">
         <v>1787</v>
       </c>
+      <c r="C1792" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1792" s="1" t="s">
-        <v>2370</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="1793" spans="1:6" ht="42">
@@ -38334,8 +38827,11 @@
       <c r="B1793" t="s">
         <v>1788</v>
       </c>
+      <c r="C1793" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1793" s="1" t="s">
-        <v>2370</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1794" spans="1:6" ht="42">
@@ -38345,8 +38841,11 @@
       <c r="B1794" t="s">
         <v>1789</v>
       </c>
+      <c r="C1794" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1794" s="1" t="s">
-        <v>2370</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="1795" spans="1:6" ht="42">
@@ -38356,8 +38855,11 @@
       <c r="B1795" t="s">
         <v>1790</v>
       </c>
+      <c r="C1795" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1795" s="1" t="s">
-        <v>2370</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="1796" spans="1:6" ht="42">
@@ -38367,8 +38869,11 @@
       <c r="B1796" t="s">
         <v>1791</v>
       </c>
+      <c r="C1796" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1796" s="1" t="s">
-        <v>2370</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1797" spans="1:6" ht="42">
@@ -38378,19 +38883,25 @@
       <c r="B1797" t="s">
         <v>1792</v>
       </c>
+      <c r="C1797" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1797" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:6" ht="42">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" ht="63">
       <c r="A1798">
         <v>9149</v>
       </c>
       <c r="B1798" t="s">
         <v>1793</v>
       </c>
+      <c r="C1798" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1798" s="1" t="s">
-        <v>2370</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="1799" spans="1:6" ht="42">
@@ -38400,19 +38911,25 @@
       <c r="B1799" t="s">
         <v>1794</v>
       </c>
+      <c r="C1799" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1799" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:6" ht="42">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" ht="63">
       <c r="A1800">
         <v>9373</v>
       </c>
       <c r="B1800" t="s">
         <v>1795</v>
       </c>
+      <c r="C1800" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1800" s="1" t="s">
-        <v>2370</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1801" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05215860-D885-FC46-940B-C81B29701A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{17EF00ED-BF49-3445-8EA5-CB00F5912511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19980" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6642" uniqueCount="3187">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6693" uniqueCount="3237">
   <si>
     <t>Issue</t>
   </si>
@@ -12453,6 +12453,271 @@
   <si>
     <t>[Content]プロジェクトが削除されたときに、データベース内のクォータ情報が削除されない場合がある
 [Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]src/pkg/scan/ および src/common/models に CVESet を複製
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング クォータ
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫性のないエラー処理
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ジョブに関連する重複モデルが多すぎる
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ホスト名/外部 URL の構成を回避するために、相対 URL をトークン レルムとして返します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デッド コードのクリーンアップ: Admiral との統合時に導入されたプロジェクト マネージャーを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コア サービスに接続して cfg を取得し、jobservice で DB を初期化するための明確なコード
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Webhook ポリシーは作成時間順に並べる必要がある
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのエラー パッケージの置き換え
+[Class]パッケージの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいレジストリ エンドポイントのタイプミス
+[Class]タイプミスの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サードパーティのレジストリ エンドポイント UI の改善
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「コア」のポート設定の不一致
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スケジュールされた GC ログ表示のいくつかの紛らわしい問題
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい API プログラミング モデルに切り替える
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CICD コミット ID とビルド番号の関係を Google ストレージに記録する必要がある
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]/api/v2.0/projects/xxxx の矛盾
+[Class]ディレクトリの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]S3 ストレージに切り替えた後、コア ログ エラー
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数の k8s バージョンに対するテスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Harbor が JWT トークンを作成する方法を統一する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API エクスプローラーの Swagger が不完全
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レプリケーション/保持/GC/スキャンを移動して、タスク マネージャー メカニズムを使用する
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]無効なサービス トークン リクエストに対して HTTP 500 が返される
+[Class]エラーへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ライブラリ プロジェクトのデフォルトの CVE 許可リストがない
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特定の「destination namespace」を指定すると、イメージ フォルダーのレプリケートが失われる
+[Class]機能の修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トクテイノ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>_x0000_	_x0002__x0006_3</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>_x0002__x000B_3_x0002__x0010_</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>6_x0002__x0016_6_x0002__x0000_</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]管理職の廃止
+[Class]ジョブの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タグの repo_id が負の場合、再度プッシュされたときに更新しますか?
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レプリケーション レジストリ クライアントと http クライアントのリファクタリングが必要
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dao packageのコンテナの使用にはエスケープが必要
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GC/scan all jobs rework の UI 変更
+[Class]UIの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユーザー/グループ管理を新しいプログラミング モデルに切り替える
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cfgManager で DB 接続を下げる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]各ユーザーのイベント ログを利用できます
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユーザーの意味は何ですか
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API のプロジェクト名とプロジェクト ID の両方をサポート
+[Class]APIのリファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nginx.conf の設定を調整する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキャン サマリー処理で CVE 許可リスト オプションを削除
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]context.Context から順序を取得するために保持の dao を変更
+[Class]機能の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タグ保持ポリシー API の DELETE ルートがありません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メトリクスに 404 が多すぎます Harbor_core_http_request_total
+[Class]パフォーマンスの問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]モック生成されたアーティファクト マネージャーを使用する
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エントリポイントは exec Bash コマンドを使用する必要がある
+[Class]Dockerfileの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一部の API には、swagger に $ref: '#/parameters/requestId' がありません
+[Class]APIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HEAD と GET のステータス コードが一致しない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]common.daoOIDCの参照を パッケージから削除
+[Class]パッケージの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユーザー名とプロジェクト名をサポート Harbour ユーザーとプロジェクト API で正確に一致
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベース移行プロセスを改善する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードで Swagger タイプを使用する
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい me エンドポイントにテストを追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク: 予想される闊歩と実際の闊歩の間の未解決の違いを解決する
+[Class]コードの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アクセス許可とアクセス許可チェックのためのより空間/時間効率の高い構造
+[Class]コード（構造）の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -13427,8 +13692,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1782" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1801" sqref="C1801"/>
+    <sheetView tabSelected="1" topLeftCell="A1833" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1851" sqref="C1851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -38939,8 +39204,11 @@
       <c r="B1801" t="s">
         <v>1796</v>
       </c>
+      <c r="C1801" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1801" s="1" t="s">
-        <v>2370</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1802" spans="1:6" ht="42">
@@ -38950,8 +39218,11 @@
       <c r="B1802" t="s">
         <v>1797</v>
       </c>
+      <c r="C1802" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1802" s="1" t="s">
-        <v>2370</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1803" spans="1:6" ht="42">
@@ -38961,8 +39232,11 @@
       <c r="B1803" t="s">
         <v>1798</v>
       </c>
+      <c r="C1803" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1803" s="1" t="s">
-        <v>2370</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1804" spans="1:6" ht="42">
@@ -38972,41 +39246,53 @@
       <c r="B1804" t="s">
         <v>1799</v>
       </c>
+      <c r="C1804" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1804" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:6" ht="42">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" ht="63">
       <c r="A1805">
         <v>9794</v>
       </c>
       <c r="B1805" t="s">
         <v>1800</v>
       </c>
+      <c r="C1805" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1805" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:6" ht="42">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" ht="63">
       <c r="A1806">
         <v>10772</v>
       </c>
       <c r="B1806" t="s">
         <v>1801</v>
       </c>
+      <c r="C1806" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1806" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:6" ht="42">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6" ht="63">
       <c r="A1807">
         <v>10883</v>
       </c>
       <c r="B1807" t="s">
         <v>1802</v>
       </c>
+      <c r="C1807" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1807" s="1" t="s">
-        <v>2370</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1808" spans="1:6" ht="42">
@@ -39016,8 +39302,11 @@
       <c r="B1808" t="s">
         <v>1803</v>
       </c>
+      <c r="C1808" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1808" s="1" t="s">
-        <v>2370</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="1809" spans="1:6" ht="42">
@@ -39027,8 +39316,11 @@
       <c r="B1809" t="s">
         <v>1804</v>
       </c>
+      <c r="C1809" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1809" s="1" t="s">
-        <v>2370</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1810" spans="1:6" ht="42">
@@ -39038,8 +39330,11 @@
       <c r="B1810" t="s">
         <v>1805</v>
       </c>
+      <c r="C1810" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1810" s="1" t="s">
-        <v>2370</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1811" spans="1:6" ht="42">
@@ -39049,8 +39344,11 @@
       <c r="B1811" t="s">
         <v>1806</v>
       </c>
+      <c r="C1811" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1811" s="1" t="s">
-        <v>2370</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="1812" spans="1:6" ht="42">
@@ -39060,8 +39358,11 @@
       <c r="B1812" t="s">
         <v>1807</v>
       </c>
+      <c r="C1812" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1812" s="1" t="s">
-        <v>2370</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="1813" spans="1:6" ht="42">
@@ -39071,8 +39372,11 @@
       <c r="B1813" t="s">
         <v>1808</v>
       </c>
+      <c r="C1813" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1813" s="1" t="s">
-        <v>2370</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1814" spans="1:6" ht="42">
@@ -39082,19 +39386,25 @@
       <c r="B1814" t="s">
         <v>1809</v>
       </c>
+      <c r="C1814" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1814" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:6" ht="42">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" ht="63">
       <c r="A1815">
         <v>12060</v>
       </c>
       <c r="B1815" t="s">
         <v>1810</v>
       </c>
+      <c r="C1815" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1815" s="1" t="s">
-        <v>2370</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1816" spans="1:6" ht="42">
@@ -39104,8 +39414,11 @@
       <c r="B1816" t="s">
         <v>1811</v>
       </c>
+      <c r="C1816" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1816" s="1" t="s">
-        <v>2370</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="1817" spans="1:6" ht="42">
@@ -39115,8 +39428,11 @@
       <c r="B1817" t="s">
         <v>1812</v>
       </c>
+      <c r="C1817" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1817" s="1" t="s">
-        <v>2370</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1818" spans="1:6" ht="42">
@@ -39126,8 +39442,11 @@
       <c r="B1818" t="s">
         <v>1813</v>
       </c>
+      <c r="C1818" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1818" s="1" t="s">
-        <v>2370</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="1819" spans="1:6" ht="42">
@@ -39137,8 +39456,11 @@
       <c r="B1819" t="s">
         <v>1814</v>
       </c>
+      <c r="C1819" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1819" s="1" t="s">
-        <v>2370</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="1820" spans="1:6" ht="42">
@@ -39148,19 +39470,25 @@
       <c r="B1820" t="s">
         <v>1815</v>
       </c>
+      <c r="C1820" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1820" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:6" ht="42">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" ht="63">
       <c r="A1821">
         <v>12563</v>
       </c>
       <c r="B1821" t="s">
         <v>1816</v>
       </c>
+      <c r="C1821" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1821" s="1" t="s">
-        <v>2370</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1822" spans="1:6" ht="42">
@@ -39170,8 +39498,11 @@
       <c r="B1822" t="s">
         <v>1817</v>
       </c>
+      <c r="C1822" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1822" s="1" t="s">
-        <v>2370</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="1823" spans="1:6" ht="42">
@@ -39181,19 +39512,25 @@
       <c r="B1823" t="s">
         <v>1818</v>
       </c>
+      <c r="C1823" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1823" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:6" ht="42">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" ht="63">
       <c r="A1824">
         <v>12791</v>
       </c>
       <c r="B1824" t="s">
         <v>1819</v>
       </c>
+      <c r="C1824" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1824" s="1" t="s">
-        <v>2370</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1825" spans="1:6" ht="42">
@@ -39203,8 +39540,14 @@
       <c r="B1825" t="s">
         <v>1820</v>
       </c>
+      <c r="C1825" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1825" s="1" t="s">
-        <v>2370</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="1826" spans="1:6" ht="42">
@@ -39214,19 +39557,25 @@
       <c r="B1826" t="s">
         <v>1821</v>
       </c>
+      <c r="C1826" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1826" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:6" ht="42">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" ht="63">
       <c r="A1827">
         <v>12882</v>
       </c>
       <c r="B1827" t="s">
         <v>1822</v>
       </c>
+      <c r="C1827" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1827" s="1" t="s">
-        <v>2370</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1828" spans="1:6" ht="42">
@@ -39236,8 +39585,11 @@
       <c r="B1828" t="s">
         <v>1823</v>
       </c>
+      <c r="C1828" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1828" s="1" t="s">
-        <v>2370</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1829" spans="1:6" ht="42">
@@ -39247,8 +39599,11 @@
       <c r="B1829" t="s">
         <v>1824</v>
       </c>
+      <c r="C1829" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1829" s="1" t="s">
-        <v>2370</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1830" spans="1:6" ht="42">
@@ -39258,8 +39613,11 @@
       <c r="B1830" t="s">
         <v>1825</v>
       </c>
+      <c r="C1830" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1830" s="1" t="s">
-        <v>2370</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="1831" spans="1:6" ht="42">
@@ -39269,8 +39627,11 @@
       <c r="B1831" t="s">
         <v>1826</v>
       </c>
+      <c r="C1831" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1831" s="1" t="s">
-        <v>2370</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1832" spans="1:6" ht="42">
@@ -39280,8 +39641,11 @@
       <c r="B1832" t="s">
         <v>1827</v>
       </c>
+      <c r="C1832" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1832" s="1" t="s">
-        <v>2370</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1833" spans="1:6" ht="42">
@@ -39291,8 +39655,11 @@
       <c r="B1833" t="s">
         <v>1828</v>
       </c>
+      <c r="C1833" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1833" s="1" t="s">
-        <v>2370</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="1834" spans="1:6" ht="42">
@@ -39302,8 +39669,11 @@
       <c r="B1834" t="s">
         <v>1829</v>
       </c>
+      <c r="C1834" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1834" s="1" t="s">
-        <v>2370</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="1835" spans="1:6" ht="42">
@@ -39313,8 +39683,11 @@
       <c r="B1835" t="s">
         <v>1830</v>
       </c>
+      <c r="C1835" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1835" s="1" t="s">
-        <v>2370</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1836" spans="1:6" ht="42">
@@ -39324,8 +39697,11 @@
       <c r="B1836" t="s">
         <v>1831</v>
       </c>
+      <c r="C1836" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1836" s="1" t="s">
-        <v>2370</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1837" spans="1:6" ht="42">
@@ -39335,8 +39711,11 @@
       <c r="B1837" t="s">
         <v>1832</v>
       </c>
+      <c r="C1837" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1837" s="1" t="s">
-        <v>2370</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1838" spans="1:6" ht="42">
@@ -39346,8 +39725,11 @@
       <c r="B1838" t="s">
         <v>1833</v>
       </c>
+      <c r="C1838" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1838" s="1" t="s">
-        <v>2370</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1839" spans="1:6" ht="42">
@@ -39357,8 +39739,11 @@
       <c r="B1839" t="s">
         <v>1834</v>
       </c>
+      <c r="C1839" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1839" s="1" t="s">
-        <v>2370</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="1840" spans="1:6" ht="42">
@@ -39368,8 +39753,11 @@
       <c r="B1840" t="s">
         <v>1835</v>
       </c>
+      <c r="C1840" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1840" s="1" t="s">
-        <v>2370</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="1841" spans="1:6" ht="42">
@@ -39379,8 +39767,11 @@
       <c r="B1841" t="s">
         <v>1836</v>
       </c>
+      <c r="C1841" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1841" s="1" t="s">
-        <v>2370</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1842" spans="1:6" ht="42">
@@ -39390,8 +39781,11 @@
       <c r="B1842" t="s">
         <v>1837</v>
       </c>
+      <c r="C1842" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1842" s="1" t="s">
-        <v>2370</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="1843" spans="1:6" ht="42">
@@ -39401,8 +39795,11 @@
       <c r="B1843" t="s">
         <v>1838</v>
       </c>
+      <c r="C1843" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1843" s="1" t="s">
-        <v>2370</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1844" spans="1:6" ht="42">
@@ -39412,19 +39809,25 @@
       <c r="B1844" t="s">
         <v>1839</v>
       </c>
+      <c r="C1844" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1844" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:6" ht="42">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" ht="63">
       <c r="A1845">
         <v>15207</v>
       </c>
       <c r="B1845" t="s">
         <v>1840</v>
       </c>
+      <c r="C1845" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1845" s="1" t="s">
-        <v>2370</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1846" spans="1:6" ht="42">
@@ -39434,8 +39837,11 @@
       <c r="B1846" t="s">
         <v>1841</v>
       </c>
+      <c r="C1846" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1846" s="1" t="s">
-        <v>2370</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1847" spans="1:6" ht="42">
@@ -39445,8 +39851,11 @@
       <c r="B1847" t="s">
         <v>1842</v>
       </c>
+      <c r="C1847" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1847" s="1" t="s">
-        <v>2370</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1848" spans="1:6" ht="42">
@@ -39456,8 +39865,11 @@
       <c r="B1848" t="s">
         <v>1843</v>
       </c>
+      <c r="C1848" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1848" s="1" t="s">
-        <v>2370</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1849" spans="1:6" ht="42">
@@ -39467,19 +39879,25 @@
       <c r="B1849" t="s">
         <v>1844</v>
       </c>
+      <c r="C1849" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1849" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:6" ht="42">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" ht="63">
       <c r="A1850">
         <v>10812</v>
       </c>
       <c r="B1850" t="s">
         <v>1845</v>
       </c>
+      <c r="C1850" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1850" s="1" t="s">
-        <v>2370</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1851" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{17EF00ED-BF49-3445-8EA5-CB00F5912511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4DCB49E-F12F-B744-A0B4-4531C0B8E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6693" uniqueCount="3237">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6745" uniqueCount="3287">
   <si>
     <t>Issue</t>
   </si>
@@ -12577,16 +12578,7 @@
       <t xml:space="preserve">トクテイノ </t>
     </rPh>
     <rPh sb="51" eb="53">
-      <t>_x0000_	_x0002__x0006_3</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>_x0002__x000B_3_x0002__x0010_</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>6_x0002__x0016_6_x0002__x0000_</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t/>
+      <t>_x0000_	_x0002__x0006_3_x0002__x000B_3_x0002__x0010_6_x0002__x0016_6_x0002__x0000_</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -12718,6 +12710,268 @@
   <si>
     <t>[Content]アクセス許可とアクセス許可チェックのためのより空間/時間効率の高い構造
 [Class]コード（構造）の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト フレームワークは op プレフィックスをテストする必要はないのでから削除
+[Class]不要なテストの削除</t>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複数のアイテムを返すエンドポイントのページネーションと並べ替えを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]作成したユーザーにパスワードを設定する方法がない
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]汎用のインライン編集可能テキスト入力コンポーネントを作成
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの複数のラベル タイプを統合
+[Class]ラベルの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク ラベル タイプとタスク インターフェイスを統合する
+[Class]コードの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ILabel[] でリソース タイプを使用する
+[Class]ラベルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]chronograf のタスク データ構造から組織を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]client/swagger を介して AST タイプを使用する
+[Class]UIの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]timeMachineReducer から InfluxQL ロジックを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]swagger タイプの定義を調べて、必要なものを必須にし、すべてのリソースの CreateResource タイプを作成
+[Class]タイプの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク: ユーザー アクセス制御を検証するためのテストを作成
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オーバーレイのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Partial&lt;Props&gt; タイプのデフォルトの props を使用するコンポーネントのタイプ セーフをチェック
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成ビューのリスト項目の色が背景に溶け込む
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TabbedPage のインスタンスを Tabs に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TimeSeries の状態を DE/CEO の Redux に移行
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]src/types のクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク: タスク全体の実行ログに実行 ID を含める必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラス名をファイル名と一致させる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでオプションのキャッシュを削除する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース スキーマ内の org/orgID への参照を正規化する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FE と BE からプロトを削除する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AddResourceDropdown は、ユーザーをオーバーレイにリダイレクトするために提供されるタグを使用する必要がある
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kv を優先して古いボルトと inmem の実装を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FancyScrollbars を DapperScrollbars に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいテンプレートにラベルを付ける方法を決定する
+[Class]UIの改善</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]redux 状態の最上位のリソース リストに統一されたリスト キーを持たせる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレートからの変数の作成は、すべての変数ではなく、組織内の変数に対してチェックする必要がある
+[Class]関数の作成</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クライアントから AST タイプを使用するように chronograf を移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クライアントでの変数の入力を改善する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログイン通知のクリーンアップが必要
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]InlineLabels から編集を抽出
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]InfluxDB 2.0: 「Bucket.organization」、「ScraperTargetResponse.organization」、および「TelegrafPluginOutputInfluxDBV2Config.organization」の名前を「org」に変更する必要がある
+[Class]名前の変更</t>
+    <rPh sb="163" eb="165">
+      <t xml:space="preserve">ナマエノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パネルを文字盤パネルに交換
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NavMenu を Clockface NavMenu に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ページを文字盤ページに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドロップダウンを文字盤ドロップダウンに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グリッドを文字盤グリッドに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースのインポート/エクスポートの抽象パターン
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CloudNav を変更して、Clockface リポジトリの Nav コンポーネントを使用するようにする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]編集モードでダッシュボードにセルを保存するときに、ビルダー構成を削除
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]認証なしで公開されているヘルス/メトリクス/デバッグ エンドポイント
+[Class]セキュリティの問題</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Button スタイルと props を使用して Link コンポーネントを作成
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードをエクスポートするにはクライアント リクエストが多すぎる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メンバー リストは、IndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バケット リストは、IndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Telegraf リストではIndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スクレイパー リストではIndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]変数リストは、IndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -13692,8 +13946,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1833" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1851" sqref="C1851"/>
+    <sheetView tabSelected="1" topLeftCell="A1886" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1901" sqref="C1901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -39900,15 +40154,18 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="1851" spans="1:6" ht="42">
+    <row r="1851" spans="1:6" ht="63">
       <c r="A1851">
         <v>10838</v>
       </c>
       <c r="B1851" t="s">
         <v>1846</v>
       </c>
+      <c r="C1851" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1851" s="1" t="s">
-        <v>2370</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1852" spans="1:6" ht="42">
@@ -39918,8 +40175,11 @@
       <c r="B1852" t="s">
         <v>1847</v>
       </c>
+      <c r="C1852" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1852" s="1" t="s">
-        <v>2370</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="1853" spans="1:6" ht="42">
@@ -39929,8 +40189,11 @@
       <c r="B1853" t="s">
         <v>1848</v>
       </c>
+      <c r="C1853" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1853" s="1" t="s">
-        <v>2370</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1854" spans="1:6" ht="42">
@@ -39940,8 +40203,11 @@
       <c r="B1854" t="s">
         <v>1849</v>
       </c>
+      <c r="C1854" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1854" s="1" t="s">
-        <v>2370</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="1855" spans="1:6" ht="42">
@@ -39951,8 +40217,11 @@
       <c r="B1855" t="s">
         <v>1850</v>
       </c>
+      <c r="C1855" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1855" s="1" t="s">
-        <v>2370</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1856" spans="1:6" ht="42">
@@ -39962,8 +40231,11 @@
       <c r="B1856" t="s">
         <v>1851</v>
       </c>
+      <c r="C1856" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1856" s="1" t="s">
-        <v>2370</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1857" spans="1:6" ht="42">
@@ -39973,8 +40245,11 @@
       <c r="B1857" t="s">
         <v>1852</v>
       </c>
+      <c r="C1857" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1857" s="1" t="s">
-        <v>2370</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1858" spans="1:6" ht="42">
@@ -39984,8 +40259,11 @@
       <c r="B1858" t="s">
         <v>1853</v>
       </c>
+      <c r="C1858" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1858" s="1" t="s">
-        <v>2370</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1859" spans="1:6" ht="42">
@@ -39995,8 +40273,11 @@
       <c r="B1859" t="s">
         <v>1854</v>
       </c>
+      <c r="C1859" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1859" s="1" t="s">
-        <v>2370</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1860" spans="1:6" ht="42">
@@ -40006,19 +40287,25 @@
       <c r="B1860" t="s">
         <v>1855</v>
       </c>
+      <c r="C1860" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1860" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:6" ht="42">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" ht="63">
       <c r="A1861">
         <v>12515</v>
       </c>
       <c r="B1861" t="s">
         <v>1856</v>
       </c>
+      <c r="C1861" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1861" s="1" t="s">
-        <v>2370</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1862" spans="1:6" ht="42">
@@ -40028,8 +40315,11 @@
       <c r="B1862" t="s">
         <v>1857</v>
       </c>
+      <c r="C1862" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1862" s="1" t="s">
-        <v>2370</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1863" spans="1:6" ht="42">
@@ -40039,19 +40329,25 @@
       <c r="B1863" t="s">
         <v>1858</v>
       </c>
+      <c r="C1863" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1863" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:6" ht="42">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" ht="63">
       <c r="A1864">
         <v>12565</v>
       </c>
       <c r="B1864" t="s">
         <v>1859</v>
       </c>
+      <c r="C1864" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1864" s="1" t="s">
-        <v>2370</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1865" spans="1:6" ht="42">
@@ -40061,8 +40357,11 @@
       <c r="B1865" t="s">
         <v>1860</v>
       </c>
+      <c r="C1865" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1865" s="1" t="s">
-        <v>2370</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1866" spans="1:6" ht="42">
@@ -40072,8 +40371,11 @@
       <c r="B1866" t="s">
         <v>1861</v>
       </c>
+      <c r="C1866" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1866" s="1" t="s">
-        <v>2370</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1867" spans="1:6" ht="42">
@@ -40083,8 +40385,11 @@
       <c r="B1867" t="s">
         <v>1862</v>
       </c>
+      <c r="C1867" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1867" s="1" t="s">
-        <v>2370</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1868" spans="1:6" ht="42">
@@ -40094,8 +40399,11 @@
       <c r="B1868" t="s">
         <v>1863</v>
       </c>
+      <c r="C1868" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1868" s="1" t="s">
-        <v>2370</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1869" spans="1:6" ht="42">
@@ -40105,8 +40413,14 @@
       <c r="B1869" t="s">
         <v>1864</v>
       </c>
+      <c r="C1869" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1869" s="1" t="s">
-        <v>2370</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1870" spans="1:6" ht="42">
@@ -40116,8 +40430,11 @@
       <c r="B1870" t="s">
         <v>1865</v>
       </c>
+      <c r="C1870" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1870" s="1" t="s">
-        <v>2370</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="1871" spans="1:6" ht="42">
@@ -40127,8 +40444,11 @@
       <c r="B1871" t="s">
         <v>1866</v>
       </c>
+      <c r="C1871" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1871" s="1" t="s">
-        <v>2370</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1872" spans="1:6" ht="42">
@@ -40138,8 +40458,11 @@
       <c r="B1872" t="s">
         <v>1867</v>
       </c>
+      <c r="C1872" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1872" s="1" t="s">
-        <v>2370</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="1873" spans="1:6" ht="42">
@@ -40149,19 +40472,25 @@
       <c r="B1873" t="s">
         <v>1868</v>
       </c>
+      <c r="C1873" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1873" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:6" ht="42">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" ht="63">
       <c r="A1874">
         <v>12944</v>
       </c>
       <c r="B1874" t="s">
         <v>1869</v>
       </c>
+      <c r="C1874" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1874" s="1" t="s">
-        <v>2370</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1875" spans="1:6" ht="42">
@@ -40171,8 +40500,11 @@
       <c r="B1875" t="s">
         <v>1870</v>
       </c>
+      <c r="C1875" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1875" s="1" t="s">
-        <v>2370</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="1876" spans="1:6" ht="42">
@@ -40182,8 +40514,11 @@
       <c r="B1876" t="s">
         <v>1871</v>
       </c>
+      <c r="C1876" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1876" s="1" t="s">
-        <v>2370</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1877" spans="1:6" ht="42">
@@ -40193,8 +40528,11 @@
       <c r="B1877" t="s">
         <v>1872</v>
       </c>
+      <c r="C1877" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1877" s="1" t="s">
-        <v>2370</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="1878" spans="1:6" ht="42">
@@ -40204,19 +40542,25 @@
       <c r="B1878" t="s">
         <v>1873</v>
       </c>
+      <c r="C1878" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1878" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:6" ht="42">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6" ht="63">
       <c r="A1879">
         <v>12994</v>
       </c>
       <c r="B1879" t="s">
         <v>1874</v>
       </c>
+      <c r="C1879" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1879" s="1" t="s">
-        <v>2370</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1880" spans="1:6" ht="42">
@@ -40226,8 +40570,14 @@
       <c r="B1880" t="s">
         <v>1875</v>
       </c>
+      <c r="C1880" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1880" s="1" t="s">
-        <v>2370</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="1881" spans="1:6" ht="42">
@@ -40237,8 +40587,11 @@
       <c r="B1881" t="s">
         <v>1876</v>
       </c>
+      <c r="C1881" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1881" s="1" t="s">
-        <v>2370</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1882" spans="1:6" ht="42">
@@ -40248,8 +40601,11 @@
       <c r="B1882" t="s">
         <v>1877</v>
       </c>
+      <c r="C1882" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1882" s="1" t="s">
-        <v>2370</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1883" spans="1:6" ht="42">
@@ -40259,19 +40615,25 @@
       <c r="B1883" t="s">
         <v>1878</v>
       </c>
+      <c r="C1883" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1883" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:6" ht="42">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" ht="105">
       <c r="A1884">
         <v>13148</v>
       </c>
       <c r="B1884" t="s">
         <v>1879</v>
       </c>
+      <c r="C1884" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1884" s="1" t="s">
-        <v>2370</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1885" spans="1:6" ht="42">
@@ -40281,8 +40643,11 @@
       <c r="B1885" t="s">
         <v>1880</v>
       </c>
+      <c r="C1885" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1885" s="1" t="s">
-        <v>2370</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1886" spans="1:6" ht="42">
@@ -40292,8 +40657,11 @@
       <c r="B1886" t="s">
         <v>1881</v>
       </c>
+      <c r="C1886" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1886" s="1" t="s">
-        <v>2370</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1887" spans="1:6" ht="42">
@@ -40303,8 +40671,11 @@
       <c r="B1887" t="s">
         <v>1882</v>
       </c>
+      <c r="C1887" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1887" s="1" t="s">
-        <v>2370</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1888" spans="1:6" ht="42">
@@ -40314,8 +40685,11 @@
       <c r="B1888" t="s">
         <v>1883</v>
       </c>
+      <c r="C1888" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1888" s="1" t="s">
-        <v>2370</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1889" spans="1:6" ht="42">
@@ -40325,8 +40699,11 @@
       <c r="B1889" t="s">
         <v>1884</v>
       </c>
+      <c r="C1889" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1889" s="1" t="s">
-        <v>2370</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1890" spans="1:6" ht="42">
@@ -40336,19 +40713,25 @@
       <c r="B1890" t="s">
         <v>1885</v>
       </c>
+      <c r="C1890" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1890" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:6" ht="42">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6" ht="63">
       <c r="A1891">
         <v>13210</v>
       </c>
       <c r="B1891" t="s">
         <v>1886</v>
       </c>
+      <c r="C1891" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1891" s="1" t="s">
-        <v>2370</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="1892" spans="1:6" ht="42">
@@ -40358,8 +40741,11 @@
       <c r="B1892" t="s">
         <v>1887</v>
       </c>
+      <c r="C1892" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1892" s="1" t="s">
-        <v>2370</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1893" spans="1:6" ht="42">
@@ -40369,8 +40755,11 @@
       <c r="B1893" t="s">
         <v>1888</v>
       </c>
+      <c r="C1893" t="s">
+        <v>2489</v>
+      </c>
       <c r="F1893" s="1" t="s">
-        <v>2370</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1894" spans="1:6" ht="42">
@@ -40380,8 +40769,11 @@
       <c r="B1894" t="s">
         <v>1889</v>
       </c>
+      <c r="C1894" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1894" s="1" t="s">
-        <v>2370</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="1895" spans="1:6" ht="42">
@@ -40391,8 +40783,11 @@
       <c r="B1895" t="s">
         <v>1890</v>
       </c>
+      <c r="C1895" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1895" s="1" t="s">
-        <v>2370</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="1896" spans="1:6" ht="42">
@@ -40402,8 +40797,11 @@
       <c r="B1896" t="s">
         <v>1891</v>
       </c>
+      <c r="C1896" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1896" s="1" t="s">
-        <v>2370</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="1897" spans="1:6" ht="42">
@@ -40413,8 +40811,11 @@
       <c r="B1897" t="s">
         <v>1892</v>
       </c>
+      <c r="C1897" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1897" s="1" t="s">
-        <v>2370</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="1898" spans="1:6" ht="42">
@@ -40424,19 +40825,25 @@
       <c r="B1898" t="s">
         <v>1893</v>
       </c>
+      <c r="C1898" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1898" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:6" ht="42">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6" ht="63">
       <c r="A1899">
         <v>13546</v>
       </c>
       <c r="B1899" t="s">
         <v>1894</v>
       </c>
+      <c r="C1899" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1899" s="1" t="s">
-        <v>2370</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="1900" spans="1:6" ht="42">
@@ -40446,8 +40853,11 @@
       <c r="B1900" t="s">
         <v>1895</v>
       </c>
+      <c r="C1900" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1900" s="1" t="s">
-        <v>2370</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="1901" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4DCB49E-F12F-B744-A0B4-4531C0B8E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A8C21BE7-DD50-1943-A76D-7CE78A5B2A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6745" uniqueCount="3287">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6798" uniqueCount="3337">
   <si>
     <t>Issue</t>
   </si>
@@ -12972,6 +12972,265 @@
   <si>
     <t>[Content]変数リストは、IndexList ではなく ResourceList を使用する必要がある
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ラベル リストでは、IndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トークン リストは、IndexList ではなく ResourceList を使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なオンボーディングの e2e テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API 監査: 脆いリクエスト
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク実行リストは、getSortedResoures を使用してソートする必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースのフェッチを並列化できるはず
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スクレーパー変更バケットの e2e テストを作成
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クライアントからテンプレート タイプをクリアする
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Token ReadWrite リストの BuilderCard の新しいコピーを作成
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]react-grid-layout をレスポンシブにする
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの再作業のための UI の変更
+[Class]UIの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの再作業のための JS クライアントの変更
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの再作業のための API の変更
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いタスクを削除します。ストアとサポート構造
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インスタンス化の前にテンプレートのタイプを識別するための戦略を決定する
+[Class]UIの改善</t>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソースがどのテンプレートから作成されたかを追跡するための戦略を決定する
+[Class]プロジェクトの方針</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アップグレード文字盤
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AST を使用して DE クエリを評価する
+[Class]コードの評価</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]文字盤の依存関係をアップグレードする
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル インデックス リストを文字盤インデックス リストに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル入力を文字盤入力に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル フォーム コンポーネントを文字盤フォーム コンポーネントに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカルリソースリストコンポーネントを文字盤コンポーネントに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル ドロップダウンを文字盤ドロップダウンに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい組織でテンプレートを作成するための呼び出しを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チェック用のサイプレス テストを作成
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル AutoInput を Clockface AutoInput に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル タブをクロックフェイス タブに置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカルの Page コンポーネントを Clockface Page に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]taskActive と taskInactive を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]紛らわしい LastScheduled/LatestCompleted の命名を修正
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスク API の新しいクライアントに切り替える
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード インデックスの「空の状態からダッシュボードを作成できる」テストを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なイベント マーカーの長期的な解決策を見つける
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]uint64 サポートを永続的に有効にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]e2e テストのパフォーマンス
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボード エンドポイントをドキュメント ベースにする
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの取得リクエストでネストされたデータを返す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュボードの作成時にネストされたデータを作成する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Flakey オンボーディング テスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Makefile を再度作成する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Flakey エクスプローラーのテスト
+[Class]テストの改善</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Flakey タスクとコレクターのテスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FancyScrollbar と react-custom-scrollbars を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]生データとテーブルビューでスクロールするためのテストを書く
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]y軸を伸ばすのはGiraffeの責任
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ViewSwitcher は魔法のようなことをするべき
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]/login に移動しようとすると、ログインしている CLOUD ユーザーをホームにリダイレクトする必要がある
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンソールの警告に対処する
+[Class]警告への対処</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]done 変数を除外するためのテストを書く
+[Class]テストの追加</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -13946,8 +14205,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1886" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1901" sqref="C1901"/>
+    <sheetView tabSelected="1" topLeftCell="A1944" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1952" sqref="C1952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -40867,8 +41126,11 @@
       <c r="B1901" t="s">
         <v>1896</v>
       </c>
+      <c r="C1901" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1901" s="1" t="s">
-        <v>2370</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="1902" spans="1:6" ht="42">
@@ -40878,8 +41140,11 @@
       <c r="B1902" t="s">
         <v>1897</v>
       </c>
+      <c r="C1902" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1902" s="1" t="s">
-        <v>2370</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1903" spans="1:6" ht="42">
@@ -40889,8 +41154,11 @@
       <c r="B1903" t="s">
         <v>1898</v>
       </c>
+      <c r="C1903" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1903" s="1" t="s">
-        <v>2370</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1904" spans="1:6" ht="42">
@@ -40900,8 +41168,11 @@
       <c r="B1904" t="s">
         <v>1899</v>
       </c>
+      <c r="C1904" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1904" s="1" t="s">
-        <v>2370</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1905" spans="1:6" ht="42">
@@ -40911,8 +41182,11 @@
       <c r="B1905" t="s">
         <v>1900</v>
       </c>
+      <c r="C1905" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1905" s="1" t="s">
-        <v>2370</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1906" spans="1:6" ht="42">
@@ -40922,8 +41196,11 @@
       <c r="B1906" t="s">
         <v>1901</v>
       </c>
+      <c r="C1906" t="s">
+        <v>2544</v>
+      </c>
       <c r="F1906" s="1" t="s">
-        <v>2370</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1907" spans="1:6" ht="42">
@@ -40933,8 +41210,11 @@
       <c r="B1907" t="s">
         <v>1902</v>
       </c>
+      <c r="C1907" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1907" s="1" t="s">
-        <v>2370</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1908" spans="1:6" ht="42">
@@ -40944,8 +41224,11 @@
       <c r="B1908" t="s">
         <v>1903</v>
       </c>
+      <c r="C1908" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1908" s="1" t="s">
-        <v>2370</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1909" spans="1:6" ht="42">
@@ -40955,8 +41238,11 @@
       <c r="B1909" t="s">
         <v>1904</v>
       </c>
+      <c r="C1909" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1909" s="1" t="s">
-        <v>2370</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1910" spans="1:6" ht="42">
@@ -40966,8 +41252,11 @@
       <c r="B1910" t="s">
         <v>1905</v>
       </c>
+      <c r="C1910" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1910" s="1" t="s">
-        <v>2370</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1911" spans="1:6" ht="42">
@@ -40977,8 +41266,11 @@
       <c r="B1911" t="s">
         <v>1906</v>
       </c>
+      <c r="C1911" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1911" s="1" t="s">
-        <v>2370</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="1912" spans="1:6" ht="42">
@@ -40988,8 +41280,11 @@
       <c r="B1912" t="s">
         <v>1907</v>
       </c>
+      <c r="C1912" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1912" s="1" t="s">
-        <v>2370</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1913" spans="1:6" ht="42">
@@ -40999,8 +41294,11 @@
       <c r="B1913" t="s">
         <v>1908</v>
       </c>
+      <c r="C1913" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1913" s="1" t="s">
-        <v>2370</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1914" spans="1:6" ht="42">
@@ -41010,30 +41308,45 @@
       <c r="B1914" t="s">
         <v>1909</v>
       </c>
+      <c r="C1914" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1914" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:6" ht="42">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6" ht="63">
       <c r="A1915">
         <v>14081</v>
       </c>
       <c r="B1915" t="s">
         <v>1910</v>
       </c>
+      <c r="C1915" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1915" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:6" ht="42">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6" ht="63">
       <c r="A1916">
         <v>14082</v>
       </c>
       <c r="B1916" t="s">
         <v>1911</v>
       </c>
+      <c r="C1916" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>2397</v>
+      </c>
       <c r="F1916" s="1" t="s">
-        <v>2370</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1917" spans="1:6" ht="42">
@@ -41043,8 +41356,11 @@
       <c r="B1917" t="s">
         <v>1912</v>
       </c>
+      <c r="C1917" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1917" s="1" t="s">
-        <v>2370</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1918" spans="1:6" ht="42">
@@ -41054,8 +41370,11 @@
       <c r="B1918" t="s">
         <v>1913</v>
       </c>
+      <c r="C1918" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1918" s="1" t="s">
-        <v>2370</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1919" spans="1:6" ht="42">
@@ -41065,8 +41384,14 @@
       <c r="B1919" t="s">
         <v>1914</v>
       </c>
+      <c r="C1919" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1919" s="1" t="s">
-        <v>2370</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1920" spans="1:6" ht="42">
@@ -41076,8 +41401,11 @@
       <c r="B1920" t="s">
         <v>1915</v>
       </c>
+      <c r="C1920" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1920" s="1" t="s">
-        <v>2370</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1921" spans="1:6" ht="42">
@@ -41087,19 +41415,25 @@
       <c r="B1921" t="s">
         <v>1916</v>
       </c>
+      <c r="C1921" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1921" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:6" ht="42">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" ht="63">
       <c r="A1922">
         <v>14383</v>
       </c>
       <c r="B1922" t="s">
         <v>1917</v>
       </c>
+      <c r="C1922" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1922" s="1" t="s">
-        <v>2370</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1923" spans="1:6" ht="42">
@@ -41109,8 +41443,11 @@
       <c r="B1923" t="s">
         <v>1918</v>
       </c>
+      <c r="C1923" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1923" s="1" t="s">
-        <v>2370</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1924" spans="1:6" ht="42">
@@ -41120,8 +41457,11 @@
       <c r="B1924" t="s">
         <v>1919</v>
       </c>
+      <c r="C1924" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1924" s="1" t="s">
-        <v>2370</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1925" spans="1:6" ht="42">
@@ -41131,8 +41471,11 @@
       <c r="B1925" t="s">
         <v>1920</v>
       </c>
+      <c r="C1925" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1925" s="1" t="s">
-        <v>2370</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1926" spans="1:6" ht="42">
@@ -41142,8 +41485,11 @@
       <c r="B1926" t="s">
         <v>1921</v>
       </c>
+      <c r="C1926" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1926" s="1" t="s">
-        <v>2370</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1927" spans="1:6" ht="42">
@@ -41153,8 +41499,11 @@
       <c r="B1927" t="s">
         <v>1922</v>
       </c>
+      <c r="C1927" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1927" s="1" t="s">
-        <v>2370</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1928" spans="1:6" ht="42">
@@ -41164,8 +41513,11 @@
       <c r="B1928" t="s">
         <v>1923</v>
       </c>
+      <c r="C1928" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1928" s="1" t="s">
-        <v>2370</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1929" spans="1:6" ht="42">
@@ -41175,8 +41527,11 @@
       <c r="B1929" t="s">
         <v>1924</v>
       </c>
+      <c r="C1929" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1929" s="1" t="s">
-        <v>2370</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1930" spans="1:6" ht="42">
@@ -41186,8 +41541,11 @@
       <c r="B1930" t="s">
         <v>1925</v>
       </c>
+      <c r="C1930" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1930" s="1" t="s">
-        <v>2370</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1931" spans="1:6" ht="42">
@@ -41197,8 +41555,11 @@
       <c r="B1931" t="s">
         <v>1926</v>
       </c>
+      <c r="C1931" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1931" s="1" t="s">
-        <v>2370</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1932" spans="1:6" ht="42">
@@ -41208,19 +41569,25 @@
       <c r="B1932" t="s">
         <v>1927</v>
       </c>
+      <c r="C1932" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1932" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:6" ht="42">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" ht="63">
       <c r="A1933">
         <v>15388</v>
       </c>
       <c r="B1933" t="s">
         <v>1928</v>
       </c>
+      <c r="C1933" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1933" s="1" t="s">
-        <v>2370</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="1934" spans="1:6" ht="42">
@@ -41230,8 +41597,11 @@
       <c r="B1934" t="s">
         <v>1929</v>
       </c>
+      <c r="C1934" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1934" s="1" t="s">
-        <v>2370</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1935" spans="1:6" ht="42">
@@ -41241,8 +41611,11 @@
       <c r="B1935" t="s">
         <v>1930</v>
       </c>
+      <c r="C1935" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1935" s="1" t="s">
-        <v>2370</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1936" spans="1:6" ht="42">
@@ -41252,8 +41625,11 @@
       <c r="B1936" t="s">
         <v>1931</v>
       </c>
+      <c r="C1936" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1936" s="1" t="s">
-        <v>2370</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1937" spans="1:6" ht="42">
@@ -41263,8 +41639,11 @@
       <c r="B1937" t="s">
         <v>1932</v>
       </c>
+      <c r="C1937" t="s">
+        <v>2438</v>
+      </c>
       <c r="F1937" s="1" t="s">
-        <v>2370</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1938" spans="1:6" ht="42">
@@ -41274,8 +41653,11 @@
       <c r="B1938" t="s">
         <v>1933</v>
       </c>
+      <c r="C1938" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1938" s="1" t="s">
-        <v>2370</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1939" spans="1:6" ht="42">
@@ -41285,8 +41667,11 @@
       <c r="B1939" t="s">
         <v>1934</v>
       </c>
+      <c r="C1939" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1939" s="1" t="s">
-        <v>2370</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1940" spans="1:6" ht="42">
@@ -41296,8 +41681,11 @@
       <c r="B1940" t="s">
         <v>1935</v>
       </c>
+      <c r="C1940" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1940" s="1" t="s">
-        <v>2370</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1941" spans="1:6" ht="42">
@@ -41307,8 +41695,11 @@
       <c r="B1941" t="s">
         <v>1936</v>
       </c>
+      <c r="C1941" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1941" s="1" t="s">
-        <v>2370</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1942" spans="1:6" ht="42">
@@ -41318,8 +41709,11 @@
       <c r="B1942" t="s">
         <v>1937</v>
       </c>
+      <c r="C1942" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1942" s="1" t="s">
-        <v>2370</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1943" spans="1:6" ht="42">
@@ -41329,8 +41723,11 @@
       <c r="B1943" t="s">
         <v>1938</v>
       </c>
+      <c r="C1943" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1943" s="1" t="s">
-        <v>2370</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1944" spans="1:6" ht="42">
@@ -41340,8 +41737,11 @@
       <c r="B1944" t="s">
         <v>1939</v>
       </c>
+      <c r="C1944" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1944" s="1" t="s">
-        <v>2370</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1945" spans="1:6" ht="42">
@@ -41351,8 +41751,11 @@
       <c r="B1945" t="s">
         <v>1940</v>
       </c>
+      <c r="C1945" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1945" s="1" t="s">
-        <v>2370</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1946" spans="1:6" ht="42">
@@ -41362,8 +41765,11 @@
       <c r="B1946" t="s">
         <v>1941</v>
       </c>
+      <c r="C1946" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1946" s="1" t="s">
-        <v>2370</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1947" spans="1:6" ht="42">
@@ -41373,19 +41779,25 @@
       <c r="B1947" t="s">
         <v>1942</v>
       </c>
+      <c r="C1947" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1947" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:6" ht="42">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" ht="63">
       <c r="A1948">
         <v>18362</v>
       </c>
       <c r="B1948" t="s">
         <v>1943</v>
       </c>
+      <c r="C1948" t="s">
+        <v>2389</v>
+      </c>
       <c r="F1948" s="1" t="s">
-        <v>2370</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1949" spans="1:6" ht="42">
@@ -41395,8 +41807,11 @@
       <c r="B1949" t="s">
         <v>1944</v>
       </c>
+      <c r="C1949" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1949" s="1" t="s">
-        <v>2370</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1950" spans="1:6" ht="42">
@@ -41406,8 +41821,11 @@
       <c r="B1950" t="s">
         <v>1945</v>
       </c>
+      <c r="C1950" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1950" s="1" t="s">
-        <v>2370</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1951" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A8C21BE7-DD50-1943-A76D-7CE78A5B2A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5BF3CAFD-05A9-B144-9762-603D81417C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6798" uniqueCount="3337">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6850" uniqueCount="3387">
   <si>
     <t>Issue</t>
   </si>
@@ -13230,6 +13230,274 @@
   </si>
   <si>
     <t>[Content]done 変数を除外するためのテストを書く
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フックのリンティング ルールを追加する
+[Class]リンターのルール追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストレージの形状を変更します。BucketFinder インターフェイス
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]固定 ID を使用して、タスクと監視システムのバケットの残りを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kit/cli で共通ユーティリティを使用するために、cmd/influx を移植
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI コマンドのオンボーディング パスの重複を減らす
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kit/cli のパニックを返されたエラーに変換する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI コマンドのオンボーディングパスの重複を減らす
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新の influxdb のchronografフォルダーを削除する
+[Class]不要なフォルダの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kit/cli のパニックを返されたエラーに変換 [backport 2.0.x]
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]influx CLIからtranspileコマンドを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]storage/1.x と 2.x の間で一貫性を保つためにファイルを再配置
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネイティブの埋め込み pkg を使用して静的アセットを埋め込む
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キャンセル/タイムアウトをサポートするためlimiter.FixedのTakeを更新
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリからinflux CLI コードを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コメントを保持するフラックス フォーマッターに切り替え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctld はおそらく、ステータスをポーリングする代わりに SNS 通知を使用する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VPC リソースを削除する
+[Class]不要なリソースの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー時にすべてのリソースを削除する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]領域ロジックのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ノードを再リストする際に再認証が必要になる場合がある
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ng.DesiredCapacity、ng.MinSize、および ng.MaxSize はポインターを使用する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ng.AllowSSH と関連フィールドを別の構造体にリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タグとラベルを統合する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]待機ループで無視される認証エラー
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストで cloudformation をモックする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]doCreateClusterをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]変更を master にマージするときにドキュメントを壊さないようにする
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成の構築、検証、およびデフォルト設定のモデル
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スタックのトラブルシューティング担当者はより良い仕事をするはず
+[Class]エラーメッセージの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ノードグループのクリーン削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IAM アドオンのより良いテスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AWS API リクエストでのページネーションの使用を確認する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]削除処理の改善、dry-run の追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]source 最新の coredns アドオン マニフェスト
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ノードグループの削除・縮小のタイミング
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストのタイムアウトまでの時間を伸ばしたが失敗，テストかコードどちらかを修正（どちらでもいい）
+最終的に不安定なテストとして削除されている</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ノバシタガ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t xml:space="preserve">サイシュウテキニ </t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t xml:space="preserve">フアンテイナテストトシテ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AL2 イメージの EKS アカウント ID に基づく AMI 検索を含む
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コマンド オプションに共通の構造体を追加する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リージョンでサポートされていないインスタンス タイプの具体的なエラー メッセージを出力する
+[Class]エラーメッセージの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]latest_release タグを取り除く
+[Class]不要なタグの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go モジュールへの移行
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI の高速化
+[Class]テスト（CI）の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で AMI コードが最新かどうかを確認できない
+[Class]CIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI のテスト サイト
+[Class]CIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリースの自動化は RC を処理する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]無効な引数に対して即座にフィードバックを提供する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gometalinter を golangci-lint に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスター スタックの更新
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリースの自動化はテスト可能であるべき
 [Class]テストの追加</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -14205,8 +14473,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1944" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1952" sqref="C1952"/>
+    <sheetView tabSelected="1" topLeftCell="A1994" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2001" sqref="C2001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -41835,8 +42103,11 @@
       <c r="B1951" t="s">
         <v>1946</v>
       </c>
+      <c r="C1951" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1951" s="1" t="s">
-        <v>2370</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1952" spans="1:6" ht="42">
@@ -41846,8 +42117,11 @@
       <c r="B1952" t="s">
         <v>1947</v>
       </c>
+      <c r="C1952" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1952" s="1" t="s">
-        <v>2370</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1953" spans="1:6" ht="42">
@@ -41857,8 +42131,11 @@
       <c r="B1953" t="s">
         <v>1948</v>
       </c>
+      <c r="C1953" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1953" s="1" t="s">
-        <v>2370</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1954" spans="1:6" ht="42">
@@ -41868,8 +42145,11 @@
       <c r="B1954" t="s">
         <v>1949</v>
       </c>
+      <c r="C1954" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1954" s="1" t="s">
-        <v>2370</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1955" spans="1:6" ht="42">
@@ -41879,8 +42159,11 @@
       <c r="B1955" t="s">
         <v>1950</v>
       </c>
+      <c r="C1955" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1955" s="1" t="s">
-        <v>2370</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1956" spans="1:6" ht="42">
@@ -41890,8 +42173,11 @@
       <c r="B1956" t="s">
         <v>1951</v>
       </c>
+      <c r="C1956" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1956" s="1" t="s">
-        <v>2370</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1957" spans="1:6" ht="42">
@@ -41901,8 +42187,11 @@
       <c r="B1957" t="s">
         <v>1952</v>
       </c>
+      <c r="C1957" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1957" s="1" t="s">
-        <v>2370</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="1958" spans="1:6" ht="42">
@@ -41912,8 +42201,11 @@
       <c r="B1958" t="s">
         <v>1953</v>
       </c>
+      <c r="C1958" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1958" s="1" t="s">
-        <v>2370</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1959" spans="1:6" ht="42">
@@ -41923,8 +42215,11 @@
       <c r="B1959" t="s">
         <v>1954</v>
       </c>
+      <c r="C1959" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1959" s="1" t="s">
-        <v>2370</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="1960" spans="1:6" ht="42">
@@ -41934,8 +42229,11 @@
       <c r="B1960" t="s">
         <v>1955</v>
       </c>
+      <c r="C1960" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1960" s="1" t="s">
-        <v>2370</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1961" spans="1:6" ht="42">
@@ -41945,8 +42243,11 @@
       <c r="B1961" t="s">
         <v>1956</v>
       </c>
+      <c r="C1961" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1961" s="1" t="s">
-        <v>2370</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1962" spans="1:6" ht="42">
@@ -41956,8 +42257,11 @@
       <c r="B1962" t="s">
         <v>1957</v>
       </c>
+      <c r="C1962" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1962" s="1" t="s">
-        <v>2370</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1963" spans="1:6" ht="42">
@@ -41967,8 +42271,11 @@
       <c r="B1963" t="s">
         <v>1958</v>
       </c>
+      <c r="C1963" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1963" s="1" t="s">
-        <v>2370</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1964" spans="1:6" ht="42">
@@ -41978,8 +42285,11 @@
       <c r="B1964" t="s">
         <v>1959</v>
       </c>
+      <c r="C1964" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1964" s="1" t="s">
-        <v>2370</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1965" spans="1:6" ht="42">
@@ -41989,8 +42299,11 @@
       <c r="B1965" t="s">
         <v>1960</v>
       </c>
+      <c r="C1965" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1965" s="1" t="s">
-        <v>2370</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1966" spans="1:6" ht="42">
@@ -42000,19 +42313,25 @@
       <c r="B1966" t="s">
         <v>1961</v>
       </c>
+      <c r="C1966" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1966" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:6" ht="42">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6" ht="63">
       <c r="A1967">
         <v>22</v>
       </c>
       <c r="B1967" t="s">
         <v>1962</v>
       </c>
+      <c r="C1967" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1967" s="1" t="s">
-        <v>2370</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1968" spans="1:6" ht="42">
@@ -42022,8 +42341,11 @@
       <c r="B1968" t="s">
         <v>1963</v>
       </c>
+      <c r="C1968" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1968" s="1" t="s">
-        <v>2370</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1969" spans="1:6" ht="42">
@@ -42033,8 +42355,11 @@
       <c r="B1969" t="s">
         <v>1964</v>
       </c>
+      <c r="C1969" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1969" s="1" t="s">
-        <v>2370</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1970" spans="1:6" ht="42">
@@ -42044,8 +42369,11 @@
       <c r="B1970" t="s">
         <v>1965</v>
       </c>
+      <c r="C1970" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1970" s="1" t="s">
-        <v>2370</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="1971" spans="1:6" ht="42">
@@ -42055,8 +42383,11 @@
       <c r="B1971" t="s">
         <v>1966</v>
       </c>
+      <c r="C1971" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1971" s="1" t="s">
-        <v>2370</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1972" spans="1:6" ht="42">
@@ -42066,19 +42397,25 @@
       <c r="B1972" t="s">
         <v>1967</v>
       </c>
+      <c r="C1972" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1972" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:6" ht="42">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6" ht="63">
       <c r="A1973">
         <v>385</v>
       </c>
       <c r="B1973" t="s">
         <v>1968</v>
       </c>
+      <c r="C1973" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1973" s="1" t="s">
-        <v>2370</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1974" spans="1:6" ht="42">
@@ -42088,8 +42425,11 @@
       <c r="B1974" t="s">
         <v>1969</v>
       </c>
+      <c r="C1974" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1974" s="1" t="s">
-        <v>2370</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1975" spans="1:6" ht="42">
@@ -42099,8 +42439,11 @@
       <c r="B1975" t="s">
         <v>1970</v>
       </c>
+      <c r="C1975" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1975" s="1" t="s">
-        <v>2370</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1976" spans="1:6" ht="42">
@@ -42110,8 +42453,11 @@
       <c r="B1976" t="s">
         <v>1971</v>
       </c>
+      <c r="C1976" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1976" s="1" t="s">
-        <v>2370</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1977" spans="1:6" ht="42">
@@ -42121,8 +42467,11 @@
       <c r="B1977" t="s">
         <v>1972</v>
       </c>
+      <c r="C1977" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1977" s="1" t="s">
-        <v>2370</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1978" spans="1:6" ht="42">
@@ -42132,8 +42481,11 @@
       <c r="B1978" t="s">
         <v>1973</v>
       </c>
+      <c r="C1978" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1978" s="1" t="s">
-        <v>2370</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1979" spans="1:6" ht="42">
@@ -42143,8 +42495,11 @@
       <c r="B1979" t="s">
         <v>1974</v>
       </c>
+      <c r="C1979" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1979" s="1" t="s">
-        <v>2370</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1980" spans="1:6" ht="42">
@@ -42154,8 +42509,11 @@
       <c r="B1980" t="s">
         <v>1975</v>
       </c>
+      <c r="C1980" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1980" s="1" t="s">
-        <v>2370</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1981" spans="1:6" ht="42">
@@ -42165,8 +42523,11 @@
       <c r="B1981" t="s">
         <v>1976</v>
       </c>
+      <c r="C1981" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1981" s="1" t="s">
-        <v>2370</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1982" spans="1:6" ht="42">
@@ -42176,8 +42537,11 @@
       <c r="B1982" t="s">
         <v>1977</v>
       </c>
+      <c r="C1982" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1982" s="1" t="s">
-        <v>2370</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1983" spans="1:6" ht="42">
@@ -42187,8 +42551,11 @@
       <c r="B1983" t="s">
         <v>1978</v>
       </c>
+      <c r="C1983" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1983" s="1" t="s">
-        <v>2370</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1984" spans="1:6" ht="42">
@@ -42198,8 +42565,11 @@
       <c r="B1984" t="s">
         <v>1979</v>
       </c>
+      <c r="C1984" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1984" s="1" t="s">
-        <v>2370</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1985" spans="1:6" ht="42">
@@ -42209,8 +42579,11 @@
       <c r="B1985" t="s">
         <v>1980</v>
       </c>
+      <c r="C1985" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1985" s="1" t="s">
-        <v>2370</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1986" spans="1:6" ht="42">
@@ -42220,19 +42593,31 @@
       <c r="B1986" t="s">
         <v>1981</v>
       </c>
+      <c r="C1986" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1986" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:6" ht="42">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6" ht="63">
       <c r="A1987">
         <v>717</v>
       </c>
       <c r="B1987" t="s">
         <v>1982</v>
       </c>
+      <c r="C1987" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1987" s="2" t="s">
+        <v>3373</v>
+      </c>
       <c r="F1987" s="1" t="s">
-        <v>2370</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1988" spans="1:6" ht="42">
@@ -42242,8 +42627,11 @@
       <c r="B1988" t="s">
         <v>1983</v>
       </c>
+      <c r="C1988" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1988" s="1" t="s">
-        <v>2370</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1989" spans="1:6" ht="42">
@@ -42253,19 +42641,25 @@
       <c r="B1989" t="s">
         <v>1984</v>
       </c>
+      <c r="C1989" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1989" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:6" ht="42">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6" ht="63">
       <c r="A1990">
         <v>792</v>
       </c>
       <c r="B1990" t="s">
         <v>1985</v>
       </c>
+      <c r="C1990" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1990" s="1" t="s">
-        <v>2370</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1991" spans="1:6" ht="42">
@@ -42275,8 +42669,11 @@
       <c r="B1991" t="s">
         <v>1986</v>
       </c>
+      <c r="C1991" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1991" s="1" t="s">
-        <v>2370</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1992" spans="1:6" ht="42">
@@ -42286,8 +42683,11 @@
       <c r="B1992" t="s">
         <v>1987</v>
       </c>
+      <c r="C1992" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1992" s="1" t="s">
-        <v>2370</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1993" spans="1:6" ht="42">
@@ -42297,8 +42697,11 @@
       <c r="B1993" t="s">
         <v>1988</v>
       </c>
+      <c r="C1993" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1993" s="1" t="s">
-        <v>2370</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1994" spans="1:6" ht="42">
@@ -42308,8 +42711,11 @@
       <c r="B1994" t="s">
         <v>1989</v>
       </c>
+      <c r="C1994" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1994" s="1" t="s">
-        <v>2370</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1995" spans="1:6" ht="42">
@@ -42319,8 +42725,11 @@
       <c r="B1995" t="s">
         <v>1990</v>
       </c>
+      <c r="C1995" t="s">
+        <v>2380</v>
+      </c>
       <c r="F1995" s="1" t="s">
-        <v>2370</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="1996" spans="1:6" ht="42">
@@ -42330,8 +42739,11 @@
       <c r="B1996" t="s">
         <v>1991</v>
       </c>
+      <c r="C1996" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1996" s="1" t="s">
-        <v>2370</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1997" spans="1:6" ht="42">
@@ -42341,8 +42753,11 @@
       <c r="B1997" t="s">
         <v>1992</v>
       </c>
+      <c r="C1997" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1997" s="1" t="s">
-        <v>2370</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1998" spans="1:6" ht="42">
@@ -42352,8 +42767,11 @@
       <c r="B1998" t="s">
         <v>1993</v>
       </c>
+      <c r="C1998" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1998" s="1" t="s">
-        <v>2370</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1999" spans="1:6" ht="42">
@@ -42363,8 +42781,11 @@
       <c r="B1999" t="s">
         <v>1994</v>
       </c>
+      <c r="C1999" t="s">
+        <v>2371</v>
+      </c>
       <c r="F1999" s="1" t="s">
-        <v>2370</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="2000" spans="1:6" ht="42">
@@ -42374,8 +42795,11 @@
       <c r="B2000" t="s">
         <v>1995</v>
       </c>
+      <c r="C2000" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2000" s="1" t="s">
-        <v>2370</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="2001" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5BF3CAFD-05A9-B144-9762-603D81417C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E553F44-059D-AD40-9319-C8FC1CD4D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6850" uniqueCount="3387">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6905" uniqueCount="3438">
   <si>
     <t>Issue</t>
   </si>
@@ -13498,6 +13497,268 @@
   </si>
   <si>
     <t>[Content]リリースの自動化はテスト可能であるべき
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロード バランサーの削除のテストを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クリーンアップ機能はタスクとして実行する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AWS SDK の使用規則を定義する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ポーリングの方法を定義する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctl install flux のロジックを pkg/addons/flux に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]install fluxフラグ --profile をサポートしていません
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タスクをスキップする機能を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォーク ゴーフォーメーション
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのファイルシステム操作に Afero を使用することを検討してください
+[Class]ツールの導入</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドイメージのタグ付けを自動化
+[Class]機能の改善，ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビルドプロセスの中の作業を改善？</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ナカノ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">サギョウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストで ~/.ssh を調べる必要はありません
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストではよく知られている名前のクラスターを作成しないでください
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テスト構造
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストは、後続のテストに影響を与える副作用を引き起こす
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ARN パーサーを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]git.Client/executor.Executor のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Pod の準備状況チェックではポート フォワーディングは必要ありません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cmdutils パッケージのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UpdateAWSNode はコントロール プレーン バージョンを使用しません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]drain パッケージのリファクタリング
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルド段階を完全に自動化および合理化
+[Class]ビルド（CI）の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]管理対象ノードグループのスタックを構築するための単体テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インフラストラクチャ、ビルド、リリース、配布などに関連するロジックを整理
+[Class]ファイルの整理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストと統合テストを追加eksctl version
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kubernetes クライアント シリアライザーのテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kris-nova/logger をより適切に管理されたライブラリに置き換え
+[Class]ライブラリの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Github コードを別のリポジトリに抽出する
+[Class]リポジトリの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オンザフライで OIDC テスト用の TLS キーを生成する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Fluxcd/go-git-providers に移行する
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マルチアーチイメージの不要なコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロバイダーの機能を弱める
+[Class]テストの容易化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]外部 API 呼び出しの数を減らす
+[Class]API呼び出しの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GPU cgroupdriver ハックを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]aws-sdk-go-v2 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストが失敗した後に AWS リソースをクリーンアップする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go:embed への切り替えを検討してください
+[Class]ツールの切り替え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctl で作成されていないクラスターまたは eksctl で作成されたクラスターのいずれかで実行されるリファクタリング統合テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pkg/cfn/builder テストのリファクタリング
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]any-commitジョブを CircleCI から Github アクションに移動
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストにかかる時間を短縮
+[Class]テストのパフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ClusterProvider をリファクタリングして Nodegroup 単体テストでのモックを改善する
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のコマンド「wait-nodes」を削除
+[Class]非推奨のコマンドの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EKSCTL でのテスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ゴリントをリバイブに置き換える
+[Class]ツールの置き換え</t>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctl Associate identityprovider コマンドの統合テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctl disassociate identityprovider コマンドの統合テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eksctl get identityprovider コマンドの統合テストを追加
 [Class]テストの追加</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -14473,8 +14734,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1994" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2001" sqref="C2001"/>
+    <sheetView tabSelected="1" topLeftCell="A2045" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2051" sqref="C2051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -42809,8 +43070,11 @@
       <c r="B2001" t="s">
         <v>1996</v>
       </c>
+      <c r="C2001" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2001" s="1" t="s">
-        <v>2370</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="2002" spans="1:6" ht="42">
@@ -42820,8 +43084,11 @@
       <c r="B2002" t="s">
         <v>1997</v>
       </c>
+      <c r="C2002" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2002" s="1" t="s">
-        <v>2370</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="2003" spans="1:6" ht="42">
@@ -42831,8 +43098,11 @@
       <c r="B2003" t="s">
         <v>1998</v>
       </c>
+      <c r="C2003" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2003" s="1" t="s">
-        <v>2370</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="2004" spans="1:6" ht="42">
@@ -42842,8 +43112,11 @@
       <c r="B2004" t="s">
         <v>1999</v>
       </c>
+      <c r="C2004" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2004" s="1" t="s">
-        <v>2370</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2005" spans="1:6" ht="42">
@@ -42853,8 +43126,11 @@
       <c r="B2005" t="s">
         <v>2000</v>
       </c>
+      <c r="C2005" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2005" s="1" t="s">
-        <v>2370</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="2006" spans="1:6" ht="42">
@@ -42864,8 +43140,11 @@
       <c r="B2006" t="s">
         <v>2001</v>
       </c>
+      <c r="C2006" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2006" s="1" t="s">
-        <v>2370</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2007" spans="1:6" ht="42">
@@ -42875,8 +43154,11 @@
       <c r="B2007" t="s">
         <v>2002</v>
       </c>
+      <c r="C2007" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2007" s="1" t="s">
-        <v>2370</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="2008" spans="1:6" ht="42">
@@ -42886,8 +43168,11 @@
       <c r="B2008" t="s">
         <v>2003</v>
       </c>
+      <c r="C2008" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2008" s="1" t="s">
-        <v>2370</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="2009" spans="1:6" ht="42">
@@ -42897,8 +43182,11 @@
       <c r="B2009" t="s">
         <v>2004</v>
       </c>
+      <c r="C2009" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2009" s="1" t="s">
-        <v>2370</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="2010" spans="1:6" ht="42">
@@ -42908,8 +43196,11 @@
       <c r="B2010" t="s">
         <v>2005</v>
       </c>
+      <c r="C2010" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2010" s="1" t="s">
-        <v>2370</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="2011" spans="1:6" ht="42">
@@ -42919,8 +43210,17 @@
       <c r="B2011" t="s">
         <v>2006</v>
       </c>
+      <c r="C2011" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E2011" s="2" t="s">
+        <v>3397</v>
+      </c>
       <c r="F2011" s="1" t="s">
-        <v>2370</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="2012" spans="1:6" ht="42">
@@ -42930,8 +43230,11 @@
       <c r="B2012" t="s">
         <v>2007</v>
       </c>
+      <c r="C2012" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2012" s="1" t="s">
-        <v>2370</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="2013" spans="1:6" ht="42">
@@ -42941,8 +43244,11 @@
       <c r="B2013" t="s">
         <v>2008</v>
       </c>
+      <c r="C2013" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2013" s="1" t="s">
-        <v>2370</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="2014" spans="1:6" ht="42">
@@ -42952,8 +43258,11 @@
       <c r="B2014" t="s">
         <v>2009</v>
       </c>
+      <c r="C2014" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2014" s="1" t="s">
-        <v>2370</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="2015" spans="1:6" ht="42">
@@ -42963,8 +43272,11 @@
       <c r="B2015" t="s">
         <v>2010</v>
       </c>
+      <c r="C2015" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2015" s="1" t="s">
-        <v>2370</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="2016" spans="1:6" ht="42">
@@ -42974,8 +43286,11 @@
       <c r="B2016" t="s">
         <v>2011</v>
       </c>
+      <c r="C2016" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2016" s="1" t="s">
-        <v>2370</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="2017" spans="1:6" ht="42">
@@ -42985,8 +43300,11 @@
       <c r="B2017" t="s">
         <v>2012</v>
       </c>
+      <c r="C2017" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2017" s="1" t="s">
-        <v>2370</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="2018" spans="1:6" ht="42">
@@ -42996,8 +43314,11 @@
       <c r="B2018" t="s">
         <v>2013</v>
       </c>
+      <c r="C2018" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2018" s="1" t="s">
-        <v>2370</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="2019" spans="1:6" ht="42">
@@ -43007,8 +43328,11 @@
       <c r="B2019" t="s">
         <v>2014</v>
       </c>
+      <c r="C2019" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2019" s="1" t="s">
-        <v>2370</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="2020" spans="1:6" ht="42">
@@ -43018,8 +43342,11 @@
       <c r="B2020" t="s">
         <v>2015</v>
       </c>
+      <c r="C2020" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2020" s="1" t="s">
-        <v>2370</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="2021" spans="1:6" ht="42">
@@ -43029,8 +43356,11 @@
       <c r="B2021" t="s">
         <v>2016</v>
       </c>
+      <c r="C2021" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2021" s="1" t="s">
-        <v>2370</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2022" spans="1:6" ht="42">
@@ -43040,8 +43370,14 @@
       <c r="B2022" t="s">
         <v>2017</v>
       </c>
+      <c r="C2022" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>2548</v>
+      </c>
       <c r="F2022" s="1" t="s">
-        <v>2370</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="2023" spans="1:6" ht="42">
@@ -43051,19 +43387,25 @@
       <c r="B2023" t="s">
         <v>2018</v>
       </c>
+      <c r="C2023" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2023" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:6" ht="42">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:6" ht="63">
       <c r="A2024">
         <v>1980</v>
       </c>
       <c r="B2024" t="s">
         <v>2019</v>
       </c>
+      <c r="C2024" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2024" s="1" t="s">
-        <v>2370</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="2025" spans="1:6" ht="42">
@@ -43073,8 +43415,11 @@
       <c r="B2025" t="s">
         <v>2020</v>
       </c>
+      <c r="C2025" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2025" s="1" t="s">
-        <v>2370</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="2026" spans="1:6" ht="42">
@@ -43084,8 +43429,11 @@
       <c r="B2026" t="s">
         <v>2021</v>
       </c>
+      <c r="C2026" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2026" s="1" t="s">
-        <v>2370</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="2027" spans="1:6" ht="42">
@@ -43095,8 +43443,11 @@
       <c r="B2027" t="s">
         <v>2022</v>
       </c>
+      <c r="C2027" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2027" s="1" t="s">
-        <v>2370</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="2028" spans="1:6" ht="42">
@@ -43106,8 +43457,11 @@
       <c r="B2028" t="s">
         <v>2023</v>
       </c>
+      <c r="C2028" t="s">
+        <v>3415</v>
+      </c>
       <c r="F2028" s="1" t="s">
-        <v>2370</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="2029" spans="1:6" ht="42">
@@ -43117,8 +43471,11 @@
       <c r="B2029" t="s">
         <v>2024</v>
       </c>
+      <c r="C2029" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2029" s="1" t="s">
-        <v>2370</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="2030" spans="1:6" ht="42">
@@ -43128,8 +43485,11 @@
       <c r="B2030" t="s">
         <v>2025</v>
       </c>
+      <c r="C2030" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2030" s="1" t="s">
-        <v>2370</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="2031" spans="1:6" ht="42">
@@ -43139,8 +43499,11 @@
       <c r="B2031" t="s">
         <v>2026</v>
       </c>
+      <c r="C2031" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2031" s="1" t="s">
-        <v>2370</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="2032" spans="1:6" ht="42">
@@ -43150,8 +43513,14 @@
       <c r="B2032" t="s">
         <v>2027</v>
       </c>
+      <c r="C2032" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>2397</v>
+      </c>
       <c r="F2032" s="1" t="s">
-        <v>2370</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="2033" spans="1:6" ht="42">
@@ -43161,8 +43530,11 @@
       <c r="B2033" t="s">
         <v>2028</v>
       </c>
+      <c r="C2033" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2033" s="1" t="s">
-        <v>2370</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="2034" spans="1:6" ht="42">
@@ -43172,8 +43544,11 @@
       <c r="B2034" t="s">
         <v>2029</v>
       </c>
+      <c r="C2034" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2034" s="1" t="s">
-        <v>2370</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2035" spans="1:6" ht="42">
@@ -43183,8 +43558,11 @@
       <c r="B2035" t="s">
         <v>2030</v>
       </c>
+      <c r="C2035" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2035" s="1" t="s">
-        <v>2370</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="2036" spans="1:6" ht="42">
@@ -43194,8 +43572,11 @@
       <c r="B2036" t="s">
         <v>2031</v>
       </c>
+      <c r="C2036" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2036" s="1" t="s">
-        <v>2370</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="2037" spans="1:6" ht="42">
@@ -43205,19 +43586,25 @@
       <c r="B2037" t="s">
         <v>2032</v>
       </c>
+      <c r="C2037" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2037" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:6" ht="42">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:6" ht="63">
       <c r="A2038">
         <v>3348</v>
       </c>
       <c r="B2038" t="s">
         <v>2033</v>
       </c>
+      <c r="C2038" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2038" s="1" t="s">
-        <v>2370</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="2039" spans="1:6" ht="42">
@@ -43227,8 +43614,11 @@
       <c r="B2039" t="s">
         <v>2034</v>
       </c>
+      <c r="C2039" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2039" s="1" t="s">
-        <v>2370</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2040" spans="1:6" ht="42">
@@ -43238,8 +43628,11 @@
       <c r="B2040" t="s">
         <v>2035</v>
       </c>
+      <c r="C2040" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2040" s="1" t="s">
-        <v>2370</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="2041" spans="1:6" ht="42">
@@ -43249,8 +43642,11 @@
       <c r="B2041" t="s">
         <v>2036</v>
       </c>
+      <c r="C2041" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2041" s="1" t="s">
-        <v>2370</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="2042" spans="1:6" ht="42">
@@ -43260,19 +43656,28 @@
       <c r="B2042" t="s">
         <v>2037</v>
       </c>
+      <c r="C2042" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>2544</v>
+      </c>
       <c r="F2042" s="1" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:6" ht="42">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:6" ht="63">
       <c r="A2043">
         <v>3699</v>
       </c>
       <c r="B2043" t="s">
         <v>2038</v>
       </c>
+      <c r="C2043" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2043" s="1" t="s">
-        <v>2370</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="2044" spans="1:6" ht="42">
@@ -43282,8 +43687,11 @@
       <c r="B2044" t="s">
         <v>2039</v>
       </c>
+      <c r="C2044" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2044" s="1" t="s">
-        <v>2370</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="2045" spans="1:6" ht="42">
@@ -43293,8 +43701,11 @@
       <c r="B2045" t="s">
         <v>2040</v>
       </c>
+      <c r="C2045" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2045" s="1" t="s">
-        <v>2370</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="2046" spans="1:6" ht="42">
@@ -43304,8 +43715,11 @@
       <c r="B2046" t="s">
         <v>2041</v>
       </c>
+      <c r="C2046" t="s">
+        <v>2371</v>
+      </c>
       <c r="F2046" s="1" t="s">
-        <v>2370</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="2047" spans="1:6" ht="42">
@@ -43315,8 +43729,11 @@
       <c r="B2047" t="s">
         <v>2042</v>
       </c>
+      <c r="C2047" t="s">
+        <v>2405</v>
+      </c>
       <c r="F2047" s="1" t="s">
-        <v>2370</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="2048" spans="1:6" ht="42">
@@ -43326,8 +43743,11 @@
       <c r="B2048" t="s">
         <v>2043</v>
       </c>
+      <c r="C2048" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2048" s="1" t="s">
-        <v>2370</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="2049" spans="1:6" ht="42">
@@ -43337,8 +43757,11 @@
       <c r="B2049" t="s">
         <v>2044</v>
       </c>
+      <c r="C2049" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2049" s="1" t="s">
-        <v>2370</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="2050" spans="1:6" ht="42">
@@ -43348,8 +43771,11 @@
       <c r="B2050" t="s">
         <v>2045</v>
       </c>
+      <c r="C2050" t="s">
+        <v>2380</v>
+      </c>
       <c r="F2050" s="1" t="s">
-        <v>2370</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="2051" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{115A4096-8CA1-354E-A1BB-9B084BC49D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{517961B2-417B-4C40-A081-F9A19FA50F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6958" uniqueCount="3489">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7011" uniqueCount="3542">
   <si>
     <t>Issue</t>
   </si>
@@ -14033,6 +14033,292 @@
   <si>
     <t>[Content]テストでレポートを比較できなくなった
 [Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content][不安定なテスト] トポロジ タガーに 0 より長い時間がかかった
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]App-&gt;Probe デプロイメントの順序制限を削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パフォーマンスの問題に気づきにくい
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>パフォーマンステストについて，今パフォーマンスの問題が起きているわけではない</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">イマパフォーマンスノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">オキテイルワケデハナイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての Copy() 関数を削除できるかどうかを確認
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ECS レポーターの単体テストを追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]共通ディレクトリを独自のリポジトリに移動
+[Class]ディレクトリの移動</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>不要なコードなどを移行して整理している</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">セイリシテイル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URL 引数を使用するように web-api-utils をリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]正常にフォールバックしてprocの解析を行うeBPFが有効になっていて失敗する
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]React.PropTypes から離れる
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scope/Cortex: シングルトンmetricsGraphURL変数を取り除く
+[Class]不要な変数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Time Travel をモジュラー コンポーネントにする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]eslint の依存関係を更新する
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マイナー ノードの依存関係を更新する
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pausedAt 状態の形式を ISO 文字列に戻す
+[Class]コードの改善</t>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scope フォークでの統合テストの実行を容易にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい検索バー コンポーネントを使用する
+[Class]UIの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scope UI コンポーネントに onStateChange フックを追加
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]React 16.5 にアップグレードし他のライブラリもアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sasslint-webpack-plugin の使用を置き換える
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sass-lint の使用を再考する
+[Class]不要なリンターの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロトコルからPermとOffsetを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラーにスタック トレースを追加する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Docker クライアントのテストを更新する
+[Class]テストの更新</t>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]JSON ロギング
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI テストを更新してクラスターの再起動を処理する
+[Class]テストの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pfs-refactor の CI を修正
+[Class]CIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rethinkdb 準備状況チェックを追加
+[Class]テストの改善</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make launch-dev の後、pachd-init ポッドが CrashLoopBackoff でスタックすることがある
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]直接の APIClient 構築を排除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Mac ヒューズ テストを CI でコンパイルするが実行しないようにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サンプル テストをよりスマートにしてドキュメントとの同期を保つ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pachctl は、引数が正しくない場合にステータス 0 で終了する
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]イメージを更新して、ubuntu 16.04 からビルド
+[Class]OSのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロファイリング バイナリ エラーを生成する make タスク
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ポイントリリースプロセスの自動化
+[Class]リリースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>プロジェクトのリリースについて</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI の破損 -- Tensor Flow サンプル テストの失敗
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストを統合してdocker インスタンスを分離するのではなくクラスターから再考を使用する
+[Class]テストの統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go に依存してテスト スイートを並列化する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シーケンスが必要なテストを別のテスト スイートに分割する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]etcd フェイルオーバーによりクラスターがハングする
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一般的なエラーの種類をチェックするヘルパー関数を提供する
+[Class]関数の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非増分パイプラインのより多くのテスト カバレッジ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでレースを修正
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI での断続的なテストの失敗の別のバッチ
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MaxMsgSizeとMaxBlockSizeのでカップリング
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース スクリプトの更新
+[Class]リリースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース スクリプトを更新して、必要な移行をブロックする
+[Class]リリースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース アーティファクト ホスティングの更新
+[Class]リリースの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]毎晩のクラウド プロバイダー統合テスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]S3 クライアントの使用法を標準化/リファクタリングする
+[Class]リファクタリング</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -15007,8 +15293,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2090" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2101" sqref="C2101"/>
+    <sheetView tabSelected="1" topLeftCell="A2144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2151" sqref="C2151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -44767,8 +45053,11 @@
       <c r="B2101" t="s">
         <v>2095</v>
       </c>
+      <c r="C2101" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2101" s="1" t="s">
-        <v>2369</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2102" spans="1:6" ht="42">
@@ -44778,8 +45067,11 @@
       <c r="B2102" t="s">
         <v>2096</v>
       </c>
+      <c r="C2102" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2102" s="1" t="s">
-        <v>2369</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="2103" spans="1:6" ht="42">
@@ -44789,8 +45081,14 @@
       <c r="B2103" t="s">
         <v>2097</v>
       </c>
+      <c r="C2103" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E2103" s="2" t="s">
+        <v>3492</v>
+      </c>
       <c r="F2103" s="1" t="s">
-        <v>2369</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="2104" spans="1:6" ht="42">
@@ -44800,8 +45098,11 @@
       <c r="B2104" t="s">
         <v>2098</v>
       </c>
+      <c r="C2104" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2104" s="1" t="s">
-        <v>2369</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2105" spans="1:6" ht="42">
@@ -44811,8 +45112,11 @@
       <c r="B2105" t="s">
         <v>2099</v>
       </c>
+      <c r="C2105" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2105" s="1" t="s">
-        <v>2369</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="2106" spans="1:6" ht="42">
@@ -44822,8 +45126,14 @@
       <c r="B2106" t="s">
         <v>2100</v>
       </c>
+      <c r="C2106" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E2106" s="2" t="s">
+        <v>3496</v>
+      </c>
       <c r="F2106" s="1" t="s">
-        <v>2369</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="2107" spans="1:6" ht="42">
@@ -44833,19 +45143,25 @@
       <c r="B2107" t="s">
         <v>2101</v>
       </c>
+      <c r="C2107" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2107" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:6" ht="42">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:6" ht="63">
       <c r="A2108">
         <v>2215</v>
       </c>
       <c r="B2108" t="s">
         <v>2102</v>
       </c>
+      <c r="C2108" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2108" s="1" t="s">
-        <v>2369</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="2109" spans="1:6" ht="42">
@@ -44855,8 +45171,11 @@
       <c r="B2109" t="s">
         <v>2103</v>
       </c>
+      <c r="C2109" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2109" s="1" t="s">
-        <v>2369</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2110" spans="1:6" ht="42">
@@ -44866,8 +45185,11 @@
       <c r="B2110" t="s">
         <v>2104</v>
       </c>
+      <c r="C2110" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2110" s="1" t="s">
-        <v>2369</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="2111" spans="1:6" ht="42">
@@ -44877,8 +45199,11 @@
       <c r="B2111" t="s">
         <v>2105</v>
       </c>
+      <c r="C2111" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2111" s="1" t="s">
-        <v>2369</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2112" spans="1:6" ht="42">
@@ -44888,8 +45213,11 @@
       <c r="B2112" t="s">
         <v>2106</v>
       </c>
+      <c r="C2112" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2112" s="1" t="s">
-        <v>2369</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="2113" spans="1:6" ht="42">
@@ -44899,8 +45227,11 @@
       <c r="B2113" t="s">
         <v>2107</v>
       </c>
+      <c r="C2113" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2113" s="1" t="s">
-        <v>2369</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2114" spans="1:6" ht="42">
@@ -44910,8 +45241,11 @@
       <c r="B2114" t="s">
         <v>2108</v>
       </c>
+      <c r="C2114" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2114" s="1" t="s">
-        <v>2369</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="2115" spans="1:6" ht="42">
@@ -44921,8 +45255,11 @@
       <c r="B2115" t="s">
         <v>2109</v>
       </c>
+      <c r="C2115" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2115" s="1" t="s">
-        <v>2369</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2116" spans="1:6" ht="42">
@@ -44932,8 +45269,11 @@
       <c r="B2116" t="s">
         <v>2110</v>
       </c>
+      <c r="C2116" t="s">
+        <v>2388</v>
+      </c>
       <c r="F2116" s="1" t="s">
-        <v>2369</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="2117" spans="1:6" ht="42">
@@ -44943,8 +45283,11 @@
       <c r="B2117" t="s">
         <v>2111</v>
       </c>
+      <c r="C2117" t="s">
+        <v>2388</v>
+      </c>
       <c r="F2117" s="1" t="s">
-        <v>2369</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="2118" spans="1:6" ht="42">
@@ -44954,8 +45297,11 @@
       <c r="B2118" t="s">
         <v>2112</v>
       </c>
+      <c r="C2118" t="s">
+        <v>2404</v>
+      </c>
       <c r="F2118" s="1" t="s">
-        <v>2369</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="2119" spans="1:6" ht="42">
@@ -44965,8 +45311,11 @@
       <c r="B2119" t="s">
         <v>2113</v>
       </c>
+      <c r="C2119" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2119" s="1" t="s">
-        <v>2369</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2120" spans="1:6" ht="42">
@@ -44976,8 +45325,11 @@
       <c r="B2120" t="s">
         <v>2114</v>
       </c>
+      <c r="C2120" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2120" s="1" t="s">
-        <v>2369</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2121" spans="1:6" ht="42">
@@ -44987,8 +45339,11 @@
       <c r="B2121" t="s">
         <v>2115</v>
       </c>
+      <c r="C2121" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2121" s="1" t="s">
-        <v>2369</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2122" spans="1:6" ht="42">
@@ -44998,8 +45353,11 @@
       <c r="B2122" t="s">
         <v>2116</v>
       </c>
+      <c r="C2122" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2122" s="1" t="s">
-        <v>2369</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="2123" spans="1:6" ht="42">
@@ -45009,8 +45367,11 @@
       <c r="B2123" t="s">
         <v>2117</v>
       </c>
+      <c r="C2123" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2123" s="1" t="s">
-        <v>2369</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2124" spans="1:6" ht="42">
@@ -45020,8 +45381,11 @@
       <c r="B2124" t="s">
         <v>2118</v>
       </c>
+      <c r="C2124" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2124" s="1" t="s">
-        <v>2369</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="2125" spans="1:6" ht="42">
@@ -45031,8 +45395,11 @@
       <c r="B2125" t="s">
         <v>2119</v>
       </c>
+      <c r="C2125" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2125" s="1" t="s">
-        <v>2369</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2126" spans="1:6" ht="42">
@@ -45042,8 +45409,11 @@
       <c r="B2126" t="s">
         <v>2120</v>
       </c>
+      <c r="C2126" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2126" s="1" t="s">
-        <v>2369</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="2127" spans="1:6" ht="42">
@@ -45053,19 +45423,25 @@
       <c r="B2127" t="s">
         <v>2121</v>
       </c>
+      <c r="C2127" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2127" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:6" ht="42">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:6" ht="63">
       <c r="A2128">
         <v>837</v>
       </c>
       <c r="B2128" t="s">
         <v>2122</v>
       </c>
+      <c r="C2128" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2128" s="1" t="s">
-        <v>2369</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="2129" spans="1:6" ht="42">
@@ -45075,8 +45451,11 @@
       <c r="B2129" t="s">
         <v>2123</v>
       </c>
+      <c r="C2129" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2129" s="1" t="s">
-        <v>2369</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="2130" spans="1:6" ht="42">
@@ -45086,8 +45465,11 @@
       <c r="B2130" t="s">
         <v>2124</v>
       </c>
+      <c r="C2130" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2130" s="1" t="s">
-        <v>2369</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="2131" spans="1:6" ht="42">
@@ -45097,8 +45479,11 @@
       <c r="B2131" t="s">
         <v>2125</v>
       </c>
+      <c r="C2131" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2131" s="1" t="s">
-        <v>2369</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2132" spans="1:6" ht="42">
@@ -45108,8 +45493,11 @@
       <c r="B2132" t="s">
         <v>2126</v>
       </c>
+      <c r="C2132" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2132" s="1" t="s">
-        <v>2369</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="2133" spans="1:6" ht="42">
@@ -45119,8 +45507,11 @@
       <c r="B2133" t="s">
         <v>2127</v>
       </c>
+      <c r="C2133" t="s">
+        <v>2404</v>
+      </c>
       <c r="F2133" s="1" t="s">
-        <v>2369</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2134" spans="1:6" ht="42">
@@ -45130,8 +45521,11 @@
       <c r="B2134" t="s">
         <v>2128</v>
       </c>
+      <c r="C2134" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2134" s="1" t="s">
-        <v>2369</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="2135" spans="1:6" ht="42">
@@ -45141,8 +45535,14 @@
       <c r="B2135" t="s">
         <v>2129</v>
       </c>
+      <c r="C2135" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E2135" s="2" t="s">
+        <v>3526</v>
+      </c>
       <c r="F2135" s="1" t="s">
-        <v>2369</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2136" spans="1:6" ht="42">
@@ -45152,19 +45552,25 @@
       <c r="B2136" t="s">
         <v>2130</v>
       </c>
+      <c r="C2136" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2136" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2137" spans="1:6" ht="42">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:6" ht="63">
       <c r="A2137">
         <v>1049</v>
       </c>
       <c r="B2137" t="s">
         <v>2131</v>
       </c>
+      <c r="C2137" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2137" s="1" t="s">
-        <v>2369</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="2138" spans="1:6" ht="42">
@@ -45174,8 +45580,11 @@
       <c r="B2138" t="s">
         <v>2132</v>
       </c>
+      <c r="C2138" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2138" s="1" t="s">
-        <v>2369</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2139" spans="1:6" ht="42">
@@ -45185,8 +45594,11 @@
       <c r="B2139" t="s">
         <v>2133</v>
       </c>
+      <c r="C2139" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2139" s="1" t="s">
-        <v>2369</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="2140" spans="1:6" ht="42">
@@ -45196,8 +45608,11 @@
       <c r="B2140" t="s">
         <v>2134</v>
       </c>
+      <c r="C2140" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2140" s="1" t="s">
-        <v>2369</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2141" spans="1:6" ht="42">
@@ -45207,8 +45622,11 @@
       <c r="B2141" t="s">
         <v>2135</v>
       </c>
+      <c r="C2141" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2141" s="1" t="s">
-        <v>2369</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="2142" spans="1:6" ht="42">
@@ -45218,8 +45636,11 @@
       <c r="B2142" t="s">
         <v>2136</v>
       </c>
+      <c r="C2142" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2142" s="1" t="s">
-        <v>2369</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="2143" spans="1:6" ht="42">
@@ -45229,8 +45650,11 @@
       <c r="B2143" t="s">
         <v>2137</v>
       </c>
+      <c r="C2143" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2143" s="1" t="s">
-        <v>2369</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2144" spans="1:6" ht="42">
@@ -45240,8 +45664,11 @@
       <c r="B2144" t="s">
         <v>2138</v>
       </c>
+      <c r="C2144" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2144" s="1" t="s">
-        <v>2369</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="2145" spans="1:6" ht="42">
@@ -45251,8 +45678,11 @@
       <c r="B2145" t="s">
         <v>2139</v>
       </c>
+      <c r="C2145" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2145" s="1" t="s">
-        <v>2369</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2146" spans="1:6" ht="42">
@@ -45262,8 +45692,11 @@
       <c r="B2146" t="s">
         <v>2140</v>
       </c>
+      <c r="C2146" t="s">
+        <v>3414</v>
+      </c>
       <c r="F2146" s="1" t="s">
-        <v>2369</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="2147" spans="1:6" ht="42">
@@ -45273,8 +45706,11 @@
       <c r="B2147" t="s">
         <v>2141</v>
       </c>
+      <c r="C2147" t="s">
+        <v>3414</v>
+      </c>
       <c r="F2147" s="1" t="s">
-        <v>2369</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2148" spans="1:6" ht="42">
@@ -45284,8 +45720,11 @@
       <c r="B2148" t="s">
         <v>2142</v>
       </c>
+      <c r="C2148" t="s">
+        <v>3414</v>
+      </c>
       <c r="F2148" s="1" t="s">
-        <v>2369</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="2149" spans="1:6" ht="42">
@@ -45295,8 +45734,11 @@
       <c r="B2149" t="s">
         <v>2143</v>
       </c>
+      <c r="C2149" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2149" s="1" t="s">
-        <v>2369</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="2150" spans="1:6" ht="42">
@@ -45306,8 +45748,11 @@
       <c r="B2150" t="s">
         <v>2144</v>
       </c>
+      <c r="C2150" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2150" s="1" t="s">
-        <v>2369</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="2151" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{517961B2-417B-4C40-A081-F9A19FA50F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{961099B5-7BA5-5A4C-A470-E1C940F799DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7011" uniqueCount="3542">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7062" uniqueCount="3593">
   <si>
     <t>Issue</t>
   </si>
@@ -14319,6 +14319,281 @@
   <si>
     <t>[Content]S3 クライアントの使用法を標準化/リファクタリングする
 [Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リソース リクエストのデフォルトを個別に更新する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベース全体のエラー処理を刷新
+[Class]エラー処理の改善</t>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのリクエストのリクエスト ID
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]1.3 テストの 1.4 への移植を完了する
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AWS スイーパー スクリプト
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュの準備調査を行う
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI の portforward を更新して複数のクラスターのユース ケースを処理する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]1.4.4-HEAD へのアップグレード中にエラーが発生した
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API の一貫性のないタイムスタンプの命名
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ダッシュ画像が CI の一部として存在することをテストする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]retryNotify の使用を標準化する
+[Class]ツールの使用</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nightly suite の不安定なテストに対処する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいアトム/クロス/ユニオン入力を受け取るようにジョブを更新
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make clean-launch-dev はダッシュ サービスを削除しますが、デプロイやポッドは削除しません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AWS CI を更新してクリーンアップする
+[Class]CIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pfs/server/driver.go でのクライアントの初期化が脆弱
+[Class]機能の修正</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI テストにウォッチドッグを追加して、パニックが発生した場合にすぐに失敗するようにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース タスクを更新して互換性ファイルを生成する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トラビスビルドキャッシング
+[Class]テストの改善</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker ビルド キャッシング
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビルドではなくCIテスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルド イメージを縮小し、CI にキャッシュする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードのクリーンアップのために docker ファイルをルートから移動
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GKE を使用してパイプラインを実行する場合、alpha.kubernetes.io/nvidia-gpu が不十分
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI に Travis Build Matrix を使用する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI テスト キャッシングのアップグレード
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ワーカー イメージの一般的なクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]検証をコントローラから pkg/backup、pkg/restore に移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pkg/backup 構造に一致するように pkg/restore をリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testlogger.NewNullLogger を arktest.NewLogger に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされた svc および netpol ショートカット マッピングを削除する
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ワーク キューを使用するように GC コントローラーを変換する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プラグイン インターフェイスのインポート サーフェスを減らす
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッケージのインポート名を標準化する
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make test に引数を渡せるようにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プライベート パッケージの内部パッケージ構造を作成する
+[Class]パッケージの作成</t>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Velero CLI でのすべてのエラー処理を確認する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッチを適用するヘルパー関数を作成する
+[Class]関数の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]server.go で共有インフォーマーファクトリのWaitForCacheSyncを使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI コマンドのテストを追加する
+[Class]テストの追加</t>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バックアップ用にバックアップ ストレージを直接チェックするコードを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネイキッド リターンを削除する
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PodVolumeBackupsをobj ストレージに保存しクラスターに同期する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「ark-schedule」ラベルを適切な名前空間のラベルに置き換え
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]github issue テンプレートから ark 参照を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v1.0: pkg/apis/ark を削除
+[Class]不要なパッケージの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]項目復元アクション プラグイン インターフェイスからwarningを削除
+[Class]不要な警告の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Velero の汎用コントローラーを kubebuilder に置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関連するすべての 1.0 TODO をコードで扱う
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]velero コンテナーのベース イメージを変更する
+[Class]ベースイメージの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]issue-template-gen を docs/ ディレクトリの外に移動
+[Class]ファイルの移動</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -15293,8 +15568,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2151" sqref="C2151"/>
+    <sheetView tabSelected="1" topLeftCell="A2184" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2201" sqref="C2201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -45762,8 +46037,11 @@
       <c r="B2151" t="s">
         <v>2145</v>
       </c>
+      <c r="C2151" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2151" s="1" t="s">
-        <v>2369</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="2152" spans="1:6" ht="42">
@@ -45773,8 +46051,11 @@
       <c r="B2152" t="s">
         <v>2146</v>
       </c>
+      <c r="C2152" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2152" s="1" t="s">
-        <v>2369</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2153" spans="1:6" ht="42">
@@ -45784,8 +46065,11 @@
       <c r="B2153" t="s">
         <v>2147</v>
       </c>
+      <c r="C2153" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2153" s="1" t="s">
-        <v>2369</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="2154" spans="1:6" ht="42">
@@ -45795,8 +46079,11 @@
       <c r="B2154" t="s">
         <v>2148</v>
       </c>
+      <c r="C2154" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2154" s="1" t="s">
-        <v>2369</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2155" spans="1:6" ht="42">
@@ -45806,8 +46093,11 @@
       <c r="B2155" t="s">
         <v>2149</v>
       </c>
+      <c r="C2155" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2155" s="1" t="s">
-        <v>2369</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="2156" spans="1:6" ht="42">
@@ -45817,8 +46107,11 @@
       <c r="B2156" t="s">
         <v>2150</v>
       </c>
+      <c r="C2156" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2156" s="1" t="s">
-        <v>2369</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="2157" spans="1:6" ht="42">
@@ -45828,8 +46121,11 @@
       <c r="B2157" t="s">
         <v>2151</v>
       </c>
+      <c r="C2157" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2157" s="1" t="s">
-        <v>2369</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2158" spans="1:6" ht="42">
@@ -45839,8 +46135,11 @@
       <c r="B2158" t="s">
         <v>2152</v>
       </c>
+      <c r="C2158" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2158" s="1" t="s">
-        <v>2369</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="2159" spans="1:6" ht="42">
@@ -45850,8 +46149,11 @@
       <c r="B2159" t="s">
         <v>2153</v>
       </c>
+      <c r="C2159" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2159" s="1" t="s">
-        <v>2369</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="2160" spans="1:6" ht="42">
@@ -45861,8 +46163,11 @@
       <c r="B2160" t="s">
         <v>2154</v>
       </c>
+      <c r="C2160" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2160" s="1" t="s">
-        <v>2369</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2161" spans="1:6" ht="42">
@@ -45872,8 +46177,11 @@
       <c r="B2161" t="s">
         <v>2155</v>
       </c>
+      <c r="C2161" t="s">
+        <v>2404</v>
+      </c>
       <c r="F2161" s="1" t="s">
-        <v>2369</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="2162" spans="1:6" ht="42">
@@ -45883,8 +46191,11 @@
       <c r="B2162" t="s">
         <v>2156</v>
       </c>
+      <c r="C2162" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2162" s="1" t="s">
-        <v>2369</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2163" spans="1:6" ht="42">
@@ -45894,19 +46205,25 @@
       <c r="B2163" t="s">
         <v>2157</v>
       </c>
+      <c r="C2163" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2163" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2164" spans="1:6" ht="42">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:6" ht="63">
       <c r="A2164">
         <v>2108</v>
       </c>
       <c r="B2164" t="s">
         <v>2158</v>
       </c>
+      <c r="C2164" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2164" s="1" t="s">
-        <v>2369</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="2165" spans="1:6" ht="42">
@@ -45916,8 +46233,11 @@
       <c r="B2165" t="s">
         <v>2159</v>
       </c>
+      <c r="C2165" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2165" s="1" t="s">
-        <v>2369</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="2166" spans="1:6" ht="42">
@@ -45927,19 +46247,25 @@
       <c r="B2166" t="s">
         <v>2160</v>
       </c>
+      <c r="C2166" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2166" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:6" ht="42">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:6" ht="63">
       <c r="A2167">
         <v>2301</v>
       </c>
       <c r="B2167" t="s">
         <v>2161</v>
       </c>
+      <c r="C2167" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2167" s="1" t="s">
-        <v>2369</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="2168" spans="1:6" ht="42">
@@ -45949,8 +46275,11 @@
       <c r="B2168" t="s">
         <v>2162</v>
       </c>
+      <c r="C2168" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2168" s="1" t="s">
-        <v>2369</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="2169" spans="1:6" ht="42">
@@ -45960,8 +46289,11 @@
       <c r="B2169" t="s">
         <v>2163</v>
       </c>
+      <c r="C2169" t="s">
+        <v>2547</v>
+      </c>
       <c r="F2169" s="1" t="s">
-        <v>2369</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="2170" spans="1:6" ht="42">
@@ -45971,8 +46303,14 @@
       <c r="B2170" t="s">
         <v>2164</v>
       </c>
+      <c r="C2170" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E2170" s="2" t="s">
+        <v>3562</v>
+      </c>
       <c r="F2170" s="1" t="s">
-        <v>2369</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="2171" spans="1:6" ht="42">
@@ -45982,8 +46320,11 @@
       <c r="B2171" t="s">
         <v>2165</v>
       </c>
+      <c r="C2171" t="s">
+        <v>2547</v>
+      </c>
       <c r="F2171" s="1" t="s">
-        <v>2369</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="2172" spans="1:6" ht="42">
@@ -45993,19 +46334,25 @@
       <c r="B2172" t="s">
         <v>2166</v>
       </c>
+      <c r="C2172" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2172" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:6" ht="42">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:6" ht="63">
       <c r="A2173">
         <v>2886</v>
       </c>
       <c r="B2173" t="s">
         <v>2167</v>
       </c>
+      <c r="C2173" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2173" s="1" t="s">
-        <v>2369</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="2174" spans="1:6" ht="42">
@@ -46015,8 +46362,11 @@
       <c r="B2174" t="s">
         <v>2168</v>
       </c>
+      <c r="C2174" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2174" s="1" t="s">
-        <v>2369</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2175" spans="1:6" ht="42">
@@ -46026,8 +46376,11 @@
       <c r="B2175" t="s">
         <v>2169</v>
       </c>
+      <c r="C2175" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2175" s="1" t="s">
-        <v>2369</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="2176" spans="1:6" ht="42">
@@ -46037,8 +46390,11 @@
       <c r="B2176" t="s">
         <v>2170</v>
       </c>
+      <c r="C2176" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2176" s="1" t="s">
-        <v>2369</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2177" spans="1:6" ht="42">
@@ -46048,8 +46404,11 @@
       <c r="B2177" t="s">
         <v>2171</v>
       </c>
+      <c r="C2177" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2177" s="1" t="s">
-        <v>2369</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="2178" spans="1:6" ht="42">
@@ -46059,8 +46418,11 @@
       <c r="B2178" t="s">
         <v>2172</v>
       </c>
+      <c r="C2178" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2178" s="1" t="s">
-        <v>2369</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2179" spans="1:6" ht="42">
@@ -46070,19 +46432,25 @@
       <c r="B2179" t="s">
         <v>2173</v>
       </c>
+      <c r="C2179" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2179" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:6" ht="42">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:6" ht="63">
       <c r="A2180">
         <v>276</v>
       </c>
       <c r="B2180" t="s">
         <v>2174</v>
       </c>
+      <c r="C2180" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2180" s="1" t="s">
-        <v>2369</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="2181" spans="1:6" ht="42">
@@ -46092,8 +46460,11 @@
       <c r="B2181" t="s">
         <v>2175</v>
       </c>
+      <c r="C2181" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2181" s="1" t="s">
-        <v>2369</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2182" spans="1:6" ht="42">
@@ -46103,8 +46474,11 @@
       <c r="B2182" t="s">
         <v>2176</v>
       </c>
+      <c r="C2182" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2182" s="1" t="s">
-        <v>2369</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="2183" spans="1:6" ht="42">
@@ -46114,8 +46488,11 @@
       <c r="B2183" t="s">
         <v>2177</v>
       </c>
+      <c r="C2183" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2183" s="1" t="s">
-        <v>2369</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2184" spans="1:6" ht="42">
@@ -46125,8 +46502,11 @@
       <c r="B2184" t="s">
         <v>2178</v>
       </c>
+      <c r="C2184" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2184" s="1" t="s">
-        <v>2369</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2185" spans="1:6" ht="42">
@@ -46136,8 +46516,11 @@
       <c r="B2185" t="s">
         <v>2179</v>
       </c>
+      <c r="C2185" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2185" s="1" t="s">
-        <v>2369</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="2186" spans="1:6" ht="42">
@@ -46147,8 +46530,11 @@
       <c r="B2186" t="s">
         <v>2180</v>
       </c>
+      <c r="C2186" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2186" s="1" t="s">
-        <v>2369</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2187" spans="1:6" ht="42">
@@ -46158,8 +46544,11 @@
       <c r="B2187" t="s">
         <v>2181</v>
       </c>
+      <c r="C2187" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2187" s="1" t="s">
-        <v>2369</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="2188" spans="1:6" ht="42">
@@ -46169,8 +46558,11 @@
       <c r="B2188" t="s">
         <v>2182</v>
       </c>
+      <c r="C2188" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2188" s="1" t="s">
-        <v>2369</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2189" spans="1:6" ht="42">
@@ -46180,8 +46572,11 @@
       <c r="B2189" t="s">
         <v>2183</v>
       </c>
+      <c r="C2189" t="s">
+        <v>2379</v>
+      </c>
       <c r="F2189" s="1" t="s">
-        <v>2369</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="2190" spans="1:6" ht="42">
@@ -46191,8 +46586,11 @@
       <c r="B2190" t="s">
         <v>2184</v>
       </c>
+      <c r="C2190" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2190" s="1" t="s">
-        <v>2369</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2191" spans="1:6" ht="42">
@@ -46202,8 +46600,11 @@
       <c r="B2191" t="s">
         <v>2185</v>
       </c>
+      <c r="C2191" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2191" s="1" t="s">
-        <v>2369</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2192" spans="1:6" ht="42">
@@ -46213,8 +46614,11 @@
       <c r="B2192" t="s">
         <v>2186</v>
       </c>
+      <c r="C2192" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2192" s="1" t="s">
-        <v>2369</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="2193" spans="1:6" ht="42">
@@ -46224,8 +46628,11 @@
       <c r="B2193" t="s">
         <v>2187</v>
       </c>
+      <c r="C2193" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2193" s="1" t="s">
-        <v>2369</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="2194" spans="1:6" ht="42">
@@ -46235,8 +46642,11 @@
       <c r="B2194" t="s">
         <v>2188</v>
       </c>
+      <c r="C2194" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2194" s="1" t="s">
-        <v>2369</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2195" spans="1:6" ht="42">
@@ -46246,8 +46656,11 @@
       <c r="B2195" t="s">
         <v>2189</v>
       </c>
+      <c r="C2195" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2195" s="1" t="s">
-        <v>2369</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="2196" spans="1:6" ht="42">
@@ -46257,8 +46670,11 @@
       <c r="B2196" t="s">
         <v>2190</v>
       </c>
+      <c r="C2196" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2196" s="1" t="s">
-        <v>2369</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="2197" spans="1:6" ht="42">
@@ -46268,8 +46684,11 @@
       <c r="B2197" t="s">
         <v>2191</v>
       </c>
+      <c r="C2197" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2197" s="1" t="s">
-        <v>2369</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="2198" spans="1:6" ht="42">
@@ -46279,8 +46698,11 @@
       <c r="B2198" t="s">
         <v>2192</v>
       </c>
+      <c r="C2198" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2198" s="1" t="s">
-        <v>2369</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2199" spans="1:6" ht="42">
@@ -46290,8 +46712,11 @@
       <c r="B2199" t="s">
         <v>2193</v>
       </c>
+      <c r="C2199" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2199" s="1" t="s">
-        <v>2369</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="2200" spans="1:6" ht="42">
@@ -46301,8 +46726,11 @@
       <c r="B2200" t="s">
         <v>2194</v>
       </c>
+      <c r="C2200" t="s">
+        <v>2370</v>
+      </c>
       <c r="F2200" s="1" t="s">
-        <v>2369</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2201" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91722303-9765-1943-B85E-642DF806146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9305D0E5-5DB6-0D41-9D42-E8012490A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7113" uniqueCount="3643">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7167" uniqueCount="3694">
   <si>
     <t>Issue</t>
   </si>
@@ -14860,6 +14860,272 @@
   <si>
     <t>[Content]データベース コネクタでコンテキストを尊重する
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]restapiをサブパッケージに分割し、アプリ全体の状態の処理を改善
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンテクストを別のマイクロサービスに抽出する
+[Class]仕様の変更</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シヨウノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Janusgraph を 0.3.0 に更新
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース プロセス/docker タグでセマンティック バージョニングを使用する
+[Class]コンテナのタグ付</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gremlin クライアントを GraphSON 3.0 に更新
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ユニオンでフラグメントを使用したクエリが失敗する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成ファイルから環境を削除しファイルごとに構成を 1 つだけ持つ
+[Class]ファイル構成</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PUT /schema/&lt;kind&gt;/&lt;class&gt; および PUT /schema/&lt;kind&gt;/&lt;class&gt;/propertiesは名前またはキーワード以外のオプションを無視する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構成管理に viper の使用を検討する
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]受け入れテストのセットアップをより効率的かつ迅速に
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Go 1.14 にアップグレード
+[Class]言語のアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]schema.ClassName と文字列の一貫性のない使用
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム DB ショートカットのクリーンアップ
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DocID を不変にし、削除フラグを設定し、検索時にフラグ付きエントリを提供しない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての単体テストの実行を容易にする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LocalFilterおよびUnderscorePropertiesメソッドの引数をGetParamsに統合
+[Class]メソッドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kind.Object を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]hnsw パッケージの delete_test.go の不安定なテスト
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]travis.yml をクリーンアップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]spark 固有の集計の残り物をクリーンアップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Metricbeat モジュールの命名の問題を修正
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロセス情報を収集する際のエラー処理を改善する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]x-pack フォルダー内のドキュメントをドキュメントのメイン フォルダーに移動する
+[Class]ファイルの移動</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトですべてのファイルセットでconvert_timezoneオプションを使用可能にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]filebeatのtest_modules.py に構成ファイルを読み取る機能を追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ReporterV2 移行のメタ問題
+[Class]インターフェースの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OS Xで統合テストを実行できない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]metricbeat docker イメージで廃止された debian リポジトリを使用しないようにする
+[Class]イメージの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビートの構築に Debian 7 を使用する代わりに、Debian 8 に移行する
+[Class]OSの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Beats-ci で古い Beat ビルド ジョブをクリーンアップする
+[Class]ビルド（CI）の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tlsClientAuth の Unpack メソッドを変更
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのブランチの asciidoctor で Beats ドキュメントをビルドする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クリーンアップ: テスト ヘルパーを統一する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Beats ドキュメント内の組み込み属性への参照を置き換える
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アンカー/html ファイル名の命名規則を定義する
+[Class]命名規則の定義</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docs フォルダーをサブフォルダーに整理する
+[Class]フォルダの整理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]開発者ツールで Python 3.9 をサポート
+[Class]言語のアップデートへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビートを構築すると古い OS X バージョンに関する警告が表示される
+[Class]言語のアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>go1.16にアップグレードするために必要</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース パイプライン
+[Class]CIビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]kubebuilder テスト ハーネスの削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロバイダー間で共通のコードをリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一貫したコントローラー設計に収束する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]開発者のイテレーションを高速化するためにローカルで実行およびテストするためのドキュメント
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クロスプレーン タイプに Status SubResource を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pkg/controller/gcp/database を新しい Controller 構造/テスト パラダイムに変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいリソースのサポートを追加する方法に関するドキュメントを追加
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのコントローラーから client-go インターフェイス オブジェクトを削除できるかどうかを調査
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]storageリソース要求はdatabaseリソースにマップされる
+[Class]バグの修正</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのクラウド プロバイダーのフェイクを標準化する
+[Class]機能の追加</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラウド プロバイダー全体でクライアントライブラリを標準化することを検討
+[Class]機能の追加</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -15834,8 +16100,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2240" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2251" sqref="C2251"/>
+    <sheetView tabSelected="1" topLeftCell="A2288" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2301" sqref="C2301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -47709,8 +47975,11 @@
       <c r="B2251" t="s">
         <v>2244</v>
       </c>
+      <c r="C2251" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2251" s="1" t="s">
-        <v>2368</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="2252" spans="1:6" ht="42">
@@ -47720,8 +47989,11 @@
       <c r="B2252" t="s">
         <v>2245</v>
       </c>
+      <c r="C2252" t="s">
+        <v>2395</v>
+      </c>
       <c r="F2252" s="1" t="s">
-        <v>2368</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="2253" spans="1:6" ht="42">
@@ -47731,8 +48003,11 @@
       <c r="B2253" t="s">
         <v>2246</v>
       </c>
+      <c r="C2253" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2253" s="1" t="s">
-        <v>2368</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="2254" spans="1:6" ht="42">
@@ -47742,8 +48017,11 @@
       <c r="B2254" t="s">
         <v>2247</v>
       </c>
+      <c r="C2254" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2254" s="1" t="s">
-        <v>2368</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="2255" spans="1:6" ht="42">
@@ -47753,8 +48031,11 @@
       <c r="B2255" t="s">
         <v>2248</v>
       </c>
+      <c r="C2255" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2255" s="1" t="s">
-        <v>2368</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="2256" spans="1:6" ht="42">
@@ -47764,8 +48045,11 @@
       <c r="B2256" t="s">
         <v>2249</v>
       </c>
+      <c r="C2256" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2256" s="1" t="s">
-        <v>2368</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="2257" spans="1:6" ht="42">
@@ -47775,19 +48059,25 @@
       <c r="B2257" t="s">
         <v>2250</v>
       </c>
+      <c r="C2257" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2257" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2258" spans="1:6" ht="42">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:6" ht="84">
       <c r="A2258">
         <v>832</v>
       </c>
       <c r="B2258" t="s">
         <v>2251</v>
       </c>
+      <c r="C2258" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2258" s="1" t="s">
-        <v>2368</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2259" spans="1:6" ht="42">
@@ -47797,8 +48087,11 @@
       <c r="B2259" t="s">
         <v>2252</v>
       </c>
+      <c r="C2259" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2259" s="1" t="s">
-        <v>2368</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="2260" spans="1:6" ht="42">
@@ -47808,8 +48101,11 @@
       <c r="B2260" t="s">
         <v>2253</v>
       </c>
+      <c r="C2260" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2260" s="1" t="s">
-        <v>2368</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2261" spans="1:6" ht="42">
@@ -47819,8 +48115,11 @@
       <c r="B2261" t="s">
         <v>2254</v>
       </c>
+      <c r="C2261" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2261" s="1" t="s">
-        <v>2368</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="2262" spans="1:6" ht="42">
@@ -47830,8 +48129,11 @@
       <c r="B2262" t="s">
         <v>2255</v>
       </c>
+      <c r="C2262" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2262" s="1" t="s">
-        <v>2368</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="2263" spans="1:6" ht="42">
@@ -47841,19 +48143,28 @@
       <c r="B2263" t="s">
         <v>2256</v>
       </c>
+      <c r="C2263" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>2542</v>
+      </c>
       <c r="F2263" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:6" ht="42">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:6" ht="63">
       <c r="A2264">
         <v>1272</v>
       </c>
       <c r="B2264" t="s">
         <v>2257</v>
       </c>
+      <c r="C2264" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2264" s="1" t="s">
-        <v>2368</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2265" spans="1:6" ht="42">
@@ -47863,8 +48174,11 @@
       <c r="B2265" t="s">
         <v>2258</v>
       </c>
+      <c r="C2265" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2265" s="1" t="s">
-        <v>2368</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="2266" spans="1:6" ht="42">
@@ -47874,8 +48188,11 @@
       <c r="B2266" t="s">
         <v>2259</v>
       </c>
+      <c r="C2266" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2266" s="1" t="s">
-        <v>2368</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="2267" spans="1:6" ht="42">
@@ -47885,8 +48202,11 @@
       <c r="B2267" t="s">
         <v>2260</v>
       </c>
+      <c r="C2267" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2267" s="1" t="s">
-        <v>2368</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2268" spans="1:6" ht="42">
@@ -47896,8 +48216,11 @@
       <c r="B2268" t="s">
         <v>2261</v>
       </c>
+      <c r="C2268" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2268" s="1" t="s">
-        <v>2368</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="2269" spans="1:6" ht="42">
@@ -47907,8 +48230,11 @@
       <c r="B2269" t="s">
         <v>2262</v>
       </c>
+      <c r="C2269" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2269" s="1" t="s">
-        <v>2368</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2270" spans="1:6" ht="42">
@@ -47918,8 +48244,11 @@
       <c r="B2270" t="s">
         <v>2263</v>
       </c>
+      <c r="C2270" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2270" s="1" t="s">
-        <v>2368</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="2271" spans="1:6" ht="42">
@@ -47929,8 +48258,11 @@
       <c r="B2271" t="s">
         <v>2264</v>
       </c>
+      <c r="C2271" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2271" s="1" t="s">
-        <v>2368</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="2272" spans="1:6" ht="42">
@@ -47940,30 +48272,39 @@
       <c r="B2272" t="s">
         <v>2265</v>
       </c>
+      <c r="C2272" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2272" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:6" ht="42">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:6" ht="63">
       <c r="A2273">
         <v>9568</v>
       </c>
       <c r="B2273" t="s">
         <v>2266</v>
       </c>
+      <c r="C2273" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2273" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:6" ht="42">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:6" ht="63">
       <c r="A2274">
         <v>9993</v>
       </c>
       <c r="B2274" t="s">
         <v>2267</v>
       </c>
+      <c r="C2274" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2274" s="1" t="s">
-        <v>2368</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="2275" spans="1:6" ht="42">
@@ -47973,8 +48314,14 @@
       <c r="B2275" t="s">
         <v>2268</v>
       </c>
+      <c r="C2275" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2275" s="1" t="s">
-        <v>2368</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="2276" spans="1:6" ht="42">
@@ -47984,8 +48331,11 @@
       <c r="B2276" t="s">
         <v>2269</v>
       </c>
+      <c r="C2276" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2276" s="1" t="s">
-        <v>2368</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="2277" spans="1:6" ht="42">
@@ -47995,19 +48345,25 @@
       <c r="B2277" t="s">
         <v>2270</v>
       </c>
+      <c r="C2277" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2277" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2278" spans="1:6" ht="42">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:6" ht="63">
       <c r="A2278">
         <v>11468</v>
       </c>
       <c r="B2278" t="s">
         <v>2271</v>
       </c>
+      <c r="C2278" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2278" s="1" t="s">
-        <v>2368</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="2279" spans="1:6" ht="42">
@@ -48017,8 +48373,11 @@
       <c r="B2279" t="s">
         <v>2272</v>
       </c>
+      <c r="C2279" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2279" s="1" t="s">
-        <v>2368</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2280" spans="1:6" ht="42">
@@ -48028,8 +48387,14 @@
       <c r="B2280" t="s">
         <v>2273</v>
       </c>
+      <c r="C2280" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2280" s="1" t="s">
-        <v>2368</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="2281" spans="1:6" ht="42">
@@ -48039,8 +48404,11 @@
       <c r="B2281" t="s">
         <v>2274</v>
       </c>
+      <c r="C2281" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2281" s="1" t="s">
-        <v>2368</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="2282" spans="1:6" ht="42">
@@ -48050,8 +48418,11 @@
       <c r="B2282" t="s">
         <v>2275</v>
       </c>
+      <c r="C2282" t="s">
+        <v>2546</v>
+      </c>
       <c r="F2282" s="1" t="s">
-        <v>2368</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="2283" spans="1:6" ht="42">
@@ -48061,8 +48432,11 @@
       <c r="B2283" t="s">
         <v>2276</v>
       </c>
+      <c r="C2283" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2283" s="1" t="s">
-        <v>2368</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="2284" spans="1:6" ht="42">
@@ -48072,8 +48446,11 @@
       <c r="B2284" t="s">
         <v>2277</v>
       </c>
+      <c r="C2284" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2284" s="1" t="s">
-        <v>2368</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="2285" spans="1:6" ht="42">
@@ -48083,8 +48460,11 @@
       <c r="B2285" t="s">
         <v>2278</v>
       </c>
+      <c r="C2285" t="s">
+        <v>2395</v>
+      </c>
       <c r="F2285" s="1" t="s">
-        <v>2368</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="2286" spans="1:6" ht="42">
@@ -48094,8 +48474,11 @@
       <c r="B2286" t="s">
         <v>2279</v>
       </c>
+      <c r="C2286" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2286" s="1" t="s">
-        <v>2368</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="2287" spans="1:6" ht="42">
@@ -48105,8 +48488,11 @@
       <c r="B2287" t="s">
         <v>2280</v>
       </c>
+      <c r="C2287" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2287" s="1" t="s">
-        <v>2368</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="2288" spans="1:6" ht="42">
@@ -48116,8 +48502,14 @@
       <c r="B2288" t="s">
         <v>2281</v>
       </c>
+      <c r="C2288" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E2288" s="2" t="s">
+        <v>3681</v>
+      </c>
       <c r="F2288" s="1" t="s">
-        <v>2368</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2289" spans="1:6" ht="42">
@@ -48127,8 +48519,11 @@
       <c r="B2289" t="s">
         <v>2282</v>
       </c>
+      <c r="C2289" t="s">
+        <v>2546</v>
+      </c>
       <c r="F2289" s="1" t="s">
-        <v>2368</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="2290" spans="1:6" ht="42">
@@ -48138,8 +48533,11 @@
       <c r="B2290" t="s">
         <v>2283</v>
       </c>
+      <c r="C2290" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2290" s="1" t="s">
-        <v>2368</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2291" spans="1:6" ht="42">
@@ -48149,8 +48547,11 @@
       <c r="B2291" t="s">
         <v>2284</v>
       </c>
+      <c r="C2291" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2291" s="1" t="s">
-        <v>2368</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="2292" spans="1:6" ht="42">
@@ -48160,19 +48561,25 @@
       <c r="B2292" t="s">
         <v>2285</v>
       </c>
+      <c r="C2292" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2292" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:6" ht="42">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:6" ht="63">
       <c r="A2293">
         <v>293</v>
       </c>
       <c r="B2293" t="s">
         <v>2286</v>
       </c>
+      <c r="C2293" t="s">
+        <v>2436</v>
+      </c>
       <c r="F2293" s="1" t="s">
-        <v>2368</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="2294" spans="1:6" ht="42">
@@ -48182,19 +48589,25 @@
       <c r="B2294" t="s">
         <v>2287</v>
       </c>
+      <c r="C2294" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2294" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:6" ht="42">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:6" ht="63">
       <c r="A2295">
         <v>299</v>
       </c>
       <c r="B2295" t="s">
         <v>2288</v>
       </c>
+      <c r="C2295" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2295" s="1" t="s">
-        <v>2368</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="2296" spans="1:6" ht="42">
@@ -48204,8 +48617,11 @@
       <c r="B2296" t="s">
         <v>2289</v>
       </c>
+      <c r="C2296" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2296" s="1" t="s">
-        <v>2368</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="2297" spans="1:6" ht="42">
@@ -48215,19 +48631,25 @@
       <c r="B2297" t="s">
         <v>2290</v>
       </c>
+      <c r="C2297" t="s">
+        <v>2436</v>
+      </c>
       <c r="F2297" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:6" ht="42">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:6" ht="63">
       <c r="A2298">
         <v>319</v>
       </c>
       <c r="B2298" t="s">
         <v>2291</v>
       </c>
+      <c r="C2298" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2298" s="1" t="s">
-        <v>2368</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="2299" spans="1:6" ht="42">
@@ -48237,19 +48659,25 @@
       <c r="B2299" t="s">
         <v>2292</v>
       </c>
+      <c r="C2299" t="s">
+        <v>2395</v>
+      </c>
       <c r="F2299" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:6" ht="42">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:6" ht="63">
       <c r="A2300">
         <v>349</v>
       </c>
       <c r="B2300" t="s">
         <v>2293</v>
       </c>
+      <c r="C2300" t="s">
+        <v>2395</v>
+      </c>
       <c r="F2300" s="1" t="s">
-        <v>2368</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="2301" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go_tsuji.xlsx
+++ b/satd_issue_dataset_Go_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9305D0E5-5DB6-0D41-9D42-E8012490A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{054F04B4-E636-9546-95B8-CC1D6476B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7167" uniqueCount="3694">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7220" uniqueCount="3747">
   <si>
     <t>Issue</t>
   </si>
@@ -15126,6 +15126,308 @@
   <si>
     <t>[Content]クラウド プロバイダー全体でクライアントライブラリを標準化することを検討
 [Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロガー名を短くすることを検討
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]controller-runtime &gt;=0.2.0 を実行したら、フォークされた CreateOrUpdate を削除する
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]複雑なワークロード検証 Webhook を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Resource Claim 仕様から「selector」を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]reconcile.Result パターンで標準化する
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pkg/util を分割することを検討
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Resource Claim 仕様フィールドの標準セットを要求する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストの標準 (またはガイドライン) を確立する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]workload.compute.crossplane.io を削除しますか?
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]KubernetesApplication の状態を再確認する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのリソースをリファクタリングして、新しい ConditionedStatus を使用する
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッケージのステータスは観察可能な環境から構築する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]providerRef はリコンサイラー全体で非 nil であると見なされる
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パッケージの解凍形式は、タイプされ明確に定義されている必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gogo protobuf の依存関係を更新する
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stdlib syscall から golang.org/x/sys に移行する
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go-net コンテキストから Go 1.7 コンテキストへ
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make: リワークテスト/ Makefile
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリは ~ 8000 ファイルを超えて拡張されない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go-ipld-node の名前が go-ipld-format に変更された
+[Class]名前の変更への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AddNodeLink と AddNodeLinkClean は同じ機能を持っている
+[Class]重複した機能の削除</t>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ipfs files ls -lはファイルを直接リストするときにハッシュまたはサイズを返さない
+[Class]APIの問題</t>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データ型の参照には 1 種類の変数のみを使用
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インポートの名前を変更しないで
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ipfs files cp: どのファイルが存在しないかを報告する 
+[Class]エラーメッセージの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トリクルビルダーからUnixfsNodeを外す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MFS ルートはノードを DAG に配置する必要はない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイル リストの順序を変更した MFS ディレクトリ リスト
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DAG リーダーの分析
+[Class]名前の変更，リファクタリング</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ナマエノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go-log を更新して ndjson ログを復元する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]go-dnslink に切り替える
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]test_launch_ipfs_daemon と pollEndpoint をより信頼できるようにした
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]zed-testserver をサブコマンドに移行する 
+[Class]テストの移行</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">イコウジ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pb.Validate() への呼び出しを gRPC 検証ミドルウェアに置き換える
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OpenTelemetry コレクターのサポート
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての Go ファイルは revive からの linting をパスする必要がある
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドキュメントの更新も行っているっぽい
+メインはビルドの改善でそれに付随してドキュメントも更新</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">オコナッテイル </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タプルパッケージのパニック関数の前に「Must」を付ける
+[Class]関数の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Postgres データ ドライバーのガベージ コレクション
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]正常性と準備状況を調査するための適切な施設を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ローカル セットアップの Docker の問題
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ローカルでプロジェクトを利用する際のオプションの問題</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">リヨウスルサイノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Datastore Revision() メソッドの名称変更
+[Class]名前の変更</t>
+    <rPh sb="35" eb="39">
+      <t xml:space="preserve">メイショウヘンコウ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">ナマエノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストフレーク: TestCRDBDatastore/TestRevisionFuzzing/fuzzing100ms
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロギング フィールド名はすべて camelCase にする必要がある
+[Class]コードスタイル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CodeStyle</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]致命的なログの代わりに CLI 構成エラーが返されるはず
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]移行エンジンはコンテキストを渡し、タイムアウトを設定できる必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Cobra コマンド実行時のテスト分離を改善
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで HTTP とコマンド スタブの厳密性を課す
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スクリプタビリティ監査
+[Class]ドキュメントの追加</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テンプレートの選択をテスト可能にする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての GraphQL クエリに名前を付ける
+[Class]名前の変更</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -16100,8 +16402,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2288" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2301" sqref="C2301"/>
+    <sheetView tabSelected="1" topLeftCell="A2336" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2351" sqref="C2351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -48687,19 +48989,25 @@
       <c r="B2301" t="s">
         <v>2294</v>
       </c>
+      <c r="C2301" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2301" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2302" spans="1:6" ht="42">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:6" ht="63">
       <c r="A2302">
         <v>426</v>
       </c>
       <c r="B2302" t="s">
         <v>2295</v>
       </c>
+      <c r="C2302" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2302" s="1" t="s">
-        <v>2368</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="2303" spans="1:6" ht="42">
@@ -48709,8 +49017,11 @@
       <c r="B2303" t="s">
         <v>2296</v>
       </c>
+      <c r="C2303" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2303" s="1" t="s">
-        <v>2368</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="2304" spans="1:6" ht="42">
@@ -48720,8 +49031,11 @@
       <c r="B2304" t="s">
         <v>2297</v>
       </c>
+      <c r="C2304" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2304" s="1" t="s">
-        <v>2368</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="2305" spans="1:6" ht="42">
@@ -48731,8 +49045,11 @@
       <c r="B2305" t="s">
         <v>2298</v>
       </c>
+      <c r="C2305" t="s">
+        <v>2436</v>
+      </c>
       <c r="F2305" s="1" t="s">
-        <v>2368</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="2306" spans="1:6" ht="42">
@@ -48742,8 +49059,11 @@
       <c r="B2306" t="s">
         <v>2299</v>
       </c>
+      <c r="C2306" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2306" s="1" t="s">
-        <v>2368</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="2307" spans="1:6" ht="42">
@@ -48753,8 +49073,11 @@
       <c r="B2307" t="s">
         <v>2300</v>
       </c>
+      <c r="C2307" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2307" s="1" t="s">
-        <v>2368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="2308" spans="1:6" ht="42">
@@ -48764,8 +49087,11 @@
       <c r="B2308" t="s">
         <v>2301</v>
       </c>
+      <c r="C2308" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2308" s="1" t="s">
-        <v>2368</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="2309" spans="1:6" ht="42">
@@ -48775,8 +49101,11 @@
       <c r="B2309" t="s">
         <v>2302</v>
       </c>
+      <c r="C2309" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2309" s="1" t="s">
-        <v>2368</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="2310" spans="1:6" ht="42">
@@ -48786,19 +49115,25 @@
       <c r="B2310" t="s">
         <v>2303</v>
       </c>
+      <c r="C2310" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2310" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:6" ht="42">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:6" ht="63">
       <c r="A2311">
         <v>504</v>
       </c>
       <c r="B2311" t="s">
         <v>2304</v>
       </c>
+      <c r="C2311" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2311" s="1" t="s">
-        <v>2368</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="2312" spans="1:6" ht="42">
@@ -48808,8 +49143,11 @@
       <c r="B2312" t="s">
         <v>2305</v>
       </c>
+      <c r="C2312" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2312" s="1" t="s">
-        <v>2368</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="2313" spans="1:6" ht="42">
@@ -48819,8 +49157,11 @@
       <c r="B2313" t="s">
         <v>2306</v>
       </c>
+      <c r="C2313" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2313" s="1" t="s">
-        <v>2368</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="2314" spans="1:6" ht="42">
@@ -48830,8 +49171,11 @@
       <c r="B2314" t="s">
         <v>2307</v>
       </c>
+      <c r="C2314" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2314" s="1" t="s">
-        <v>2368</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="2315" spans="1:6" ht="42">
@@ -48841,8 +49185,11 @@
       <c r="B2315" t="s">
         <v>2308</v>
       </c>
+      <c r="C2315" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2315" s="1" t="s">
-        <v>2368</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="2316" spans="1:6" ht="42">
@@ -48852,8 +49199,11 @@
       <c r="B2316" t="s">
         <v>2309</v>
       </c>
+      <c r="C2316" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2316" s="1" t="s">
-        <v>2368</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="2317" spans="1:6" ht="42">
@@ -48863,8 +49213,11 @@
       <c r="B2317" t="s">
         <v>2310</v>
       </c>
+      <c r="C2317" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2317" s="1" t="s">
-        <v>2368</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="2318" spans="1:6" ht="42">
@@ -48874,8 +49227,11 @@
       <c r="B2318" t="s">
         <v>2311</v>
       </c>
+      <c r="C2318" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2318" s="1" t="s">
-        <v>2368</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="2319" spans="1:6" ht="42">
@@ -48885,8 +49241,11 @@
       <c r="B2319" t="s">
         <v>2312</v>
       </c>
+      <c r="C2319" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2319" s="1" t="s">
-        <v>2368</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="2320" spans="1:6" ht="42">
@@ -48896,8 +49255,11 @@
       <c r="B2320" t="s">
         <v>2313</v>
       </c>
+      <c r="C2320" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2320" s="1" t="s">
-        <v>2368</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="2321" spans="1:6" ht="42">
@@ -48907,19 +49269,25 @@
       <c r="B2321" t="s">
         <v>2314</v>
       </c>
+      <c r="C2321" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2321" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:6" ht="42">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:6" ht="63">
       <c r="A2322">
         <v>5044</v>
       </c>
       <c r="B2322" t="s">
         <v>2315</v>
       </c>
+      <c r="C2322" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2322" s="1" t="s">
-        <v>2368</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="2323" spans="1:6" ht="42">
@@ -48929,8 +49297,11 @@
       <c r="B2323" t="s">
         <v>2316</v>
       </c>
+      <c r="C2323" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2323" s="1" t="s">
-        <v>2368</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="2324" spans="1:6" ht="42">
@@ -48940,8 +49311,11 @@
       <c r="B2324" t="s">
         <v>2317</v>
       </c>
+      <c r="C2324" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2324" s="1" t="s">
-        <v>2368</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="2325" spans="1:6" ht="42">
@@ -48951,8 +49325,11 @@
       <c r="B2325" t="s">
         <v>2318</v>
       </c>
+      <c r="C2325" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2325" s="1" t="s">
-        <v>2368</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="2326" spans="1:6" ht="42">
@@ -48962,8 +49339,11 @@
       <c r="B2326" t="s">
         <v>2319</v>
       </c>
+      <c r="C2326" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2326" s="1" t="s">
-        <v>2368</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="2327" spans="1:6" ht="42">
@@ -48973,8 +49353,11 @@
       <c r="B2327" t="s">
         <v>2320</v>
       </c>
+      <c r="C2327" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2327" s="1" t="s">
-        <v>2368</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="2328" spans="1:6" ht="42">
@@ -48984,8 +49367,11 @@
       <c r="B2328" t="s">
         <v>2321</v>
       </c>
+      <c r="C2328" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2328" s="1" t="s">
-        <v>2368</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="2329" spans="1:6" ht="42">
@@ -48995,8 +49381,11 @@
       <c r="B2329" t="s">
         <v>2322</v>
       </c>
+      <c r="C2329" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2329" s="1" t="s">
-        <v>2368</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="2330" spans="1:6" ht="42">
@@ -49006,8 +49395,11 @@
       <c r="B2330" t="s">
         <v>2323</v>
       </c>
+      <c r="C2330" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2330" s="1" t="s">
-        <v>2368</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="2331" spans="1:6" ht="42">
@@ -49017,8 +49409,11 @@
       <c r="B2331" t="s">
         <v>2324</v>
       </c>
+      <c r="C2331" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2331" s="1" t="s">
-        <v>2368</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="2332" spans="1:6" ht="42">
@@ -49028,8 +49423,11 @@
       <c r="B2332" t="s">
         <v>2325</v>
       </c>
+      <c r="C2332" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2332" s="1" t="s">
-        <v>2368</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="2333" spans="1:6" ht="42">
@@ -49039,8 +49437,11 @@
       <c r="B2333" t="s">
         <v>2326</v>
       </c>
+      <c r="C2333" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2333" s="1" t="s">
-        <v>2368</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="2334" spans="1:6" ht="42">
@@ -49050,8 +49451,11 @@
       <c r="B2334" t="s">
         <v>2327</v>
       </c>
+      <c r="C2334" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2334" s="1" t="s">
-        <v>2368</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="2335" spans="1:6" ht="42">
@@ -49061,8 +49465,11 @@
       <c r="B2335" t="s">
         <v>2328</v>
       </c>
+      <c r="C2335" t="s">
+        <v>2403</v>
+      </c>
       <c r="F2335" s="1" t="s">
-        <v>2368</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="2336" spans="1:6" ht="42">
@@ -49072,8 +49479,17 @@
       <c r="B2336" t="s">
         <v>2329</v>
       </c>
+      <c r="C2336" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E2336" s="2" t="s">
+        <v>3730</v>
+      </c>
       <c r="F2336" s="1" t="s">
-        <v>2368</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="2337" spans="1:6" ht="42">
@@ -49083,8 +49499,11 @@
       <c r="B2337" t="s">
         <v>2330</v>
       </c>
+      <c r="C2337" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2337" s="1" t="s">
-        <v>2368</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="2338" spans="1:6" ht="42">
@@ -49094,8 +49513,11 @@
       <c r="B2338" t="s">
         <v>2331</v>
       </c>
+      <c r="C2338" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2338" s="1" t="s">
-        <v>2368</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="2339" spans="1:6" ht="42">
@@ -49105,8 +49527,11 @@
       <c r="B2339" t="s">
         <v>2332</v>
       </c>
+      <c r="C2339" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2339" s="1" t="s">
-        <v>2368</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="2340" spans="1:6" ht="42">
@@ -49116,8 +49541,14 @@
       <c r="B2340" t="s">
         <v>2333</v>
       </c>
+      <c r="C2340" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E2340" s="2" t="s">
+        <v>3735</v>
+      </c>
       <c r="F2340" s="1" t="s">
-        <v>2368</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="2341" spans="1:6" ht="42">
@@ -49127,8 +49558,11 @@
       <c r="B2341" t="s">
         <v>2334</v>
       </c>
+      <c r="C2341" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2341" s="1" t="s">
-        <v>2368</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="2342" spans="1:6" ht="42">
@@ -49138,8 +49572,11 @@
       <c r="B2342" t="s">
         <v>2335</v>
       </c>
+      <c r="C2342" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2342" s="1" t="s">
-        <v>2368</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="2343" spans="1:6" ht="42">
@@ -49149,8 +49586,11 @@
       <c r="B2343" t="s">
         <v>2336</v>
       </c>
+      <c r="C2343" t="s">
+        <v>3739</v>
+      </c>
       <c r="F2343" s="1" t="s">
-        <v>2368</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="2344" spans="1:6" ht="42">
@@ -49160,8 +49600,11 @@
       <c r="B2344" t="s">
         <v>2337</v>
       </c>
+      <c r="C2344" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2344" s="1" t="s">
-        <v>2368</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="2345" spans="1:6" ht="42">
@@ -49171,8 +49614,11 @@
       <c r="B2345" t="s">
         <v>2338</v>
       </c>
+      <c r="C2345" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2345" s="1" t="s">
-        <v>2368</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="2346" spans="1:6" ht="42">
@@ -49182,8 +49628,11 @@
       <c r="B2346" t="s">
         <v>2339</v>
       </c>
+      <c r="C2346" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2346" s="1" t="s">
-        <v>2368</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="2347" spans="1:6" ht="42">
@@ -49193,8 +49642,11 @@
       <c r="B2347" t="s">
         <v>2340</v>
       </c>
+      <c r="C2347" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2347" s="1" t="s">
-        <v>2368</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="2348" spans="1:6" ht="42">
@@ -49204,8 +49656,11 @@
       <c r="B2348" t="s">
         <v>2341</v>
       </c>
+      <c r="C2348" t="s">
+        <v>2436</v>
+      </c>
       <c r="F2348" s="1" t="s">
-        <v>2368</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="2349" spans="1:6" ht="42">
@@ -49215,8 +49670,11 @@
       <c r="B2349" t="s">
         <v>2342</v>
       </c>
+      <c r="C2349" t="s">
+        <v>2378</v>
+      </c>
       <c r="F2349" s="1" t="s">
-        <v>2368</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2350" spans="1:6" ht="42">
@@ -49226,8 +49684,11 @@
       <c r="B2350" t="s">
         <v>2343</v>
       </c>
+      <c r="C2350" t="s">
+        <v>2369</v>
+      </c>
       <c r="F2350" s="1" t="s">
-        <v>2368</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="2351" spans="1:6" ht="42">
